--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bN8bKqp957QQ7kNvwGjElzg&amp;_nc_oc=AdmgfUkfPe2r0lHpuQWhcsogI1R8lF0mEAZbhohi3XOqdvb9IhfyK71UYZvciF92CtM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=kT-DoCdjSZLGhNGzZNW79Q&amp;oh=00_AfbaJ6JDAkhkDGvwM_x5HDWjbWcAbLSC9J2_j1MP1cGFBw&amp;oe=68DB83FE', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bN8bKqp957QQ7kNvwEd9zwH&amp;_nc_oc=AdkSWg76X3zQRdQGu_yu7SsLdr5tDcWIv9jUKng2rIOpAviJf2t2vdCDqsXyxz9omO0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfZzO5qaxriAYqpxiaOkdR4HYd7xfAnUc9RKFbBl4V8kUg&amp;oe=68DBBC3E', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKWNqQlmgDoQ7kNvwGuXM8S&amp;_nc_oc=AdnyOcEUYFGOSsL_GcxM7_UHciIPWA0k2oVDvlu7gGKpTYrm2GbSqUmCEnpw-tU6If0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=kT-DoCdjSZLGhNGzZNW79Q&amp;oh=00_Afalap_yPbHUD6zi3EM13XFhPpPUo4VkqdUvsioY7UFwcw&amp;oe=68DB82EB', 'profileId': 'pfbid03Yk6ouxJ17u3yL795CtpbFKCJBwz51AWuDCk81GywE3WyTvrDLBfTGJrR5qogEQhl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKWNqQlmgDoQ7kNvwFSaHHT&amp;_nc_oc=Adn4-aPUsw9gdBu7erRAGnc3dxNI8YdjoZRZO-9d0h9cGyLnmEP9cUiyep-vJc1p1OY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfZ816rfzjS4ApzbexhWqQwlf1hC7-4AZ4kA8TuMY_-tPw&amp;oe=68DBBB2B', 'profileId': 'pfbid03Yk6ouxJ17u3yL795CtpbFKCJBwz51AWuDCk81GywE3WyTvrDLBfTGJrR5qogEQhl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fTW19GBpJGMQ7kNvwGCJFAA&amp;_nc_oc=Adm6Ry_U2fkE9r06A27UJ7Gyln8y9cwsFCYs8OxxV8Ly-pe1qAzkwpf-xQCq52GGY2k&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=kT-DoCdjSZLGhNGzZNW79Q&amp;oh=00_AfbIILAiNSWT-1bYppgfZwe7H9W9FPV_6Slo9d-tpA1YTg&amp;oe=68DB6158', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fTW19GBpJGMQ7kNvwE01Fio&amp;_nc_oc=AdmWyeqzQdMharjGkJJXFbZCrLlZzxpcCDlAY9VFCeNzZiXDJ3nf9UC_uI8Y73wfBns&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfYKfc7zUNicbFNUrxJYSF459eMmi6fw__tAW_A80X1Rxg&amp;oe=68DBD1D8', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IGjWqgCFWWIQ7kNvwHXoNG_&amp;_nc_oc=Adk-G1SasEDJ9bwP0s2A633-dqK4gvG_4Xc4NGVxPN_J0urJ5viwjenS8Y9j4hXjWBY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=kT-DoCdjSZLGhNGzZNW79Q&amp;oh=00_AfbqoQ1xLAOWTVloGelY8LvmeDUc0ZgFNplzJNmLarx8Qg&amp;oe=68DB662E', 'profileId': 'pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IGjWqgCFWWIQ7kNvwELBHof&amp;_nc_oc=AdnS9v0-Wdz85CfSf_jpMikKMOnfbJcD8cuUKBtmbhts80K0_Fee5T7m9YMdMKXx8fw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfYYFp4fJoI66ug38mM55PYK5eMmiIEGWgDtwvAHKqcCCQ&amp;oe=68DBD6AE', 'profileId': 'pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VGnayTvXNX4Q7kNvwGdfcGu&amp;_nc_oc=AdlkdfyPhs-xzWoPd4JdDXA4_UFUdza9DZ-CYo7kpnJ1xCZAepPtxR41ozmFWgCaDJI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=kT-DoCdjSZLGhNGzZNW79Q&amp;oh=00_AfYskkABOCCyFGGdmMQOcVwRow4GE_nYv3tSQGwrKwn01A&amp;oe=68DB8317', 'profileId': 'pfbid0G9aUYAe6esYsqfa4bVsYrPnQfCTrRcmkWivm2eLcfXLqbCcGnvcuSsDVHXT6z42il', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VGnayTvXNX4Q7kNvwFK141g&amp;_nc_oc=Adl4903fiMCLvhsbUxtQRAMGvP1PGWl9bXJ-NSymjXvw_oWy-hQU0n6yEykdbzRSNg0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_Afb9SRhPk2OAkhgUBzYRHFlgAB41pD2E97wt8BtEtxjE2w&amp;oe=68DBBB57', 'profileId': 'pfbid0G9aUYAe6esYsqfa4bVsYrPnQfCTrRcmkWivm2eLcfXLqbCcGnvcuSsDVHXT6z42il', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=u385-MAd334Q7kNvwEugi-v&amp;_nc_oc=AdmvoqkrSp0_c5UoN4s1x-ExjZ8i82s6qtiCzRLy65MTFq0RVhpVTAIemHTKF0CUYCs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=kT-DoCdjSZLGhNGzZNW79Q&amp;oh=00_AfY6s8NDT17qi69-tYxzdW6ywfrktxsBTeF_NhI3bBP4sg&amp;oe=68DB82C8', 'profileId': 'pfbid02Nxv9PNEz5fGpfhZ236o2nMtaiCXrae7VdZydWocSCBWcnee9T5Cxh7EsTzvfn7h9l', 'profileName': 'Arteaga Jesus', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=u385-MAd334Q7kNvwEjZPjK&amp;_nc_oc=AdncIlP5WbG09UGa55Z0Kn-qfcl3qD6JAWtmtGTcx9hawwc7-rr9lr5ba9r2-utpsW8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfY9zM3F22pI_YMkezvEr4k1vhj6zPwqX_A-cYyACV57aw&amp;oe=68DBBB08', 'profileId': 'pfbid02Nxv9PNEz5fGpfhZ236o2nMtaiCXrae7VdZydWocSCBWcnee9T5Cxh7EsTzvfn7h9l', 'profileName': 'Arteaga Jesus', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwHI-4kv&amp;_nc_oc=Adne2hjORNplzoV7ruhwesiA_cfsX8PV0f_A4ZlKkhmsHaODEQkOamVzWm9oty927rY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=kT-DoCdjSZLGhNGzZNW79Q&amp;oh=00_AfYXGQGC4YWYS5vLDdKrmfPRhlJ91xpoTs9tm3JmJYQttg&amp;oe=68DB7570', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwGhIeVx&amp;_nc_oc=AdnfPkuxtEkYfh6RYChec2Mzrc03e7T7LTGfW0M47fjdwwp1sW0CRa7sWnmNpKUcgPM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfaBktd754BJa_rVlLDCNGmBP3yhxBRoe_Qkvx6VDpgipA&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=f3wCb5BRYrsQ7kNvwG3Nh0V&amp;_nc_oc=AdmUyhVqxKzxAximTCZuXOMNiVYBPGAFamSaHPdUCAmtLjtAGrZnQRvXo8rSPMXqmxkbl-uBrazwh81SSwGyQbsH&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_AfZmKvQydwVWB-dQQ_edLL4vUqBd92sI0yW5fnt2wa4ejQ&amp;oe=68DB7126', 'profileId': 'pfbid032i9GXHJG1w8SdGE5gxK9PUD8X86o8WsreLztAVuZvFiXwX4tTZfunroiWTZJfXaUl', 'profileName': 'Doris Usma', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=f3wCb5BRYrsQ7kNvwFEmLo7&amp;_nc_oc=AdnPnlnepmzlKDrryDOQwT4jBBo78ZVS9vFUuJ0WJ3qpkwz_qcw0TNdEwWLwXL6lmU1Pck2T0jY7XXM4BgIXCGy_&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfbeAG4xTYfQbn_pa4_HFRcC_ewpKRkwWh9PYaTwiqHwmA&amp;oe=68DBE1A6', 'profileId': 'pfbid032i9GXHJG1w8SdGE5gxK9PUD8X86o8WsreLztAVuZvFiXwX4tTZfunroiWTZJfXaUl', 'profileName': 'Doris Usma', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwHeo9tR&amp;_nc_oc=AdldmiP2nUUP7TNAvZGB-Ihfap25ArEqV85KPaOoYM8ceT8wz_RmyZiD3jqLIJ1XDRPKV2klIL6j4UtLOCek1aQM&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_Afa89GoGl11eWPydSVP3VO1_J9Hr1aajTKp9yWVNB1gQww&amp;oe=68DB83DE'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwHeo9tR&amp;_nc_oc=AdldmiP2nUUP7TNAvZGB-Ihfap25ArEqV85KPaOoYM8ceT8wz_RmyZiD3jqLIJ1XDRPKV2klIL6j4UtLOCek1aQM&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_Afa0Bm_OjY-d11KQ0hA86daZJUgUpp40xV-ihv_IJU48yw&amp;oe=68DB83DE', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwH3-stM&amp;_nc_oc=Adk2ZzyrJpYEQi4tcBcupg65orAAG5W33gt2jPhZ5gRRcSUCEosx5uC_QdDDuCJvODoqFenX8aI9_gD3xbY8gzG6&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_AfYvjSl-LcN2QtwOg1CFM7i0uZk5f6sOWOaEE1_3BThF3Q&amp;oe=68DB7570', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwG5SjGv&amp;_nc_oc=Adl8IgWzPMGKY88SzVYMvId4kuZCKv-U_Q3NHDzzIDZ1DU7t0BtKGdCCohjlvwhZItJLQl-SHE3YjOmaF79qIqhY&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_Afb1shzS2F9ztj9BQ7TRw2EJ1QPuwhLFy_HPKBTfVY6xBw&amp;oe=68DBBC1E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwG5SjGv&amp;_nc_oc=Adl8IgWzPMGKY88SzVYMvId4kuZCKv-U_Q3NHDzzIDZ1DU7t0BtKGdCCohjlvwhZItJLQl-SHE3YjOmaF79qIqhY&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_Afa3q9HJav2eed8WVWBRCEEmR_Off9T_b0eMRpNJENd3pg&amp;oe=68DBBC1E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwFBrvrn&amp;_nc_oc=AdkfKRKUU1SGxFewInmu67g-zY4fIuPu0XQ411r4UjtiVTiDynqywp66ORStq0NY_Zyofd44f4aV1q1REbXIxP37&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfY4dNOi_yzBYc1HiuaQcr-qWvUA5koTckWG2JO0qEsuyA&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwER_lce&amp;_nc_oc=Adkm2hfHdrXwBF10Z6o_xIW8FWbLdCOd2CM_ntTO_0PpDJphmvlwcGJlghn90g0GWtMZrsZ8NK5SLiYsnB63bLwL&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfYzdMcYZFmmRO0mXNQgbqZaHXGaQxn4iGRW-QgAqD5_hg&amp;oe=68FD00BA', 'profileId': 'pfbid029E7vShhJhFcZ7B6ed215m84ehPZ7KEA6Yvv8bb2PFrfqfvHxRBC9EuVRXhaiCYRRl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGp9d3R&amp;_nc_oc=AdkvTlKxA9eHIQFE1gfOddOQ0nIbR_xUM-UCQLensB_00UKfyCLMSPR-Veec6eWGVm2otIz2BPPpYlXVI14RsmZf&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afao2G-fRDSzVJaXNRyEfuPt60w410C9nxkGjw1Hr_8m4w&amp;oe=68FD713A', 'profileId': 'pfbid05gUjXY4wqyz8WG1XpVudBvptMJzoqZRcLLhRHd7x9SsNWwPsJWph5b2qSNxffnvfl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tjT0A9tGBXIQ7kNvwGwi0Hb&amp;_nc_oc=Admw970t2Plrv5yT5CDBcWWKbimB4zvbCuObFWq4mMLcc4Zt02QDk6f5DvjVcewreuRyXxIip6137Ny05hTA152_&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_Afb6FXBM7JItd6QW-RLTjkAyJ8h6DI0yz-AGDOhZmlm7SA&amp;oe=68DB687D', 'profileId': 'pfbid0vFt57ximvcmUJR9Bjm1CaKUwcEtGnPAtPn8v3rqTxDdLiPNianD77C9nV1fozFFLl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tjT0A9tGBXIQ7kNvwFPi3mA&amp;_nc_oc=Adlg0Ak5quhXe10SxIZbAhzgr888XAk-IuyCamcYo6S7IP8AjrAE6LI4SZb2xxs2Lw-SW2jkHsNXNG7CWSiMTMCk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfatlJuLWJKoSFDFEzDE9vTo-TwgjyzX1KX39nVRy_mEvA&amp;oe=68DBD8FD', 'profileId': 'pfbid0vFt57ximvcmUJR9Bjm1CaKUwcEtGnPAtPn8v3rqTxDdLiPNianD77C9nV1fozFFLl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwER_lce&amp;_nc_oc=Adkm2hfHdrXwBF10Z6o_xIW8FWbLdCOd2CM_ntTO_0PpDJphmvlwcGJlghn90g0GWtMZrsZ8NK5SLiYsnB63bLwL&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfYzdMcYZFmmRO0mXNQgbqZaHXGaQxn4iGRW-QgAqD5_hg&amp;oe=68FD00BA', 'profileId': 'pfbid02CqoZRpnbAcmzVT7NmASkA5kSfRAB8o32YpxkMgAvc9UwEA3KXs9ysKVPL5uoki84l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGp9d3R&amp;_nc_oc=AdkvTlKxA9eHIQFE1gfOddOQ0nIbR_xUM-UCQLensB_00UKfyCLMSPR-Veec6eWGVm2otIz2BPPpYlXVI14RsmZf&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afao2G-fRDSzVJaXNRyEfuPt60w410C9nxkGjw1Hr_8m4w&amp;oe=68FD713A', 'profileId': 'pfbid02CqoZRpnbAcmzVT7NmASkA5kSfRAB8o32YpxkMgAvc9UwEA3KXs9ysKVPL5uoki84l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sK1PCORYXLAQ7kNvwHMYAPw&amp;_nc_oc=AdmIhvD_B1PuB506W97VGAAmXFh76Iswu86rBSKJwGxBbqLYd2mgBl5H2B1J2yIts-TocDPMfdpCTnKhLAhnO6-v&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_AfbF_jIgF5oM5x70hvu1FOihV-EP7crEf5CHQfbyrH6ERg&amp;oe=68DB8F8B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sK1PCORYXLAQ7kNvwENxVpw&amp;_nc_oc=AdlUm1E9CPQxWhn25bONXCvsClOB_cICL57b4ZEsNPhYpFtckc2YFZa7x9ulPPiFuNJw13LxHjtanb9-1b5iT9ls&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfaQlohlv_neXjdHAkDz4njgFSiYqLjhQaJkdx3hRTtq_w&amp;oe=68DBC7CB', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8yZ8Y--IHsQ7kNvwEGIBCR&amp;_nc_oc=AdnFs5OVWUq98EWA4ALkaZuSHmKOvH8VYK9B2zEtM__b-TDDQfxg9s57wWFcfMR0zyx2EM7uRTbZyCnILp1qFrYO&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_AfZRY8mSYjW8N4anzPNc99ooMnRMu965TS83eG_ISgumtw&amp;oe=68DB8978', 'profileId': 'pfbid02cPUZQBkJRhdTbnxo855hixLSiKs2C5jZ8DZyUShwwXJQseSTJ6cJWZ6yGbZjxpQgl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8yZ8Y--IHsQ7kNvwF90zom&amp;_nc_oc=Adm4OJWlAQsNm8LLPzc-H3lyo8jqGp-wBLObL4s5P8b_lKfLKiLlTwZB4XKcN_nKYn-Hu9HB27aE_h99E0UHK-65&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfboslFCWwT5lcXQkvycxim5YkOCdEYMY1fURsqwLA7j9A&amp;oe=68DBC1B8', 'profileId': 'pfbid02cPUZQBkJRhdTbnxo855hixLSiKs2C5jZ8DZyUShwwXJQseSTJ6cJWZ6yGbZjxpQgl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/487762922_122183889584277994_7390978414495464071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g5mH2S-1tMEQ7kNvwHAChio&amp;_nc_oc=AdnRewZ7f57mub59FNzNaL8B7KjEhilRRDt0cZkCM0Lm9SSoBO1pimjOlk_My74ypzbbifDZwAUkg2AU0wgowuoH&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_AfbiHsYRyfz03jYihGSTRGIwmKkC1qBegfbiW_dOzElXyw&amp;oe=68DB7044', 'profileId': 'pfbid0RDCuycBNtzbzUJAD1UkN7JoyYnQ47fhebUhZdjeCCmfrAWRmcLf7NQ5YtmLsy9mjl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/487762922_122183889584277994_7390978414495464071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g5mH2S-1tMEQ7kNvwHFXDC6&amp;_nc_oc=AdlePNtdQRHkJBxhJvGPvAlCMeEU7OIh9wUJMKQCIwhqChqC6o26LTOhiXd5DBDtvudeuz0T9HOP8FLC1Uf1DKFn&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfYhVEgzgaiayJ1i2xsh-1j-WF7XvAevpsxH9DeuJRyFmg&amp;oe=68DBE0C4', 'profileId': 'pfbid0RDCuycBNtzbzUJAD1UkN7JoyYnQ47fhebUhZdjeCCmfrAWRmcLf7NQ5YtmLsy9mjl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LfUMkpAN2wEQ7kNvwGfL2rj&amp;_nc_oc=AdntkwI_cl9b7kjSOGLquEknUJrs8WGqyjYKYNDAiJoDXPUtGSg2Sx0_4b4dIYXpajAvaMdYkUFoNqnQgvSn4sPS&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_AfbQQHtRuTSpmINczk5u0zwSsO56yWF8yrTwFJaKz57qSg&amp;oe=68DB70D4', 'profileId': 'pfbid02tbLZpLzjyZHyW7R37rpxgWyXgPkpdEpeKsLKuAp4ZqC6xEFaGvPs5JAAvss3j6xcl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LfUMkpAN2wEQ7kNvwEdDieU&amp;_nc_oc=Adk-RVeQ2FMgq92mNYy6N29-Io7ptgI_RtqDhgG9SPynEOUsIew-W5TXSXllIzAApY6dIPhQbPc3dEAwhtOCPS9u&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfaKz-kj8o5g59jy5GQHe0uhF1SaVvUd__81mfSkPx5PZg&amp;oe=68DBE154', 'profileId': 'pfbid0q3hNuBNP8PJZZbqhDXHxwwhJPsVv8fbshoU3WgErw6kn47gUWhYFUcJHVEhZc4abl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eElyCgIW5EoQ7kNvwGaotp7&amp;_nc_oc=AdnaYs9zjK1RrGagYlyaYdVe5j0AhRwAgTQYp6KLJV9geEAVQxtp7UP_oqhoUsAUTK3oDQE3ZdV43NXTAtGkwogB&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=irPcC5eHxC-J3GqQUHkXtA&amp;oh=00_AfZPkePdSr7X8cqfMwez9fNqcqhBQdC28m4kvG4DJjVvAA&amp;oe=68DB92F7', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eElyCgIW5EoQ7kNvwFoeGlE&amp;_nc_oc=AdmFTKT0fOsOXoU5WvMZpiZfWSorlAuY_ZuVLH0waIQLAcQ4uMPEmALF78RglCQ5SnG13Wifzf3OaKDMIPRKROtz&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfY3I_FuBSRQ1ksEldrHaDGj-QT3WTKhXK_EBP9ens7DqA&amp;oe=68DBCB37', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Mc6IbZXiqQQ7kNvwFKKNMj&amp;_nc_oc=Adn22rd8eIKrkuAjamXixT0sC89N8ksJA5N98gQ7Fjl4Wx0UlhyVugTVaeM4B7oeH18&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfZluy8p-vJGw1w4B2RAqODLi19doD8i4pGPbaWsUraJeQ&amp;oe=68DB6945', 'profileId': 'pfbid06wsJmjFVi6fcEDqkpB5cftoF5nZPmvCq51RVcFkRPZkZoUtMWS8Ci7h8QbBfucjfl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Mc6IbZXiqQQ7kNvwGVGTTF&amp;_nc_oc=Adnd_Aa12Vyp3-TtZbJoR6Y7HRqOIp4qCVakW8hJKfcEXbeg6rU3akCZpMI6hcaw1z1T3pFoZnZqPy2l5BbSshJZ&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfbwC09dEL7BnMAXOb8K1yukda4Zd4bBUl1Jj5jBTRywdg&amp;oe=68DBD9C5', 'profileId': 'pfbid06wsJmjFVi6fcEDqkpB5cftoF5nZPmvCq51RVcFkRPZkZoUtMWS8Ci7h8QbBfucjfl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aXwUGs3_r0YQ7kNvwGM5Lwl&amp;_nc_oc=AdmFnF2MF6c5Y4tOKOa4u_obsAvvwgnpAJPgM4L1f12SOeKyLyjfFI3d77aoKnNfZ6w&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfaVX7wgQhmIxECeRNMPACnZ1K34tmFmTCq0K2Ya1yLzbw&amp;oe=68DB767C', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aXwUGs3_r0YQ7kNvwEOOhJg&amp;_nc_oc=AdnvvPtQI5oo0mUUZi015-rNAoyNYCtcI8NmuBxDZvxdnAghTbFazEGDqIDM1CNf5glzEhk2WCnb8FTgtPBudwdA&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfZ9zCzOmYxu7OnbcwRl5IuTLYS2-sFOMgH1u0lGNutuig&amp;oe=68DBE6FC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XX3uptXIesgQ7kNvwHx9gaV&amp;_nc_oc=Adm8tzTUvrydTS_GyidA6BL3n_CuFggrVayk7dEvQE-BIQQ6IETsZ7j1_4D6DtZkqZQ&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfY18l5K-9ydgwB6-cEwJDWlmb-8ucF6Y9LBw1-ygw_L7A&amp;oe=68DB619E', 'profileId': 'pfbid02rEiVvopgawGTzYtFTUA6d4WLvTKLPqq6akBMHZHfrSXu6k1swmKYo1qhXZZApqGkl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XX3uptXIesgQ7kNvwF6Cyep&amp;_nc_oc=AdkwrUm_RzIF7zRPUE49EYTET1BdKNGINbsF3uboFsjoIvU76-gu0cmEMpdMN3b-9vCy8WgQYfqybGzqgpzY3KbJ&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_Afbk00bGY1W9RFKcmdSU5nZvm1VqVxDtl3pWoufAlBaZ3A&amp;oe=68DBD21E', 'profileId': 'pfbid0nh5K1eCKje4vD69ibTiVDseeYfW332vbDEPj53J1qk99hwWcxKFXs7dRqEbSVvkul', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKa-lEw9abQQ7kNvwFaeJi5&amp;_nc_oc=Adlio9Kv_R6X8X0mqiDt4mR3_FN8StkJlL83opuECba2l1xtc6xfm2qDnTalmICvslI&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfbeXfHnGbYFxz00uKSfIaHYOE2193hqE9MOyHSkm36PQA&amp;oe=68DB7AF8', 'profileId': 'pfbid0b8CP1RDgvNYftCbsJew69pr3E79scNWTMfyEhZSXHmkRGCgJAFzoJD9D9wryfHtSl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKa-lEw9abQQ7kNvwH11sU9&amp;_nc_oc=Adk6e_ZgcVQhrITHKFAyynxnGu3YEuyuMvCgqET2ab5q_OAzd9XPtFm07_nZ7_hl8knygi4gADHRk6nnOq2ojsiV&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfY8BGbZ1pfATFi6zh0fk2P1aQoPBrGxKaFYDIxBp2AhaQ&amp;oe=68DBB338', 'profileId': 'pfbid0b8CP1RDgvNYftCbsJew69pr3E79scNWTMfyEhZSXHmkRGCgJAFzoJD9D9wryfHtSl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qeMbd3UYnssQ7kNvwGNJ3o7&amp;_nc_oc=AdnSSNwFF-NuP14iyQxOvD7OyKiCMjoUDWcSFPfvZvDd37QsPYKKFcoamMS6nekE2JU&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfZZVfukt6p8yLerOsQcybrjt99nGOMw1fxJ6CX9sEMNEg&amp;oe=68DB6F7D', 'profileId': 'pfbid027cCYfeGE8taedPk6PVyiT6Kc2M68XSEBdoGvqBqqmYBP8MaYgVHYxNmZMHFuuMZzl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qeMbd3UYnssQ7kNvwFOPa2f&amp;_nc_oc=AdkUaze50eESs6cLdwEgbIsr_uOJqGOxefH55KfzNk84pdWG8MLt2Cm92AmHJZAFn3Yqa0tdnMVy4Q0pAR8GhaH4&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfZdlURc6SL7Ena1ePfqulO9tghcHiw9Rngw9oSpZGDEiQ&amp;oe=68DBDFFD', 'profileId': 'pfbid027cCYfeGE8taedPk6PVyiT6Kc2M68XSEBdoGvqBqqmYBP8MaYgVHYxNmZMHFuuMZzl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1814,18 +1814,18 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman</t>
+          <t>Pensé que era una publicidad delos Simpson</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45921.17625</v>
+        <v>45926.03251157407</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45921</v>
+        <v>45926</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>04:13:48</t>
+          <t>00:46:49</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1842,7 +1842,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qXSDOGkIHMIQ7kNvwF0JkpD&amp;_nc_oc=AdmcGZ6rC3_invIrL3k5DC5_n68S6GLExmPqqkFudln2ADmIBVU_BDWMnvW-vbAPfO4&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfZaI5Ffe53uYN7HO-mjIrmHHvdzyTTiLiVi-0atjD7q2g&amp;oe=68DB83D9', 'profileId': 'pfbid0HewpnJRoMEeqArVtEKHv53wnNA5v65HfV69myeSTU6CefpAJtJgnqRZ879sHVLxel', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fRfHY_3aUEYQ7kNvwFV7Wtf&amp;_nc_oc=AdkU5yQkGlUnCabahY7SCbwDk3_ItwmHhDXIzR79tfSzVBsonOzRtJO_CkoNtujWymL5R3pHAPf6dDjxpZJa8Pim&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfYDgSVYDOGFMUEJT1UqQjzYzLHxbOeRSToaFHylW271hA&amp;oe=68DBE080', 'profileId': 'pfbid0FQsnRgu7pdGfmVRfRc8NC6Eo8jUrFX571JWV2KE6onWZEq4WzoJDkP9eCKbawF5Hl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1868,23 +1868,23 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>En cartagena donde se pueden cambiar los logos?</t>
+          <t>Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45919.50665509259</v>
+        <v>45921.17625</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45919</v>
+        <v>45921</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12:09:35</t>
+          <t>04:13:48</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1896,7 +1896,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwGMiasI&amp;_nc_oc=AdlWqDz9UzvMcrfgVmZwvrQrEb0fjo_WAO6g16oPNl5vMBOgMwk2PVR5GfAgs56Zypk&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfamipCqjddUTFGKQGBZG1nUy9WBwnKEiW8EBrs902D7OA&amp;oe=68DB7570', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qXSDOGkIHMIQ7kNvwH3oX5M&amp;_nc_oc=AdmXbpus7VmshtGeT81lF3Wb3N9jVZegT2_0q5aeIH4XckYABVFvOX8UqgsUc9acIo-iFnfcEZumPqTaQtMA4O-b&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfZWbKlwiHzmxApCFRyz8pLIw-3O9659dp8gIbf9dloYDQ&amp;oe=68DBBC19', 'profileId': 'pfbid0HewpnJRoMEeqArVtEKHv53wnNA5v65HfV69myeSTU6CefpAJtJgnqRZ879sHVLxel', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1922,23 +1922,23 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander</t>
+          <t>En cartagena donde se pueden cambiar los logos?</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45923.71571759259</v>
+        <v>45919.50665509259</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>17:10:38</t>
+          <t>12:09:35</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1950,7 +1950,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HUUrLNDFe-4Q7kNvwE-YuOn&amp;_nc_oc=AdlfQrhDBsFaHGlAqH9xkRWoJTVOY165IuGGfzIHrM_sTY-5DkS1BAKZlQhL-W1Dw64&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfYjzeP6ElgkSeVnex8jUdBPlQ-QGIWdeQmfEe0s5ze6aA&amp;oe=68DB8712', 'profileId': 'pfbid02dX7RuDyxDWYBCWAHVLjCsWXnJS4aTJr5bAF46BWTjHQQj374HXtDHHtKf7AkYsSWl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwFiIIvc&amp;_nc_oc=AdkTan8ENw2SMz5zEO_9IHFYO7TMF5WiXSAKhXBICG1ZBVLfDwXUHNiqswYi8uLQ_oSmjdUoP7v39GysSbnuPrM6&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfbuL5L0DRbhvDKfFbMrQ6iE7In3NOyIZ8bmvCVpUaNItQ&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1976,18 +1976,18 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nataly Leon</t>
+          <t>Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45922.89533564815</v>
+        <v>45923.71571759259</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>21:29:17</t>
+          <t>17:10:38</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2004,7 +2004,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_mGFzedJqIQ7kNvwFUGWK5&amp;_nc_oc=AdlxjfzwNl9fbnvDwT2NEfhInuB0x0mL6F_8ntPF4sSnMXFU661BqR27zJ7IElvsgjk&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfaIZ1ZiVv8xUVBHADFvU4ULM7sAaZi5YxAsp_MtuaNQOA&amp;oe=68DB9528', 'profileId': 'pfbid0n9jNiEwuTRQM2uVihV8wGTo8WqHReZDnaqYDB312b4ycZJgn8xJpy2BkxW4r1wFcl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HUUrLNDFe-4Q7kNvwECNHHO&amp;_nc_oc=AdnBTcym5F1laKeuh43SFgmWNmN6EeCBKmmotFcbbpYY17P1vz6FZErDFOTCvSAfj5q2C1d34EBlxfSU8ODatWj7&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfZIOVVJykSz8b_qy77h84gK8bzkMpPWt7QuG2x5ykjd2w&amp;oe=68DBBF52', 'profileId': 'pfbid02dX7RuDyxDWYBCWAHVLjCsWXnJS4aTJr5bAF46BWTjHQQj374HXtDHHtKf7AkYsSWl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2030,18 +2030,18 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Los yogo premio no se consiguen en ningún supermercado</t>
+          <t>Nataly Leon</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45923.1059837963</v>
+        <v>45922.89533564815</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>02:32:37</t>
+          <t>21:29:17</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2058,7 +2058,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent.ffsd3-1.fna.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x2dnAlG4PBgQ7kNvwHW-iNC&amp;_nc_oc=Adkh1uBgjF5GtluaY-cM1Il1NbQGc_Zbd3txkPYdFn9L8-0t-u1Uj-JuKqQD5w4LreE&amp;_nc_zt=24&amp;_nc_ht=scontent.ffsd3-1.fna&amp;_nc_gid=xPq13sfnlua3y_rjsAgB8Q&amp;oh=00_AfZxXUO3WZYLZDdaxT-pkHaONmx1szz_e4gdYSBXsO4cbA&amp;oe=68DB953E', 'profileId': 'pfbid0es65Fv86fTG2AYkZT4MC4ZaXphRv6Wx4tSYwhfbp3kpQXU9YrSjGpWr7ATJbNKwul', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_mGFzedJqIQ7kNvwEi11yc&amp;_nc_oc=AdlEc0oY56VNGBv5Lrq9QhD7j-QJdU1lxTY0FHba9kM4O7WAgKTfTf4Ru4K_3MS8gbA5qkWhbUHNn1_H6k7zKaSb&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_Afa_76OrqDjm-p_mw0sIteoS7HjWGWTKrGhDWUj17G8_uQ&amp;oe=68DBCD68', 'profileId': 'pfbid0n9jNiEwuTRQM2uVihV8wGTo8WqHReZDnaqYDB312b4ycZJgn8xJpy2BkxW4r1wFcl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2084,19 +2084,18 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hola 
-Esos muñequitos los están sacando de Temu?</t>
+          <t>Los yogo premio no se consiguen en ningún supermercado</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45924.90376157407</v>
+        <v>45923.1059837963</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>21:41:25</t>
+          <t>02:32:37</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2113,7 +2112,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent.fmci2-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGixJvs&amp;_nc_oc=AdkEevKTrtExEAFMQzWv3Kt5RrNMd-1iQdbZLjt3YZFtAjRTOmKw5f5SUeh22_PEF_g&amp;_nc_zt=24&amp;_nc_ht=scontent.fmci2-1.fna&amp;oh=00_AfaGVA9SF13PFgTmZc1QojAWJkdjasqS75V4bKUQlIS-ag&amp;oe=68FD00BA', 'profileId': 'pfbid02oWgw1YioEU2PcERmtBf1LHtuntKHygaFENCJYvwKmSHu6CxoFsfjym1qSjTWFRFdl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x2dnAlG4PBgQ7kNvwGjitkF&amp;_nc_oc=AdlbUllnHFBY2X9To2j-5XTad0U6YmYvd_qDWRYkb0n6F4PE_a4b-6TgArK9b2qb9V4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=b4qqXzF5OG9T4vyNwip1fg&amp;oh=00_AfY5zgS3G2mvNhr4tJXUT6cxbX7g1eHr2QLaz0bVFU_oTA&amp;oe=68DBCD7E', 'profileId': 'pfbid02iiXnSb3vWuk7DuLmNPs75DoBPWZuSAQMPL7YELYBdBYEw4vVUGFTQJ9TYnbtSeXWl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2139,18 +2138,19 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
+          <t>Hola 
+Esos muñequitos los están sacando de Temu?</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45925.76949074074</v>
+        <v>45924.90376157407</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>18:28:04</t>
+          <t>21:41:25</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2167,7 +2167,61 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BAIGGJMZPVAQ7kNvwHBpm_T&amp;_nc_oc=AdlcgnRpy_-UEiH_393mpM3j7K3AgiucwCAGa_mpYAMWcRn9EnKgKwNreqfcBJwFuL4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ivQ6eLVOPcuvQHN7wqbf1w&amp;oh=00_AfYBzg3bCbO2KiTIyuu4BCO386OydXNulcLiDeSBBIzmTA&amp;oe=68DB8B31', 'profileId': 'pfbid02JShnhzmCuUGKzkPaYdL2B7Ead6We8cJwoFbveiaVXVzttuc5vwTZREn5DqwEXR6rl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGYEuIz&amp;_nc_oc=AdlzHtA3XGb_487KAvTnAPsP31ViNvYdCbUASxqx6F0Qu25r6w4AI-uhA5myXXqAKo8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_AfbMeepjYun-3yx_EK4cTh97DogYGP97rUj_-V_G8njn6Q&amp;oe=68FD713A', 'profileId': 'pfbid02oWgw1YioEU2PcERmtBf1LHtuntKHygaFENCJYvwKmSHu6CxoFsfjym1qSjTWFRFdl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45925.76949074074</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>18:28:04</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BAIGGJMZPVAQ7kNvwEfgSYv&amp;_nc_oc=AdllKJmQIyxhGp6LEPzlUrNaD8dJATKazkheui02xs5c6Jt5wJx1NzF6kdwPysI9-MQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=b4qqXzF5OG9T4vyNwip1fg&amp;oh=00_AfaLVJ_hL8dSm_AAfg0vujxLkJVAQ3zOf2Nl1iYMA0SDtQ&amp;oe=68DBC371', 'profileId': 'pfbid02JShnhzmCuUGKzkPaYdL2B7Ead6We8cJwoFbveiaVXVzttuc5vwTZREn5DqwEXR6rl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2297,11 +2351,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3700111000010000100000</t>
+          <t>37001110000100000100000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bN8bKqp957QQ7kNvwEd9zwH&amp;_nc_oc=AdkSWg76X3zQRdQGu_yu7SsLdr5tDcWIv9jUKng2rIOpAviJf2t2vdCDqsXyxz9omO0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfZzO5qaxriAYqpxiaOkdR4HYd7xfAnUc9RKFbBl4V8kUg&amp;oe=68DBBC3E', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bN8bKqp957QQ7kNvwEe8Ax1&amp;_nc_oc=AdkZ5jgyaSZ8NiCgXkByXxFFzXaBt4iFzfb1qpRJj8cWKU5p3mr_fyg4zip3g21bCv8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfYVeTcOk4UzHc1aUOooU9a3wbRk44fMzcI4g97sX-mRdg&amp;oe=68DBBC3E', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKWNqQlmgDoQ7kNvwFSaHHT&amp;_nc_oc=Adn4-aPUsw9gdBu7erRAGnc3dxNI8YdjoZRZO-9d0h9cGyLnmEP9cUiyep-vJc1p1OY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfZ816rfzjS4ApzbexhWqQwlf1hC7-4AZ4kA8TuMY_-tPw&amp;oe=68DBBB2B', 'profileId': 'pfbid03Yk6ouxJ17u3yL795CtpbFKCJBwz51AWuDCk81GywE3WyTvrDLBfTGJrR5qogEQhl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKWNqQlmgDoQ7kNvwGz2XAu&amp;_nc_oc=AdnsSdTAjW68C-vA68RwBJCe8Z4-IGoiFd6uOEBCHE4ujoHHzksPLAhNSMUYAQ6ELQw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfY32lOBAv6X2-gxXK3G-_RVZROmVgah-I_XmdoZ1dwJFA&amp;oe=68DBBB2B', 'profileId': 'pfbid03Yk6ouxJ17u3yL795CtpbFKCJBwz51AWuDCk81GywE3WyTvrDLBfTGJrR5qogEQhl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fTW19GBpJGMQ7kNvwE01Fio&amp;_nc_oc=AdmWyeqzQdMharjGkJJXFbZCrLlZzxpcCDlAY9VFCeNzZiXDJ3nf9UC_uI8Y73wfBns&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfYKfc7zUNicbFNUrxJYSF459eMmi6fw__tAW_A80X1Rxg&amp;oe=68DBD1D8', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fTW19GBpJGMQ7kNvwGep5UK&amp;_nc_oc=AdmsPw_OISMp3ZzeQQh9PrCg-WWbmffVbLcxUR33pOxLhKJslzsMayZgP4PswTqB9P0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfaOwUpjBrpage4YsdS_hHwkNegybw7KIjTcDkGTi3_mvQ&amp;oe=68DBD1D8', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IGjWqgCFWWIQ7kNvwELBHof&amp;_nc_oc=AdnS9v0-Wdz85CfSf_jpMikKMOnfbJcD8cuUKBtmbhts80K0_Fee5T7m9YMdMKXx8fw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfYYFp4fJoI66ug38mM55PYK5eMmiIEGWgDtwvAHKqcCCQ&amp;oe=68DBD6AE', 'profileId': 'pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IGjWqgCFWWIQ7kNvwGQfniq&amp;_nc_oc=AdnFUJCE51drhJnnAUyTDuByECDQfiJ2NIO-2KgT-VQUgGMdDqRNtg19Tq15C29u3AI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfZ8H6CRp5EQ34lbK7MX-du13RNKht65c7VVVDuDwdII0Q&amp;oe=68DBD6AE', 'profileId': 'pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VGnayTvXNX4Q7kNvwFK141g&amp;_nc_oc=Adl4903fiMCLvhsbUxtQRAMGvP1PGWl9bXJ-NSymjXvw_oWy-hQU0n6yEykdbzRSNg0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_Afb9SRhPk2OAkhgUBzYRHFlgAB41pD2E97wt8BtEtxjE2w&amp;oe=68DBBB57', 'profileId': 'pfbid0G9aUYAe6esYsqfa4bVsYrPnQfCTrRcmkWivm2eLcfXLqbCcGnvcuSsDVHXT6z42il', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VGnayTvXNX4Q7kNvwF6ICd8&amp;_nc_oc=AdlMjdU7XTfI-znNVoiFTVJhpKQ8yld86N_94eCk3M67MvV_Kzw4XV8hjos1kkI81xU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfZJAuGGpGESitjcLL-vQDL0Y5acCmCHCVYxLu5BCFCpjg&amp;oe=68DBBB57', 'profileId': 'pfbid0G9aUYAe6esYsqfa4bVsYrPnQfCTrRcmkWivm2eLcfXLqbCcGnvcuSsDVHXT6z42il', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=u385-MAd334Q7kNvwEjZPjK&amp;_nc_oc=AdncIlP5WbG09UGa55Z0Kn-qfcl3qD6JAWtmtGTcx9hawwc7-rr9lr5ba9r2-utpsW8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfY9zM3F22pI_YMkezvEr4k1vhj6zPwqX_A-cYyACV57aw&amp;oe=68DBBB08', 'profileId': 'pfbid02Nxv9PNEz5fGpfhZ236o2nMtaiCXrae7VdZydWocSCBWcnee9T5Cxh7EsTzvfn7h9l', 'profileName': 'Arteaga Jesus', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=u385-MAd334Q7kNvwED9G10&amp;_nc_oc=AdnsD-XJ1G25roAFEGmYqt0fNoA5gz2EjltnRpie9sbuSvaFcGYZhb327xF0F0ifGdY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfYiGIgr__ISvan-hV9CDCGkQ9-40JN_MEmm-8uOrq1RnA&amp;oe=68DBBB08', 'profileId': 'pfbid02Nxv9PNEz5fGpfhZ236o2nMtaiCXrae7VdZydWocSCBWcnee9T5Cxh7EsTzvfn7h9l', 'profileName': 'Arteaga Jesus', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwGhIeVx&amp;_nc_oc=AdnfPkuxtEkYfh6RYChec2Mzrc03e7T7LTGfW0M47fjdwwp1sW0CRa7sWnmNpKUcgPM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=4puAOe8OM8hgmt2jZoDEZw&amp;oh=00_AfaBktd754BJa_rVlLDCNGmBP3yhxBRoe_Qkvx6VDpgipA&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwG1CP6T&amp;_nc_oc=Adn0aWXhU6RaqKxug-hsdAikQ2idKKU5Gyi8K56T0iSxU_s1eDghW6IPHm1hDdFDAPk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfaNNGm-iuymyvb33CqYNOku5bLxbE2LMrSBXQDfj1ZqiA&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=f3wCb5BRYrsQ7kNvwFEmLo7&amp;_nc_oc=AdnPnlnepmzlKDrryDOQwT4jBBo78ZVS9vFUuJ0WJ3qpkwz_qcw0TNdEwWLwXL6lmU1Pck2T0jY7XXM4BgIXCGy_&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfbeAG4xTYfQbn_pa4_HFRcC_ewpKRkwWh9PYaTwiqHwmA&amp;oe=68DBE1A6', 'profileId': 'pfbid032i9GXHJG1w8SdGE5gxK9PUD8X86o8WsreLztAVuZvFiXwX4tTZfunroiWTZJfXaUl', 'profileName': 'Doris Usma', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=f3wCb5BRYrsQ7kNvwFVS2g1&amp;_nc_oc=AdlV5M2Z_di9mvLAj3vsw3Ur6Rt7nb05-ZTujUuhnvgOymYEKEiz-RHfpZ4vLFY8UgE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfbzrzkbgxX2WXNwkPVK-zW6KxyalBVD6Dmf6VmqUcqc0A&amp;oe=68DBE1A6', 'profileId': 'pfbid032i9GXHJG1w8SdGE5gxK9PUD8X86o8WsreLztAVuZvFiXwX4tTZfunroiWTZJfXaUl', 'profileName': 'Doris Usma', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwG5SjGv&amp;_nc_oc=Adl8IgWzPMGKY88SzVYMvId4kuZCKv-U_Q3NHDzzIDZ1DU7t0BtKGdCCohjlvwhZItJLQl-SHE3YjOmaF79qIqhY&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_Afb1shzS2F9ztj9BQ7TRw2EJ1QPuwhLFy_HPKBTfVY6xBw&amp;oe=68DBBC1E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwG5SjGv&amp;_nc_oc=Adl8IgWzPMGKY88SzVYMvId4kuZCKv-U_Q3NHDzzIDZ1DU7t0BtKGdCCohjlvwhZItJLQl-SHE3YjOmaF79qIqhY&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_Afa3q9HJav2eed8WVWBRCEEmR_Off9T_b0eMRpNJENd3pg&amp;oe=68DBBC1E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwFBrvrn&amp;_nc_oc=AdkfKRKUU1SGxFewInmu67g-zY4fIuPu0XQ411r4UjtiVTiDynqywp66ORStq0NY_Zyofd44f4aV1q1REbXIxP37&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfY4dNOi_yzBYc1HiuaQcr-qWvUA5koTckWG2JO0qEsuyA&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwGlDvD1&amp;_nc_oc=AdmBF1gf2OfvR3_4kFrKyLrqmRgyU4bhKd8p13kZVuH3xdcyKOmO4nvgxif3cSHa_8s&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfZPfYxpfoaUhDUJRFJH7VIDX70Bw-id5b8QvuBrCi1PYg&amp;oe=68DBBC1E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwGlDvD1&amp;_nc_oc=AdmBF1gf2OfvR3_4kFrKyLrqmRgyU4bhKd8p13kZVuH3xdcyKOmO4nvgxif3cSHa_8s&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfbgYIY18-G7zag9_GzP3hh47BUiAmB_kAXxX24ciqm1qA&amp;oe=68DBBC1E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwGTgqtU&amp;_nc_oc=AdmSotZZJQ_Vl59G2qindjU2j7f7waTQUxAp4qKtMMUTDY5j3u1CXKzFY_PPeu4qa1o&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_Afb19a8eBQw3ixcjn3u6ahu3x2MAXeVXrW3kb4epFgNCKg&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGp9d3R&amp;_nc_oc=AdkvTlKxA9eHIQFE1gfOddOQ0nIbR_xUM-UCQLensB_00UKfyCLMSPR-Veec6eWGVm2otIz2BPPpYlXVI14RsmZf&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afao2G-fRDSzVJaXNRyEfuPt60w410C9nxkGjw1Hr_8m4w&amp;oe=68FD713A', 'profileId': 'pfbid05gUjXY4wqyz8WG1XpVudBvptMJzoqZRcLLhRHd7x9SsNWwPsJWph5b2qSNxffnvfl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGzZj7f&amp;_nc_oc=Adk31wEZz8B_6vjTQC15Awor0ro3jv8hMST0qNsJSJGjGF1VORyoiIZXs0W9rXVyr0s&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfbvmbcPfLXOHi0dz1YWCBjteUTa_BefGYmfr7M-UBgZLA&amp;oe=68FD713A', 'profileId': 'pfbid05gUjXY4wqyz8WG1XpVudBvptMJzoqZRcLLhRHd7x9SsNWwPsJWph5b2qSNxffnvfl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tjT0A9tGBXIQ7kNvwFPi3mA&amp;_nc_oc=Adlg0Ak5quhXe10SxIZbAhzgr888XAk-IuyCamcYo6S7IP8AjrAE6LI4SZb2xxs2Lw-SW2jkHsNXNG7CWSiMTMCk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfatlJuLWJKoSFDFEzDE9vTo-TwgjyzX1KX39nVRy_mEvA&amp;oe=68DBD8FD', 'profileId': 'pfbid0vFt57ximvcmUJR9Bjm1CaKUwcEtGnPAtPn8v3rqTxDdLiPNianD77C9nV1fozFFLl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tjT0A9tGBXIQ7kNvwEHx1WE&amp;_nc_oc=AdkYnvlaFI61iKMiSpndjUOjY7o5eRgxfjABfKFMUztp8e3LtrBvBl1In1zXvSsiEkM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfaEks7FWnQQXlp-QJy1BIMqbCsHaOQeR56OIOnK2GD5Kw&amp;oe=68DBD8FD', 'profileId': 'pfbid0vFt57ximvcmUJR9Bjm1CaKUwcEtGnPAtPn8v3rqTxDdLiPNianD77C9nV1fozFFLl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGp9d3R&amp;_nc_oc=AdkvTlKxA9eHIQFE1gfOddOQ0nIbR_xUM-UCQLensB_00UKfyCLMSPR-Veec6eWGVm2otIz2BPPpYlXVI14RsmZf&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afao2G-fRDSzVJaXNRyEfuPt60w410C9nxkGjw1Hr_8m4w&amp;oe=68FD713A', 'profileId': 'pfbid02CqoZRpnbAcmzVT7NmASkA5kSfRAB8o32YpxkMgAvc9UwEA3KXs9ysKVPL5uoki84l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGzZj7f&amp;_nc_oc=Adk31wEZz8B_6vjTQC15Awor0ro3jv8hMST0qNsJSJGjGF1VORyoiIZXs0W9rXVyr0s&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfbvmbcPfLXOHi0dz1YWCBjteUTa_BefGYmfr7M-UBgZLA&amp;oe=68FD713A', 'profileId': 'pfbid02CqoZRpnbAcmzVT7NmASkA5kSfRAB8o32YpxkMgAvc9UwEA3KXs9ysKVPL5uoki84l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sK1PCORYXLAQ7kNvwENxVpw&amp;_nc_oc=AdlUm1E9CPQxWhn25bONXCvsClOB_cICL57b4ZEsNPhYpFtckc2YFZa7x9ulPPiFuNJw13LxHjtanb9-1b5iT9ls&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfaQlohlv_neXjdHAkDz4njgFSiYqLjhQaJkdx3hRTtq_w&amp;oe=68DBC7CB', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sK1PCORYXLAQ7kNvwEsUSgZ&amp;_nc_oc=AdkqZGaUIPsRg9qtV8HLG32VLa-K7jWV5Oo49Dpdc7QCJzTKktNRyIaO6miSScvB6aQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfaTucKz5yQvHc7kdz4qAmGeWYOJW5WCy6NQYTS9efqYUg&amp;oe=68DBC7CB', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8yZ8Y--IHsQ7kNvwF90zom&amp;_nc_oc=Adm4OJWlAQsNm8LLPzc-H3lyo8jqGp-wBLObL4s5P8b_lKfLKiLlTwZB4XKcN_nKYn-Hu9HB27aE_h99E0UHK-65&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfboslFCWwT5lcXQkvycxim5YkOCdEYMY1fURsqwLA7j9A&amp;oe=68DBC1B8', 'profileId': 'pfbid02cPUZQBkJRhdTbnxo855hixLSiKs2C5jZ8DZyUShwwXJQseSTJ6cJWZ6yGbZjxpQgl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8yZ8Y--IHsQ7kNvwGqLj8g&amp;_nc_oc=AdmSFGKAH1xy30suo-WxVC04mbmwiVeJjA5_Yp0BvkUkY6VjVhmO2P48pWFzRxJewvg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfbJy-lF4hNNGfv_ii5Nhc1o7FHw2nHmf3AfOVOvmkLxDA&amp;oe=68DBC1B8', 'profileId': 'pfbid02cPUZQBkJRhdTbnxo855hixLSiKs2C5jZ8DZyUShwwXJQseSTJ6cJWZ6yGbZjxpQgl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/487762922_122183889584277994_7390978414495464071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g5mH2S-1tMEQ7kNvwHFXDC6&amp;_nc_oc=AdlePNtdQRHkJBxhJvGPvAlCMeEU7OIh9wUJMKQCIwhqChqC6o26LTOhiXd5DBDtvudeuz0T9HOP8FLC1Uf1DKFn&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfYhVEgzgaiayJ1i2xsh-1j-WF7XvAevpsxH9DeuJRyFmg&amp;oe=68DBE0C4', 'profileId': 'pfbid0RDCuycBNtzbzUJAD1UkN7JoyYnQ47fhebUhZdjeCCmfrAWRmcLf7NQ5YtmLsy9mjl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/487762922_122183889584277994_7390978414495464071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g5mH2S-1tMEQ7kNvwETNnPJ&amp;_nc_oc=AdmjlyN0IYRH6-ux3Xj_Pubqv3NwjK0KBzlb_xWENiwZI6ewAZwL5w1MwYMHd05XGbU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfaKSqOH3Ven2RNG1hgDwz51qKaa_bNNFbZ9KcJfwq8K9w&amp;oe=68DBE0C4', 'profileId': 'pfbid0RDCuycBNtzbzUJAD1UkN7JoyYnQ47fhebUhZdjeCCmfrAWRmcLf7NQ5YtmLsy9mjl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LfUMkpAN2wEQ7kNvwEdDieU&amp;_nc_oc=Adk-RVeQ2FMgq92mNYy6N29-Io7ptgI_RtqDhgG9SPynEOUsIew-W5TXSXllIzAApY6dIPhQbPc3dEAwhtOCPS9u&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfaKz-kj8o5g59jy5GQHe0uhF1SaVvUd__81mfSkPx5PZg&amp;oe=68DBE154', 'profileId': 'pfbid0q3hNuBNP8PJZZbqhDXHxwwhJPsVv8fbshoU3WgErw6kn47gUWhYFUcJHVEhZc4abl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LfUMkpAN2wEQ7kNvwGnNLhn&amp;_nc_oc=AdkGgaYU879XVTjXmjXbZp2AcLeSl7LBnJX8QOje7IVbsyuxuMFThkG8JnGokgpEOT8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfZxUtwAdGe0yNJ37ZT_9XYXQSR4Y0IwgiEqlT7lLVF6Zw&amp;oe=68DBE154', 'profileId': 'pfbid0q3hNuBNP8PJZZbqhDXHxwwhJPsVv8fbshoU3WgErw6kn47gUWhYFUcJHVEhZc4abl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eElyCgIW5EoQ7kNvwFoeGlE&amp;_nc_oc=AdmFTKT0fOsOXoU5WvMZpiZfWSorlAuY_ZuVLH0waIQLAcQ4uMPEmALF78RglCQ5SnG13Wifzf3OaKDMIPRKROtz&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=LdPwVO62PhnayMQ9d1wO1A&amp;oh=00_AfY3I_FuBSRQ1ksEldrHaDGj-QT3WTKhXK_EBP9ens7DqA&amp;oe=68DBCB37', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eElyCgIW5EoQ7kNvwHxs_SW&amp;_nc_oc=AdnYXeVBIdLCxyjIgzu9uLOHN7ZJzhi0D16WylqMZPJILzEN3e6k02dAxhyNsV1oBsA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfZsBKaD1MJJ7s9xsxgptPJy5HWQXPoh0etDoPg3Jk6DpA&amp;oe=68DBCB37', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Mc6IbZXiqQQ7kNvwGVGTTF&amp;_nc_oc=Adnd_Aa12Vyp3-TtZbJoR6Y7HRqOIp4qCVakW8hJKfcEXbeg6rU3akCZpMI6hcaw1z1T3pFoZnZqPy2l5BbSshJZ&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfbwC09dEL7BnMAXOb8K1yukda4Zd4bBUl1Jj5jBTRywdg&amp;oe=68DBD9C5', 'profileId': 'pfbid06wsJmjFVi6fcEDqkpB5cftoF5nZPmvCq51RVcFkRPZkZoUtMWS8Ci7h8QbBfucjfl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Mc6IbZXiqQQ7kNvwEHTC2H&amp;_nc_oc=AdmV-DtjvHsQNsW00l05EK6WvOXfIH2wUbJtl0JmQifXVkQ3uGH_pigFwzHG8Q6btu8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfZCgx6Eh-9oKA3-gk668kOsEztKShTc2MO_Llf9cJ4vUA&amp;oe=68DBD9C5', 'profileId': 'pfbid06wsJmjFVi6fcEDqkpB5cftoF5nZPmvCq51RVcFkRPZkZoUtMWS8Ci7h8QbBfucjfl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aXwUGs3_r0YQ7kNvwEOOhJg&amp;_nc_oc=AdnvvPtQI5oo0mUUZi015-rNAoyNYCtcI8NmuBxDZvxdnAghTbFazEGDqIDM1CNf5glzEhk2WCnb8FTgtPBudwdA&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfZ9zCzOmYxu7OnbcwRl5IuTLYS2-sFOMgH1u0lGNutuig&amp;oe=68DBE6FC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aXwUGs3_r0YQ7kNvwE7eyWz&amp;_nc_oc=AdkwyixBuGiipsUKJmoDsl2vobhLO74PFbJq4tIsrT7jzUn12CrzDrwVewlpYvev3p4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfYL5U4uFJqOn4hqHOcXcceO_HN8N2cdWv2jbWCXpx_AJg&amp;oe=68DBE6FC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XX3uptXIesgQ7kNvwF6Cyep&amp;_nc_oc=AdkwrUm_RzIF7zRPUE49EYTET1BdKNGINbsF3uboFsjoIvU76-gu0cmEMpdMN3b-9vCy8WgQYfqybGzqgpzY3KbJ&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_Afbk00bGY1W9RFKcmdSU5nZvm1VqVxDtl3pWoufAlBaZ3A&amp;oe=68DBD21E', 'profileId': 'pfbid0nh5K1eCKje4vD69ibTiVDseeYfW332vbDEPj53J1qk99hwWcxKFXs7dRqEbSVvkul', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XX3uptXIesgQ7kNvwFfYvwe&amp;_nc_oc=Adm2vszQ-xAVYOmZtUi84FndPbSIsthJ3n_iL_Wd-vmi3K0bj822PhEzgU6WTOlFW1I&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_Afakdfpj_ZGUcwySpWG2_j8D-yy6-lOjsZqamPGAd7uh0A&amp;oe=68DBD21E', 'profileId': 'pfbid0nh5K1eCKje4vD69ibTiVDseeYfW332vbDEPj53J1qk99hwWcxKFXs7dRqEbSVvkul', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKa-lEw9abQQ7kNvwH11sU9&amp;_nc_oc=Adk6e_ZgcVQhrITHKFAyynxnGu3YEuyuMvCgqET2ab5q_OAzd9XPtFm07_nZ7_hl8knygi4gADHRk6nnOq2ojsiV&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfY8BGbZ1pfATFi6zh0fk2P1aQoPBrGxKaFYDIxBp2AhaQ&amp;oe=68DBB338', 'profileId': 'pfbid0b8CP1RDgvNYftCbsJew69pr3E79scNWTMfyEhZSXHmkRGCgJAFzoJD9D9wryfHtSl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKa-lEw9abQQ7kNvwFgGHgY&amp;_nc_oc=Adl8q_AphcncQqciDaYF5YHRQVg8IyCNkuofbcb2gUQ_KgLiRcUKoj6AR-v4wJ5TGX4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfYXj2PJr5-o_oJ8oNpvTRIAY_j3I_SkM1zkT_yb4MnmHw&amp;oe=68DBEB78', 'profileId': 'pfbid0b8CP1RDgvNYftCbsJew69pr3E79scNWTMfyEhZSXHmkRGCgJAFzoJD9D9wryfHtSl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qeMbd3UYnssQ7kNvwFOPa2f&amp;_nc_oc=AdkUaze50eESs6cLdwEgbIsr_uOJqGOxefH55KfzNk84pdWG8MLt2Cm92AmHJZAFn3Yqa0tdnMVy4Q0pAR8GhaH4&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfZdlURc6SL7Ena1ePfqulO9tghcHiw9Rngw9oSpZGDEiQ&amp;oe=68DBDFFD', 'profileId': 'pfbid027cCYfeGE8taedPk6PVyiT6Kc2M68XSEBdoGvqBqqmYBP8MaYgVHYxNmZMHFuuMZzl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qeMbd3UYnssQ7kNvwGKV19x&amp;_nc_oc=AdmW3LqY7utWmXO23u16BZXAhLA14ksfnDFh6pBKnK05Rt0UYDyEUGt7-KnFqZo-Hgg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfYsse_fPVSX6vtfWAthfFbTu5TMrI0ZKiMkiqTrqBr17A&amp;oe=68DBDFFD', 'profileId': 'pfbid027cCYfeGE8taedPk6PVyiT6Kc2M68XSEBdoGvqBqqmYBP8MaYgVHYxNmZMHFuuMZzl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fRfHY_3aUEYQ7kNvwFV7Wtf&amp;_nc_oc=AdkU5yQkGlUnCabahY7SCbwDk3_ItwmHhDXIzR79tfSzVBsonOzRtJO_CkoNtujWymL5R3pHAPf6dDjxpZJa8Pim&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfYDgSVYDOGFMUEJT1UqQjzYzLHxbOeRSToaFHylW271hA&amp;oe=68DBE080', 'profileId': 'pfbid0FQsnRgu7pdGfmVRfRc8NC6Eo8jUrFX571JWV2KE6onWZEq4WzoJDkP9eCKbawF5Hl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fRfHY_3aUEYQ7kNvwGBJ3GT&amp;_nc_oc=AdkKKkzJmNu8aaxzDKAhEbqk-Gb23MOpltziBq7X6j-Qq4BmYCnPY1dAmocqfnElXq0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_Afa2Kv5DTLGuiNT2yqxk-k4QfXQMo-vpDfv43HqDpo3yvw&amp;oe=68DBE080', 'profileId': 'pfbid0FQsnRgu7pdGfmVRfRc8NC6Eo8jUrFX571JWV2KE6onWZEq4WzoJDkP9eCKbawF5Hl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qXSDOGkIHMIQ7kNvwH3oX5M&amp;_nc_oc=AdmXbpus7VmshtGeT81lF3Wb3N9jVZegT2_0q5aeIH4XckYABVFvOX8UqgsUc9acIo-iFnfcEZumPqTaQtMA4O-b&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfZWbKlwiHzmxApCFRyz8pLIw-3O9659dp8gIbf9dloYDQ&amp;oe=68DBBC19', 'profileId': 'pfbid0HewpnJRoMEeqArVtEKHv53wnNA5v65HfV69myeSTU6CefpAJtJgnqRZ879sHVLxel', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qXSDOGkIHMIQ7kNvwEWi5R9&amp;_nc_oc=Adm2Gs8HHUyvTGP5GZCjEF5Ofzam1RLA5AEQwKB4V4qrfw0H3Wci_t6QQmRucgwPfB0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfbJmnC1bpn7IvQhgOgM4M2_GD0Q5VTtZghwjgVlAt04Zw&amp;oe=68DBBC19', 'profileId': 'pfbid0HewpnJRoMEeqArVtEKHv53wnNA5v65HfV69myeSTU6CefpAJtJgnqRZ879sHVLxel', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwFiIIvc&amp;_nc_oc=AdkTan8ENw2SMz5zEO_9IHFYO7TMF5WiXSAKhXBICG1ZBVLfDwXUHNiqswYi8uLQ_oSmjdUoP7v39GysSbnuPrM6&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfbuL5L0DRbhvDKfFbMrQ6iE7In3NOyIZ8bmvCVpUaNItQ&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwFIhtX1&amp;_nc_oc=AdlqUWimn2BnkC82MlYqnh1asAu0vI-28sbUdYb8f2VYiMA4PmEqwpR7dZ6E7HV5ZMA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfY6aPhvep_LpSXd4C07PxWS4OtYeBA6VWxvvUa9XCxMmw&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HUUrLNDFe-4Q7kNvwECNHHO&amp;_nc_oc=AdnBTcym5F1laKeuh43SFgmWNmN6EeCBKmmotFcbbpYY17P1vz6FZErDFOTCvSAfj5q2C1d34EBlxfSU8ODatWj7&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_AfZIOVVJykSz8b_qy77h84gK8bzkMpPWt7QuG2x5ykjd2w&amp;oe=68DBBF52', 'profileId': 'pfbid02dX7RuDyxDWYBCWAHVLjCsWXnJS4aTJr5bAF46BWTjHQQj374HXtDHHtKf7AkYsSWl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HUUrLNDFe-4Q7kNvwF_cVSQ&amp;_nc_oc=Adkp71RN-IwhegwV9amvgk5PERSb49kSde-UNzbR-J4wcFar9cwPoTdaSkuWu11zW5s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfbyufjytNyX787LFr_f1BY2JXKZnu32h03N2u1QhTTLmw&amp;oe=68DBBF52', 'profileId': 'pfbid02dX7RuDyxDWYBCWAHVLjCsWXnJS4aTJr5bAF46BWTjHQQj374HXtDHHtKf7AkYsSWl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_mGFzedJqIQ7kNvwEi11yc&amp;_nc_oc=AdlEc0oY56VNGBv5Lrq9QhD7j-QJdU1lxTY0FHba9kM4O7WAgKTfTf4Ru4K_3MS8gbA5qkWhbUHNn1_H6k7zKaSb&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=heqTCNfU_dd9cKMT4yTuUA&amp;oh=00_Afa_76OrqDjm-p_mw0sIteoS7HjWGWTKrGhDWUj17G8_uQ&amp;oe=68DBCD68', 'profileId': 'pfbid0n9jNiEwuTRQM2uVihV8wGTo8WqHReZDnaqYDB312b4ycZJgn8xJpy2BkxW4r1wFcl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_mGFzedJqIQ7kNvwGMWiJq&amp;_nc_oc=AdnxbJx_8K-Sv9i9kzYM6Gy_gn9FybMlPNkzkJTpcIg-Zu_vhCY7o4Jx4HKscScdJOk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfYtnbMrVoU_yrMAB4wS6Wq3FuOG_9forZxH-OGtLfR79Q&amp;oe=68DBCD68', 'profileId': 'pfbid02r1B5tusjJdyQfyEP7KyzxWjhjpK7cr247NwtrmF9bXbikXFoXAiQczv6NK9KxvPGl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x2dnAlG4PBgQ7kNvwGjitkF&amp;_nc_oc=AdlbUllnHFBY2X9To2j-5XTad0U6YmYvd_qDWRYkb0n6F4PE_a4b-6TgArK9b2qb9V4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=b4qqXzF5OG9T4vyNwip1fg&amp;oh=00_AfY5zgS3G2mvNhr4tJXUT6cxbX7g1eHr2QLaz0bVFU_oTA&amp;oe=68DBCD7E', 'profileId': 'pfbid02iiXnSb3vWuk7DuLmNPs75DoBPWZuSAQMPL7YELYBdBYEw4vVUGFTQJ9TYnbtSeXWl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x2dnAlG4PBgQ7kNvwHI4u35&amp;_nc_oc=AdlNUq7r6LAKpgtc_Sv3CfQ1xxpmEOm6lhtGFATgrGJUBjVbJXtBZXOQFOd9d34rv28&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=oq4nYKtm48W6dIngeaWrxw&amp;oh=00_AfZ88totAk7RCay2U1_D2C9xQCTwC9Y4N0iwG4cHNJt67w&amp;oe=68DBCD7E', 'profileId': 'pfbid02iiXnSb3vWuk7DuLmNPs75DoBPWZuSAQMPL7YELYBdBYEw4vVUGFTQJ9TYnbtSeXWl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGYEuIz&amp;_nc_oc=AdlzHtA3XGb_487KAvTnAPsP31ViNvYdCbUASxqx6F0Qu25r6w4AI-uhA5myXXqAKo8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_AfbMeepjYun-3yx_EK4cTh97DogYGP97rUj_-V_G8njn6Q&amp;oe=68FD713A', 'profileId': 'pfbid02oWgw1YioEU2PcERmtBf1LHtuntKHygaFENCJYvwKmSHu6CxoFsfjym1qSjTWFRFdl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwH0vzlX&amp;_nc_oc=AdmhXR3qb1sMHZbd7qsHxszbpuVm86lZV5_hkpR-7OghsibuivLY1fUCrm2tVpHhPYU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfbDqios4q6MxRO30WFVoTnxqWjNyUVI_BiCEBjAP5nT_A&amp;oe=68FD713A', 'profileId': 'pfbid02oWgw1YioEU2PcERmtBf1LHtuntKHygaFENCJYvwKmSHu6CxoFsfjym1qSjTWFRFdl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BAIGGJMZPVAQ7kNvwEfgSYv&amp;_nc_oc=AdllKJmQIyxhGp6LEPzlUrNaD8dJATKazkheui02xs5c6Jt5wJx1NzF6kdwPysI9-MQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=b4qqXzF5OG9T4vyNwip1fg&amp;oh=00_AfaLVJ_hL8dSm_AAfg0vujxLkJVAQ3zOf2Nl1iYMA0SDtQ&amp;oe=68DBC371', 'profileId': 'pfbid02JShnhzmCuUGKzkPaYdL2B7Ead6We8cJwoFbveiaVXVzttuc5vwTZREn5DqwEXR6rl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BAIGGJMZPVAQ7kNvwEuO0yF&amp;_nc_oc=AdmBPq2UNJL2xW1pJzJBiFTaz5cldscYje6j5bA_1D2Kt_VCA9H4cOq5I6FAlsyw9sU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=oq4nYKtm48W6dIngeaWrxw&amp;oh=00_AfbOOeMNAzOPLPSnL-RdIdn6NXKjOnW_Sspgl0GTlHf99Q&amp;oe=68DBC371', 'profileId': 'pfbid02JShnhzmCuUGKzkPaYdL2B7Ead6We8cJwoFbveiaVXVzttuc5vwTZREn5DqwEXR6rl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bN8bKqp957QQ7kNvwEe8Ax1&amp;_nc_oc=AdkZ5jgyaSZ8NiCgXkByXxFFzXaBt4iFzfb1qpRJj8cWKU5p3mr_fyg4zip3g21bCv8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfYVeTcOk4UzHc1aUOooU9a3wbRk44fMzcI4g97sX-mRdg&amp;oe=68DBBC3E', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pdItx_2W72UQ7kNvwFZL1CM&amp;_nc_oc=AdnBULnQzsUOEOemWjvVqf6Wxw39ABSEhYR4vYfv0-A2LUMnnfqc4FngWqBJFGaSbbw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfbooLjkjZy8jk7bZ2nHo7t5i03hiZA0lUkYd6DXs0jmDQ&amp;oe=68E0597E', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKWNqQlmgDoQ7kNvwGz2XAu&amp;_nc_oc=AdnsSdTAjW68C-vA68RwBJCe8Z4-IGoiFd6uOEBCHE4ujoHHzksPLAhNSMUYAQ6ELQw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfY32lOBAv6X2-gxXK3G-_RVZROmVgah-I_XmdoZ1dwJFA&amp;oe=68DBBB2B', 'profileId': 'pfbid03Yk6ouxJ17u3yL795CtpbFKCJBwz51AWuDCk81GywE3WyTvrDLBfTGJrR5qogEQhl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=m_GWCmBy7kgQ7kNvwHjT-s8&amp;_nc_oc=AdmgkXbmehMMw62DoyNhYFaHzrhCkUuyxv6qAo6WsLEyHoH9SmVC0yyM8TRq7Rj4_PE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfbMRCPbSgnumXbqxRKTFCk5BLre1qMkxYBS0xIWg79mKg&amp;oe=68E0586B', 'profileId': 'pfbid03gPcnGz2Bk7YPdhGmfjqwio7tNwphBY77VwozWvB27oy8VtwuH8RpHGUT8TJURvMl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -687,23 +687,23 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Donde puedo ver la lista de los Mochis</t>
+          <t>Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45921.95543981482</v>
+        <v>45928.8709837963</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45921</v>
+        <v>45928</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22:55:50</t>
+          <t>20:54:13</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fTW19GBpJGMQ7kNvwGep5UK&amp;_nc_oc=AdmsPw_OISMp3ZzeQQh9PrCg-WWbmffVbLcxUR33pOxLhKJslzsMayZgP4PswTqB9P0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfaOwUpjBrpage4YsdS_hHwkNegybw7KIjTcDkGTi3_mvQ&amp;oe=68DBD1D8', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ndEbWOeMGjQQ7kNvwE86QZT&amp;_nc_oc=Adk0H3Q5KNrj-NFN2A3lP-4z2QpyTAmhUQ8Ak8Sk1H3hzEm739AZck2ehMFrwnARrjo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfYtqh-v_O3gbgX8ZIfC7SAgPr9NiT3jKL1pzymzRqZLHQ&amp;oe=68E08012', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -741,23 +741,23 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico</t>
+          <t>Donde puedo ver la lista de los Mochis</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45920.56712962963</v>
+        <v>45921.95543981482</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13:36:40</t>
+          <t>22:55:50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IGjWqgCFWWIQ7kNvwGQfniq&amp;_nc_oc=AdnFUJCE51drhJnnAUyTDuByECDQfiJ2NIO-2KgT-VQUgGMdDqRNtg19Tq15C29u3AI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfZ8H6CRp5EQ34lbK7MX-du13RNKht65c7VVVDuDwdII0Q&amp;oe=68DBD6AE', 'profileId': 'pfbid0292eqFRSyDUgV6xPU4Z4ro6gaMuVpEbSvcEP8qrUMkrsXYs1LNBNKWX1KqZuM6v6al', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=0qH4WMqcJBMQ7kNvwHofebS&amp;_nc_oc=AdmJOXE9VTAz6mEulisqa4-jqZwM9PTOyUkpktI0OLOOiZaSmZdjc5ETkGJaA2uTYRk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfYR1Jfeq_L_sOPBu51yRrn4gvLu57ZMuwK_M1jr4OVYoQ&amp;oe=68E06F18', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -795,18 +795,18 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sino Mochis</t>
+          <t>Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45921.99359953704</v>
+        <v>45920.56712962963</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45921</v>
+        <v>45920</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>23:50:47</t>
+          <t>13:36:40</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VGnayTvXNX4Q7kNvwF6ICd8&amp;_nc_oc=AdlMjdU7XTfI-znNVoiFTVJhpKQ8yld86N_94eCk3M67MvV_Kzw4XV8hjos1kkI81xU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfZJAuGGpGESitjcLL-vQDL0Y5acCmCHCVYxLu5BCFCpjg&amp;oe=68DBBB57', 'profileId': 'pfbid0G9aUYAe6esYsqfa4bVsYrPnQfCTrRcmkWivm2eLcfXLqbCcGnvcuSsDVHXT6z42il', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid028gLpf8uVaToRst6J1pi4b6WDXxtN2YxAm3WSNCivofoDaix9HAbRd86JaZRxYKB7l/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J-hZCKpAy88Q7kNvwH2SPKc&amp;_nc_oc=Adn7IS51KJYhfzHctlw4TwPEbJpXboKDF9Rwbzu-XdUX_bLwEiX7MaKQXBNxU2Zp6cg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_Afb2qn519xQRFCwAQBp-fdQRsPUlL930RQaH2WMypUlwzA&amp;oe=68E073EE', 'profileId': 'pfbid028gLpf8uVaToRst6J1pi4b6WDXxtN2YxAm3WSNCivofoDaix9HAbRd86JaZRxYKB7l', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -849,23 +849,23 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ya aburren ya no saben cómo explotar más a esos Mochis</t>
+          <t>Sino Mochis</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45919.52822916667</v>
+        <v>45921.99359953704</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45919</v>
+        <v>45921</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12:40:39</t>
+          <t>23:50:47</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=u385-MAd334Q7kNvwED9G10&amp;_nc_oc=AdnsD-XJ1G25roAFEGmYqt0fNoA5gz2EjltnRpie9sbuSvaFcGYZhb327xF0F0ifGdY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfYiGIgr__ISvan-hV9CDCGkQ9-40JN_MEmm-8uOrq1RnA&amp;oe=68DBBB08', 'profileId': 'pfbid02Nxv9PNEz5fGpfhZ236o2nMtaiCXrae7VdZydWocSCBWcnee9T5Cxh7EsTzvfn7h9l', 'profileName': 'Arteaga Jesus', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0U0JmSedy9kQ7kNvwEdDEyH&amp;_nc_oc=Adk-RLkS-y9PRLIIkm_hNLHe2IefpUgFCvkzjl3d-mNroxPxHYbJ1UONONd0-1jdgmc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfZfy1KZpClwaxCc1JAnhQ55GgrhNCiaZ4C4JPD0vM3gbQ&amp;oe=68E05897', 'profileId': 'pfbid02KpsBRhJBgjV1HWR6SQfzYFRN32u4QB9J8jLW8uQvKfhEn9LbNnSeF8oKDk29SSwHl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -902,6 +902,168 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>Karen Alfonso Marcela Paez</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45927.35079861111</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>08:25:09</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=v_W328glaP0Q7kNvwFfa3Tb&amp;_nc_oc=Adlpsn_OzSp-96OZb4zrRkRJyyn4CJEn5B8mmI6VyrQKHdNJjSpxz7gaorWJhOlDxIM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfYPNqrAMuCdT_UfS8bKarrta4zwdvmJ2wYkEHbtYeSGJw&amp;oe=68E06D67', 'profileId': 'pfbid02icrWGzN3bc36PQtK65JYaAcymCQzdJoa1jLv9T1WiMup8y8KSQVvCWS39nL8FMyWl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pero donde los consigo</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45926.63898148148</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>15:20:08</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid02Yf8fEspGXQtNzQFq4oYoo4LqzFg7Xbcd3LfhP8JzdELKuxwUcKn5W3q1VdTBHWkEl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEYaFej&amp;_nc_oc=AdndMUzn6kG8y7L27zzoyRO-I2t_ONQCUyBLkctgcoYZXAaWwVAPvOZITjIvaAWuct0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfYQt46L7Ubzhv0sP8NiEQJ0TpoL3tMsZWJBbhPpb1OqDw&amp;oe=69020E7A', 'profileId': 'pfbid02Yf8fEspGXQtNzQFq4oYoo4LqzFg7Xbcd3LfhP8JzdELKuxwUcKn5W3q1VdTBHWkEl', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ya aburren ya no saben cómo explotar más a esos Mochis</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45919.52822916667</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12:40:39</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zp46KciYPjoQ7kNvwHg55KW&amp;_nc_oc=AdlPEZ-DyNPd5mG8-APXGBAmbJdIoj_GA_dtX-9lU0AAxsMU4diutlQW0gOeY1euRwI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfbJuut4IkFRS8BRuyfmtDSH7JaPSUJNEBQgMJNCy_Vy0A&amp;oe=68E05848', 'profileId': 'pfbid02Ncc8o5hWSY1cbMQRZGgCLjGMjtEZ3GyMyNwPv1gWTrCxJbbaLjCRLZfeLUpckR4hl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Que falta de respeto. Oxxo. Cartagena no hay.  
 No les importa las otras ciudades. 
@@ -909,172 +1071,20 @@
 Alpina</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G12" s="2" t="n">
         <v>45919.74681712963</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H12" s="3" t="n">
         <v>45919</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>17:55:25</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwG1CP6T&amp;_nc_oc=Adn0aWXhU6RaqKxug-hsdAikQ2idKKU5Gyi8K56T0iSxU_s1eDghW6IPHm1hDdFDAPk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=gPQOYz7wRr4GykIGUcnBXw&amp;oh=00_AfaNNGm-iuymyvb33CqYNOku5bLxbE2LMrSBXQDfj1ZqiA&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DOvoGefAFeJ/#advertiser</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Guau que maravilla ya voy a comprar 5 paquetes</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>45920.15390046296</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>45920</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>03:41:37</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=f3wCb5BRYrsQ7kNvwFVS2g1&amp;_nc_oc=AdlV5M2Z_di9mvLAj3vsw3Ur6Rt7nb05-ZTujUuhnvgOymYEKEiz-RHfpZ4vLFY8UgE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfbzrzkbgxX2WXNwkPVK-zW6KxyalBVD6Dmf6VmqUcqc0A&amp;oe=68DBE1A6', 'profileId': 'pfbid032i9GXHJG1w8SdGE5gxK9PUD8X86o8WsreLztAVuZvFiXwX4tTZfunroiWTZJfXaUl', 'profileName': 'Doris Usma', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Así vamos. 👍🏻</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>45921.69010416666</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>45921</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>16:33:45</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1086,17 +1096,17 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwGlDvD1&amp;_nc_oc=AdmBF1gf2OfvR3_4kFrKyLrqmRgyU4bhKd8p13kZVuH3xdcyKOmO4nvgxif3cSHa_8s&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfZPfYxpfoaUhDUJRFJH7VIDX70Bw-id5b8QvuBrCi1PYg&amp;oe=68DBBC1E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=DXoJ-BoRga0Q7kNvwGlDvD1&amp;_nc_oc=AdmBF1gf2OfvR3_4kFrKyLrqmRgyU4bhKd8p13kZVuH3xdcyKOmO4nvgxif3cSHa_8s&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfbgYIY18-G7zag9_GzP3hh47BUiAmB_kAXxX24ciqm1qA&amp;oe=68DBBC1E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwGTgqtU&amp;_nc_oc=AdmSotZZJQ_Vl59G2qindjU2j7f7waTQUxAp4qKtMMUTDY5j3u1CXKzFY_PPeu4qa1o&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_Afb19a8eBQw3ixcjn3u6ahu3x2MAXeVXrW3kb4epFgNCKg&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwFEt5ru&amp;_nc_oc=Adl8pm_4z02RuSM901SINlw2JPMm35yRkz_Yz0eM_5dnOhlQkI3DpYTnox6BtQp9OII&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfZXWehvYAAx_qKBUZi0A0t9wddJBGtSJ6r2WBUc_ruYbw&amp;oe=68E04AF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1106,30 +1116,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+          <t>https://www.instagram.com/p/DOvoGefAFeJ/#advertiser</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Hola</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>45923.69081018519</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>45923</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>16:34:46</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1137,10 +1133,14 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGzZj7f&amp;_nc_oc=Adk31wEZz8B_6vjTQC15Awor0ro3jv8hMST0qNsJSJGjGF1VORyoiIZXs0W9rXVyr0s&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfbvmbcPfLXOHi0dz1YWCBjteUTa_BefGYmfr7M-UBgZLA&amp;oe=68FD713A', 'profileId': 'pfbid05gUjXY4wqyz8WG1XpVudBvptMJzoqZRcLLhRHd7x9SsNWwPsJWph5b2qSNxffnvfl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1166,23 +1166,23 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hola</t>
+          <t>Guau que maravilla ya voy a comprar 5 paquetes</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45921.8059375</v>
+        <v>45920.15390046296</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45921</v>
+        <v>45920</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19:20:33</t>
+          <t>03:41:37</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1194,7 +1194,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tjT0A9tGBXIQ7kNvwEHx1WE&amp;_nc_oc=AdkYnvlaFI61iKMiSpndjUOjY7o5eRgxfjABfKFMUztp8e3LtrBvBl1In1zXvSsiEkM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfaEks7FWnQQXlp-QJy1BIMqbCsHaOQeR56OIOnK2GD5Kw&amp;oe=68DBD8FD', 'profileId': 'pfbid0vFt57ximvcmUJR9Bjm1CaKUwcEtGnPAtPn8v3rqTxDdLiPNianD77C9nV1fozFFLl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HSP71VLCc2IQ7kNvwGAeryd&amp;_nc_oc=AdkJVVh1_A07HtnY6qlnoe9TnjQ5Z2TplcK6gUM_EL6zO6n-qhsVhaCpowFCetAHXwk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_Afa53-LxS-pTgdE5GNl9mUzhWx0qMYJsrcBRkLLZAA0UsQ&amp;oe=68E07EE6', 'profileId': 'pfbid032qnnVeKzCVqfHwKzaGQ3AKEoYvFiwBVvmLbszWm8DKNzvjFqqY6j8awMrNyYqZQtl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1220,23 +1220,23 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena</t>
+          <t>Así vamos. 👍🏻</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45920.65306712963</v>
+        <v>45921.69010416666</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15:40:25</t>
+          <t>16:33:45</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGzZj7f&amp;_nc_oc=Adk31wEZz8B_6vjTQC15Awor0ro3jv8hMST0qNsJSJGjGF1VORyoiIZXs0W9rXVyr0s&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfbvmbcPfLXOHi0dz1YWCBjteUTa_BefGYmfr7M-UBgZLA&amp;oe=68FD713A', 'profileId': 'pfbid02CqoZRpnbAcmzVT7NmASkA5kSfRAB8o32YpxkMgAvc9UwEA3KXs9ysKVPL5uoki84l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=6Plub7RQI2cQ7kNvwGjqFwZ&amp;_nc_oc=AdlVypSotfFaJWx5MglOjLOgSreNGyZBbmBchgAkGQKj0nWPd-jXGorjLqtstFoGhnU&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_Afa70QbMVOl8afvxDyB9k2n3xH1jDIk2iZvz34nut2JFow&amp;oe=68E0595E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=6Plub7RQI2cQ7kNvwGjqFwZ&amp;_nc_oc=AdlVypSotfFaJWx5MglOjLOgSreNGyZBbmBchgAkGQKj0nWPd-jXGorjLqtstFoGhnU&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfYcWFyrBna0o40TgptzEQLvY0_yzA7KnRUg-V-YduTOLA&amp;oe=68E0595E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwFWwtvW&amp;_nc_oc=Admg8WaLtLzl30dJ6gUygJF2OXZ9cNIXaY2cz5BMMcLXUsXOzU6SOUSU_UI9fQFkhKA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfZSp-A3Kkq53uspqGxi_R0NvIvkRSny_aCoYfsGrMhXiA&amp;oe=68E04AF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '11', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1274,23 +1274,23 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kmilo Perdomo mira amor</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45922.14309027778</v>
+        <v>45923.69081018519</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>03:26:03</t>
+          <t>16:34:46</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1302,7 +1302,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sK1PCORYXLAQ7kNvwEsUSgZ&amp;_nc_oc=AdkqZGaUIPsRg9qtV8HLG32VLa-K7jWV5Oo49Dpdc7QCJzTKktNRyIaO6miSScvB6aQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfaTucKz5yQvHc7kdz4qAmGeWYOJW5WCy6NQYTS9efqYUg&amp;oe=68DBC7CB', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEOL1TD&amp;_nc_oc=AdnTuZFGChjdYHuftyog1Qg_nKrl0VoBZ4meSXhGvym7MlvB3TFI3zBXNQ2KIgaVFIg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_Afb9GUuFV-pGTHJgj_qjhafFtWGMtFyJSBOv4Rhnfferbg&amp;oe=69020E7A', 'profileId': 'pfbid029MmSR4j2szoUCARMh4E2Y7AyFVg2mfihb168ReUQqK3pxmmhacmizpxC6kYcW2nol', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1328,23 +1328,23 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Yo quierooooooo pero seguro se acabarán en un día así como los otros</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45920.30206018518</v>
+        <v>45921.8059375</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>07:14:58</t>
+          <t>19:20:33</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1356,7 +1356,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8yZ8Y--IHsQ7kNvwGqLj8g&amp;_nc_oc=AdmSFGKAH1xy30suo-WxVC04mbmwiVeJjA5_Yp0BvkUkY6VjVhmO2P48pWFzRxJewvg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfbJy-lF4hNNGfv_ii5Nhc1o7FHw2nHmf3AfOVOvmkLxDA&amp;oe=68DBC1B8', 'profileId': 'pfbid02cPUZQBkJRhdTbnxo855hixLSiKs2C5jZ8DZyUShwwXJQseSTJ6cJWZ6yGbZjxpQgl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gTaXvdUMiTcQ7kNvwEI9wul&amp;_nc_oc=Adln0NYFHXe8bwNnZ9FIQ_v1swfZIAizoIr3HhNAdI8c3m2cKlEuYo_fbvjROoN5R4U&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfZvWmZEl5CwsbGd9Tn1Oy8sbXYaWAnw-LaXN92fJvCXdw&amp;oe=68E0763D', 'profileId': 'pfbid02ywAn1VNrxVMHNg5cZXNZ7GfAPjDgn7DyhzoDmQAb7ULf4HA2CMCtUghVFPb6yeaTl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1382,23 +1382,23 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina</t>
+          <t>Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45920.04659722222</v>
+        <v>45920.65306712963</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>01:07:06</t>
+          <t>15:40:25</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1410,7 +1410,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/487762922_122183889584277994_7390978414495464071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g5mH2S-1tMEQ7kNvwETNnPJ&amp;_nc_oc=AdmjlyN0IYRH6-ux3Xj_Pubqv3NwjK0KBzlb_xWENiwZI6ewAZwL5w1MwYMHd05XGbU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfaKSqOH3Ven2RNG1hgDwz51qKaa_bNNFbZ9KcJfwq8K9w&amp;oe=68DBE0C4', 'profileId': 'pfbid0RDCuycBNtzbzUJAD1UkN7JoyYnQ47fhebUhZdjeCCmfrAWRmcLf7NQ5YtmLsy9mjl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEOL1TD&amp;_nc_oc=AdnTuZFGChjdYHuftyog1Qg_nKrl0VoBZ4meSXhGvym7MlvB3TFI3zBXNQ2KIgaVFIg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_Afb9GUuFV-pGTHJgj_qjhafFtWGMtFyJSBOv4Rhnfferbg&amp;oe=69020E7A', 'profileId': 'pfbid02CVVYqYF7XRsaU3tbyzeTMdYNFrt9PjWCuLvhkYt1ES4Nhgx3Fa3Thj4qB3wJ3Gyil', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1436,23 +1436,23 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>En villavicencio  donde se puede</t>
+          <t>Kmilo Perdomo mira amor</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45919.89318287037</v>
+        <v>45922.14309027778</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>21:26:11</t>
+          <t>03:26:03</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1464,7 +1464,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LfUMkpAN2wEQ7kNvwGnNLhn&amp;_nc_oc=AdkGgaYU879XVTjXmjXbZp2AcLeSl7LBnJX8QOje7IVbsyuxuMFThkG8JnGokgpEOT8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfZxUtwAdGe0yNJ37ZT_9XYXQSR4Y0IwgiEqlT7lLVF6Zw&amp;oe=68DBE154', 'profileId': 'pfbid0q3hNuBNP8PJZZbqhDXHxwwhJPsVv8fbshoU3WgErw6kn47gUWhYFUcJHVEhZc4abl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=BuGUH2HgiVsQ7kNvwE7B2lV&amp;_nc_oc=AdlJqn7jbxL0NHAXMeOG75EvcoqXdTJQMYrX3-i-OgL8_S8xrkf0z4A0KSjaD07eBFk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfZEgUy_DvOlQhE70-QTQs3vXHphCkOyEX2_hyaak4ufDg&amp;oe=68E0650B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1490,23 +1490,23 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Se reclaman en los oxxos</t>
+          <t>Yo quierooooooo pero seguro se acabarán en un día así como los otros</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45923.00528935185</v>
+        <v>45920.30206018518</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>45923</v>
+        <v>45920</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>00:07:37</t>
+          <t>07:14:58</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1518,7 +1518,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eElyCgIW5EoQ7kNvwHxs_SW&amp;_nc_oc=AdnYXeVBIdLCxyjIgzu9uLOHN7ZJzhi0D16WylqMZPJILzEN3e6k02dAxhyNsV1oBsA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=CIVdEztuZ2zCPN4JFEQbTQ&amp;oh=00_AfZsBKaD1MJJ7s9xsxgptPJy5HWQXPoh0etDoPg3Jk6DpA&amp;oe=68DBCB37', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BfBghEj6d1sQ7kNvwHfx1UV&amp;_nc_oc=AdlTl6qH9pTxm9qkpR8nb8s0pJXPAanRY9EuWobg-enzucR_HmMcjIkBC9l-slsfE0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_Afazw7V64gu3piP-AxhfF4GlszccUohWbzywUzXVOdQJ_g&amp;oe=68E05EF8', 'profileId': 'pfbid02c3AYouCpngbfzucDthPanMUWuUqZ6bBT2YcK1FEbsdWGuPaErpWV66pCsZqMWuRzl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1544,18 +1544,18 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ya tengo 20 *_*</t>
+          <t>Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45920.1136574074</v>
+        <v>45929.04376157407</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>45920</v>
+        <v>45929</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>02:43:40</t>
+          <t>01:03:01</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1572,7 +1572,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Mc6IbZXiqQQ7kNvwEHTC2H&amp;_nc_oc=AdmV-DtjvHsQNsW00l05EK6WvOXfIH2wUbJtl0JmQifXVkQ3uGH_pigFwzHG8Q6btu8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfZCgx6Eh-9oKA3-gk668kOsEztKShTc2MO_Llf9cJ4vUA&amp;oe=68DBD9C5', 'profileId': 'pfbid06wsJmjFVi6fcEDqkpB5cftoF5nZPmvCq51RVcFkRPZkZoUtMWS8Ci7h8QbBfucjfl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034krdNXFgWdJWLuhshwCdet49nx89prq8FApsS2HTuF1ugyth2aQ4GT5XGYrzk7Kcl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEOL1TD&amp;_nc_oc=AdnTuZFGChjdYHuftyog1Qg_nKrl0VoBZ4meSXhGvym7MlvB3TFI3zBXNQ2KIgaVFIg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_Afb9GUuFV-pGTHJgj_qjhafFtWGMtFyJSBOv4Rhnfferbg&amp;oe=69020E7A', 'profileId': 'pfbid034krdNXFgWdJWLuhshwCdet49nx89prq8FApsS2HTuF1ugyth2aQ4GT5XGYrzk7Kcl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1598,23 +1598,23 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Andrea Marimon</t>
+          <t>Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45922.65914351852</v>
+        <v>45920.04659722222</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15:49:10</t>
+          <t>01:07:06</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1626,7 +1626,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aXwUGs3_r0YQ7kNvwE7eyWz&amp;_nc_oc=AdkwyixBuGiipsUKJmoDsl2vobhLO74PFbJq4tIsrT7jzUn12CrzDrwVewlpYvev3p4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfYL5U4uFJqOn4hqHOcXcceO_HN8N2cdWv2jbWCXpx_AJg&amp;oe=68DBE6FC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_4nIAKXKxIQ7kNvwGlv32j&amp;_nc_oc=Adn5XV7h8J_oTc0Ph9clMMafcIBVi765riyLsvzqriVqb4KiTe0yL_f2UtHbPQ-VTNA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfaX0anBuK9ykmb5EH8cvCIEdCN9Uq7658UTVrEVYs7-nw&amp;oe=68E060C0', 'profileId': 'pfbid0RLrRwyD75f7iHBQr7ghxtPQsuMTnYsUYT3HqtvgZ5an31fG65mhLXKPwuTNXhoyol', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1652,18 +1652,19 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bajen el precio</t>
+          <t>Video en mi canal! 
+https://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45924.67572916667</v>
+        <v>45926.19298611111</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16:13:03</t>
+          <t>04:37:54</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1680,7 +1681,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XX3uptXIesgQ7kNvwFfYvwe&amp;_nc_oc=Adm2vszQ-xAVYOmZtUi84FndPbSIsthJ3n_iL_Wd-vmi3K0bj822PhEzgU6WTOlFW1I&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_Afakdfpj_ZGUcwySpWG2_j8D-yy6-lOjsZqamPGAd7uh0A&amp;oe=68DBD21E', 'profileId': 'pfbid0nh5K1eCKje4vD69ibTiVDseeYfW332vbDEPj53J1qk99hwWcxKFXs7dRqEbSVvkul', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V1_ArOdfOIsQ7kNvwFXb7lZ&amp;_nc_oc=AdlJ_5UO-nZ1n2x48x0Eflt2sBOMDtynsZfKBWZ6ZUlITUCFBVh2M34DVZjMxX2U93M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfYr_04co-H_fVFxuiS6H0-cV0q78RsF-nmYb5lHluhMew&amp;oe=68E04E15', 'profileId': 'pfbid02uRq6PjwHD7At3u8PpAMvTt1xf21NX6DPSGR3D8zPSWxijqXHphK9fhaGu7WajEtWl', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1706,18 +1707,18 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Joa cule moral jajajaja</t>
+          <t>En villavicencio  donde se puede</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45923.00206018519</v>
+        <v>45919.89318287037</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>00:02:58</t>
+          <t>21:26:11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1734,7 +1735,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bKa-lEw9abQQ7kNvwFgGHgY&amp;_nc_oc=Adl8q_AphcncQqciDaYF5YHRQVg8IyCNkuofbcb2gUQ_KgLiRcUKoj6AR-v4wJ5TGX4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfYXj2PJr5-o_oJ8oNpvTRIAY_j3I_SkM1zkT_yb4MnmHw&amp;oe=68DBEB78', 'profileId': 'pfbid0b8CP1RDgvNYftCbsJew69pr3E79scNWTMfyEhZSXHmkRGCgJAFzoJD9D9wryfHtSl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2tGCzyKQnTYQ7kNvwHs6UPQ&amp;_nc_oc=AdlLuHI70-jrsAzU_DH0-HDcNx1Oq58hjlx2vSUDB0HjHEeyNA26MJhJ2Sr384FHSk4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_Afawydf7od59ZAhpj7x8AhfZGcENrmTI81kMuzQaENdy2A&amp;oe=68E07E94', 'profileId': 'pfbid02tiz5ni2UADJ1cSMryhDcEz25TwyKZXGCfanyu4xY9B6DvzuHwdUFG7YrtMsHVSrvl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1760,18 +1761,18 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Yogo yogo da diarrea ojoooo👀</t>
+          <t>Se reclaman en los oxxos</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45920.03260416666</v>
+        <v>45923.00528935185</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45920</v>
+        <v>45923</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>00:46:57</t>
+          <t>00:07:37</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1788,7 +1789,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qeMbd3UYnssQ7kNvwGKV19x&amp;_nc_oc=AdmW3LqY7utWmXO23u16BZXAhLA14ksfnDFh6pBKnK05Rt0UYDyEUGt7-KnFqZo-Hgg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfYsse_fPVSX6vtfWAthfFbTu5TMrI0ZKiMkiqTrqBr17A&amp;oe=68DBDFFD', 'profileId': 'pfbid027cCYfeGE8taedPk6PVyiT6Kc2M68XSEBdoGvqBqqmYBP8MaYgVHYxNmZMHFuuMZzl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r4ZohxCpHWAQ7kNvwH6wZiX&amp;_nc_oc=AdmMNyf83DVw0gfBSSF12Be7QKBmTu6kNRHw_Vh37RiGcXVisBsYtnSErz8pf---RLg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfbAKbJAspxOejHh9uIcCGvPy1Q1pGCKmdlUXJ3NGB1aNA&amp;oe=68E06877', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1814,18 +1815,18 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pensé que era una publicidad delos Simpson</t>
+          <t>Ya tengo 20 *_*</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45926.03251157407</v>
+        <v>45920.1136574074</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>00:46:49</t>
+          <t>02:43:40</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1842,7 +1843,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fRfHY_3aUEYQ7kNvwGBJ3GT&amp;_nc_oc=AdkKKkzJmNu8aaxzDKAhEbqk-Gb23MOpltziBq7X6j-Qq4BmYCnPY1dAmocqfnElXq0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_Afa2Kv5DTLGuiNT2yqxk-k4QfXQMo-vpDfv43HqDpo3yvw&amp;oe=68DBE080', 'profileId': 'pfbid0FQsnRgu7pdGfmVRfRc8NC6Eo8jUrFX571JWV2KE6onWZEq4WzoJDkP9eCKbawF5Hl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bXQDM3E2NikQ7kNvwGo_7Y6&amp;_nc_oc=Adm67FT7ZYcKbbKCeZpOi0Nqsd-CQedwKutMY4O8L3H20-aKFnEa5PYFSsdBPUhl4_o&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfZ2uoCQY10BOu2f8C9sJk8FwgedU0Lwuheo4wqpH2gh7w&amp;oe=68E07705', 'profileId': 'pfbid02AdA1fFuak6veJWNtWrH2Hj3zepfFYdgc39MAFyjgs4NZW61P2cPsesHQtNAqLUKkl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1868,23 +1869,23 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman</t>
+          <t>Andrea Marimon</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45921.17625</v>
+        <v>45922.65914351852</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>04:13:48</t>
+          <t>15:49:10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1896,7 +1897,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qXSDOGkIHMIQ7kNvwEWi5R9&amp;_nc_oc=Adm2Gs8HHUyvTGP5GZCjEF5Ofzam1RLA5AEQwKB4V4qrfw0H3Wci_t6QQmRucgwPfB0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfbJmnC1bpn7IvQhgOgM4M2_GD0Q5VTtZghwjgVlAt04Zw&amp;oe=68DBBC19', 'profileId': 'pfbid0HewpnJRoMEeqArVtEKHv53wnNA5v65HfV69myeSTU6CefpAJtJgnqRZ879sHVLxel', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=YQpHqz8bZEwQ7kNvwG-B7Jw&amp;_nc_oc=AdnvZAskzFZWhRB0zfxkV10EKrvt9qLGttqpc_klHUjmvXXurMK22RH8L7kgZvbVVaI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfaeoT5zCdByxKOp-kJF14mt_ICbQD-KTute759Yk_8QXA&amp;oe=68E04BFC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1922,23 +1923,23 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>En cartagena donde se pueden cambiar los logos?</t>
+          <t>Bajen el precio</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45919.50665509259</v>
+        <v>45924.67572916667</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12:09:35</t>
+          <t>16:13:03</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1950,7 +1951,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mU-old8n1iIQ7kNvwFIhtX1&amp;_nc_oc=AdlqUWimn2BnkC82MlYqnh1asAu0vI-28sbUdYb8f2VYiMA4PmEqwpR7dZ6E7HV5ZMA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfY6aPhvep_LpSXd4C07PxWS4OtYeBA6VWxvvUa9XCxMmw&amp;oe=68DBE5F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zw4V3YaiRuQQ7kNvwHGgCup&amp;_nc_oc=Adlctsi6PZCMLRPBzMOzZZOC25f5MZHsETU9e0nmI2AG772PFAddOfBtGErru_5oWtI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfYHnXx9Hli7Q2CL-gUitQCQeRfXG8MQk5jh-W6Y3ekrqg&amp;oe=68E06F5E', 'profileId': 'pfbid02rNN1uArQmWaN5j6nvDozQtAmvQuQffwz48FqYegrhfQffzMoa7PMN4hMUSQiCY3Pl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1976,18 +1977,18 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander</t>
+          <t>Joa cule moral jajajaja</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45923.71571759259</v>
+        <v>45923.00206018519</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>45923</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17:10:38</t>
+          <t>00:02:58</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2004,7 +2005,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HUUrLNDFe-4Q7kNvwF_cVSQ&amp;_nc_oc=Adkp71RN-IwhegwV9amvgk5PERSb49kSde-UNzbR-J4wcFar9cwPoTdaSkuWu11zW5s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfbyufjytNyX787LFr_f1BY2JXKZnu32h03N2u1QhTTLmw&amp;oe=68DBBF52', 'profileId': 'pfbid02dX7RuDyxDWYBCWAHVLjCsWXnJS4aTJr5bAF46BWTjHQQj374HXtDHHtKf7AkYsSWl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=X1BNTq1g_0MQ7kNvwHUnpgx&amp;_nc_oc=AdlOhzkJ6qBRuUge0Q2zxTSshamhJ2KadXkFlk5ysbfGBv6BYF_5Il77z2BF1SZ4Cgw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfYKZAlDYyon5hHF8XnZQmFCVe42sxY82TNSGdl6QwS7Fw&amp;oe=68E05078', 'profileId': 'pfbid0amtNR8gDHNjDV6KSbxZAK1cVeoKAMMdqD1Uj7RreGGFkPyahCee8HNQSRBLZz7E7l', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2030,18 +2031,18 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nataly Leon</t>
+          <t>Yogo yogo da diarrea ojoooo👀</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45922.89533564815</v>
+        <v>45920.03260416666</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21:29:17</t>
+          <t>00:46:57</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2058,7 +2059,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_mGFzedJqIQ7kNvwGMWiJq&amp;_nc_oc=AdnxbJx_8K-Sv9i9kzYM6Gy_gn9FybMlPNkzkJTpcIg-Zu_vhCY7o4Jx4HKscScdJOk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LPkSNQO00atuF84idpSu1A&amp;oh=00_AfYtnbMrVoU_yrMAB4wS6Wq3FuOG_9forZxH-OGtLfR79Q&amp;oe=68DBCD68', 'profileId': 'pfbid02r1B5tusjJdyQfyEP7KyzxWjhjpK7cr247NwtrmF9bXbikXFoXAiQczv6NK9KxvPGl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=azNC7rvO99sQ7kNvwHpLH6r&amp;_nc_oc=AdkZ498huv5kO8euofBAx00M-s01kf86yhFTsGnGBXQJI7haWK_vZ76WBUjO9i2j46I&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_Afaieurj7cs8__BlGOEtEN3eP7yOcDm_kbnPJ2eKjIEPRQ&amp;oe=68E07D3D', 'profileId': 'pfbid027jr4e1HxKZNb9ftd2hrmug1FArbopKVj4hReDkuGrBUsCo48NDBBer7os7tLRDUhl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2084,18 +2085,18 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Los yogo premio no se consiguen en ningún supermercado</t>
+          <t>Pensé que era una publicidad delos Simpson</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45923.1059837963</v>
+        <v>45926.03251157407</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>02:32:37</t>
+          <t>00:46:49</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2112,7 +2113,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x2dnAlG4PBgQ7kNvwHI4u35&amp;_nc_oc=AdlNUq7r6LAKpgtc_Sv3CfQ1xxpmEOm6lhtGFATgrGJUBjVbJXtBZXOQFOd9d34rv28&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=oq4nYKtm48W6dIngeaWrxw&amp;oh=00_AfZ88totAk7RCay2U1_D2C9xQCTwC9Y4N0iwG4cHNJt67w&amp;oe=68DBCD7E', 'profileId': 'pfbid02iiXnSb3vWuk7DuLmNPs75DoBPWZuSAQMPL7YELYBdBYEw4vVUGFTQJ9TYnbtSeXWl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tWvyKtaLKHEQ7kNvwGADiAk&amp;_nc_oc=AdmOvMpU0PDayDOvlM05Uknx-dNTGFhbGFAgxrIB3GCynOCRHi6C456QnxG9uqFKQ2Q&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfbWpY9ZjbD90sN2WzXA_Jetbcb_YnqZ8fdifDwtYIo9HQ&amp;oe=68E07DC0', 'profileId': 'pfbid0F4ZmqQMeBYuvACiLxDfb2qckcgs83QutTsgnr8nr5unDPLXudMeXxfoH4TunDMdml', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2138,19 +2139,18 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hola 
-Esos muñequitos los están sacando de Temu?</t>
+          <t>Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45924.90376157407</v>
+        <v>45921.17625</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45924</v>
+        <v>45921</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>21:41:25</t>
+          <t>04:13:48</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2167,7 +2167,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwH0vzlX&amp;_nc_oc=AdmhXR3qb1sMHZbd7qsHxszbpuVm86lZV5_hkpR-7OghsibuivLY1fUCrm2tVpHhPYU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfbDqios4q6MxRO30WFVoTnxqWjNyUVI_BiCEBjAP5nT_A&amp;oe=68FD713A', 'profileId': 'pfbid02oWgw1YioEU2PcERmtBf1LHtuntKHygaFENCJYvwKmSHu6CxoFsfjym1qSjTWFRFdl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JBGfjaEP2m0Q7kNvwFAfTrw&amp;_nc_oc=Adkus_YN7kRTi8zhNj5izMiVC0NPlydTQLCHnZfZ6cZqcQoMNLsiIbvjnrHCm3IJk5Q&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfYELnsskTt-N8ELpmplzpfzLifPW15M-dws8vsHT_Ijkg&amp;oe=68E05959', 'profileId': 'pfbid02MLEXfq5tNzn7N93SyXhhHDYUisgt4jUNLFpYu46jLMfyhdVyYbgpDdCh1DwdrRbJl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2193,23 +2193,23 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
+          <t>En cartagena donde se pueden cambiar los logos?</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45925.76949074074</v>
+        <v>45919.50665509259</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45925</v>
+        <v>45919</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>18:28:04</t>
+          <t>12:09:35</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2221,7 +2221,387 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BAIGGJMZPVAQ7kNvwEuO0yF&amp;_nc_oc=AdmBPq2UNJL2xW1pJzJBiFTaz5cldscYje6j5bA_1D2Kt_VCA9H4cOq5I6FAlsyw9sU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=oq4nYKtm48W6dIngeaWrxw&amp;oh=00_AfbOOeMNAzOPLPSnL-RdIdn6NXKjOnW_Sspgl0GTlHf99Q&amp;oe=68DBC371', 'profileId': 'pfbid02JShnhzmCuUGKzkPaYdL2B7Ead6We8cJwoFbveiaVXVzttuc5vwTZREn5DqwEXR6rl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwFrMRFE&amp;_nc_oc=AdkEG7yqbCDPozlYBGFy7i7Ky_6QSyo1sySvkxcoq5X5FiHNYn6FCkiBeknBIzrrGfQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfZhj6ZYWgNIMahwZsZ4g9pXcXX6sp280I6JRCIOahr3yQ&amp;oe=68E04AF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45923.71571759259</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>17:10:38</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9zsBWsibwFMQ7kNvwGGgE2y&amp;_nc_oc=AdnF8q5jmtrTqK2GKnlrWGx9So_hSY6V5Ao3D0YIZB0qPMFGuDCSzY9dwdTISY5owpQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfZjggBEp3dc6WDLs6PRvrc2vAuj8pvFwG-u4JmWg-NrLA&amp;oe=68E05C92', 'profileId': 'pfbid02dekwsb1gQ5cxeUBkKGG8Bk6pN4ouQUqtiDwDrbG9ahQ5YhjoYkv3twYhPXXkz6tHl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Nataly Leon</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45922.89533564815</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>21:29:17</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=W0ALuB32D78Q7kNvwGR_zMr&amp;_nc_oc=Adlcvcb-3fmdbeInrsc6rD_B96G1iPXP8VA_BoNM3hXNv0NBKeEJjH0iMu95UrFMwyg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfbwfjPP4qjR_5F-FzcKAgooU46sA-BlbRZGjDz-1_VChg&amp;oe=68E06AA8', 'profileId': 'pfbid0nHNtgbyde5BLGgEGS8QKRKEnMmrvzJDGZuHbcFv1J5tXSLRX3pMhQJ1vGctbAmFZl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>En los  Oxxo de Pereira ya llegaron</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45926.43178240741</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>10:21:46</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b0TQ9a4dddoQ7kNvwH2qrSr&amp;_nc_oc=AdkEypq43pSmck4tYAhRt0x0mn_XdVhYSRSoaesCOF_dI-gcmmMyC64QpfUyMO8lGXU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfYGheLLSh-ldOn3zR_QrfFv2uWypWGI0MjeL4ghY2Jc5Q&amp;oe=68E05309', 'profileId': 'pfbid0TkyC5zXxBBZxvnRQeFsS6yx6HZRF9L7wXcx48Ucomn42nZzi7q75ahrp5ybezn9kl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Nombres de los MOCHISAURIOS 
+Nombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45927.08712962963</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>02:05:28</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vgHTsFbWKaUQ7kNvwGLdjMG&amp;_nc_oc=Adlv5_-ffHPv82vkR2ZxSyKccl2N2t40Q0nPX-bAjHzZj98dXFeIVtszq9VWkIpnaSI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfZlL1piEldF776O962B1lDrtDihxewpHq9EzmIh1ihdvg&amp;oe=68E04CF6', 'profileId': 'pfbid0MijRzoTd4BZZ2NcXFGXBBYndEHcsom4nTvHamL5deQvnYQSSJaDbKf3zcTroeJ3Xl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Los yogo premio no se consiguen en ningún supermercado</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45923.1059837963</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>02:32:37</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7t6gDb-FD54Q7kNvwErHnTk&amp;_nc_oc=Admf_vimKf83qj1tVGSnrlpGQ0pHQ_A0LrjdskxdvVeGLPRAVyd-z9HDvzYNKp8W9Bs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfbC1Xn1Kj-rX985t0fA63D3MPJigv3OydOR-G8GWJW3yQ&amp;oe=68E06ABE', 'profileId': 'pfbid0ezjbEH9pr2qA3hdo6dPETowNEGNjvfLLFN2KAWwuu92siqzdrKXbzZ7e7RNc3TN3l', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Hola 
+Esos muñequitos los están sacando de Temu?</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45924.90376157407</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>21:41:25</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwE5i5tf&amp;_nc_oc=AdmvttijlEt1-uj0hAhNR4308GOWdD55gAi4uYRGiSW9tqfAouaYaRRiaJV9hlzaKhU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;oh=00_AfapCHd4KSmW9ovLSc1fLKZXCy2F_T6E33B01tmlcupo5A&amp;oe=69020E7A', 'profileId': 'pfbid02oANvRGBKbWUntHwtwEo5GyZVkVYz6oKdk3RrNgXq3ZHkrVHgRxYn7KE2xMdToeYWl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45925.76949074074</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>18:28:04</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uibEZpOWmSYQ7kNvwGnykCH&amp;_nc_oc=AdmsJW4K5cEm2JefApSxziU3nbCZ1U4F0mdyxlLhNRHCIzXurd4gkOHkzDGyVj5JXJs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfZaPX74xlU8nj3yf70Fx06JvP-PKBxVrITjw9k37PvlWg&amp;oe=68E060B1', 'profileId': 'pfbid0EiubVgs7EesC1KVH9cF6JQyT9MQW2SKiqKqKwcesBe6DfMNwrqueLbMTbXy9twr6l', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2307,11 +2687,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2011151</t>
+          <t>6002110061</t>
         </is>
       </c>
     </row>
@@ -2351,11 +2731,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37001110000100000100000</t>
+          <t>4110011100000010000010000000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOvpQZYALLC/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOvpQZYALLC/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pdItx_2W72UQ7kNvwFZL1CM&amp;_nc_oc=AdnBULnQzsUOEOemWjvVqf6Wxw39ABSEhYR4vYfv0-A2LUMnnfqc4FngWqBJFGaSbbw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfbooLjkjZy8jk7bZ2nHo7t5i03hiZA0lUkYd6DXs0jmDQ&amp;oe=68E0597E', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=65p3yslT2-4Q7kNvwFIrFPM&amp;_nc_oc=AdmF_EIH-04W0F-MuM87VZuJyzKXgRs46hMQ6gN8ZSNgRpiOaUH4wqiE_-qquHrwkMM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfZOG5xVgueskKvYhly3DGGl4lJv5WnAP0nnKmsY42C7vw&amp;oe=68E1AAFE', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=m_GWCmBy7kgQ7kNvwHjT-s8&amp;_nc_oc=AdmgkXbmehMMw62DoyNhYFaHzrhCkUuyxv6qAo6WsLEyHoH9SmVC0yyM8TRq7Rj4_PE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfbMRCPbSgnumXbqxRKTFCk5BLre1qMkxYBS0xIWg79mKg&amp;oe=68E0586B', 'profileId': 'pfbid03gPcnGz2Bk7YPdhGmfjqwio7tNwphBY77VwozWvB27oy8VtwuH8RpHGUT8TJURvMl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=O1QCOd8yQI0Q7kNvwHaMLvq&amp;_nc_oc=Adm7fg6cQ2s2halzK0x0QQSCmcHzslnTXq21_sVqjhmRepZ_6Nr8h3ZYS95cWx224dw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_Afal6EYuADgIUb3MjBNsppFw4b5pa3CbpUYpgWMpxHV0ag&amp;oe=68E1A9EB', 'profileId': 'pfbid03gPcnGz2Bk7YPdhGmfjqwio7tNwphBY77VwozWvB27oy8VtwuH8RpHGUT8TJURvMl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ndEbWOeMGjQQ7kNvwE86QZT&amp;_nc_oc=Adk0H3Q5KNrj-NFN2A3lP-4z2QpyTAmhUQ8Ak8Sk1H3hzEm739AZck2ehMFrwnARrjo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfYtqh-v_O3gbgX8ZIfC7SAgPr9NiT3jKL1pzymzRqZLHQ&amp;oe=68E08012', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ndEbWOeMGjQQ7kNvwEAF_6t&amp;_nc_oc=AdlLwpSvxaDsWhjNR9etJrEZajlCImSVlMxDiK7_xW_UcsZJvMOqsDwofTKJFbKHTQw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfafKgJmQhZ5na2CFcPuENstTT5R8MRwQ5xxwXv4K3Yn6g&amp;oe=68E19952', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=0qH4WMqcJBMQ7kNvwHofebS&amp;_nc_oc=AdmJOXE9VTAz6mEulisqa4-jqZwM9PTOyUkpktI0OLOOiZaSmZdjc5ETkGJaA2uTYRk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfYR1Jfeq_L_sOPBu51yRrn4gvLu57ZMuwK_M1jr4OVYoQ&amp;oe=68E06F18', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pE4TAJQWgk4Q7kNvwEtLJq4&amp;_nc_oc=AdnB5sdf7Xd7U9c8EbCPHnPltGe5GcWu_pGxDNiadnT1XPGpPUXziVg9WZ0TcJyQNJs&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfaziLiYOPW9wKsCE6NWmrQgcrPOoSUGwNGgD5bWz1V5FQ&amp;oe=68E1C098', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid028gLpf8uVaToRst6J1pi4b6WDXxtN2YxAm3WSNCivofoDaix9HAbRd86JaZRxYKB7l/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J-hZCKpAy88Q7kNvwH2SPKc&amp;_nc_oc=Adn7IS51KJYhfzHctlw4TwPEbJpXboKDF9Rwbzu-XdUX_bLwEiX7MaKQXBNxU2Zp6cg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_Afb2qn519xQRFCwAQBp-fdQRsPUlL930RQaH2WMypUlwzA&amp;oe=68E073EE', 'profileId': 'pfbid028gLpf8uVaToRst6J1pi4b6WDXxtN2YxAm3WSNCivofoDaix9HAbRd86JaZRxYKB7l', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid058hdjyH8jGYfZviSMPKC5teu7hgKCs8Hj19xEAnA9TKWZHBBdDmtrNnRYJyz19RSl/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VJaKOWdP8j8Q7kNvwHvgqbb&amp;_nc_oc=AdnIdU5PX7zzHCWi7YSrRMYHkrkgAfjC1oP1TTjO4Pt18MLjlVPPwpwXCcCC5YWwfOk&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfbPrS2qkb3rnlf1UdUglmL3ax3rsTAuvRCsCtiG70vLgA&amp;oe=68E1C56E', 'profileId': 'pfbid058hdjyH8jGYfZviSMPKC5teu7hgKCs8Hj19xEAnA9TKWZHBBdDmtrNnRYJyz19RSl', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0U0JmSedy9kQ7kNvwEdDEyH&amp;_nc_oc=Adk-RLkS-y9PRLIIkm_hNLHe2IefpUgFCvkzjl3d-mNroxPxHYbJ1UONONd0-1jdgmc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfZfy1KZpClwaxCc1JAnhQ55GgrhNCiaZ4C4JPD0vM3gbQ&amp;oe=68E05897', 'profileId': 'pfbid02KpsBRhJBgjV1HWR6SQfzYFRN32u4QB9J8jLW8uQvKfhEn9LbNnSeF8oKDk29SSwHl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0U0JmSedy9kQ7kNvwFJmSbD&amp;_nc_oc=Adks5n2ExOAu2l__nKACAmhqbDelpoekthfLE-hWg35TfecMsYjgT6_KfKxLWGhXnoo&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfYX50H-giSuBbv5B0YqJsxfTY9RgFUvYxd3JaTV0kDN_A&amp;oe=68E1AA17', 'profileId': 'pfbid0GHDzWXfpqXX4uvuyd1LF37bgvXka6YYde8UbHAYvdRjDfzJnXWXUboU4Le4JtpCLl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=v_W328glaP0Q7kNvwFfa3Tb&amp;_nc_oc=Adlpsn_OzSp-96OZb4zrRkRJyyn4CJEn5B8mmI6VyrQKHdNJjSpxz7gaorWJhOlDxIM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfYPNqrAMuCdT_UfS8bKarrta4zwdvmJ2wYkEHbtYeSGJw&amp;oe=68E06D67', 'profileId': 'pfbid02icrWGzN3bc36PQtK65JYaAcymCQzdJoa1jLv9T1WiMup8y8KSQVvCWS39nL8FMyWl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=v_W328glaP0Q7kNvwH0IEKy&amp;_nc_oc=AdkwIIBLo6WnXsOuFEYog74yuFvua0py1aAQrAYnSYoKH5IftTR_1SMsLPjrmh9RSSw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfYb2owJK66_5kP6NclL9lyIWbPTgR4pl4wap4Wpe3BZ_Q&amp;oe=68E1BEE7', 'profileId': 'pfbid0f5DKMpjgkRkegD4FjfgTGrj9owAHZzmEvs22ya8Ud4SRRH2RaoMMPxiXjNGVKFYnl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid02Yf8fEspGXQtNzQFq4oYoo4LqzFg7Xbcd3LfhP8JzdELKuxwUcKn5W3q1VdTBHWkEl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEYaFej&amp;_nc_oc=AdndMUzn6kG8y7L27zzoyRO-I2t_ONQCUyBLkctgcoYZXAaWwVAPvOZITjIvaAWuct0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfYQt46L7Ubzhv0sP8NiEQJ0TpoL3tMsZWJBbhPpb1OqDw&amp;oe=69020E7A', 'profileId': 'pfbid02Yf8fEspGXQtNzQFq4oYoo4LqzFg7Xbcd3LfhP8JzdELKuxwUcKn5W3q1VdTBHWkEl', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid0UdXwm4chrQzpsjZB1meU7swGoiDHAXNzaCD3cpwimTuscXMfBZ3QMTorwhfirRXol/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEeCJkZ&amp;_nc_oc=Adn2dbYEKg2rSRT9tj4p0Anm0ngkHRhMsRn8EvTBHHjIG8gNQF0qWumOX8Ux0VlQmkA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfYFvgh7G8yCnnAIjYaSPwFVn0OpEhk-nU86aYNOKU5tMw&amp;oe=69035FFA', 'profileId': 'pfbid0UdXwm4chrQzpsjZB1meU7swGoiDHAXNzaCD3cpwimTuscXMfBZ3QMTorwhfirRXol', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zp46KciYPjoQ7kNvwHg55KW&amp;_nc_oc=AdlPEZ-DyNPd5mG8-APXGBAmbJdIoj_GA_dtX-9lU0AAxsMU4diutlQW0gOeY1euRwI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfbJuut4IkFRS8BRuyfmtDSH7JaPSUJNEBQgMJNCy_Vy0A&amp;oe=68E05848', 'profileId': 'pfbid02Ncc8o5hWSY1cbMQRZGgCLjGMjtEZ3GyMyNwPv1gWTrCxJbbaLjCRLZfeLUpckR4hl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zp46KciYPjoQ7kNvwGJ78Pp&amp;_nc_oc=AdmEA4WEr9NM99pf1RO8Sq8okvowANqbO4Bu3a1ZaHOPBB5Y1nzPhOp9yzEf2G72X7E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfZYHfSMeHkk69lvryOKjvDmfwiOBieM9Wh2AqdqnrSCsA&amp;oe=68E1A9C8', 'profileId': 'pfbid0K4xwsv59bFuXYFqdPqZbCYM11NkVEYASJ2JMjy32FHbhQPaHYV4G9rkDDhC1TWaHl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwFEt5ru&amp;_nc_oc=Adl8pm_4z02RuSM901SINlw2JPMm35yRkz_Yz0eM_5dnOhlQkI3DpYTnox6BtQp9OII&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2coavtDt7wEGUi-RVilwQQ&amp;oh=00_AfZXWehvYAAx_qKBUZi0A0t9wddJBGtSJ6r2WBUc_ruYbw&amp;oe=68E04AF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwEyFQDj&amp;_nc_oc=AdkN2iW6eQKlzjVcMNStq6hq_CrhMI4REr1bsUcR-5v4gxmELuqxk8o28gfDuxJtq-c&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfbQA6ONtEJ5F-8VPgJq_7pYnkit0lDE-duWgZo2v4y-QA&amp;oe=68E19C70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HSP71VLCc2IQ7kNvwGAeryd&amp;_nc_oc=AdkJVVh1_A07HtnY6qlnoe9TnjQ5Z2TplcK6gUM_EL6zO6n-qhsVhaCpowFCetAHXwk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_Afa53-LxS-pTgdE5GNl9mUzhWx0qMYJsrcBRkLLZAA0UsQ&amp;oe=68E07EE6', 'profileId': 'pfbid032qnnVeKzCVqfHwKzaGQ3AKEoYvFiwBVvmLbszWm8DKNzvjFqqY6j8awMrNyYqZQtl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9ItsiCAOw2IQ7kNvwEPi7mr&amp;_nc_oc=AdlATUMI-qHRk7p-MK7A6uWXJsrVwT8FDEjbLgao2WKeXDyXe0-uueaTjB5KoosP23Q&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfZmMJSkyPJLK25ymimh7uDRjMx1Eo_EgVT38Z3YaphOWw&amp;oe=68E19826', 'profileId': 'pfbid0yJ9baUhdML9oa6CffDJagPp5P5pZZxopG3bb8mxM9fqkuqQtn81RaPJMZUSSNo9ol', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=6Plub7RQI2cQ7kNvwGjqFwZ&amp;_nc_oc=AdlVypSotfFaJWx5MglOjLOgSreNGyZBbmBchgAkGQKj0nWPd-jXGorjLqtstFoGhnU&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_Afa70QbMVOl8afvxDyB9k2n3xH1jDIk2iZvz34nut2JFow&amp;oe=68E0595E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=6Plub7RQI2cQ7kNvwGjqFwZ&amp;_nc_oc=AdlVypSotfFaJWx5MglOjLOgSreNGyZBbmBchgAkGQKj0nWPd-jXGorjLqtstFoGhnU&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfYcWFyrBna0o40TgptzEQLvY0_yzA7KnRUg-V-YduTOLA&amp;oe=68E0595E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwFWwtvW&amp;_nc_oc=Admg8WaLtLzl30dJ6gUygJF2OXZ9cNIXaY2cz5BMMcLXUsXOzU6SOUSU_UI9fQFkhKA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfZSp-A3Kkq53uspqGxi_R0NvIvkRSny_aCoYfsGrMhXiA&amp;oe=68E04AF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '11', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwEGCwGy&amp;_nc_oc=AdnwuT1mJ6jNN-zqjrlYzsgW9TD0n5wOuRavMB6-melFjW_zmHjOS3A7myJr9gfyh6Q&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_Afawt_caKo7sy-jeOw9tFQ_3WSINyrciZaYdMGXprdR82g&amp;oe=68E1AADE'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwEGCwGy&amp;_nc_oc=AdnwuT1mJ6jNN-zqjrlYzsgW9TD0n5wOuRavMB6-melFjW_zmHjOS3A7myJr9gfyh6Q&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfYylBFgN1P3H3CdELe8Wuub92R1tZw2GBCNHaSSbqNoLA&amp;oe=68E1AADE', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwHKCJ2J&amp;_nc_oc=AdmU_uOviO2TTbt9wdUDgpkOIiDDwrB2yetw7y9Vk1KhsvBaQSQ11IrfYfzBMIcs5D8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfZ1SA2X2IXOE4peyimJnAHxwgpQEFUFAR055xuCwgfJKw&amp;oe=68E19C70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '13', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEOL1TD&amp;_nc_oc=AdnTuZFGChjdYHuftyog1Qg_nKrl0VoBZ4meSXhGvym7MlvB3TFI3zBXNQ2KIgaVFIg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_Afb9GUuFV-pGTHJgj_qjhafFtWGMtFyJSBOv4Rhnfferbg&amp;oe=69020E7A', 'profileId': 'pfbid029MmSR4j2szoUCARMh4E2Y7AyFVg2mfihb168ReUQqK3pxmmhacmizpxC6kYcW2nol', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGa2jG1&amp;_nc_oc=AdmrmUXIeEalbrE33D9ocpU1O67jzt_rom4684aPy-av5WnYOrk0Y6BN61t6DnV4dwE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfZnCWvwvbCjvdIhjD6OqZsF2RO876kK06rLwTXclfhb8w&amp;oe=69035FFA', 'profileId': 'pfbid05p8FVu6g2jW4rqMxjR1TL9EntjktFdYRVZybvj5jWm5EqRXbqLmD2Sxmw9sKBeadl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gTaXvdUMiTcQ7kNvwEI9wul&amp;_nc_oc=Adln0NYFHXe8bwNnZ9FIQ_v1swfZIAizoIr3HhNAdI8c3m2cKlEuYo_fbvjROoN5R4U&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfZvWmZEl5CwsbGd9Tn1Oy8sbXYaWAnw-LaXN92fJvCXdw&amp;oe=68E0763D', 'profileId': 'pfbid02ywAn1VNrxVMHNg5cZXNZ7GfAPjDgn7DyhzoDmQAb7ULf4HA2CMCtUghVFPb6yeaTl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gTaXvdUMiTcQ7kNvwELl0-q&amp;_nc_oc=AdkSns_5pT7cZblRimejKJLAZOUmIYbSHstbYhjQiExkTbS0Q7rjicDeqZPPKFVhqsM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_Afb3EGG7VGm_UMssqUqrlXBckpDncAGyftdGiM3S4hDSBA&amp;oe=68E1C7BD', 'profileId': 'pfbid0vPXb6KkW7AgLVjgVFR7GBjWQGS6NS8LBnHYzbkfYp5dQX2aVdWmPPfWZoVmTnYyAl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEOL1TD&amp;_nc_oc=AdnTuZFGChjdYHuftyog1Qg_nKrl0VoBZ4meSXhGvym7MlvB3TFI3zBXNQ2KIgaVFIg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_Afb9GUuFV-pGTHJgj_qjhafFtWGMtFyJSBOv4Rhnfferbg&amp;oe=69020E7A', 'profileId': 'pfbid02CVVYqYF7XRsaU3tbyzeTMdYNFrt9PjWCuLvhkYt1ES4Nhgx3Fa3Thj4qB3wJ3Gyil', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGa2jG1&amp;_nc_oc=AdmrmUXIeEalbrE33D9ocpU1O67jzt_rom4684aPy-av5WnYOrk0Y6BN61t6DnV4dwE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfZnCWvwvbCjvdIhjD6OqZsF2RO876kK06rLwTXclfhb8w&amp;oe=69035FFA', 'profileId': 'pfbid08wrMvNckgAtQjDQymicgqMEhrjNHykdPyUWu52qJDG3NSk4Bhvfwvb8bP54r72yZl', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=BuGUH2HgiVsQ7kNvwE7B2lV&amp;_nc_oc=AdlJqn7jbxL0NHAXMeOG75EvcoqXdTJQMYrX3-i-OgL8_S8xrkf0z4A0KSjaD07eBFk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfZEgUy_DvOlQhE70-QTQs3vXHphCkOyEX2_hyaak4ufDg&amp;oe=68E0650B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hQ4ynS0hm4MQ7kNvwFl1So0&amp;_nc_oc=Admx_yIHVOczq4CJMcPHTsCtHHGCA5YiMSVzD-8qcH3ncmlphO1VOy2uqWNHVTW4klw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfZ9ErkVWSiBjNc6kG6O78Ya_Y0wLC-M3a6xLWvYRZAqvQ&amp;oe=68E1B68B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1518,7 +1518,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BfBghEj6d1sQ7kNvwHfx1UV&amp;_nc_oc=AdlTl6qH9pTxm9qkpR8nb8s0pJXPAanRY9EuWobg-enzucR_HmMcjIkBC9l-slsfE0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_Afazw7V64gu3piP-AxhfF4GlszccUohWbzywUzXVOdQJ_g&amp;oe=68E05EF8', 'profileId': 'pfbid02c3AYouCpngbfzucDthPanMUWuUqZ6bBT2YcK1FEbsdWGuPaErpWV66pCsZqMWuRzl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BfBghEj6d1sQ7kNvwEicvSd&amp;_nc_oc=AdmrSXUmCKnUoYjxVWeBE4qEx_YEVlRQgW_06_ulmbxe4ITqYyiOzzzsU-xEhiueW5o&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfaQli3YcVnB6BSRdYp7Yf67PwP7TD3mTnZnUog7PZraMw&amp;oe=68E1B078', 'profileId': 'pfbid0YVXMtjaTwTEQJSx8cV7THTPPkmYj9zz6jxHAYmFGGuZ4ErDv8NUAFbzb4G4kvaVql', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034krdNXFgWdJWLuhshwCdet49nx89prq8FApsS2HTuF1ugyth2aQ4GT5XGYrzk7Kcl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEOL1TD&amp;_nc_oc=AdnTuZFGChjdYHuftyog1Qg_nKrl0VoBZ4meSXhGvym7MlvB3TFI3zBXNQ2KIgaVFIg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_Afb9GUuFV-pGTHJgj_qjhafFtWGMtFyJSBOv4Rhnfferbg&amp;oe=69020E7A', 'profileId': 'pfbid034krdNXFgWdJWLuhshwCdet49nx89prq8FApsS2HTuF1ugyth2aQ4GT5XGYrzk7Kcl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid021DDSTMdKfSVxd3MFRnHv7NhsQAjAfCj4kdsAhajwEv279fVqqC3aEi2rb5rZngGul/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGa2jG1&amp;_nc_oc=AdmrmUXIeEalbrE33D9ocpU1O67jzt_rom4684aPy-av5WnYOrk0Y6BN61t6DnV4dwE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfZnCWvwvbCjvdIhjD6OqZsF2RO876kK06rLwTXclfhb8w&amp;oe=69035FFA', 'profileId': 'pfbid021DDSTMdKfSVxd3MFRnHv7NhsQAjAfCj4kdsAhajwEv279fVqqC3aEi2rb5rZngGul', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_4nIAKXKxIQ7kNvwGlv32j&amp;_nc_oc=Adn5XV7h8J_oTc0Ph9clMMafcIBVi765riyLsvzqriVqb4KiTe0yL_f2UtHbPQ-VTNA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfaX0anBuK9ykmb5EH8cvCIEdCN9Uq7658UTVrEVYs7-nw&amp;oe=68E060C0', 'profileId': 'pfbid0RLrRwyD75f7iHBQr7ghxtPQsuMTnYsUYT3HqtvgZ5an31fG65mhLXKPwuTNXhoyol', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_4nIAKXKxIQ7kNvwG_R49O&amp;_nc_oc=Adk5FcDHabQieTiNxEQ25eSBt1E7nTItASKo5G3gUtStR6PNqWYiJRGankc5y5GcPl8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfYSIn-hFs77kvw8QKDEQcPvZO63sPEXt0dfhsgMErplLg&amp;oe=68E1B240', 'profileId': 'pfbid02VCJ98e8vw36BayEhkH4cunNKDsmB1CdSTweSNdN2TxNAscGyiKz8GbL1KB9i4Umil', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V1_ArOdfOIsQ7kNvwFXb7lZ&amp;_nc_oc=AdlJ_5UO-nZ1n2x48x0Eflt2sBOMDtynsZfKBWZ6ZUlITUCFBVh2M34DVZjMxX2U93M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mqkAG9Y-qDhiASCaPn5SKQ&amp;oh=00_AfYr_04co-H_fVFxuiS6H0-cV0q78RsF-nmYb5lHluhMew&amp;oe=68E04E15', 'profileId': 'pfbid02uRq6PjwHD7At3u8PpAMvTt1xf21NX6DPSGR3D8zPSWxijqXHphK9fhaGu7WajEtWl', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V1_ArOdfOIsQ7kNvwG8oD2o&amp;_nc_oc=Adn_zc8RBu-UnXWqqH5Fr4AF1A2053ah3KfbHa0ClMNm8GHkwpQ6lrha90WET-Z3jZ0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfaWjeTtH12mq2tg3FlhCMOjW-bwJnjpCtGp_rcck2RFRw&amp;oe=68E19F95', 'profileId': 'pfbid0qtBuUaJvMrEV17k3nQ9rnWLgEf8a3dVuuPembGniT7qJVKVaRpcRLhenp66scDKvl', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2tGCzyKQnTYQ7kNvwHs6UPQ&amp;_nc_oc=AdlLuHI70-jrsAzU_DH0-HDcNx1Oq58hjlx2vSUDB0HjHEeyNA26MJhJ2Sr384FHSk4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_Afawydf7od59ZAhpj7x8AhfZGcENrmTI81kMuzQaENdy2A&amp;oe=68E07E94', 'profileId': 'pfbid02tiz5ni2UADJ1cSMryhDcEz25TwyKZXGCfanyu4xY9B6DvzuHwdUFG7YrtMsHVSrvl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57zJkeUH0woQ7kNvwHnoNTa&amp;_nc_oc=Adn0lnzO2jt2RWDmJp-MVMRtsuICDShjlAgjmVRhMvD9wngspXL8oQkMP5WrudzbM8M&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfYmrwK7cAUyMt9cKAfCnMQUIft47I35CtbfjMrCWF292A&amp;oe=68E197D4', 'profileId': 'pfbid0qBLtsYQ7K1KfnmNgRAwRpFDNucUc5D5JXC4C2jFH15PGUMtHwp3fVtxQCYsGfBExl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r4ZohxCpHWAQ7kNvwH6wZiX&amp;_nc_oc=AdmMNyf83DVw0gfBSSF12Be7QKBmTu6kNRHw_Vh37RiGcXVisBsYtnSErz8pf---RLg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfbAKbJAspxOejHh9uIcCGvPy1Q1pGCKmdlUXJ3NGB1aNA&amp;oe=68E06877', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r4ZohxCpHWAQ7kNvwERMHGc&amp;_nc_oc=Admn7d7Aa82QwwLg18t0wX2W7f2zraMrqgxxxIzuVHhPhM6oj-t5jO2eBMtDwEVUAgE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfYKTZdYp7Gnu1waE0D1BYktzV-XbXyHWE5z165xoKs-uQ&amp;oe=68E1B9F7', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bXQDM3E2NikQ7kNvwGo_7Y6&amp;_nc_oc=Adm67FT7ZYcKbbKCeZpOi0Nqsd-CQedwKutMY4O8L3H20-aKFnEa5PYFSsdBPUhl4_o&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfZ2uoCQY10BOu2f8C9sJk8FwgedU0Lwuheo4wqpH2gh7w&amp;oe=68E07705', 'profileId': 'pfbid02AdA1fFuak6veJWNtWrH2Hj3zepfFYdgc39MAFyjgs4NZW61P2cPsesHQtNAqLUKkl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bXQDM3E2NikQ7kNvwH9GYZQ&amp;_nc_oc=AdlVoxS8HA25uyvvUhX9ePiLDae7jPnwJ6L99OAjQ6vg1UOjpneuGKwUZ_Pjd05UCtA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZZuS6kd1oYgdb95813B7qsPkHiCeQhCRcd-kb1SEbYgg&amp;oe=68E1C885', 'profileId': 'pfbid075Wpk6HDtuWZG6DfJGcvQGBZiD6Enwj3suWtGpb9FD4YXbW6csQhuqRcQSGaoGWFl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=YQpHqz8bZEwQ7kNvwG-B7Jw&amp;_nc_oc=AdnvZAskzFZWhRB0zfxkV10EKrvt9qLGttqpc_klHUjmvXXurMK22RH8L7kgZvbVVaI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfaeoT5zCdByxKOp-kJF14mt_ICbQD-KTute759Yk_8QXA&amp;oe=68E04BFC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwGgPhBG&amp;_nc_oc=Adk64UeGjkwlj1EVGJ1xAtbTDs6R1bE5VY_JZ5QmyfRJXfnkcTd0MqLXya2jz2bb4Ug&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZFGIcdHNI4Lx-LARkX_l9NK2gsNi1lHXxHmDRevyj_hA&amp;oe=68E19D7C', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zw4V3YaiRuQQ7kNvwHGgCup&amp;_nc_oc=Adlctsi6PZCMLRPBzMOzZZOC25f5MZHsETU9e0nmI2AG772PFAddOfBtGErru_5oWtI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfYHnXx9Hli7Q2CL-gUitQCQeRfXG8MQk5jh-W6Y3ekrqg&amp;oe=68E06F5E', 'profileId': 'pfbid02rNN1uArQmWaN5j6nvDozQtAmvQuQffwz48FqYegrhfQffzMoa7PMN4hMUSQiCY3Pl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zw4V3YaiRuQQ7kNvwEtcySv&amp;_nc_oc=Admk4LTGF1UZqoyQqN7wS-GmyHfa54dxrrA8dszJObadwIEkrV6i4UNmaEMM1NVRUgg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZ58de4-avB3outjLNeYcG00-wEEZ3uaeOtWV4ACWXwew&amp;oe=68E1C0DE', 'profileId': 'pfbid0nLmJRMer6VbynRYB2qUX1n6xZJjz7KhVpa6G4pLFRCyxX4455JZJ1dVxAFibxqh5l', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=X1BNTq1g_0MQ7kNvwHUnpgx&amp;_nc_oc=AdlOhzkJ6qBRuUge0Q2zxTSshamhJ2KadXkFlk5ysbfGBv6BYF_5Il77z2BF1SZ4Cgw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfYKZAlDYyon5hHF8XnZQmFCVe42sxY82TNSGdl6QwS7Fw&amp;oe=68E05078', 'profileId': 'pfbid0amtNR8gDHNjDV6KSbxZAK1cVeoKAMMdqD1Uj7RreGGFkPyahCee8HNQSRBLZz7E7l', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=X1BNTq1g_0MQ7kNvwGwXrtD&amp;_nc_oc=AdnmWH83XEMboBvih-3-Nz3qROiCICtJydG12jSvND527Kge-kyS2m-9-ygsm_2IRL0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfbMtxBsW_fTPuuWksH9xqyWZM6WQ3LeEC3olfoL-Gg1sw&amp;oe=68E1A1F8', 'profileId': 'pfbid02edL5boc38rc1EaJyvaJGTVPcrfiBhMRcx57aEFHrS9kgH84SypV6xiVSMZjMTDWMl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=azNC7rvO99sQ7kNvwHpLH6r&amp;_nc_oc=AdkZ498huv5kO8euofBAx00M-s01kf86yhFTsGnGBXQJI7haWK_vZ76WBUjO9i2j46I&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_Afaieurj7cs8__BlGOEtEN3eP7yOcDm_kbnPJ2eKjIEPRQ&amp;oe=68E07D3D', 'profileId': 'pfbid027jr4e1HxKZNb9ftd2hrmug1FArbopKVj4hReDkuGrBUsCo48NDBBer7os7tLRDUhl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=azNC7rvO99sQ7kNvwFtLFr8&amp;_nc_oc=AdmGWg13mt17zqIVtueOQlUQ6WZ_XFfVFSyYP9HQBcf09Lc_2ByTY5Ymns0YoRxNlA0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_Afb-q8d3hT7rua2iqlXHP2mTcU4T8lT-kau7djsJzXNybQ&amp;oe=68E1CEBD', 'profileId': 'pfbid04CCsiqfbUSw6Sn6XPtWPFmsxawTtJ8QAWzi7qW5kWqbPYXEFQmVDt65yFQvxv7j6l', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tWvyKtaLKHEQ7kNvwGADiAk&amp;_nc_oc=AdmOvMpU0PDayDOvlM05Uknx-dNTGFhbGFAgxrIB3GCynOCRHi6C456QnxG9uqFKQ2Q&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfbWpY9ZjbD90sN2WzXA_Jetbcb_YnqZ8fdifDwtYIo9HQ&amp;oe=68E07DC0', 'profileId': 'pfbid0F4ZmqQMeBYuvACiLxDfb2qckcgs83QutTsgnr8nr5unDPLXudMeXxfoH4TunDMdml', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tWvyKtaLKHEQ7kNvwHTQnlw&amp;_nc_oc=AdmdElKXFy1o0Y44w__s_L_fEo-MncMhsE2MTnBbIvXHVPDF35J_NJ8dyq4dxt5DpyE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZ0UmdhiBgLTNC30Un9sbdAf_PIrvE7lm4HVflQx3WhPg&amp;oe=68E19700', 'profileId': 'pfbid02Jv1V25HU2tYyUJpfLrGSGhTs1TKbUraszGiXMfcdvCSRbMyagLU97xjZpbxc3wNPl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JBGfjaEP2m0Q7kNvwFAfTrw&amp;_nc_oc=Adkus_YN7kRTi8zhNj5izMiVC0NPlydTQLCHnZfZ6cZqcQoMNLsiIbvjnrHCm3IJk5Q&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfYELnsskTt-N8ELpmplzpfzLifPW15M-dws8vsHT_Ijkg&amp;oe=68E05959', 'profileId': 'pfbid02MLEXfq5tNzn7N93SyXhhHDYUisgt4jUNLFpYu46jLMfyhdVyYbgpDdCh1DwdrRbJl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdnSc9Usze4Q7kNvwHFny9K&amp;_nc_oc=AdkSeNBg-1ZUPMQPzCiCgNTMIZCXlyCIIzIlCCBWQBSnOYFI8gmUaxCAEzKQEXUj0mU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfYdp8_hf0zd579KZvIBBBJNZ6y7bBk4clFAS9GimroODg&amp;oe=68E1AAD9', 'profileId': 'pfbid0HnbLkfTXXsAiYYLJRrdGMxLvmcKKZ3f6xai7fS3XiEgmtKmQbZdmpBaoCBt2MEn5l', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwFrMRFE&amp;_nc_oc=AdkEG7yqbCDPozlYBGFy7i7Ky_6QSyo1sySvkxcoq5X5FiHNYn6FCkiBeknBIzrrGfQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=DQjijMYI8oq0uvyBJ8XTvQ&amp;oh=00_AfZhj6ZYWgNIMahwZsZ4g9pXcXX6sp280I6JRCIOahr3yQ&amp;oe=68E04AF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwHftDST&amp;_nc_oc=AdmfAXPViUWLz517WMZNT-chbCVBPYqxyLZqNKsXHkzCCPKp4M_hHTIeC2_9pJYF3RY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZqEGUvJNfiCqMraRfS2640SZ--y082khN2tmnjm1WVdg&amp;oe=68E19C70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9zsBWsibwFMQ7kNvwGGgE2y&amp;_nc_oc=AdnF8q5jmtrTqK2GKnlrWGx9So_hSY6V5Ao3D0YIZB0qPMFGuDCSzY9dwdTISY5owpQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfZjggBEp3dc6WDLs6PRvrc2vAuj8pvFwG-u4JmWg-NrLA&amp;oe=68E05C92', 'profileId': 'pfbid02dekwsb1gQ5cxeUBkKGG8Bk6pN4ouQUqtiDwDrbG9ahQ5YhjoYkv3twYhPXXkz6tHl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent.ffcm1-2.fna.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9zsBWsibwFMQ7kNvwEh9dXf&amp;_nc_oc=AdkXHdBOSyF6QwAZHxCpqLZ6PENnmSnKLXB6KIVsRa3itOrxE8yBwyY0Rxe-3mY85XQ&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-2.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_AfbYFPPd-elDlHeVQVdSPnxNZnjTqJ6Qs-SH0xUt02-vEQ&amp;oe=68E1AE12', 'profileId': 'pfbid0a77kxRPKYvGjGJ1m3n6q6fqxgJFDMsZCgdAEXtd8GdzDKcvfF5823r6VLJTSCq8Ul', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=W0ALuB32D78Q7kNvwGR_zMr&amp;_nc_oc=Adlcvcb-3fmdbeInrsc6rD_B96G1iPXP8VA_BoNM3hXNv0NBKeEJjH0iMu95UrFMwyg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfbwfjPP4qjR_5F-FzcKAgooU46sA-BlbRZGjDz-1_VChg&amp;oe=68E06AA8', 'profileId': 'pfbid0nHNtgbyde5BLGgEGS8QKRKEnMmrvzJDGZuHbcFv1J5tXSLRX3pMhQJ1vGctbAmFZl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=W0ALuB32D78Q7kNvwE_NaSl&amp;_nc_oc=AdkFGf8-qOKvjuRQ6xMevwBu8cphKvxP0yURRkhJ92NWaALJWNOSAESSR5SBIqLdKdE&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_AfaRbUABX5wl1RNWiXv648CE7t5pG0zb2CvlBRY_Od58Jw&amp;oe=68E1BC28', 'profileId': 'pfbid02qes5JdLFfd2sBSiPe5RAzJX28EjDnfKb9XqtTxMPuG2jSe9fv6x1LRUauueQPPsEl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2355,18 +2355,18 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>En los  Oxxo de Pereira ya llegaron</t>
+          <t>Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45926.43178240741</v>
+        <v>45929.75583333334</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10:21:46</t>
+          <t>18:08:24</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2383,7 +2383,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b0TQ9a4dddoQ7kNvwH2qrSr&amp;_nc_oc=AdkEypq43pSmck4tYAhRt0x0mn_XdVhYSRSoaesCOF_dI-gcmmMyC64QpfUyMO8lGXU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfYGheLLSh-ldOn3zR_QrfFv2uWypWGI0MjeL4ghY2Jc5Q&amp;oe=68E05309', 'profileId': 'pfbid0TkyC5zXxBBZxvnRQeFsS6yx6HZRF9L7wXcx48Ucomn42nZzi7q75ahrp5ybezn9kl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8hOTnyCD_WsQ7kNvwFl0yd5&amp;_nc_oc=Adlgb5kuc2iADPqxNq1_oG128N94XFesIALF31MdAbXOHtQ2DNpo1WezXSyABEhphT8&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_Afb2JbT5AgVEydp3Ik2Yg5Mr9OOZNWtQ7TJs6QKEPl4Okg&amp;oe=68E199F8', 'profileId': 'pfbid02N3dDBsma5AaRbZjZnvaAvJ7tASQJsxywMGi6pfTnxUiikWWEkLStGryufAaWV3D8l', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2409,73 +2409,73 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
+          <t>En los  Oxxo de Pereira ya llegaron</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45926.43178240741</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>10:21:46</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b0TQ9a4dddoQ7kNvwHVlepx&amp;_nc_oc=AdkJhirqMmJ09CI7LWbkskqOIkE4swn5shp1uHkdVN6ptwgV5TGDCQBKkoCrg_EAGrw&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_Afau3qT5ZwpywxLtqaEewROXGGMxiP_8d7ne7OVDqaH9LQ&amp;oe=68E1A489', 'profileId': 'pfbid02XcQuGfTn2atsc45SXyGhQEtZrMqs6fTYTtE5zP21pcUNBbp5nhTsfrjwN82tBo9gl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>Nombres de los MOCHISAURIOS 
 Nombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G38" s="2" t="n">
         <v>45927.08712962963</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H38" s="3" t="n">
         <v>45927</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>02:05:28</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vgHTsFbWKaUQ7kNvwGLdjMG&amp;_nc_oc=Adlv5_-ffHPv82vkR2ZxSyKccl2N2t40Q0nPX-bAjHzZj98dXFeIVtszq9VWkIpnaSI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfZlL1piEldF776O962B1lDrtDihxewpHq9EzmIh1ihdvg&amp;oe=68E04CF6', 'profileId': 'pfbid0MijRzoTd4BZZ2NcXFGXBBYndEHcsom4nTvHamL5deQvnYQSSJaDbKf3zcTroeJ3Xl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Los yogo premio no se consiguen en ningún supermercado</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>45923.1059837963</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>45923</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>02:32:37</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2492,7 +2492,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7t6gDb-FD54Q7kNvwErHnTk&amp;_nc_oc=Admf_vimKf83qj1tVGSnrlpGQ0pHQ_A0LrjdskxdvVeGLPRAVyd-z9HDvzYNKp8W9Bs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfbC1Xn1Kj-rX985t0fA63D3MPJigv3OydOR-G8GWJW3yQ&amp;oe=68E06ABE', 'profileId': 'pfbid0ezjbEH9pr2qA3hdo6dPETowNEGNjvfLLFN2KAWwuu92siqzdrKXbzZ7e7RNc3TN3l', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vgHTsFbWKaUQ7kNvwHf6bq4&amp;_nc_oc=AdksiYes2QyG454rBRklCNS1IbPT1B1v6qz6zJ0bCT5Ot8qLwBjFjL3Pik0PJcGtwTU&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_AfbYzsXbyVroHHOEfLys_Ci8v-0tR2Ce-t9SNm4oFsviVg&amp;oe=68E19E76', 'profileId': 'pfbid02R6DccppF5zFEqThAcEtTkn6R72PD3kxyMCRvJ24XL3sBjP1CYcZW2Y3pdEmPYp6Jl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2518,73 +2518,73 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Los yogo premio no se consiguen en ningún supermercado</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45923.1059837963</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>02:32:37</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7t6gDb-FD54Q7kNvwH1lCg5&amp;_nc_oc=AdmqFVp1R31rJt4CP6jxQkM3FATAVnxvMGGOa9r6LOrcrSAh6Gpo4T0TZyDrvrFwNrw&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_Afax9xH4iw4hJSmFHtaQVfhc5yfB_9azCcp9mrllNXmP1w&amp;oe=68E1BC3E', 'profileId': 'pfbid02iNDmrJWSsmiYTBY2d4sLghyuGNyyZCspLsFoKE5CpkQzjDMTpWR4Bzt7eWzokNnYl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>Hola 
 Esos muñequitos los están sacando de Temu?</t>
         </is>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G40" s="2" t="n">
         <v>45924.90376157407</v>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="H40" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>21:41:25</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwE5i5tf&amp;_nc_oc=AdmvttijlEt1-uj0hAhNR4308GOWdD55gAi4uYRGiSW9tqfAouaYaRRiaJV9hlzaKhU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;oh=00_AfapCHd4KSmW9ovLSc1fLKZXCy2F_T6E33B01tmlcupo5A&amp;oe=69020E7A', 'profileId': 'pfbid02oANvRGBKbWUntHwtwEo5GyZVkVYz6oKdk3RrNgXq3ZHkrVHgRxYn7KE2xMdToeYWl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>45925.76949074074</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>45925</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>18:28:04</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2601,7 +2601,61 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uibEZpOWmSYQ7kNvwGnykCH&amp;_nc_oc=AdmsJW4K5cEm2JefApSxziU3nbCZ1U4F0mdyxlLhNRHCIzXurd4gkOHkzDGyVj5JXJs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AoQ_IJCo2niF9watYQPlmg&amp;oh=00_AfZaPX74xlU8nj3yf70Fx06JvP-PKBxVrITjw9k37PvlWg&amp;oe=68E060B1', 'profileId': 'pfbid0EiubVgs7EesC1KVH9cF6JQyT9MQW2SKiqKqKwcesBe6DfMNwrqueLbMTbXy9twr6l', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent.ffcm1-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGkKih6&amp;_nc_oc=AdkhlkqQhD7ogjEZljEFBDI4q3JnyaT1DD7Zwoe1k3X1wMd0iG87UQc4oUaYFjBi-Zw&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-2.fna&amp;oh=00_AfYR6AS7HGnONYCfLTwkhcoon8k9WVbmr1iimuoMcFcZiA&amp;oe=69035FFA', 'profileId': 'pfbid0jcjjW6YxkCbhHjvrYFXLJVAyzUJdmBzrY6zFHeEGAKAMV4zsN6DM4yW4nw4HhxDtl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45925.76949074074</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>18:28:04</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uibEZpOWmSYQ7kNvwFQsgLa&amp;_nc_oc=AdnLCi3Ok-nocyVUotEbjq3QWbwJmhiKroPBzDgZRe1w9bo8kIesnbqcVNxExPk0-pA&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_AfZMZRFo5bUwr3A5mbeacZI-G-UhSMsFvzfG8sm-x4QyVw&amp;oe=68E1B231', 'profileId': 'pfbid02JaMJgMnw639qK5pLApt7hubncy3fBanFgQaGtGQEcsgoqi4y5TsDyLE5wBxhAXBul', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2745,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6002110061</t>
+          <t>7013110061</t>
         </is>
       </c>
     </row>
@@ -2731,11 +2785,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4110011100000010000010000000</t>
+          <t>41300112000000100000100000000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/495310345_1333700111225431_1807360924910226658_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=65p3yslT2-4Q7kNvwFIrFPM&amp;_nc_oc=AdmF_EIH-04W0F-MuM87VZuJyzKXgRs46hMQ6gN8ZSNgRpiOaUH4wqiE_-qquHrwkMM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfZOG5xVgueskKvYhly3DGGl4lJv5WnAP0nnKmsY42C7vw&amp;oe=68E1AAFE', 'profileId': '100037563635082', 'profileName': 'Santiago Domínguez', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwE7XUqe&amp;_nc_oc=AdnZ6CaCxo4MLreBgpWMhn_NpFyDwD6ChWiOpEeEeV7ruZlL-Hq-j_sjLTkKygA9qVbEwOo_6TWxtJKhXSD2mmBI&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;oh=00_AfYmWka-C568NFZgqjWFj6b7WhoPJPhNAOFg3JmiSvxWeg&amp;oe=6904B17A', 'profileId': 'pfbid02dwMmVdNXMKybWUqpBqJ65bm5KYTbREDrCijDtnCD5qnpMH1D83yhH2z1dvp34YeJl', 'profileName': 'Santiago Domínguez', 'likesCount': '9', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=O1QCOd8yQI0Q7kNvwHaMLvq&amp;_nc_oc=Adm7fg6cQ2s2halzK0x0QQSCmcHzslnTXq21_sVqjhmRepZ_6Nr8h3ZYS95cWx224dw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_Afal6EYuADgIUb3MjBNsppFw4b5pa3CbpUYpgWMpxHV0ag&amp;oe=68E1A9EB', 'profileId': 'pfbid03gPcnGz2Bk7YPdhGmfjqwio7tNwphBY77VwozWvB27oy8VtwuH8RpHGUT8TJURvMl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=O1QCOd8yQI0Q7kNvwEdqdut&amp;_nc_oc=AdkGKijTtnOuY9YK8oxNWC7fdyD7zoDU8AOU-1o9KrDTeACrJRrRUhd5v9J1KFGGHOTzcJbBITKToWZb0gubVJQL&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_Afbv6WmS-esABgMdNpXxw3CTYQwbLBq1dRD8B7CaakxfgA&amp;oe=68E2FB6B', 'profileId': 'pfbid03WEcV8iHNDWbAh9arEXCCp5ufRqfqbSbjuB3fagAegFfBxp7SWZs5pomqBsSAbfnl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ndEbWOeMGjQQ7kNvwEAF_6t&amp;_nc_oc=AdlLwpSvxaDsWhjNR9etJrEZajlCImSVlMxDiK7_xW_UcsZJvMOqsDwofTKJFbKHTQw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfafKgJmQhZ5na2CFcPuENstTT5R8MRwQ5xxwXv4K3Yn6g&amp;oe=68E19952', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LKXhEbbumCUQ7kNvwHZCjVW&amp;_nc_oc=AdlUqh5M5fpUgU6ndTxG20bbd9XkZ81aJQxp3IDLeg44FRK95jBQBoI5_BQZyhRyDgcI_yrKBNC9yjL2L1GT6iFx&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfZkEwrNcfMtWt9b5A8EmekCSvTIuhmaVFgbQJo7EKtc2Q&amp;oe=68E2EAD2', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pE4TAJQWgk4Q7kNvwEtLJq4&amp;_nc_oc=AdnB5sdf7Xd7U9c8EbCPHnPltGe5GcWu_pGxDNiadnT1XPGpPUXziVg9WZ0TcJyQNJs&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfaziLiYOPW9wKsCE6NWmrQgcrPOoSUGwNGgD5bWz1V5FQ&amp;oe=68E1C098', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pE4TAJQWgk4Q7kNvwEOMQtn&amp;_nc_oc=Adnyl83chZaA3f-jdJmefgrnTuXZjt403umPprDsRyRPzS53Ga1cpd9hldeTIclYUCoq_HY4ezgwftXFV3bbhxYa&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfaWVO0uAbcj3O3M_q-vq2zIAA6JOUK6zieR79z3xQW4gQ&amp;oe=68E31218', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid058hdjyH8jGYfZviSMPKC5teu7hgKCs8Hj19xEAnA9TKWZHBBdDmtrNnRYJyz19RSl/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VJaKOWdP8j8Q7kNvwHvgqbb&amp;_nc_oc=AdnIdU5PX7zzHCWi7YSrRMYHkrkgAfjC1oP1TTjO4Pt18MLjlVPPwpwXCcCC5YWwfOk&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfbPrS2qkb3rnlf1UdUglmL3ax3rsTAuvRCsCtiG70vLgA&amp;oe=68E1C56E', 'profileId': 'pfbid058hdjyH8jGYfZviSMPKC5teu7hgKCs8Hj19xEAnA9TKWZHBBdDmtrNnRYJyz19RSl', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid028z9LveCxaj9pcqBM3USkqHPSZ2kVNbPh9tGr1CULDYdYLN6PPewSLGmQwnKm1qbol/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VJaKOWdP8j8Q7kNvwHWAxdw&amp;_nc_oc=AdkVyrSPGjHbdXZMELMZbDQWwq6MBoCXNEfspxqhT5AaF2IbzpiTcwzQYq0qrM4RwsX94BAHjD9XThAzWn0Tvwmi&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfZiQu8bJHMdqmlXhUjoujdHsvi6QMENeZfQ8m4kQXMBnA&amp;oe=68E316EE', 'profileId': 'pfbid028z9LveCxaj9pcqBM3USkqHPSZ2kVNbPh9tGr1CULDYdYLN6PPewSLGmQwnKm1qbol', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0U0JmSedy9kQ7kNvwFJmSbD&amp;_nc_oc=Adks5n2ExOAu2l__nKACAmhqbDelpoekthfLE-hWg35TfecMsYjgT6_KfKxLWGhXnoo&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfYX50H-giSuBbv5B0YqJsxfTY9RgFUvYxd3JaTV0kDN_A&amp;oe=68E1AA17', 'profileId': 'pfbid0GHDzWXfpqXX4uvuyd1LF37bgvXka6YYde8UbHAYvdRjDfzJnXWXUboU4Le4JtpCLl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0U0JmSedy9kQ7kNvwGnyEiF&amp;_nc_oc=AdlFxpogDd5MdV6uCDELWy34D1HVvz7HdJKaIyXBN_lsAC6YcwJUuXvOHgUUJGb-VqtzVazfKyw3Sp06sZpO_N1J&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfZ_qVlUieql9IjL4pJukcIPMx0G4V88vNkvkDLUU8hV-A&amp;oe=68E2FB97', 'profileId': 'pfbid02KeiB8Z2SsBDNghzPdedcitRVRcvMd1QuHK3x5qrU9H9tpm7n9EHugtpMsqYjdtSZl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=v_W328glaP0Q7kNvwH0IEKy&amp;_nc_oc=AdkwIIBLo6WnXsOuFEYog74yuFvua0py1aAQrAYnSYoKH5IftTR_1SMsLPjrmh9RSSw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfYb2owJK66_5kP6NclL9lyIWbPTgR4pl4wap4Wpe3BZ_Q&amp;oe=68E1BEE7', 'profileId': 'pfbid0f5DKMpjgkRkegD4FjfgTGrj9owAHZzmEvs22ya8Ud4SRRH2RaoMMPxiXjNGVKFYnl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwHRM2wR&amp;_nc_oc=AdnwgVQNy3wlOAl9v8fHPcn7pOrG2gs0qyfRYdv26zw8qlxyLNOSZ4iwNL1i5gehc8E6qTPWufN33EKUyWSKa0rN&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfY5AJSWO-AITbS2TquPUBCbQRHmmUR_ndkp--LSamqosA&amp;oe=68E31067', 'profileId': 'pfbid02iShVyr6JnEv8jPTDoaX3mLz2QQTJru5QU4g1GfyvuR6eRCeRJs5nCLhR8x5qT9vvl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid0UdXwm4chrQzpsjZB1meU7swGoiDHAXNzaCD3cpwimTuscXMfBZ3QMTorwhfirRXol/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEeCJkZ&amp;_nc_oc=Adn2dbYEKg2rSRT9tj4p0Anm0ngkHRhMsRn8EvTBHHjIG8gNQF0qWumOX8Ux0VlQmkA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfYFvgh7G8yCnnAIjYaSPwFVn0OpEhk-nU86aYNOKU5tMw&amp;oe=69035FFA', 'profileId': 'pfbid0UdXwm4chrQzpsjZB1meU7swGoiDHAXNzaCD3cpwimTuscXMfBZ3QMTorwhfirRXol', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid02YUyewjYXhugkJmdmhCGFMxoCtjkSZeHmhKdqt4t5Rfti29kJYLFLgaTt4NP8dmzwl/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwE7XUqe&amp;_nc_oc=AdnZ6CaCxo4MLreBgpWMhn_NpFyDwD6ChWiOpEeEeV7ruZlL-Hq-j_sjLTkKygA9qVbEwOo_6TWxtJKhXSD2mmBI&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;oh=00_AfYmWka-C568NFZgqjWFj6b7WhoPJPhNAOFg3JmiSvxWeg&amp;oe=6904B17A', 'profileId': 'pfbid02YUyewjYXhugkJmdmhCGFMxoCtjkSZeHmhKdqt4t5Rfti29kJYLFLgaTt4NP8dmzwl', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zp46KciYPjoQ7kNvwGJ78Pp&amp;_nc_oc=AdmEA4WEr9NM99pf1RO8Sq8okvowANqbO4Bu3a1ZaHOPBB5Y1nzPhOp9yzEf2G72X7E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfZYHfSMeHkk69lvryOKjvDmfwiOBieM9Wh2AqdqnrSCsA&amp;oe=68E1A9C8', 'profileId': 'pfbid0K4xwsv59bFuXYFqdPqZbCYM11NkVEYASJ2JMjy32FHbhQPaHYV4G9rkDDhC1TWaHl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwFvNjJ_&amp;_nc_oc=AdlISmSoZdqTnIpDhdw5JEmetqUncxxlk01vfOSF9dyZdkqZvVeX4lonqSjQn2XmF-_XebIhCPsXLolEy7-5WZKi&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfaRNiCvNFKtsMXa4ucc9Jv1UK5RYFi1bIKL2iKenY5VpA&amp;oe=68E2FB48', 'profileId': 'pfbid02NvQf4azySnLPPwPmD3JYsrmPPn8NwDm7n891rjFqTfLBexsMQh8Bdd3Nw5dD7RSgl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1096,17 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwEyFQDj&amp;_nc_oc=AdkN2iW6eQKlzjVcMNStq6hq_CrhMI4REr1bsUcR-5v4gxmELuqxk8o28gfDuxJtq-c&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=qU3SXE1GPiINwATDjcUiFw&amp;oh=00_AfbQA6ONtEJ5F-8VPgJq_7pYnkit0lDE-duWgZo2v4y-QA&amp;oe=68E19C70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwE8uWDs&amp;_nc_oc=AdnZuPmWS461fgLBZsevajd9J-gYjziQoxKGGe5I0T4cECKVdc2aUeuZ6SXHrrPrknLd3abfujTbI3LsZWxmzl6w&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfYyZ9aBmGwasU075jHqBjo5WJAC5QMUhLP8GBdFsrF0Ag&amp;oe=68E2EDF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1116,16 +1116,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOvoGefAFeJ/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Alpina cuando volverán a hacer los muñecos qué hacían antes ?</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45931.09537037037</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>02:17:20</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1133,24 +1147,20 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwEQaFR6&amp;_nc_oc=AdmFqZ7YZk19f__2fCMd3WuN1QibuwvS10cxN9wVqM1zI-XsyoW7t4RlrX0cGghG6qU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=ZvacRcdN0N-p8Auf8_Qdtw&amp;oh=00_AfY3gy7qgo991E5BZE7WY70wWh0gkOrwgA3AQHFtGohZBQ&amp;oe=68E31253', 'profileId': 'pfbid02qaAkiPA9RcWhMTJm5boNbZJ3Tafkp7FmZkBL7QXqK7ysTrEqr4MREF6m8gLCxrpal', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1160,30 +1170,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+          <t>https://www.instagram.com/p/DOvoGefAFeJ/#advertiser</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Guau que maravilla ya voy a comprar 5 paquetes</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>45920.15390046296</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>45920</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>03:41:37</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1191,10 +1187,14 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9ItsiCAOw2IQ7kNvwEPi7mr&amp;_nc_oc=AdlATUMI-qHRk7p-MK7A6uWXJsrVwT8FDEjbLgao2WKeXDyXe0-uueaTjB5KoosP23Q&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfZmMJSkyPJLK25ymimh7uDRjMx1Eo_EgVT38Z3YaphOWw&amp;oe=68E19826', 'profileId': 'pfbid0yJ9baUhdML9oa6CffDJagPp5P5pZZxopG3bb8mxM9fqkuqQtn81RaPJMZUSSNo9ol', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1220,23 +1220,23 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Así vamos. 👍🏻</t>
+          <t>Guau que maravilla ya voy a comprar 5 paquetes</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45921.69010416666</v>
+        <v>45920.15390046296</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45921</v>
+        <v>45920</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16:33:45</t>
+          <t>03:41:37</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwEGCwGy&amp;_nc_oc=AdnwuT1mJ6jNN-zqjrlYzsgW9TD0n5wOuRavMB6-melFjW_zmHjOS3A7myJr9gfyh6Q&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_Afawt_caKo7sy-jeOw9tFQ_3WSINyrciZaYdMGXprdR82g&amp;oe=68E1AADE'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwEGCwGy&amp;_nc_oc=AdnwuT1mJ6jNN-zqjrlYzsgW9TD0n5wOuRavMB6-melFjW_zmHjOS3A7myJr9gfyh6Q&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfYylBFgN1P3H3CdELe8Wuub92R1tZw2GBCNHaSSbqNoLA&amp;oe=68E1AADE', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwHKCJ2J&amp;_nc_oc=AdmU_uOviO2TTbt9wdUDgpkOIiDDwrB2yetw7y9Vk1KhsvBaQSQ11IrfYfzBMIcs5D8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfZ1SA2X2IXOE4peyimJnAHxwgpQEFUFAR055xuCwgfJKw&amp;oe=68E19C70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '13', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9ItsiCAOw2IQ7kNvwEk_N5Z&amp;_nc_oc=Adnhz2l-aLsl7ZpNNFqIdoifOvcaEC6HxQEWOWEEZpSkp65iDWr9m8eohful_kIudHM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_Afa1NaHkpUyr6oRxkfwL3-v0TySTgMZB8olZ996Q3brsyw&amp;oe=68E2E9A6', 'profileId': 'pfbid032fdnCW4FP1TGUxmAWzLFWrGjFLCc6mNrv6KBU9esJY2ECZLZwhXE5Cj42JKAduucl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1274,23 +1274,23 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hola</t>
+          <t>Así vamos. 👍🏻</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45923.69081018519</v>
+        <v>45921.69010416666</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45923</v>
+        <v>45921</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16:34:46</t>
+          <t>16:33:45</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1302,7 +1302,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGa2jG1&amp;_nc_oc=AdmrmUXIeEalbrE33D9ocpU1O67jzt_rom4684aPy-av5WnYOrk0Y6BN61t6DnV4dwE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfZnCWvwvbCjvdIhjD6OqZsF2RO876kK06rLwTXclfhb8w&amp;oe=69035FFA', 'profileId': 'pfbid05p8FVu6g2jW4rqMxjR1TL9EntjktFdYRVZybvj5jWm5EqRXbqLmD2Sxmw9sKBeadl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwG2cxwi&amp;_nc_oc=AdkOCEiJObB1ttnG3TqgnzRGfbQtXvRZa-4Qz4UCj_7P4WsGsWZlphj-IkVkjKr7ycc&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfaKT3vEVY7TCnKkGdO8JG6HrVlE1hziQZWbZIqAooRZGA&amp;oe=68E2FC5E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwG2cxwi&amp;_nc_oc=AdkOCEiJObB1ttnG3TqgnzRGfbQtXvRZa-4Qz4UCj_7P4WsGsWZlphj-IkVkjKr7ycc&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfaAPGnS8CwBEwgmfLfM4iOSdl2k6mSvBm1DBWYyDn0rYA&amp;oe=68E2FC5E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwHzpyBm&amp;_nc_oc=AdlNheDBlYEK02bafdHgQxphd5aYN8-3qmJ2off0Rr-6i5TvvEki46dSH6_SrD0w188&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfZ-RRkqY_gOK6EB6HlpFDncdxFSGuOAdr6jzNRITwF7xg&amp;oe=68E2EDF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '13', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1332,14 +1332,14 @@
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45921.8059375</v>
+        <v>45923.69081018519</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45921</v>
+        <v>45923</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19:20:33</t>
+          <t>16:34:46</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1356,7 +1356,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gTaXvdUMiTcQ7kNvwELl0-q&amp;_nc_oc=AdkSns_5pT7cZblRimejKJLAZOUmIYbSHstbYhjQiExkTbS0Q7rjicDeqZPPKFVhqsM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_Afb3EGG7VGm_UMssqUqrlXBckpDncAGyftdGiM3S4hDSBA&amp;oe=68E1C7BD', 'profileId': 'pfbid0vPXb6KkW7AgLVjgVFR7GBjWQGS6NS8LBnHYzbkfYp5dQX2aVdWmPPfWZoVmTnYyAl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGCsCsu&amp;_nc_oc=AdnSQU1ngwMjCpOJ1tQzX94tjrSLZo9jqOQ27LWrrtjwzvsmHTgNebJJabjYfTIUMeE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfY0E0MR3KhPz4h1Qaqfr4l-FyZ1yXsKiN8uzgmKZCvQvA&amp;oe=6904B17A', 'profileId': 'pfbid029BcS7vTJ4RTP8M1dGdw1dvkX8WV9RYpAxSh8GdWPBFgW5EfAAyMjPLQBamuzFmfhl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1382,23 +1382,23 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45920.65306712963</v>
+        <v>45921.8059375</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15:40:25</t>
+          <t>19:20:33</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1410,7 +1410,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGa2jG1&amp;_nc_oc=AdmrmUXIeEalbrE33D9ocpU1O67jzt_rom4684aPy-av5WnYOrk0Y6BN61t6DnV4dwE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfZnCWvwvbCjvdIhjD6OqZsF2RO876kK06rLwTXclfhb8w&amp;oe=69035FFA', 'profileId': 'pfbid08wrMvNckgAtQjDQymicgqMEhrjNHykdPyUWu52qJDG3NSk4Bhvfwvb8bP54r72yZl', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gTaXvdUMiTcQ7kNvwFlgElH&amp;_nc_oc=Adm0uugsQ9v6XgtU-KjHW_KfLlzf5Vb9ZOw8iCfYPyRJGnlEEtYPldPxjkUeyURSEMY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfbTpHWjdDOSGMci14CDDRPgzluhwHwSvr8U5hdVh5klxA&amp;oe=68E3193D', 'profileId': 'pfbid02ym1miM7891MBwHpvzcfp6gwVF1yXGvS4o5ZeRRMZWHYC9pB25Lg14v7TnjEmDqmUl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1436,18 +1436,18 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kmilo Perdomo mira amor</t>
+          <t>Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45922.14309027778</v>
+        <v>45920.65306712963</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>03:26:03</t>
+          <t>15:40:25</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1464,7 +1464,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hQ4ynS0hm4MQ7kNvwFl1So0&amp;_nc_oc=Admx_yIHVOczq4CJMcPHTsCtHHGCA5YiMSVzD-8qcH3ncmlphO1VOy2uqWNHVTW4klw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfZ9ErkVWSiBjNc6kG6O78Ya_Y0wLC-M3a6xLWvYRZAqvQ&amp;oe=68E1B68B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGCsCsu&amp;_nc_oc=AdnSQU1ngwMjCpOJ1tQzX94tjrSLZo9jqOQ27LWrrtjwzvsmHTgNebJJabjYfTIUMeE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfY0E0MR3KhPz4h1Qaqfr4l-FyZ1yXsKiN8uzgmKZCvQvA&amp;oe=6904B17A', 'profileId': 'pfbid02CoJ573YaXfjcyo7vHC5GqE3mAQvVXtv8YkUQDHKzBpRhffrqiWqFxpa9NqPYeFJal', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1490,23 +1490,23 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Yo quierooooooo pero seguro se acabarán en un día así como los otros</t>
+          <t>Kmilo Perdomo mira amor</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45920.30206018518</v>
+        <v>45922.14309027778</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>45920</v>
+        <v>45922</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>07:14:58</t>
+          <t>03:26:03</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1518,7 +1518,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BfBghEj6d1sQ7kNvwEicvSd&amp;_nc_oc=AdmrSXUmCKnUoYjxVWeBE4qEx_YEVlRQgW_06_ulmbxe4ITqYyiOzzzsU-xEhiueW5o&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfaQli3YcVnB6BSRdYp7Yf67PwP7TD3mTnZnUog7PZraMw&amp;oe=68E1B078', 'profileId': 'pfbid0YVXMtjaTwTEQJSx8cV7THTPPkmYj9zz6jxHAYmFGGuZ4ErDv8NUAFbzb4G4kvaVql', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hQ4ynS0hm4MQ7kNvwHadF65&amp;_nc_oc=AdlHkLvp7QtZvDIYZIWsZu65T4IiJAlAQhWt4k0wzal7LE8J9B1swQIaG-oVJMzNDOE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfYZi-C-w3nbEOQi06vYue9r6ibTolxR_g-68nbA4xo6oQ&amp;oe=68E3080B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1544,23 +1544,23 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca</t>
+          <t>Yo quierooooooo pero seguro se acabarán en un día así como los otros</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45929.04376157407</v>
+        <v>45920.30206018518</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>45929</v>
+        <v>45920</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>01:03:01</t>
+          <t>07:14:58</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1572,7 +1572,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid021DDSTMdKfSVxd3MFRnHv7NhsQAjAfCj4kdsAhajwEv279fVqqC3aEi2rb5rZngGul/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGa2jG1&amp;_nc_oc=AdmrmUXIeEalbrE33D9ocpU1O67jzt_rom4684aPy-av5WnYOrk0Y6BN61t6DnV4dwE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfZnCWvwvbCjvdIhjD6OqZsF2RO876kK06rLwTXclfhb8w&amp;oe=69035FFA', 'profileId': 'pfbid021DDSTMdKfSVxd3MFRnHv7NhsQAjAfCj4kdsAhajwEv279fVqqC3aEi2rb5rZngGul', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BfBghEj6d1sQ7kNvwErr2XF&amp;_nc_oc=AdkZ5lZJOz_wUk0GSpd_FLPVCj0l8EJt3ngwS-1G-PHWYnR7t57FcnqFp_qd13MsC08&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_Afb5LMr3NJD611WxUIgaghpTSB3e30aZqJkb3b3FVWvMCA&amp;oe=68E301F8', 'profileId': 'pfbid02cLy55QWHns8McvvjE33fwtkUmzPBnK9Wp66KefCSnsz66yo8e2HsrC8xgRWFUWCDl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1598,18 +1598,18 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina</t>
+          <t>Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45920.04659722222</v>
+        <v>45929.04376157407</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45920</v>
+        <v>45929</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>01:07:06</t>
+          <t>01:03:01</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_4nIAKXKxIQ7kNvwG_R49O&amp;_nc_oc=Adk5FcDHabQieTiNxEQ25eSBt1E7nTItASKo5G3gUtStR6PNqWYiJRGankc5y5GcPl8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfYSIn-hFs77kvw8QKDEQcPvZO63sPEXt0dfhsgMErplLg&amp;oe=68E1B240', 'profileId': 'pfbid02VCJ98e8vw36BayEhkH4cunNKDsmB1CdSTweSNdN2TxNAscGyiKz8GbL1KB9i4Umil', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034ahd5Nywh7vxM5Foq2c2dUeLJmxpDZUpHC5toF2ftD6QA3kFsoJQVtH5EUuByq28l/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGCsCsu&amp;_nc_oc=AdnSQU1ngwMjCpOJ1tQzX94tjrSLZo9jqOQ27LWrrtjwzvsmHTgNebJJabjYfTIUMeE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfY0E0MR3KhPz4h1Qaqfr4l-FyZ1yXsKiN8uzgmKZCvQvA&amp;oe=6904B17A', 'profileId': 'pfbid034ahd5Nywh7vxM5Foq2c2dUeLJmxpDZUpHC5toF2ftD6QA3kFsoJQVtH5EUuByq28l', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1652,19 +1652,18 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Video en mi canal! 
-https://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC</t>
+          <t>Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45926.19298611111</v>
+        <v>45920.04659722222</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>04:37:54</t>
+          <t>01:07:06</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1681,7 +1680,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V1_ArOdfOIsQ7kNvwG8oD2o&amp;_nc_oc=Adn_zc8RBu-UnXWqqH5Fr4AF1A2053ah3KfbHa0ClMNm8GHkwpQ6lrha90WET-Z3jZ0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=HhPtxjq3uE-8zx5Gw3wygw&amp;oh=00_AfaWjeTtH12mq2tg3FlhCMOjW-bwJnjpCtGp_rcck2RFRw&amp;oe=68E19F95', 'profileId': 'pfbid0qtBuUaJvMrEV17k3nQ9rnWLgEf8a3dVuuPembGniT7qJVKVaRpcRLhenp66scDKvl', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_4nIAKXKxIQ7kNvwFrybS5&amp;_nc_oc=Adn1r1LDeaar7V5YXyj-SI7fFBZiDEEjqIB3SVvWsvEssUUaZJ-ReKZyobT1J0C1uj4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfZ40g-oRNsIT4l2snMla9vmNqKVd5f0tvUzJwH5ADrKBg&amp;oe=68E303C0', 'profileId': 'pfbid0RAhRepwNFzyPTZ6S5Lt27XkrxG1YzM8Xze6c3N374DLX1XX5ohjwe2pNwcjBrhB6l', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1707,18 +1706,19 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>En villavicencio  donde se puede</t>
+          <t>Video en mi canal! 
+https://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45919.89318287037</v>
+        <v>45926.19298611111</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>21:26:11</t>
+          <t>04:37:54</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1735,7 +1735,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57zJkeUH0woQ7kNvwHnoNTa&amp;_nc_oc=Adn0lnzO2jt2RWDmJp-MVMRtsuICDShjlAgjmVRhMvD9wngspXL8oQkMP5WrudzbM8M&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfYmrwK7cAUyMt9cKAfCnMQUIft47I35CtbfjMrCWF292A&amp;oe=68E197D4', 'profileId': 'pfbid0qBLtsYQ7K1KfnmNgRAwRpFDNucUc5D5JXC4C2jFH15PGUMtHwp3fVtxQCYsGfBExl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwF39WC0&amp;_nc_oc=Admddro13bK3We_EwQsdyVwgu6OoSoRBmefx2ybc2gTHM9fOmlHkNqBJM2Grj_NPyXk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfYTtKRhTrndhJKlOccd7F2rovHAzysVyMvjKv47YrSmlQ&amp;oe=68E2F115', 'profileId': 'pfbid02ujdcfFEkDK1bwEiv17GiXwCzuPBV5i44YF2rbeWyqSynMysLG29QhcMiq6jxqkPfl', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1761,18 +1761,18 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Se reclaman en los oxxos</t>
+          <t>En villavicencio  donde se puede</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45923.00528935185</v>
+        <v>45919.89318287037</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>00:07:37</t>
+          <t>21:26:11</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1789,7 +1789,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r4ZohxCpHWAQ7kNvwERMHGc&amp;_nc_oc=Admn7d7Aa82QwwLg18t0wX2W7f2zraMrqgxxxIzuVHhPhM6oj-t5jO2eBMtDwEVUAgE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfYKTZdYp7Gnu1waE0D1BYktzV-XbXyHWE5z165xoKs-uQ&amp;oe=68E1B9F7', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57zJkeUH0woQ7kNvwFLtyZv&amp;_nc_oc=AdkgfzpyOR0KB5FA6sQ_5kjdnQxmlfgMKnpKqvqyw3OkRdazwrgJ3OWRnLr0oNU-pmM&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfaADHshky7MbAd0GjnRjJFO6pcxBqJZw184wx_4nc6yzw&amp;oe=68E2E954', 'profileId': 'pfbid02tYq5VZkjLhVqZKLE8W15DGKJkHFQvv8RVYNfkuC9QeVkA2fCygnZAFTRt2ZUpAE4l', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1815,18 +1815,18 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ya tengo 20 *_*</t>
+          <t>Se reclaman en los oxxos</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45920.1136574074</v>
+        <v>45923.00528935185</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45920</v>
+        <v>45923</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>02:43:40</t>
+          <t>00:07:37</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1843,7 +1843,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bXQDM3E2NikQ7kNvwH9GYZQ&amp;_nc_oc=AdlVoxS8HA25uyvvUhX9ePiLDae7jPnwJ6L99OAjQ6vg1UOjpneuGKwUZ_Pjd05UCtA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZZuS6kd1oYgdb95813B7qsPkHiCeQhCRcd-kb1SEbYgg&amp;oe=68E1C885', 'profileId': 'pfbid075Wpk6HDtuWZG6DfJGcvQGBZiD6Enwj3suWtGpb9FD4YXbW6csQhuqRcQSGaoGWFl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r4ZohxCpHWAQ7kNvwE-sgJE&amp;_nc_oc=AdmgaW4MFN2QABux94AHR3Li9PE73PIG8fsFPF0LcCqnglBLQhbtcpOgblI3yOsLnx4&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfY4zMepw_EIeRUozl8sBVsO10XdCYZNvM-yJdGyifDHPQ&amp;oe=68E30B77', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1869,23 +1869,23 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Andrea Marimon</t>
+          <t>Ya tengo 20 *_*</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45922.65914351852</v>
+        <v>45920.1136574074</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15:49:10</t>
+          <t>02:43:40</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1897,7 +1897,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwGgPhBG&amp;_nc_oc=Adk64UeGjkwlj1EVGJ1xAtbTDs6R1bE5VY_JZ5QmyfRJXfnkcTd0MqLXya2jz2bb4Ug&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZFGIcdHNI4Lx-LARkX_l9NK2gsNi1lHXxHmDRevyj_hA&amp;oe=68E19D7C', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bXQDM3E2NikQ7kNvwFBxaog&amp;_nc_oc=Adkb0f7PGJEL-kvzWku2Db3aDwWWFgHET3W6GkU__fJyfHWhqvSpaKXANr7YYcVlhwA&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfYvdjaZb3ySDjmgbVD-xSsuERg_DP1GOvFfTAUGJPfMwQ&amp;oe=68E31A05', 'profileId': 'pfbid02AvxXvmD3kE1U5vZTZ2BSXFBM9XfM8RntPTidJZVQWRaYXpuvXo8aY1dyuBiTssjPl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1923,23 +1923,23 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bajen el precio</t>
+          <t>Andrea Marimon</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45924.67572916667</v>
+        <v>45922.65914351852</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16:13:03</t>
+          <t>15:49:10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1951,7 +1951,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zw4V3YaiRuQQ7kNvwEtcySv&amp;_nc_oc=Admk4LTGF1UZqoyQqN7wS-GmyHfa54dxrrA8dszJObadwIEkrV6i4UNmaEMM1NVRUgg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZ58de4-avB3outjLNeYcG00-wEEZ3uaeOtWV4ACWXwew&amp;oe=68E1C0DE', 'profileId': 'pfbid0nLmJRMer6VbynRYB2qUX1n6xZJjz7KhVpa6G4pLFRCyxX4455JZJ1dVxAFibxqh5l', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwGvJKJ0&amp;_nc_oc=Adl4khGGq4l4By2C3oUuqa5FA0APCm56p0R_Lrj86K3h7jEPlQF3yQLbP-Sw0DFMpwM&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfbhiDIWlEVlh4gxI6HuMTsXXAXx6DjF8kA1fPkDvoysfQ&amp;oe=68E2EEFC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1977,18 +1977,18 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Joa cule moral jajajaja</t>
+          <t>Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45923.00206018519</v>
+        <v>45930.99239583333</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45923</v>
+        <v>45930</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>00:02:58</t>
+          <t>23:49:03</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2005,7 +2005,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=X1BNTq1g_0MQ7kNvwGwXrtD&amp;_nc_oc=AdnmWH83XEMboBvih-3-Nz3qROiCICtJydG12jSvND527Kge-kyS2m-9-ygsm_2IRL0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfbMtxBsW_fTPuuWksH9xqyWZM6WQ3LeEC3olfoL-Gg1sw&amp;oe=68E1A1F8', 'profileId': 'pfbid02edL5boc38rc1EaJyvaJGTVPcrfiBhMRcx57aEFHrS9kgH84SypV6xiVSMZjMTDWMl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwGkFwgF&amp;_nc_oc=Adk4LxV_e7cvYoDUU6XtAnaDCMb-DTBR_Bu2Xtqdpnu9TJHjZfrDH7HVtGrO9CSkyYU&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfYmAXHK90BRmmVlfYZq8hFZfhtjTLg3kC2jx1_QYOyRkA&amp;oe=68E2F362', 'profileId': 'pfbid0SZBhLxYAdWZgn1BGAqkMo49TdxwYtDE4AyYfjevTDTYJirky7hFk1qCnF49acESQl', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2031,18 +2031,18 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Yogo yogo da diarrea ojoooo👀</t>
+          <t>Bajen el precio</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45920.03260416666</v>
+        <v>45924.67572916667</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45920</v>
+        <v>45924</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>00:46:57</t>
+          <t>16:13:03</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2059,7 +2059,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=azNC7rvO99sQ7kNvwFtLFr8&amp;_nc_oc=AdmGWg13mt17zqIVtueOQlUQ6WZ_XFfVFSyYP9HQBcf09Lc_2ByTY5Ymns0YoRxNlA0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_Afb-q8d3hT7rua2iqlXHP2mTcU4T8lT-kau7djsJzXNybQ&amp;oe=68E1CEBD', 'profileId': 'pfbid04CCsiqfbUSw6Sn6XPtWPFmsxawTtJ8QAWzi7qW5kWqbPYXEFQmVDt65yFQvxv7j6l', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwF2Bd1y&amp;_nc_oc=AdmZ_f-T_F4-oFbXxQfqHkb0A3MIyJYEIh2o1ZSGaDRTmeAnxkg7WdiNF9nYD-QvMUo&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_Afaai0LDMpdwKHIrQfCyUaC0wbpRWKpDCmlBiM4j3KVXRA&amp;oe=68E3125E', 'profileId': 'pfbid02rCD1c2afx2ZadDWXJkUP3BsVV6VZ4NZgDuU5mYUkJcXjms95oRMWAHCSBCqA7QHPl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2085,18 +2085,18 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pensé que era una publicidad delos Simpson</t>
+          <t>Joa cule moral jajajaja</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45926.03251157407</v>
+        <v>45923.00206018519</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>45926</v>
+        <v>45923</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>00:46:49</t>
+          <t>00:02:58</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2113,7 +2113,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tWvyKtaLKHEQ7kNvwHTQnlw&amp;_nc_oc=AdmdElKXFy1o0Y44w__s_L_fEo-MncMhsE2MTnBbIvXHVPDF35J_NJ8dyq4dxt5DpyE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZ0UmdhiBgLTNC30Un9sbdAf_PIrvE7lm4HVflQx3WhPg&amp;oe=68E19700', 'profileId': 'pfbid02Jv1V25HU2tYyUJpfLrGSGhTs1TKbUraszGiXMfcdvCSRbMyagLU97xjZpbxc3wNPl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwFYfUg5&amp;_nc_oc=Adkib_n1zHBtnEw1XIQRwKoOHKMOadIHT7mM_W5zdER7Q5N5KoC_SprNYLtrhs6Y5xc&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfZDc8IdJqSC_1faJn0argCqoKUL-NdENIvdqlgaQbea7Q&amp;oe=68E2F378', 'profileId': 'pfbid0b5gtgdygHaYhhSfuAXSPdtciHPoB6UFJQrz2xxui1AgtUkj2iceqUaeXzJtKtmLJl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2139,18 +2139,18 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman</t>
+          <t>Yogo yogo da diarrea ojoooo👀</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45921.17625</v>
+        <v>45920.03260416666</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45921</v>
+        <v>45920</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>04:13:48</t>
+          <t>00:46:57</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2167,7 +2167,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdnSc9Usze4Q7kNvwHFny9K&amp;_nc_oc=AdkSeNBg-1ZUPMQPzCiCgNTMIZCXlyCIIzIlCCBWQBSnOYFI8gmUaxCAEzKQEXUj0mU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfYdp8_hf0zd579KZvIBBBJNZ6y7bBk4clFAS9GimroODg&amp;oe=68E1AAD9', 'profileId': 'pfbid0HnbLkfTXXsAiYYLJRrdGMxLvmcKKZ3f6xai7fS3XiEgmtKmQbZdmpBaoCBt2MEn5l', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=azNC7rvO99sQ7kNvwGppqj2&amp;_nc_oc=Admt1YuGBk_TZFiaZLHWrdFwV6MGVZE7k-WGJjpxhFXL4jYPgeW-P6KhrEPlrXj6c_0&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_Afbkq_vMhvPqvYcUcxVGXlrXQ2fP8Cb9WlO_fCoylO0HkQ&amp;oe=68E3203D', 'profileId': 'pfbid0283eauWbRKgoCSv5buCpLFnjY233ez86DJ8VGQzvrfu8Faj3LveyRQjY7KrDpRZdTl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2193,23 +2193,23 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>En cartagena donde se pueden cambiar los logos?</t>
+          <t>Pensé que era una publicidad delos Simpson</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45919.50665509259</v>
+        <v>45926.03251157407</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12:09:35</t>
+          <t>00:46:49</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2221,7 +2221,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwHftDST&amp;_nc_oc=AdmfAXPViUWLz517WMZNT-chbCVBPYqxyLZqNKsXHkzCCPKp4M_hHTIeC2_9pJYF3RY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MeR6VK-4JX9E1DPCJdYy7Q&amp;oh=00_AfZqEGUvJNfiCqMraRfS2640SZ--y082khN2tmnjm1WVdg&amp;oe=68E19C70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tWvyKtaLKHEQ7kNvwGCySPf&amp;_nc_oc=AdnmO7K8yIw69uUl8-kcijpwhY7AEFefKscATpP3MrSSaHQdtmIQNB1vDNw3HnIGwAQ&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfZH_pjy5vw9Dfi8MEJujBTHl8Ok1l6L4zNCF7fnj9Q_kw&amp;oe=68E320C0', 'profileId': 'pfbid0FNNJ6uf7Bk3FoXhJ3PLtbgH1FLE1d1wjm7BTYP4VCG2Fe2WTs7vcCy9a1xBzT86ul', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2247,18 +2247,18 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander</t>
+          <t>Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45923.71571759259</v>
+        <v>45921.17625</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45923</v>
+        <v>45921</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>17:10:38</t>
+          <t>04:13:48</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2275,7 +2275,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent.ffcm1-2.fna.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9zsBWsibwFMQ7kNvwEh9dXf&amp;_nc_oc=AdkXHdBOSyF6QwAZHxCpqLZ6PENnmSnKLXB6KIVsRa3itOrxE8yBwyY0Rxe-3mY85XQ&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-2.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_AfbYFPPd-elDlHeVQVdSPnxNZnjTqJ6Qs-SH0xUt02-vEQ&amp;oe=68E1AE12', 'profileId': 'pfbid0a77kxRPKYvGjGJ1m3n6q6fqxgJFDMsZCgdAEXtd8GdzDKcvfF5823r6VLJTSCq8Ul', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdnSc9Usze4Q7kNvwEhMyJi&amp;_nc_oc=AdmSo_eYwrJ2AWzCCinCCv5A5WvSaKQgQbDQ7Z6qWLHAkpmXXj7_566CfFK0-e_tSd8&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfYHO83L_xtMJ6hIxTBH918xRwYj7AYTwRdKm-08RoGuVA&amp;oe=68E2FC59', 'profileId': 'pfbid02MA5XNgp9ZWsbhwbGXT8UrRxmXDFw6Kcgt9UCB3a84WyQLr57wJziedyWUTZwRwXPl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2301,23 +2301,23 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nataly Leon</t>
+          <t>En cartagena donde se pueden cambiar los logos?</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45922.89533564815</v>
+        <v>45919.50665509259</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>21:29:17</t>
+          <t>12:09:35</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2329,7 +2329,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=W0ALuB32D78Q7kNvwE_NaSl&amp;_nc_oc=AdkFGf8-qOKvjuRQ6xMevwBu8cphKvxP0yURRkhJ92NWaALJWNOSAESSR5SBIqLdKdE&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_AfaRbUABX5wl1RNWiXv648CE7t5pG0zb2CvlBRY_Od58Jw&amp;oe=68E1BC28', 'profileId': 'pfbid02qes5JdLFfd2sBSiPe5RAzJX28EjDnfKb9XqtTxMPuG2jSe9fv6x1LRUauueQPPsEl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwEkz4Dn&amp;_nc_oc=AdlI5VBjV3qqj-iFZBJd14S-wKIrBd-F6OwvAntm2oISjMqj5hP3NSbHcilYvGm8RnIoytTxA88jYJ9UEvxcoeRh&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfZaFwYuTlJyMrKBsGiXiP4CtyoLHeCLNM1El934s76JCw&amp;oe=68E2EDF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2355,18 +2355,18 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas</t>
+          <t>Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45929.75583333334</v>
+        <v>45923.71571759259</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45929</v>
+        <v>45923</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18:08:24</t>
+          <t>17:10:38</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2383,7 +2383,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8hOTnyCD_WsQ7kNvwFl0yd5&amp;_nc_oc=Adlgb5kuc2iADPqxNq1_oG128N94XFesIALF31MdAbXOHtQ2DNpo1WezXSyABEhphT8&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_Afb2JbT5AgVEydp3Ik2Yg5Mr9OOZNWtQ7TJs6QKEPl4Okg&amp;oe=68E199F8', 'profileId': 'pfbid02N3dDBsma5AaRbZjZnvaAvJ7tASQJsxywMGi6pfTnxUiikWWEkLStGryufAaWV3D8l', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwEAaVva&amp;_nc_oc=AdmhfqwK2_dZGeJIeOS2srmDTTIQwM9ncCGpBPs0AADTh4UevQ5uQ4FeDtXS2hE_gGWMMYpkHKJX1hdiItgXEHJV&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfYxzT_0JfNv7aPw7Q9SAP8sx37r5VubsWNbw5vGTvYVgQ&amp;oe=68E2FF92', 'profileId': 'pfbid02dxZU96K9QP1gUpj21cvydHRGQfbWgqS6QThdzC2NvLeSVV37inUkUpQvPyRWRVFKl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2409,18 +2409,18 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>En los  Oxxo de Pereira ya llegaron</t>
+          <t>Nataly Leon</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45926.43178240741</v>
+        <v>45922.89533564815</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10:21:46</t>
+          <t>21:29:17</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2437,7 +2437,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b0TQ9a4dddoQ7kNvwHVlepx&amp;_nc_oc=AdkJhirqMmJ09CI7LWbkskqOIkE4swn5shp1uHkdVN6ptwgV5TGDCQBKkoCrg_EAGrw&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_Afau3qT5ZwpywxLtqaEewROXGGMxiP_8d7ne7OVDqaH9LQ&amp;oe=68E1A489', 'profileId': 'pfbid02XcQuGfTn2atsc45SXyGhQEtZrMqs6fTYTtE5zP21pcUNBbp5nhTsfrjwN82tBo9gl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwG5OZgn&amp;_nc_oc=Adm_ZMeyTiOJyhMsoV_GeE5edx7ihjlq21x53xlRb8F1teS8WKEDAGq5aU_FJxZSQ4SqItLOArTCueAhPAJxDSe-&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_Afa1pQDKsdZJap6xSQjhPtD8GsuL9TspOjeGyR9n7VrCzg&amp;oe=68E30DA8', 'profileId': 'pfbid0n7DtPThtpU6EEyg7YvjheRtXutk68up9Jx6s7C7YgLwYTPRhkvp5n55Y4YxxKP89l', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2463,19 +2463,18 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nombres de los MOCHISAURIOS 
-Nombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4</t>
+          <t>Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45927.08712962963</v>
+        <v>45929.75583333334</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>02:05:28</t>
+          <t>18:08:24</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2492,7 +2491,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vgHTsFbWKaUQ7kNvwHf6bq4&amp;_nc_oc=AdksiYes2QyG454rBRklCNS1IbPT1B1v6qz6zJ0bCT5Ot8qLwBjFjL3Pik0PJcGtwTU&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_AfbYzsXbyVroHHOEfLys_Ci8v-0tR2Ce-t9SNm4oFsviVg&amp;oe=68E19E76', 'profileId': 'pfbid02R6DccppF5zFEqThAcEtTkn6R72PD3kxyMCRvJ24XL3sBjP1CYcZW2Y3pdEmPYp6Jl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8hOTnyCD_WsQ7kNvwFj0NCN&amp;_nc_oc=Adl9J3qihcvT0L1tjANaAK7P5TNTrv4KKA1E36hH1fh5db5OvpwsjRJY44rhd-m0hqGwRIZa9RnGDNQGDCPJVmLn&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfZYo6p2gjFOFklXBb305EA9SYPtz-0ndWQDB3lIBoazCQ&amp;oe=68E2EB78', 'profileId': 'pfbid0J22Vi4a1QFiYprftdWyuMhsvYw4rMyZPiWFuXPByaHzpxMqVMoUeZSzwaaeRRpaml', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2518,18 +2517,18 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Los yogo premio no se consiguen en ningún supermercado</t>
+          <t>En los  Oxxo de Pereira ya llegaron</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45923.1059837963</v>
+        <v>45926.43178240741</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>02:32:37</t>
+          <t>10:21:46</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2546,7 +2545,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7t6gDb-FD54Q7kNvwH1lCg5&amp;_nc_oc=AdmqFVp1R31rJt4CP6jxQkM3FATAVnxvMGGOa9r6LOrcrSAh6Gpo4T0TZyDrvrFwNrw&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_Afax9xH4iw4hJSmFHtaQVfhc5yfB_9azCcp9mrllNXmP1w&amp;oe=68E1BC3E', 'profileId': 'pfbid02iNDmrJWSsmiYTBY2d4sLghyuGNyyZCspLsFoKE5CpkQzjDMTpWR4Bzt7eWzokNnYl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwHBEayC&amp;_nc_oc=AdmZbdEGE9hTI-AmA08Gy-Bd2ZxUrO97UwgYtvTQwPIP7dIGY0EhWBOie63uM4qH4b-X6nT47WhTo7gny3nhOGHu&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_Afamtjlugfa0WKOgQzzKCl4S4l5H_CqRzGTIwY1UshGwKA&amp;oe=68E2F609', 'profileId': 'pfbid0TapBnrGDMnrp74787RbdqSmnu5QnAkWuyXUYEyior8dqWdV1n2pehT4zBBDDCBzwl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2572,19 +2571,19 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hola 
-Esos muñequitos los están sacando de Temu?</t>
+          <t>Nombres de los MOCHISAURIOS 
+Nombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45924.90376157407</v>
+        <v>45927.08712962963</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45924</v>
+        <v>45927</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>21:41:25</t>
+          <t>02:05:28</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2601,7 +2600,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent.ffcm1-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGkKih6&amp;_nc_oc=AdkhlkqQhD7ogjEZljEFBDI4q3JnyaT1DD7Zwoe1k3X1wMd0iG87UQc4oUaYFjBi-Zw&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-2.fna&amp;oh=00_AfYR6AS7HGnONYCfLTwkhcoon8k9WVbmr1iimuoMcFcZiA&amp;oe=69035FFA', 'profileId': 'pfbid0jcjjW6YxkCbhHjvrYFXLJVAyzUJdmBzrY6zFHeEGAKAMV4zsN6DM4yW4nw4HhxDtl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZW6VlpvRJlkQ7kNvwFr2Jiz&amp;_nc_oc=Adm3jnllBnxus7O_Znk4efNcLFU9GZ1muTLbsI9Sxoyyd03_4fGrWeP28GNP7V0dePba6v2uYJn-qokFIn2cWXfe&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfaTTFNAUGpGd6FKnuxo_BNh-iDMtadMw8s6FgI47_ZPBA&amp;oe=68E2EFF6', 'profileId': 'pfbid0MYaRhfBtEcsMYkY3SPPLQLAtmyUtEZvxJAq1QwEo8vNPTLrWtZHsnjeNrdUJz1Zjl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2627,18 +2626,18 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
+          <t>Los yogo premio no se consiguen en ningún supermercado</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45925.76949074074</v>
+        <v>45923.1059837963</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>18:28:04</t>
+          <t>02:32:37</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2655,7 +2654,116 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uibEZpOWmSYQ7kNvwFQsgLa&amp;_nc_oc=AdnLCi3Ok-nocyVUotEbjq3QWbwJmhiKroPBzDgZRe1w9bo8kIesnbqcVNxExPk0-pA&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=-l2G5Io4YZvYByUWb__v7w&amp;oh=00_AfZMZRFo5bUwr3A5mbeacZI-G-UhSMsFvzfG8sm-x4QyVw&amp;oe=68E1B231', 'profileId': 'pfbid02JaMJgMnw639qK5pLApt7hubncy3fBanFgQaGtGQEcsgoqi4y5TsDyLE5wBxhAXBul', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7t6gDb-FD54Q7kNvwEBrmGC&amp;_nc_oc=AdlFFqAnyJf1qvVT5U6D1lHDUkMvdyeL8J2ErWsDmjZgPM8PUAt7PR5ZjSV0TE9wWFTEz7WmkzhwG0Pe99rxN-ul&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfYNgTJ9Zk9ex3tK1QIcwBIgnI5W3WwY0or3qCBa3LpZXg&amp;oe=68E30DBE', 'profileId': 'pfbid0epaaw8t62VoRex47dD3Bx5ssGYy7vsB54xV5Q5hMhZtZL6g3Pb2LyFDGBRWkv9Phl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hola 
+Esos muñequitos los están sacando de Temu?</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45924.90376157407</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>21:41:25</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwHuXyqs&amp;_nc_oc=Admd78z7MiEHvNDsNTw_ykidwSf4wJ4YMN-Vw0dp1FMwN9tHCUQyrpGqoIZ12e3rBmkQmyyZENE0BEg9Mgnvj9D7&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfbLL9wIRkYC68nBictRGo933Cyj-k6vkcSqZbiXO48IYw&amp;oe=6904B17A', 'profileId': 'pfbid02oUBSgmUnbhvoddizy36Z3tNZmS39nr4KENQTVpq3MMFXtTRh7sKtQcaavFqcBhPMl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45925.76949074074</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>18:28:04</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwFKyVUG&amp;_nc_oc=AdnoZ-DWcjadrdCOJB2cTjkC7IBNxM7awTsHgSp_A26w-0cov4ax3Rn_QMPIbYqKBEjUJKlWdbQSwY__OXZtE6mb&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfY0hhlDVnYcb8mTIQZvjc-L-xePdGmALkr57RkLSbhB7Q&amp;oe=68E303B1', 'profileId': 'pfbid0EYkbCYbNR5kf8rjuUvdU4N95qp8tPpfYLGhL15Gcjxufu5NDYxNxLdeHthsq6pXSl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2741,11 +2849,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7013110061</t>
+          <t>90131100610</t>
         </is>
       </c>
     </row>
@@ -2785,11 +2893,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>41300112000000100000100000000</t>
+          <t>413001120000001000000100000000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwE7XUqe&amp;_nc_oc=AdnZ6CaCxo4MLreBgpWMhn_NpFyDwD6ChWiOpEeEeV7ruZlL-Hq-j_sjLTkKygA9qVbEwOo_6TWxtJKhXSD2mmBI&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;oh=00_AfYmWka-C568NFZgqjWFj6b7WhoPJPhNAOFg3JmiSvxWeg&amp;oe=6904B17A', 'profileId': 'pfbid02dwMmVdNXMKybWUqpBqJ65bm5KYTbREDrCijDtnCD5qnpMH1D83yhH2z1dvp34YeJl', 'profileName': 'Santiago Domínguez', 'likesCount': '9', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HNfFFAfkSQ0Q7kNvwGOonx1&amp;_nc_oc=AdnpjpZKLpg4ip8A1-C9cC7Dp3FQQsrFAekcWRi2W-85QIWnEYbGYfZG26osvBYCdc4fXRcK2DtRxFqAAcccJkyy&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfY4WP_Z6KwpjoDzy3quCbeZNzZ3a7JDkNuyaRKlXiEywg&amp;oe=68E44B2F', 'profileId': 'pfbid0Zum41pAxgVgHoZcUeRnXqb5xX7Wy4WLmPXFZpQN8AC1rQ2Z3TWbcLukHqAtBeaKCl', 'profileName': 'Santiago Domínguez', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=O1QCOd8yQI0Q7kNvwEdqdut&amp;_nc_oc=AdkGKijTtnOuY9YK8oxNWC7fdyD7zoDU8AOU-1o9KrDTeACrJRrRUhd5v9J1KFGGHOTzcJbBITKToWZb0gubVJQL&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_Afbv6WmS-esABgMdNpXxw3CTYQwbLBq1dRD8B7CaakxfgA&amp;oe=68E2FB6B', 'profileId': 'pfbid03WEcV8iHNDWbAh9arEXCCp5ufRqfqbSbjuB3fagAegFfBxp7SWZs5pomqBsSAbfnl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=O1QCOd8yQI0Q7kNvwHc47yx&amp;_nc_oc=AdmkGglc8N7RagcFYaFWite4T3iKwpj9l_OJcAyKz5yLaIUQXTeT5jleOgdzXfNvTlgaafGWPDszQgwvm01FhVQz&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfYgt7C6b4qzAUGiBCt0v5QVvAQnxoFFMnSvU8iP0FP1Ow&amp;oe=68E44CEB', 'profileId': 'pfbid03WEcV8iHNDWbAh9arEXCCp5ufRqfqbSbjuB3fagAegFfBxp7SWZs5pomqBsSAbfnl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LKXhEbbumCUQ7kNvwHZCjVW&amp;_nc_oc=AdlUqh5M5fpUgU6ndTxG20bbd9XkZ81aJQxp3IDLeg44FRK95jBQBoI5_BQZyhRyDgcI_yrKBNC9yjL2L1GT6iFx&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfZkEwrNcfMtWt9b5A8EmekCSvTIuhmaVFgbQJo7EKtc2Q&amp;oe=68E2EAD2', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LKXhEbbumCUQ7kNvwGiWOM_&amp;_nc_oc=AdmcKEtDVOWFtW3QK9QOOVi4RyF_JaSD7tJDsBom90eVgxxAbAB7KVo2kbjrIaWBodfrb-YE6dXDKfejTTLMQwgU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_Afb-NukhrV1y4mAvJ6P1wz52xJzplQwricIOhSxd08NiWw&amp;oe=68E43C52', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pE4TAJQWgk4Q7kNvwEOMQtn&amp;_nc_oc=Adnyl83chZaA3f-jdJmefgrnTuXZjt403umPprDsRyRPzS53Ga1cpd9hldeTIclYUCoq_HY4ezgwftXFV3bbhxYa&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfaWVO0uAbcj3O3M_q-vq2zIAA6JOUK6zieR79z3xQW4gQ&amp;oe=68E31218', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pE4TAJQWgk4Q7kNvwG9C7dA&amp;_nc_oc=AdmtpXrDmWV1LQVqg4ugMXnheilVa8Ii0p-5xYo1TN-vr-4Jo4FYEgBuAz34HJSWV1mZ45le8IXOaL_M5SQRKJ4j&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfbMog2FBQFuvmwBUQhto_KED9G1tKD5ysCNT4xo93Sh4A&amp;oe=68E46398', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid028z9LveCxaj9pcqBM3USkqHPSZ2kVNbPh9tGr1CULDYdYLN6PPewSLGmQwnKm1qbol/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VJaKOWdP8j8Q7kNvwHWAxdw&amp;_nc_oc=AdkVyrSPGjHbdXZMELMZbDQWwq6MBoCXNEfspxqhT5AaF2IbzpiTcwzQYq0qrM4RwsX94BAHjD9XThAzWn0Tvwmi&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfZiQu8bJHMdqmlXhUjoujdHsvi6QMENeZfQ8m4kQXMBnA&amp;oe=68E316EE', 'profileId': 'pfbid028z9LveCxaj9pcqBM3USkqHPSZ2kVNbPh9tGr1CULDYdYLN6PPewSLGmQwnKm1qbol', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid04xYdSq1PugHv24xAUwE6UEdEhe3uMGewEBn2RtHWJ6zBXNYtc4PnCratgRMb3Xtml/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VJaKOWdP8j8Q7kNvwFibn6m&amp;_nc_oc=AdkLTwRRDvrynw6s9g27ZPhRktCMpx4vPINVbRhyQ50K33k0xr692tm4fDpGwCGOALXBxH2D9wZ4AF2efeLte7oA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfYviU-F6XFZdMmu2n3G4uo62n-O2JMih4K7idLAWdmGbA&amp;oe=68E4686E', 'profileId': 'pfbid04xYdSq1PugHv24xAUwE6UEdEhe3uMGewEBn2RtHWJ6zBXNYtc4PnCratgRMb3Xtml', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0U0JmSedy9kQ7kNvwGnyEiF&amp;_nc_oc=AdlFxpogDd5MdV6uCDELWy34D1HVvz7HdJKaIyXBN_lsAC6YcwJUuXvOHgUUJGb-VqtzVazfKyw3Sp06sZpO_N1J&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfZ_qVlUieql9IjL4pJukcIPMx0G4V88vNkvkDLUU8hV-A&amp;oe=68E2FB97', 'profileId': 'pfbid02KeiB8Z2SsBDNghzPdedcitRVRcvMd1QuHK3x5qrU9H9tpm7n9EHugtpMsqYjdtSZl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PfiSyADQ4asQ7kNvwHILyaC&amp;_nc_oc=Admt0Ep5BhbCZ0xUdfW1pE55rSK3Ww6IRszkIV_py2BMZv019sVpCGRengY0cb6D956AMoRr2i9Ut6zGgqjtb8Pa&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfY0T-RgSHODBJb4zx9q45VLHxYRQTbwllL3aS3bbebp5Q&amp;oe=68E44D17', 'profileId': 'pfbid0G74zDPQ624maqswzBu1wDBiX917AJS1KwdzGtkZXaXwKQp8Cws48b2T2g25wdGhjl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwHRM2wR&amp;_nc_oc=AdnwgVQNy3wlOAl9v8fHPcn7pOrG2gs0qyfRYdv26zw8qlxyLNOSZ4iwNL1i5gehc8E6qTPWufN33EKUyWSKa0rN&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfY5AJSWO-AITbS2TquPUBCbQRHmmUR_ndkp--LSamqosA&amp;oe=68E31067', 'profileId': 'pfbid02iShVyr6JnEv8jPTDoaX3mLz2QQTJru5QU4g1GfyvuR6eRCeRJs5nCLhR8x5qT9vvl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwGs0kzH&amp;_nc_oc=AdmI_05Xatllhjl7QdfGNTcSdqw9S7pu4a9L5UcDJFgqys5UGzS_Kd2YIWuZrwPqZ6tfeK9nsyfoPtouiquQ6lMo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_Afay8T9-_SJb_ia0zWa6g87eydapfgBsqpzajvHmUrIGnA&amp;oe=68E461E7', 'profileId': 'pfbid0eu4K4gTwvxBxJtNVBpKYuyqeeifdFombrv66kJdH5faFsZZ6iTdy1Ku6uWBgGNQzl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid02YUyewjYXhugkJmdmhCGFMxoCtjkSZeHmhKdqt4t5Rfti29kJYLFLgaTt4NP8dmzwl/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwE7XUqe&amp;_nc_oc=AdnZ6CaCxo4MLreBgpWMhn_NpFyDwD6ChWiOpEeEeV7ruZlL-Hq-j_sjLTkKygA9qVbEwOo_6TWxtJKhXSD2mmBI&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;oh=00_AfYmWka-C568NFZgqjWFj6b7WhoPJPhNAOFg3JmiSvxWeg&amp;oe=6904B17A', 'profileId': 'pfbid02YUyewjYXhugkJmdmhCGFMxoCtjkSZeHmhKdqt4t5Rfti29kJYLFLgaTt4NP8dmzwl', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid0UwLU2ZvArWukPvy6L2TzVJLeJ62vU9SwbdD9WR2HTSf72R84va53m6DBzULSM4dml/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwH6C8uY&amp;_nc_oc=AdksGJRocL0InK6Na7ITOEzUFHJkI2OiQP94ClTRabRadN0lwowd52O-MuygTIwLRvCKuuOnfaXdiXcyW8HemTDi&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_AfYevJ2_Z5M1LDQJ1MKNg9fkDsBt3BzLLvKcMcXNGoZpXA&amp;oe=690602FA', 'profileId': 'pfbid0UwLU2ZvArWukPvy6L2TzVJLeJ62vU9SwbdD9WR2HTSf72R84va53m6DBzULSM4dml', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwFvNjJ_&amp;_nc_oc=AdlISmSoZdqTnIpDhdw5JEmetqUncxxlk01vfOSF9dyZdkqZvVeX4lonqSjQn2XmF-_XebIhCPsXLolEy7-5WZKi&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfaRNiCvNFKtsMXa4ucc9Jv1UK5RYFi1bIKL2iKenY5VpA&amp;oe=68E2FB48', 'profileId': 'pfbid02NvQf4azySnLPPwPmD3JYsrmPPn8NwDm7n891rjFqTfLBexsMQh8Bdd3Nw5dD7RSgl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwFHu-QC&amp;_nc_oc=AdkJ9NGA95P6xtOpj5BcA7u55GGvk9_zKzNegmTT85O-WB9KzTDBK-uguAFye09DDtKiHciQjHMObidNF5KsZ6jf&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfYgUI_XmVsYRtf2aJpnGgOTpwcsoXXWr7BF9xUcp_vibw&amp;oe=68E44CC8', 'profileId': 'pfbid0JtowamoQmpAnLpKMiReh47oeSk7E39YBX9ESHGqZU7Jh2wGdCEdgTLHG3gKPsLEZl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwE8uWDs&amp;_nc_oc=AdnZuPmWS461fgLBZsevajd9J-gYjziQoxKGGe5I0T4cECKVdc2aUeuZ6SXHrrPrknLd3abfujTbI3LsZWxmzl6w&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=YWbjREjmbLNoUjRM9Lg8Tw&amp;oh=00_AfYyZ9aBmGwasU075jHqBjo5WJAC5QMUhLP8GBdFsrF0Ag&amp;oe=68E2EDF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwH4K1y1&amp;_nc_oc=AdlU-YIfVuksnoQIXcTed5M-wwf0tK9Eoo5V4OSydwi1hJ6GNPkZCp82hc8fpbboAt61hNnYyIsbV4GaxMVcXNtx&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfZPBy2hyOlvNPnXJpJWHcsS4jDlx1TSD8y6fUJldxlrxg&amp;oe=68E43F70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwEQaFR6&amp;_nc_oc=AdmFqZ7YZk19f__2fCMd3WuN1QibuwvS10cxN9wVqM1zI-XsyoW7t4RlrX0cGghG6qU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=ZvacRcdN0N-p8Auf8_Qdtw&amp;oh=00_AfY3gy7qgo991E5BZE7WY70wWh0gkOrwgA3AQHFtGohZBQ&amp;oe=68E31253', 'profileId': 'pfbid02qaAkiPA9RcWhMTJm5boNbZJ3Tafkp7FmZkBL7QXqK7ysTrEqr4MREF6m8gLCxrpal', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwFEE2Cg&amp;_nc_oc=AdlWRssAUZ6yVVbIjHEliE6LukdLj2nlBcYpgzx1OEzM7Ex_oUoXtW8LRuHAZ_Jl0F4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=yOqUa2nYgMmrgYR5mC4agw&amp;oh=00_AfZVF2ui3oYaIy4PPO-J231tBWiyZOqXDRlJrTQ4SKucQA&amp;oe=68E463D3', 'profileId': 'pfbid0n2XZoDXnaWUWy1BkrycKJdRYFEkufL8beViHzdAxy78x4HSyaXZWnMAZStGuB4HHl', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9ItsiCAOw2IQ7kNvwEk_N5Z&amp;_nc_oc=Adnhz2l-aLsl7ZpNNFqIdoifOvcaEC6HxQEWOWEEZpSkp65iDWr9m8eohful_kIudHM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_Afa1NaHkpUyr6oRxkfwL3-v0TySTgMZB8olZ996Q3brsyw&amp;oe=68E2E9A6', 'profileId': 'pfbid032fdnCW4FP1TGUxmAWzLFWrGjFLCc6mNrv6KBU9esJY2ECZLZwhXE5Cj42JKAduucl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9ItsiCAOw2IQ7kNvwEYookz&amp;_nc_oc=AdnatotloPJq99BhoTKuL3ZSNevC__aPp4fjt9C00JkPqEfktgI3shdPhCATMc64F2w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_Afa9vnsj6qSE-WGg_KK15X7sN_XUG-riqUpTIRsVeEqjAA&amp;oe=68E43B26', 'profileId': 'pfbid0y7zbHLRtXqxnZbcYK9fg5LanuEDBWiiWKBKB6xNaodQDnE7J8XLG6xj8AJUwwLadl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwG2cxwi&amp;_nc_oc=AdkOCEiJObB1ttnG3TqgnzRGfbQtXvRZa-4Qz4UCj_7P4WsGsWZlphj-IkVkjKr7ycc&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfaKT3vEVY7TCnKkGdO8JG6HrVlE1hziQZWbZIqAooRZGA&amp;oe=68E2FC5E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwG2cxwi&amp;_nc_oc=AdkOCEiJObB1ttnG3TqgnzRGfbQtXvRZa-4Qz4UCj_7P4WsGsWZlphj-IkVkjKr7ycc&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfaAPGnS8CwBEwgmfLfM4iOSdl2k6mSvBm1DBWYyDn0rYA&amp;oe=68E2FC5E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwHzpyBm&amp;_nc_oc=AdlNheDBlYEK02bafdHgQxphd5aYN8-3qmJ2off0Rr-6i5TvvEki46dSH6_SrD0w188&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfZ-RRkqY_gOK6EB6HlpFDncdxFSGuOAdr6jzNRITwF7xg&amp;oe=68E2EDF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '13', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwFPMHQQ&amp;_nc_oc=Admo_cer64r5zWPD2os_t_iJ8JNgLRmrtQplBGKeWUHolOV8JvmF3MZGCpPjk2b4yoE&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfZeuT-W0rDqR-H5ujdr-RTQeEjIib92nM5ln3a7Xb1yYg&amp;oe=68E44DDE'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwFPMHQQ&amp;_nc_oc=Admo_cer64r5zWPD2os_t_iJ8JNgLRmrtQplBGKeWUHolOV8JvmF3MZGCpPjk2b4yoE&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfYShwiqnsQaO2xuE7_pEtRqJo498RuQDG06vqPL4vpOzA&amp;oe=68E44DDE', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwFg5ScD&amp;_nc_oc=AdlXlZRgX8V2w9tIsSLbeuwCZb7vemqwe7VVWLkTT4FEFuReRl0u56K0X5tDg-ACtjQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfYCRFSly2ovSJ_xWzCSizxaMN_eyHuKkTE6jlUAr49oEQ&amp;oe=68E43F70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '13', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGCsCsu&amp;_nc_oc=AdnSQU1ngwMjCpOJ1tQzX94tjrSLZo9jqOQ27LWrrtjwzvsmHTgNebJJabjYfTIUMeE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfY0E0MR3KhPz4h1Qaqfr4l-FyZ1yXsKiN8uzgmKZCvQvA&amp;oe=6904B17A', 'profileId': 'pfbid029BcS7vTJ4RTP8M1dGdw1dvkX8WV9RYpAxSh8GdWPBFgW5EfAAyMjPLQBamuzFmfhl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEjxQB8&amp;_nc_oc=AdkQpc5XPkDb_Ugm51TrCrXJ2ZkqPyqY8ebuARPMUQ6FFWs03LM4SEUPP32tGDSibQw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaI3BQTie1-SeVH-JlNiEl2zKYCeMXDhdDM1gMlje3e2Q&amp;oe=690602FA', 'profileId': 'pfbid05dyFCkpwDE78eYGLMFvdPc5gy74WqffeVYL5JaPXQB2mPf6GJTVMDv2SK6Y1aocEl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gTaXvdUMiTcQ7kNvwFlgElH&amp;_nc_oc=Adm0uugsQ9v6XgtU-KjHW_KfLlzf5Vb9ZOw8iCfYPyRJGnlEEtYPldPxjkUeyURSEMY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfbTpHWjdDOSGMci14CDDRPgzluhwHwSvr8U5hdVh5klxA&amp;oe=68E3193D', 'profileId': 'pfbid02ym1miM7891MBwHpvzcfp6gwVF1yXGvS4o5ZeRRMZWHYC9pB25Lg14v7TnjEmDqmUl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d21iRNX3ylwQ7kNvwG968gP&amp;_nc_oc=AdmqEpkjxJ0pIaPx5XHMRT2-nucrhkVUZRqrKCGRakMDs1mzxRPcjDaIAp0UeJ4RZjA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfZhZAviEuzXzdnBnu74M5DWnt6dd3F9iL025QlNxI8rcw&amp;oe=68E46ABD', 'profileId': 'pfbid0vDNaoBUmHjjMzxtMk2QmuJeLZw4SHi3sdXWrH4DwZAEx7E5o5T6Adsk1KxsrTP9Pl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGCsCsu&amp;_nc_oc=AdnSQU1ngwMjCpOJ1tQzX94tjrSLZo9jqOQ27LWrrtjwzvsmHTgNebJJabjYfTIUMeE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfY0E0MR3KhPz4h1Qaqfr4l-FyZ1yXsKiN8uzgmKZCvQvA&amp;oe=6904B17A', 'profileId': 'pfbid02CoJ573YaXfjcyo7vHC5GqE3mAQvVXtv8YkUQDHKzBpRhffrqiWqFxpa9NqPYeFJal', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEjxQB8&amp;_nc_oc=AdkQpc5XPkDb_Ugm51TrCrXJ2ZkqPyqY8ebuARPMUQ6FFWs03LM4SEUPP32tGDSibQw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaI3BQTie1-SeVH-JlNiEl2zKYCeMXDhdDM1gMlje3e2Q&amp;oe=690602FA', 'profileId': 'pfbid08mhMdEM1rbrHY3VVdsacQ9FMVqJJcxPXXA1KkdYNZxen7rQf7V7DN7DTxsoszUn4l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hQ4ynS0hm4MQ7kNvwHadF65&amp;_nc_oc=AdlHkLvp7QtZvDIYZIWsZu65T4IiJAlAQhWt4k0wzal7LE8J9B1swQIaG-oVJMzNDOE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfYZi-C-w3nbEOQi06vYue9r6ibTolxR_g-68nbA4xo6oQ&amp;oe=68E3080B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hQ4ynS0hm4MQ7kNvwHomvF4&amp;_nc_oc=AdlM1OLSyFgVrf6lMryAw2Vgbjx2Wlnu98Xtf_B2qeCn8Wp0O4MrMJMzHRlZZ_b-uYQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfZLUMrXo5U3KW4urVpRs0yT_krbBhs5Tu7fDpZ0Qh63yg&amp;oe=68E4598B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BfBghEj6d1sQ7kNvwErr2XF&amp;_nc_oc=AdkZ5lZJOz_wUk0GSpd_FLPVCj0l8EJt3ngwS-1G-PHWYnR7t57FcnqFp_qd13MsC08&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_Afb5LMr3NJD611WxUIgaghpTSB3e30aZqJkb3b3FVWvMCA&amp;oe=68E301F8', 'profileId': 'pfbid02cLy55QWHns8McvvjE33fwtkUmzPBnK9Wp66KefCSnsz66yo8e2HsrC8xgRWFUWCDl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3qnB6DSqPF8Q7kNvwGI1Od5&amp;_nc_oc=AdnqMo0UPpKF-X4-bVb3UiQq6MwqOZmIobseoRtKy78PgweMTLR9AVQxpexWkPx7PxE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfbYjGYmYQKLH11C_HajSuMX0mQzKCFYBWpaPJMVNfBz5Q&amp;oe=68E45378', 'profileId': 'pfbid0YoKtAEsvweeqZBcHqk9CX4yiaDy28cNkSj9oktR9VrJ5xj5GXHR3UcQvV4RVKGmol', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034ahd5Nywh7vxM5Foq2c2dUeLJmxpDZUpHC5toF2ftD6QA3kFsoJQVtH5EUuByq28l/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGCsCsu&amp;_nc_oc=AdnSQU1ngwMjCpOJ1tQzX94tjrSLZo9jqOQ27LWrrtjwzvsmHTgNebJJabjYfTIUMeE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfY0E0MR3KhPz4h1Qaqfr4l-FyZ1yXsKiN8uzgmKZCvQvA&amp;oe=6904B17A', 'profileId': 'pfbid034ahd5Nywh7vxM5Foq2c2dUeLJmxpDZUpHC5toF2ftD6QA3kFsoJQVtH5EUuByq28l', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid02134SADMaqxgUwp32QyWy12bZ4WkyktmRvE9rZJ5J8A3bcYj8TM2fXwsk9xkGJAcsl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEjxQB8&amp;_nc_oc=AdkQpc5XPkDb_Ugm51TrCrXJ2ZkqPyqY8ebuARPMUQ6FFWs03LM4SEUPP32tGDSibQw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaI3BQTie1-SeVH-JlNiEl2zKYCeMXDhdDM1gMlje3e2Q&amp;oe=690602FA', 'profileId': 'pfbid02134SADMaqxgUwp32QyWy12bZ4WkyktmRvE9rZJ5J8A3bcYj8TM2fXwsk9xkGJAcsl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q_4nIAKXKxIQ7kNvwFrybS5&amp;_nc_oc=Adn1r1LDeaar7V5YXyj-SI7fFBZiDEEjqIB3SVvWsvEssUUaZJ-ReKZyobT1J0C1uj4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfZ40g-oRNsIT4l2snMla9vmNqKVd5f0tvUzJwH5ADrKBg&amp;oe=68E303C0', 'profileId': 'pfbid0RAhRepwNFzyPTZ6S5Lt27XkrxG1YzM8Xze6c3N374DLX1XX5ohjwe2pNwcjBrhB6l', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iJVICs9_fqkQ7kNvwEHcSIc&amp;_nc_oc=AdkTPlskhF24Lr6XXb4kx-VveZfI0PsMBJyszSPnVgGqTxSSwfTNDdDcEA2cFz-8EYw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_Afbixa09LC2AmHQxzeqWbD-Npcs6av1ciEJVjb9DoNy3ww&amp;oe=68E45540', 'profileId': 'pfbid02V298qVsC7QJEmJs1uwTbU43QATVT3ZRjs5ZVnU9HEMkGohWx3GazXiTUzPeMG9fsl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwF39WC0&amp;_nc_oc=Admddro13bK3We_EwQsdyVwgu6OoSoRBmefx2ybc2gTHM9fOmlHkNqBJM2Grj_NPyXk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=IBcpXLfeQ-2-Mjw94EQGpg&amp;oh=00_AfYTtKRhTrndhJKlOccd7F2rovHAzysVyMvjKv47YrSmlQ&amp;oe=68E2F115', 'profileId': 'pfbid02ujdcfFEkDK1bwEiv17GiXwCzuPBV5i44YF2rbeWyqSynMysLG29QhcMiq6jxqkPfl', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwGJsqFR&amp;_nc_oc=AdlVTtoNt2gIrPvFWTDECW54rLuiNE6raTLvR__foQOIpAj3IEJFKRazurMM-jn2od4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfYh2u6DHJ8NZdVtgXoQK-PeJ10Ys_2jrxbyM9Xf_UmwIw&amp;oe=68E44295', 'profileId': 'pfbid0qi2uBS3BYPzkS1QoCSZZKBcZTHfKZErj2cLSbpaC8HnkznDX78kyp5VXSH7g6gVel', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57zJkeUH0woQ7kNvwFLtyZv&amp;_nc_oc=AdkgfzpyOR0KB5FA6sQ_5kjdnQxmlfgMKnpKqvqyw3OkRdazwrgJ3OWRnLr0oNU-pmM&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfaADHshky7MbAd0GjnRjJFO6pcxBqJZw184wx_4nc6yzw&amp;oe=68E2E954', 'profileId': 'pfbid02tYq5VZkjLhVqZKLE8W15DGKJkHFQvv8RVYNfkuC9QeVkA2fCygnZAFTRt2ZUpAE4l', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57zJkeUH0woQ7kNvwFTLOk-&amp;_nc_oc=AdnvGDwPFFGKuWrGGI3LIPVt8cQbCE0axiCtiCOsDA9Rx_sVWoePMzuZV3OkWUh7rTs&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZ1qcVz5u3NGxwSIj0NYsH8FuUdG6bqnr6UO-ylZEpOXw&amp;oe=68E43AD4', 'profileId': 'pfbid0q1BtaQ8NVR4MM9vDADZ4gAqGb9etDmkPtg4Fk7UhDZTrEo5ug485FSNzuUXi71N9l', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r4ZohxCpHWAQ7kNvwE-sgJE&amp;_nc_oc=AdmgaW4MFN2QABux94AHR3Li9PE73PIG8fsFPF0LcCqnglBLQhbtcpOgblI3yOsLnx4&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfY4zMepw_EIeRUozl8sBVsO10XdCYZNvM-yJdGyifDHPQ&amp;oe=68E30B77', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vUwsCsS1g18Q7kNvwF6gvkY&amp;_nc_oc=AdkT6QWFFRrWqm7JwT2auARZSntlzQjnMKlVQzAFstFGgxOODOjmx1pijFUtQyXVSDM&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZFKH3J0q6dD6KHRukkk_FIF-3WauF94apK3vAPLu1wNg&amp;oe=68E45CF7', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bXQDM3E2NikQ7kNvwFBxaog&amp;_nc_oc=Adkb0f7PGJEL-kvzWku2Db3aDwWWFgHET3W6GkU__fJyfHWhqvSpaKXANr7YYcVlhwA&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfYvdjaZb3ySDjmgbVD-xSsuERg_DP1GOvFfTAUGJPfMwQ&amp;oe=68E31A05', 'profileId': 'pfbid02AvxXvmD3kE1U5vZTZ2BSXFBM9XfM8RntPTidJZVQWRaYXpuvXo8aY1dyuBiTssjPl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HGzHZR0zv8cQ7kNvwGdX5gD&amp;_nc_oc=Adl-dLNerwKE0omZJ_Dial5uwmvrkOBq-gUT5UpCjjrXNxMdwL2Y7dAHgsnaqamj-fk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZYoq0YhxHL_eb-mTvz_ExAPhyeqZNRgbRuoz4rHBi78g&amp;oe=68E46B85', 'profileId': 'pfbid06uMpSx1V5NZ9UwuEF6vNePu65XAP9vLnQP4bozXmQ2GhGoSy3W9yLbw782uiCJoBl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwGvJKJ0&amp;_nc_oc=Adl4khGGq4l4By2C3oUuqa5FA0APCm56p0R_Lrj86K3h7jEPlQF3yQLbP-Sw0DFMpwM&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfbhiDIWlEVlh4gxI6HuMTsXXAXx6DjF8kA1fPkDvoysfQ&amp;oe=68E2EEFC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwF1ilAn&amp;_nc_oc=Adn2cfp_j55vYXeFzL3um6TqF7qB6YB4d5XRWXajyWNMGvBUgkdVmrIKSi2yv37uXho&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZSc8hxqS432-jwbnmBSiE_hyT0FYnkdSAwTi9ebdZ9CQ&amp;oe=68E4407C', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwGkFwgF&amp;_nc_oc=Adk4LxV_e7cvYoDUU6XtAnaDCMb-DTBR_Bu2Xtqdpnu9TJHjZfrDH7HVtGrO9CSkyYU&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfYmAXHK90BRmmVlfYZq8hFZfhtjTLg3kC2jx1_QYOyRkA&amp;oe=68E2F362', 'profileId': 'pfbid0SZBhLxYAdWZgn1BGAqkMo49TdxwYtDE4AyYfjevTDTYJirky7hFk1qCnF49acESQl', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwE7LxXE&amp;_nc_oc=Adkd-ovw8GYV9fOXn3IXpi7Xfi0W7h0E_U9sLdvU2a8BOHAlV6r8ImVbhs6NdIpWI6U&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfaBwI4Zhm5BILYOOxO56ns9UOyq2bTmw9RsLdX7vAezbA&amp;oe=68E444E2', 'profileId': 'pfbid02WQdQXdTzUrE3UvHheMLB8b4aeMcdf3EYa4Vwz8jydfPBEQyHKyddjNACLzKH4iN7l', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwF2Bd1y&amp;_nc_oc=AdmZ_f-T_F4-oFbXxQfqHkb0A3MIyJYEIh2o1ZSGaDRTmeAnxkg7WdiNF9nYD-QvMUo&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_Afaai0LDMpdwKHIrQfCyUaC0wbpRWKpDCmlBiM4j3KVXRA&amp;oe=68E3125E', 'profileId': 'pfbid02rCD1c2afx2ZadDWXJkUP3BsVV6VZ4NZgDuU5mYUkJcXjms95oRMWAHCSBCqA7QHPl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwHvCy_v&amp;_nc_oc=AdkbLmYooKAaFB0qxCwbDnWpTzoopNpGbAwT1D63ZA4QfgowfD9jYFzg1wN9DWsqIh4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfYYio4zUZ-wK6kIxTOM0i3r-ia7aQdWkiWTqEelzF1whw&amp;oe=68E463DE', 'profileId': 'pfbid0neZpgrxK6gkwf78sMPyJSm7bgTkxcRjULGticMkAWNv2C21pqbPur7aSWsFoktMzl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwFYfUg5&amp;_nc_oc=Adkib_n1zHBtnEw1XIQRwKoOHKMOadIHT7mM_W5zdER7Q5N5KoC_SprNYLtrhs6Y5xc&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfZDc8IdJqSC_1faJn0argCqoKUL-NdENIvdqlgaQbea7Q&amp;oe=68E2F378', 'profileId': 'pfbid0b5gtgdygHaYhhSfuAXSPdtciHPoB6UFJQrz2xxui1AgtUkj2iceqUaeXzJtKtmLJl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwF8-REm&amp;_nc_oc=AdlyhB65wfytWOL-4KXF9Y-zerE_xq1ID64LhQwU1urr_EmM3C1t9BXtkV-0A4ssy_w&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfbB9zZ66siuH-ETi-rbzYZR6PHUFKMO1bVWbKAJKkYWpw&amp;oe=68E444F8', 'profileId': 'pfbid02eTB5JfLJKJhT5nbJKujHbk3RPAn5CB9TJ5YtjpfRZ2ViFLr3HXWTJ34eSZwC3D19l', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=azNC7rvO99sQ7kNvwGppqj2&amp;_nc_oc=Admt1YuGBk_TZFiaZLHWrdFwV6MGVZE7k-WGJjpxhFXL4jYPgeW-P6KhrEPlrXj6c_0&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_Afbkq_vMhvPqvYcUcxVGXlrXQ2fP8Cb9WlO_fCoylO0HkQ&amp;oe=68E3203D', 'profileId': 'pfbid0283eauWbRKgoCSv5buCpLFnjY233ez86DJ8VGQzvrfu8Faj3LveyRQjY7KrDpRZdTl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hys-sWdQaXQQ7kNvwE1SPTz&amp;_nc_oc=Adkbg1uyzerRgt3HtsToOqgxVRzTMgKceN-XmvlKEJW51JUbc9NWUhEhWdNThF9lyMc&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZ3rtONrAkbwbK42USguwGqFRCFsxrvOnWyO7N7o6WFXw&amp;oe=68E4397D', 'profileId': 'pfbid0423sRhPreqj1RPvhwHf9NjkjXZofD7znFWRC1wWHPNG3yeovpP3mTGT9T7Km2664l', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tWvyKtaLKHEQ7kNvwGCySPf&amp;_nc_oc=AdnmO7K8yIw69uUl8-kcijpwhY7AEFefKscATpP3MrSSaHQdtmIQNB1vDNw3HnIGwAQ&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfZH_pjy5vw9Dfi8MEJujBTHl8Ok1l6L4zNCF7fnj9Q_kw&amp;oe=68E320C0', 'profileId': 'pfbid0FNNJ6uf7Bk3FoXhJ3PLtbgH1FLE1d1wjm7BTYP4VCG2Fe2WTs7vcCy9a1xBzT86ul', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42GuiwUdvaEQ7kNvwHnrCRb&amp;_nc_oc=AdnVLGxgDq7vh4rv0u7L7auBc7KV8__0Lgsfk6H-RhqQWn2Ecgk8QMnIwxTnk4i2gQQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_Afa1eI1z5qWQ-PdbYvRPUaoWmlFeDttmiiPSr7Q9Xk8rAg&amp;oe=68E43A00', 'profileId': 'pfbid02JjrUiw1jDP2ToK5qe87c73EonRtUN5Gdbd9aMYZr6jn9JxDFLzL83vPsZCUDdjdKl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdnSc9Usze4Q7kNvwEhMyJi&amp;_nc_oc=AdmSo_eYwrJ2AWzCCinCCv5A5WvSaKQgQbDQ7Z6qWLHAkpmXXj7_566CfFK0-e_tSd8&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=yc5gjDbgMhg1j_BEg_q05A&amp;oh=00_AfYHO83L_xtMJ6hIxTBH918xRwYj7AYTwRdKm-08RoGuVA&amp;oe=68E2FC59', 'profileId': 'pfbid02MA5XNgp9ZWsbhwbGXT8UrRxmXDFw6Kcgt9UCB3a84WyQLr57wJziedyWUTZwRwXPl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdnSc9Usze4Q7kNvwHN0M3k&amp;_nc_oc=AdloTbCBHZAmAI0A0i8c4WdqNxwYFzNFXaJLUP3NfUg5QLiARIUf2N7TpMlmU-pWjew&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_Afak9AGhjH74atpl2hkOoQYdbdgy6s94lWK0SMPJ9H5pcA&amp;oe=68E44DD9', 'profileId': 'pfbid0HcSLTXBniE5bBbLETwXLVbqwE7JUeB9LhkfszZQsLdffTqYq88dVs2otjWLNK1V6l', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KIYv0adfCCMQ7kNvwEkz4Dn&amp;_nc_oc=AdlI5VBjV3qqj-iFZBJd14S-wKIrBd-F6OwvAntm2oISjMqj5hP3NSbHcilYvGm8RnIoytTxA88jYJ9UEvxcoeRh&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfZaFwYuTlJyMrKBsGiXiP4CtyoLHeCLNM1El934s76JCw&amp;oe=68E2EDF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwESOF7M&amp;_nc_oc=Admlop5ODhbS5Jn3mznCXVGxpZR6ZirYYTrEEYQW98OjY1HmcXDfWFJvvj7Azd2JbjI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfbmP5lnJsRKGhyvKqM60O97w4PEJYO4QnW43iV6Pyw3HQ&amp;oe=68E43F70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwEAaVva&amp;_nc_oc=AdmhfqwK2_dZGeJIeOS2srmDTTIQwM9ncCGpBPs0AADTh4UevQ5uQ4FeDtXS2hE_gGWMMYpkHKJX1hdiItgXEHJV&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfYxzT_0JfNv7aPw7Q9SAP8sx37r5VubsWNbw5vGTvYVgQ&amp;oe=68E2FF92', 'profileId': 'pfbid02dxZU96K9QP1gUpj21cvydHRGQfbWgqS6QThdzC2NvLeSVV37inUkUpQvPyRWRVFKl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwEiwkKU&amp;_nc_oc=Adm9j2pBQ4d5X5yZYzuv27VVapVjfZ6lZFs3XN9U87y5KWVNlNVZ4M3LuIXXl85mnB4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfbZ9RLkU-l__U3vC9l_WlA0x0ZfW4x7VPbci852t7oZzg&amp;oe=68E45112', 'profileId': 'pfbid0ZvxkfH7ajVfTqt6A5KiPwQUosd7yLdWQ1Lz6Wr2Y5mjW73s8ghYrKUwmjA45PQx3l', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwG5OZgn&amp;_nc_oc=Adm_ZMeyTiOJyhMsoV_GeE5edx7ihjlq21x53xlRb8F1teS8WKEDAGq5aU_FJxZSQ4SqItLOArTCueAhPAJxDSe-&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_Afa1pQDKsdZJap6xSQjhPtD8GsuL9TspOjeGyR9n7VrCzg&amp;oe=68E30DA8', 'profileId': 'pfbid0n7DtPThtpU6EEyg7YvjheRtXutk68up9Jx6s7C7YgLwYTPRhkvp5n55Y4YxxKP89l', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwH3Q-BA&amp;_nc_oc=AdlqD7w5d9rRc0fHYPim_jY0VmhQ1FfW5wezHDFF8hJgfnJ2BlEyGF7SRgeV0pAmCwU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_Afbq_TUkMSMLVGLf8HkdPVBf5-A43x1inGzxu9yQparGAA&amp;oe=68E45F28', 'profileId': 'pfbid02qxfba8difwMTUBfMiQmtM2R6S322m3WbrR3pjYCp4wUHUEj4VcXRfyQEs7t6jSNzl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8hOTnyCD_WsQ7kNvwFj0NCN&amp;_nc_oc=Adl9J3qihcvT0L1tjANaAK7P5TNTrv4KKA1E36hH1fh5db5OvpwsjRJY44rhd-m0hqGwRIZa9RnGDNQGDCPJVmLn&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfZYo6p2gjFOFklXBb305EA9SYPtz-0ndWQDB3lIBoazCQ&amp;oe=68E2EB78', 'profileId': 'pfbid0J22Vi4a1QFiYprftdWyuMhsvYw4rMyZPiWFuXPByaHzpxMqVMoUeZSzwaaeRRpaml', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8hOTnyCD_WsQ7kNvwGxPNDq&amp;_nc_oc=AdmVWQVU5EUY1HhgNHMwfzWnvkqLuScYKspCb9ylni64QdKzK8SiL122HE9G-a7SCmI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfZbolfB_Qu4BcblwQdfasTsUHUbdRB7GnQRmduUHsmDKw&amp;oe=68E43CF8', 'profileId': 'pfbid02MsUCtjVqFb1G5CQcNSJ3EAP9TuPb72uwkFSEE2ZG25UYY2a8hcnSuJj5jKPbjsmzl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwHBEayC&amp;_nc_oc=AdmZbdEGE9hTI-AmA08Gy-Bd2ZxUrO97UwgYtvTQwPIP7dIGY0EhWBOie63uM4qH4b-X6nT47WhTo7gny3nhOGHu&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_Afamtjlugfa0WKOgQzzKCl4S4l5H_CqRzGTIwY1UshGwKA&amp;oe=68E2F609', 'profileId': 'pfbid0TapBnrGDMnrp74787RbdqSmnu5QnAkWuyXUYEyior8dqWdV1n2pehT4zBBDDCBzwl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwHmblLG&amp;_nc_oc=Adm-2_uc09Fc7jtoaaDdeugzudyW50w239QicU3VY41zalommnWDXFzVPapwL82MLkQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_Afb7qt4bFNxBnGrgOGV1SoX7GlMBNQAiKFDHuuc7ANzIXQ&amp;oe=68E44789', 'profileId': 'pfbid02XSFtyXC3D4CZYw8n9DnLbeoRxGS74JM3ckCfJn61sD9t3ZATj7m2679otpm35VAkl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZW6VlpvRJlkQ7kNvwFr2Jiz&amp;_nc_oc=Adm3jnllBnxus7O_Znk4efNcLFU9GZ1muTLbsI9Sxoyyd03_4fGrWeP28GNP7V0dePba6v2uYJn-qokFIn2cWXfe&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfaTTFNAUGpGd6FKnuxo_BNh-iDMtadMw8s6FgI47_ZPBA&amp;oe=68E2EFF6', 'profileId': 'pfbid0MYaRhfBtEcsMYkY3SPPLQLAtmyUtEZvxJAq1QwEo8vNPTLrWtZHsnjeNrdUJz1Zjl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZW6VlpvRJlkQ7kNvwFWdbg8&amp;_nc_oc=Adm33qMEu-p77KMR9d_negkqUjFtx2OmU0GPgvkfFu9jkzkxNsgRFkLz9wL_mEe2JjI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfZaNiqDMUnBqVV17YtHktD67YUtidk9PMLF_bzwPUnktA&amp;oe=68E44176', 'profileId': 'pfbid02RQ28tL7i66teAvHTos9B2YJ2HLMhijQqwTAizkeqYt6NUDm1oMkKabe7x3BGy5yxl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7t6gDb-FD54Q7kNvwEBrmGC&amp;_nc_oc=AdlFFqAnyJf1qvVT5U6D1lHDUkMvdyeL8J2ErWsDmjZgPM8PUAt7PR5ZjSV0TE9wWFTEz7WmkzhwG0Pe99rxN-ul&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfYNgTJ9Zk9ex3tK1QIcwBIgnI5W3WwY0or3qCBa3LpZXg&amp;oe=68E30DBE', 'profileId': 'pfbid0epaaw8t62VoRex47dD3Bx5ssGYy7vsB54xV5Q5hMhZtZL6g3Pb2LyFDGBRWkv9Phl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WoGuzf_d6C8Q7kNvwFG42cE&amp;_nc_oc=Adkv2wX3vw6N-_UGggOrFAExe1aFc2PC67Nh7Jc-vdrTmi5elwmJ_bkdRHCd71PhNUY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfYgSkDjerya8SsQpOyN3SDerHhO2fNXmOco4I9m-3ZLVw&amp;oe=68E45F3E', 'profileId': 'pfbid02ig2J7oout6g5kZf77QzqYaQyogcJjPVjBqLP2w1Tku4VjtarRB26xCw1Ekx4zokVl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwHuXyqs&amp;_nc_oc=Admd78z7MiEHvNDsNTw_ykidwSf4wJ4YMN-Vw0dp1FMwN9tHCUQyrpGqoIZ12e3rBmkQmyyZENE0BEg9Mgnvj9D7&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfbLL9wIRkYC68nBictRGo933Cyj-k6vkcSqZbiXO48IYw&amp;oe=6904B17A', 'profileId': 'pfbid02oUBSgmUnbhvoddizy36Z3tNZmS39nr4KENQTVpq3MMFXtTRh7sKtQcaavFqcBhPMl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwFSpZy-&amp;_nc_oc=Adle0dli_xCDq0lA0EMqg1i4H1n3-iiQLjYjyZW_0mKGvWEul_ZsXvDucGQp4OBE7M0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfZsgmsG-qeh8dBgyJ4DIVVmoznzEaACM8Zi176Qm8LxMA&amp;oe=690602FA', 'profileId': 'pfbid0jSajCxHDvknNyYyQszaDjPpc4gKpNAysSgsQ81w3wiVvYBDAaozCZXv2WCqEBGmyl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwFKyVUG&amp;_nc_oc=AdnoZ-DWcjadrdCOJB2cTjkC7IBNxM7awTsHgSp_A26w-0cov4ax3Rn_QMPIbYqKBEjUJKlWdbQSwY__OXZtE6mb&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=NkAQFXOgNS6yUrU1u2CufA&amp;oh=00_AfY0hhlDVnYcb8mTIQZvjc-L-xePdGmALkr57RkLSbhB7Q&amp;oe=68E303B1', 'profileId': 'pfbid0EYkbCYbNR5kf8rjuUvdU4N95qp8tPpfYLGhL15Gcjxufu5NDYxNxLdeHthsq6pXSl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwHZyVkh&amp;_nc_oc=AdlMOf20Je-hN-WRPD0U0Bq_9_wm1OdnVsqHdQ09NCTr9kbyD1seaBH3NXF39X3JFjY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfY7pU5ZMsCXhx3HZi1hmOwftMX67zT_l4OrHiRaMSe-Kg&amp;oe=68E45531', 'profileId': 'pfbid02JQCJPDXCGVuAtu5gVwNQjBUWspenMhweo4vgrQQaSn7tH7ZxjLoSEk7z3PWg92Frl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90131100610</t>
+          <t>100131100610</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HNfFFAfkSQ0Q7kNvwGOonx1&amp;_nc_oc=AdnpjpZKLpg4ip8A1-C9cC7Dp3FQQsrFAekcWRi2W-85QIWnEYbGYfZG26osvBYCdc4fXRcK2DtRxFqAAcccJkyy&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfY4WP_Z6KwpjoDzy3quCbeZNzZ3a7JDkNuyaRKlXiEywg&amp;oe=68E44B2F', 'profileId': 'pfbid0Zum41pAxgVgHoZcUeRnXqb5xX7Wy4WLmPXFZpQN8AC1rQ2Z3TWbcLukHqAtBeaKCl', 'profileName': 'Santiago Domínguez', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HNfFFAfkSQ0Q7kNvwE4K0r2&amp;_nc_oc=Adnggm8GTFxG0iODihcmK_txM6T_Y0l9C5nXhasrfU5qww_OaAHn2fs4H_3sn7jzvkw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfcHmL7oki1eDPOXjnpmheJeoxvoFwKz54U9A05a7Iw5Hg&amp;oe=68E4F3EF', 'profileId': 'pfbid02dmCmCV6nXoMYxrdDq3QiE3jGxmvSvpQX1BNCXkVHoKYwibRVFJmbmX5nS52S9C4il', 'profileName': 'Santiago Domínguez', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=O1QCOd8yQI0Q7kNvwHc47yx&amp;_nc_oc=AdmkGglc8N7RagcFYaFWite4T3iKwpj9l_OJcAyKz5yLaIUQXTeT5jleOgdzXfNvTlgaafGWPDszQgwvm01FhVQz&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfYgt7C6b4qzAUGiBCt0v5QVvAQnxoFFMnSvU8iP0FP1Ow&amp;oe=68E44CEB', 'profileId': 'pfbid03WEcV8iHNDWbAh9arEXCCp5ufRqfqbSbjuB3fagAegFfBxp7SWZs5pomqBsSAbfnl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CPkT_wsaUxYQ7kNvwH5XEeP&amp;_nc_oc=Adlo139P709QozG_jQxzCqMKW9a3gP6V6_45mLGrG5q-F_41DxU2kGYNrxLD2L9cgo8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfeyWu4T__LiRmIzd9LKkMhkZR2NxR42qZbIHN7nqDZSyA&amp;oe=68E4F5AB', 'profileId': 'pfbid027MgKfoe7DjJe3z8XkVvL6VmXXUtjwCtPGpyVYRKTMZJRvpQtTXCqzTkgUPJpcUirl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LKXhEbbumCUQ7kNvwGiWOM_&amp;_nc_oc=AdmcKEtDVOWFtW3QK9QOOVi4RyF_JaSD7tJDsBom90eVgxxAbAB7KVo2kbjrIaWBodfrb-YE6dXDKfejTTLMQwgU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_Afb-NukhrV1y4mAvJ6P1wz52xJzplQwricIOhSxd08NiWw&amp;oe=68E43C52', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LKXhEbbumCUQ7kNvwELLmIi&amp;_nc_oc=Adm2FiZYxvb6LkKvEPtny7GkWvE9_vzt1PBUUVy1Acn5_OqCTN_2HnIrO-ylMP87ey8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AffsCMD0gzKRXJYo8A0xo_C5CN9Gz2_1FjWbfjcWkEhwDQ&amp;oe=68E4E512', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pE4TAJQWgk4Q7kNvwG9C7dA&amp;_nc_oc=AdmtpXrDmWV1LQVqg4ugMXnheilVa8Ii0p-5xYo1TN-vr-4Jo4FYEgBuAz34HJSWV1mZ45le8IXOaL_M5SQRKJ4j&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfbMog2FBQFuvmwBUQhto_KED9G1tKD5ysCNT4xo93Sh4A&amp;oe=68E46398', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_nfuScdyexwQ7kNvwECeEup&amp;_nc_oc=AdnIFy7I5HyBpnCvM0ONyfCeV_b_hSxUF08xjan2WMCzLkDcMCyW10PT6SMb1AEOA3A&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfcjG8H5WHbJNZvtgzgDZtCE4CjqM_FTJlIcZAhRL_qxag&amp;oe=68E4D418', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid04xYdSq1PugHv24xAUwE6UEdEhe3uMGewEBn2RtHWJ6zBXNYtc4PnCratgRMb3Xtml/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VJaKOWdP8j8Q7kNvwFibn6m&amp;_nc_oc=AdkLTwRRDvrynw6s9g27ZPhRktCMpx4vPINVbRhyQ50K33k0xr692tm4fDpGwCGOALXBxH2D9wZ4AF2efeLte7oA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfYviU-F6XFZdMmu2n3G4uo62n-O2JMih4K7idLAWdmGbA&amp;oe=68E4686E', 'profileId': 'pfbid04xYdSq1PugHv24xAUwE6UEdEhe3uMGewEBn2RtHWJ6zBXNYtc4PnCratgRMb3Xtml', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid04xYdSq1PugHv24xAUwE6UEdEhe3uMGewEBn2RtHWJ6zBXNYtc4PnCratgRMb3Xtml/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Mfs-9-jGtooQ7kNvwEfPR6e&amp;_nc_oc=AdmhhdRs1sA6C3uu8WL9o1SSYrwlQjNKoQNPOTs3Z6R7TbcDoVlgAx9pwHQHNzXrfsU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfeqDshDUYlKCqQhN2NBbDyH4kmx-6kEfvUfZ5Yga94uAA&amp;oe=68E4D8EE', 'profileId': 'pfbid04xYdSq1PugHv24xAUwE6UEdEhe3uMGewEBn2RtHWJ6zBXNYtc4PnCratgRMb3Xtml', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PfiSyADQ4asQ7kNvwHILyaC&amp;_nc_oc=Admt0Ep5BhbCZ0xUdfW1pE55rSK3Ww6IRszkIV_py2BMZv019sVpCGRengY0cb6D956AMoRr2i9Ut6zGgqjtb8Pa&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfY0T-RgSHODBJb4zx9q45VLHxYRQTbwllL3aS3bbebp5Q&amp;oe=68E44D17', 'profileId': 'pfbid0G74zDPQ624maqswzBu1wDBiX917AJS1KwdzGtkZXaXwKQp8Cws48b2T2g25wdGhjl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PfiSyADQ4asQ7kNvwHgtqH8&amp;_nc_oc=Adloaa9IxheBdu7BssqCTRmvw6VElGc6i6KXksgC0pT8KeR0Yv_r4uoPli07ZdN5aFQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfftlS80h6FEZL-SxTXkkcTyskhPbWzblt3wtqgTXPC7kw&amp;oe=68E4F5D7', 'profileId': 'pfbid02KxWhQ4KusHXDrLMxHR9Tar1NG634MbxGa9cJxndtmCfFN9uApkJZwHSPGsKTHBLLl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwGs0kzH&amp;_nc_oc=AdmI_05Xatllhjl7QdfGNTcSdqw9S7pu4a9L5UcDJFgqys5UGzS_Kd2YIWuZrwPqZ6tfeK9nsyfoPtouiquQ6lMo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_Afay8T9-_SJb_ia0zWa6g87eydapfgBsqpzajvHmUrIGnA&amp;oe=68E461E7', 'profileId': 'pfbid0eu4K4gTwvxBxJtNVBpKYuyqeeifdFombrv66kJdH5faFsZZ6iTdy1Ku6uWBgGNQzl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwHZnaZo&amp;_nc_oc=AdlqY7hj-NXh9wq5x2r3TaVJtkoi67o5BuW1Laxx2wi6Zba68zID591cSufCMIb3EB0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_Afd_mbEvROUWiH4hy7hE4fxtC0Sgt3iVg4nRuVsU4jn3OA&amp;oe=68E4D267', 'profileId': 'pfbid02ikW2FMPmnM96Y3Vhz13tSN3bP3ePhaphQRCREESYZPEJvgmVXopeMoFtdx7HLx5tl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid0UwLU2ZvArWukPvy6L2TzVJLeJ62vU9SwbdD9WR2HTSf72R84va53m6DBzULSM4dml/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwH6C8uY&amp;_nc_oc=AdksGJRocL0InK6Na7ITOEzUFHJkI2OiQP94ClTRabRadN0lwowd52O-MuygTIwLRvCKuuOnfaXdiXcyW8HemTDi&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_AfYevJ2_Z5M1LDQJ1MKNg9fkDsBt3BzLLvKcMcXNGoZpXA&amp;oe=690602FA', 'profileId': 'pfbid0UwLU2ZvArWukPvy6L2TzVJLeJ62vU9SwbdD9WR2HTSf72R84va53m6DBzULSM4dml', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid0UwLU2ZvArWukPvy6L2TzVJLeJ62vU9SwbdD9WR2HTSf72R84va53m6DBzULSM4dml/', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwGA5PKj&amp;_nc_oc=Adlcowh7c80ITerAgInIabrkat-LwY0STJGDiAJJxNm5S_Z7oCeGe63LTOfJwgOEl9A&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;oh=00_AfeFABQ5P0n4t0J6-yaAD8Coq6kYQNlxI03dOZKLbvjT5Q&amp;oe=6906737A', 'profileId': 'pfbid0UwLU2ZvArWukPvy6L2TzVJLeJ62vU9SwbdD9WR2HTSf72R84va53m6DBzULSM4dml', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwFHu-QC&amp;_nc_oc=AdkJ9NGA95P6xtOpj5BcA7u55GGvk9_zKzNegmTT85O-WB9KzTDBK-uguAFye09DDtKiHciQjHMObidNF5KsZ6jf&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfYgUI_XmVsYRtf2aJpnGgOTpwcsoXXWr7BF9xUcp_vibw&amp;oe=68E44CC8', 'profileId': 'pfbid0JtowamoQmpAnLpKMiReh47oeSk7E39YBX9ESHGqZU7Jh2wGdCEdgTLHG3gKPsLEZl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwE4P8o3&amp;_nc_oc=Adn-fe2CMdBHEQgeuXJOodC9FPnohTuXi9bU9dnOh_e0dBuwkqfkULtKhCcj6B-zDdY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AffVU8w2YNzTX4pIHQor61vqs971AOpc5YUs96mT52p56g&amp;oe=68E4F588', 'profileId': 'pfbid0JtowamoQmpAnLpKMiReh47oeSk7E39YBX9ESHGqZU7Jh2wGdCEdgTLHG3gKPsLEZl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwH4K1y1&amp;_nc_oc=AdlU-YIfVuksnoQIXcTed5M-wwf0tK9Eoo5V4OSydwi1hJ6GNPkZCp82hc8fpbboAt61hNnYyIsbV4GaxMVcXNtx&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2CdglQsc1VIXnEnr0__JSw&amp;oh=00_AfZPBy2hyOlvNPnXJpJWHcsS4jDlx1TSD8y6fUJldxlrxg&amp;oe=68E43F70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwGA4OuO&amp;_nc_oc=Adl9Rbzv3Owaa03ynGa5mWvVZJGsMfpU4Lr_3YOv4LrHcQVcxzig0vTCDwEb35D5JAk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfcJ-bNDlJHbv9JeEA8o75JJFARbnZXfrjIz45-5DFKedw&amp;oe=68E4E830', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwFEE2Cg&amp;_nc_oc=AdlWRssAUZ6yVVbIjHEliE6LukdLj2nlBcYpgzx1OEzM7Ex_oUoXtW8LRuHAZ_Jl0F4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=yOqUa2nYgMmrgYR5mC4agw&amp;oh=00_AfZVF2ui3oYaIy4PPO-J231tBWiyZOqXDRlJrTQ4SKucQA&amp;oe=68E463D3', 'profileId': 'pfbid0n2XZoDXnaWUWy1BkrycKJdRYFEkufL8beViHzdAxy78x4HSyaXZWnMAZStGuB4HHl', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwGserK5&amp;_nc_oc=AdkEBJSFKlTrk-871O5L_IWHVwJ_cEcP6whTRMhuBU1yByN3uAakukx8GGe3qgMLE7s&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=MSsYRoC1Wza032OjtyrCtQ&amp;oh=00_AfdiCYzCMvIBmKTp3Y_t29B_tLdtW-HInm1eJEi1t6UkjA&amp;oe=68E4D453', 'profileId': 'pfbid0n2XZoDXnaWUWy1BkrycKJdRYFEkufL8beViHzdAxy78x4HSyaXZWnMAZStGuB4HHl', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9ItsiCAOw2IQ7kNvwEYookz&amp;_nc_oc=AdnatotloPJq99BhoTKuL3ZSNevC__aPp4fjt9C00JkPqEfktgI3shdPhCATMc64F2w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_Afa9vnsj6qSE-WGg_KK15X7sN_XUG-riqUpTIRsVeEqjAA&amp;oe=68E43B26', 'profileId': 'pfbid0y7zbHLRtXqxnZbcYK9fg5LanuEDBWiiWKBKB6xNaodQDnE7J8XLG6xj8AJUwwLadl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9ItsiCAOw2IQ7kNvwHBVDFj&amp;_nc_oc=Adl6XBkiQF2su5NsgUKxkUXvBy0LqeIcEdfl-i6JN_eNMCAxgryns-I1JGFehjlA016nL-ajm_E_VkallM5QGCil&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfeKHTAOnxwo-EUN70kLU2y2585wI93_48zMd5uMtlIq4g&amp;oe=68E4E3E6', 'profileId': 'pfbid0y7zbHLRtXqxnZbcYK9fg5LanuEDBWiiWKBKB6xNaodQDnE7J8XLG6xj8AJUwwLadl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1302,7 +1302,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwFPMHQQ&amp;_nc_oc=Admo_cer64r5zWPD2os_t_iJ8JNgLRmrtQplBGKeWUHolOV8JvmF3MZGCpPjk2b4yoE&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfZeuT-W0rDqR-H5ujdr-RTQeEjIib92nM5ln3a7Xb1yYg&amp;oe=68E44DDE'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=WTxRXOKi2mIQ7kNvwFPMHQQ&amp;_nc_oc=Admo_cer64r5zWPD2os_t_iJ8JNgLRmrtQplBGKeWUHolOV8JvmF3MZGCpPjk2b4yoE&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfYShwiqnsQaO2xuE7_pEtRqJo498RuQDG06vqPL4vpOzA&amp;oe=68E44DDE', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwFg5ScD&amp;_nc_oc=AdlXlZRgX8V2w9tIsSLbeuwCZb7vemqwe7VVWLkTT4FEFuReRl0u56K0X5tDg-ACtjQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfYCRFSly2ovSJ_xWzCSizxaMN_eyHuKkTE6jlUAr49oEQ&amp;oe=68E43F70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '13', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwE6QTBg&amp;_nc_oc=AdlJI_aaZ8miv9kKaEU1Obx91DyOsCqnOywwvc-cHkUG0p_jByPGdTLEzmVyr9eXM8oC9ul-fzP6cK9kGRBUTPsd&amp;_nc_zt=23&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AffLZ8OgFsg9KX9Tok2POEmrAFsIYgsL8vC2x7LFEw-U8Q&amp;oe=68E4F69E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwE6QTBg&amp;_nc_oc=AdlJI_aaZ8miv9kKaEU1Obx91DyOsCqnOywwvc-cHkUG0p_jByPGdTLEzmVyr9eXM8oC9ul-fzP6cK9kGRBUTPsd&amp;_nc_zt=23&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AffE1hHp3cfZfKr4yYCUl6ptQ17LzcBOqd5oqEETXpfI0g&amp;oe=68E4F69E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwFICeDM&amp;_nc_oc=Adn8C0pXbNDrZIrB9NOvaF_U_rcxufJ9GSuFqE8RCRGpdzMNbsQ7_r0NOkut7gJPI6ZBhEhTg34Qm0ydypd9Edzs&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfdVlGgl9nBs-PqYDA3K97-CP0Loas5YoNJ-iHfhs4C1OQ&amp;oe=68E4E830', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '14', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEjxQB8&amp;_nc_oc=AdkQpc5XPkDb_Ugm51TrCrXJ2ZkqPyqY8ebuARPMUQ6FFWs03LM4SEUPP32tGDSibQw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaI3BQTie1-SeVH-JlNiEl2zKYCeMXDhdDM1gMlje3e2Q&amp;oe=690602FA', 'profileId': 'pfbid05dyFCkpwDE78eYGLMFvdPc5gy74WqffeVYL5JaPXQB2mPf6GJTVMDv2SK6Y1aocEl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEXw1Vr&amp;_nc_oc=AdmG1r0JtYfBxBlMcyTS90RrllMC_tyXsIUQ9WSDu8YegIMHHTDHbZm3z5Ne3dQOshrQ-9ZQ97In_LEw0hdIzlNi&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_Afese4y7Miy6EMGlBNIRM60aTo100kbfzYzYsiU28W2h1w&amp;oe=6906737A', 'profileId': 'pfbid029VQxPRkm4ZNBbTaHnCXYyvPLZiP28CEJwmYMZgjKh1svgMpanic2xGBKWabQpTZol', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d21iRNX3ylwQ7kNvwG968gP&amp;_nc_oc=AdmqEpkjxJ0pIaPx5XHMRT2-nucrhkVUZRqrKCGRakMDs1mzxRPcjDaIAp0UeJ4RZjA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfZhZAviEuzXzdnBnu74M5DWnt6dd3F9iL025QlNxI8rcw&amp;oe=68E46ABD', 'profileId': 'pfbid0vDNaoBUmHjjMzxtMk2QmuJeLZw4SHi3sdXWrH4DwZAEx7E5o5T6Adsk1KxsrTP9Pl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d21iRNX3ylwQ7kNvwFmsPwS&amp;_nc_oc=AdkB_V-DXj5WFsWaAUSZDeZn-3k1gyNm1OEXfn2gHTe1I0FiiSzZoRRjUEA1W2ccU34Gd43SrG7h3H9fFlPZAR90&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfcrD1XQwRy5pY8OrzNWMFX64b8Tq_q5aIznABw1skP32Q&amp;oe=68E4DB3D', 'profileId': 'pfbid02z4pHyrQb96VEkrADP9y8wKi1dTsfK2kaX7BffFL8jw5pqTkHcscrDQD7ewBApFK5l', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEjxQB8&amp;_nc_oc=AdkQpc5XPkDb_Ugm51TrCrXJ2ZkqPyqY8ebuARPMUQ6FFWs03LM4SEUPP32tGDSibQw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaI3BQTie1-SeVH-JlNiEl2zKYCeMXDhdDM1gMlje3e2Q&amp;oe=690602FA', 'profileId': 'pfbid08mhMdEM1rbrHY3VVdsacQ9FMVqJJcxPXXA1KkdYNZxen7rQf7V7DN7DTxsoszUn4l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEXw1Vr&amp;_nc_oc=AdmG1r0JtYfBxBlMcyTS90RrllMC_tyXsIUQ9WSDu8YegIMHHTDHbZm3z5Ne3dQOshrQ-9ZQ97In_LEw0hdIzlNi&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_Afese4y7Miy6EMGlBNIRM60aTo100kbfzYzYsiU28W2h1w&amp;oe=6906737A', 'profileId': 'pfbid08mhMdEM1rbrHY3VVdsacQ9FMVqJJcxPXXA1KkdYNZxen7rQf7V7DN7DTxsoszUn4l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hQ4ynS0hm4MQ7kNvwHomvF4&amp;_nc_oc=AdlM1OLSyFgVrf6lMryAw2Vgbjx2Wlnu98Xtf_B2qeCn8Wp0O4MrMJMzHRlZZ_b-uYQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfZLUMrXo5U3KW4urVpRs0yT_krbBhs5Tu7fDpZ0Qh63yg&amp;oe=68E4598B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xPXFyoVAc6gQ7kNvwGAF5x4&amp;_nc_oc=Adkx5j_eIHZZXsh3HsPc8SBCksNjeKpz91xBTM4XdBcVddIGF3lMcepADAxSDsIFE08DFtu8Y70GV1EwXxLCHu2S&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfcaHOYDERSq_JJ4M_3wE0gC4vOsabXlt_jmhHaR9vMg-g&amp;oe=68E4CA0B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3qnB6DSqPF8Q7kNvwGI1Od5&amp;_nc_oc=AdnqMo0UPpKF-X4-bVb3UiQq6MwqOZmIobseoRtKy78PgweMTLR9AVQxpexWkPx7PxE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfbYjGYmYQKLH11C_HajSuMX0mQzKCFYBWpaPJMVNfBz5Q&amp;oe=68E45378', 'profileId': 'pfbid0YoKtAEsvweeqZBcHqk9CX4yiaDy28cNkSj9oktR9VrJ5xj5GXHR3UcQvV4RVKGmol', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3qnB6DSqPF8Q7kNvwG_R3uU&amp;_nc_oc=AdnOF7vUAmRUsGFiGrAj8qw8RoRKDOQgH0SNMtbimRMo25c8OjadIs8scYkSEYmeCTQbgqeVHN-YneK0kxx-eZMR&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfcP6KeNSQm5XSsh7DL_8t3Tz_A8zUuMBem6SnJD6fBVRg&amp;oe=68E4FC38', 'profileId': 'pfbid0YoKtAEsvweeqZBcHqk9CX4yiaDy28cNkSj9oktR9VrJ5xj5GXHR3UcQvV4RVKGmol', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid02134SADMaqxgUwp32QyWy12bZ4WkyktmRvE9rZJ5J8A3bcYj8TM2fXwsk9xkGJAcsl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEjxQB8&amp;_nc_oc=AdkQpc5XPkDb_Ugm51TrCrXJ2ZkqPyqY8ebuARPMUQ6FFWs03LM4SEUPP32tGDSibQw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaI3BQTie1-SeVH-JlNiEl2zKYCeMXDhdDM1gMlje3e2Q&amp;oe=690602FA', 'profileId': 'pfbid02134SADMaqxgUwp32QyWy12bZ4WkyktmRvE9rZJ5J8A3bcYj8TM2fXwsk9xkGJAcsl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl/', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEXw1Vr&amp;_nc_oc=AdmG1r0JtYfBxBlMcyTS90RrllMC_tyXsIUQ9WSDu8YegIMHHTDHbZm3z5Ne3dQOshrQ-9ZQ97In_LEw0hdIzlNi&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_Afese4y7Miy6EMGlBNIRM60aTo100kbfzYzYsiU28W2h1w&amp;oe=6906737A', 'profileId': 'pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iJVICs9_fqkQ7kNvwEHcSIc&amp;_nc_oc=AdkTPlskhF24Lr6XXb4kx-VveZfI0PsMBJyszSPnVgGqTxSSwfTNDdDcEA2cFz-8EYw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_Afbixa09LC2AmHQxzeqWbD-Npcs6av1ciEJVjb9DoNy3ww&amp;oe=68E45540', 'profileId': 'pfbid02V298qVsC7QJEmJs1uwTbU43QATVT3ZRjs5ZVnU9HEMkGohWx3GazXiTUzPeMG9fsl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iJVICs9_fqkQ7kNvwGLokFc&amp;_nc_oc=AdlVF-vmptENC9TbOja-KI8tZGrciPOTG2auYrgD2XrVTv94GO8Ru0zU4LBWA5s4gj-zLn3o01GIhAd8o6y26fpK&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_Afcous7uxmrebrfvbnVtKjM86YtRzTlmewLnSjKgL9EyyA&amp;oe=68E4FE00', 'profileId': 'pfbid02V298qVsC7QJEmJs1uwTbU43QATVT3ZRjs5ZVnU9HEMkGohWx3GazXiTUzPeMG9fsl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwGJsqFR&amp;_nc_oc=AdlVTtoNt2gIrPvFWTDECW54rLuiNE6raTLvR__foQOIpAj3IEJFKRazurMM-jn2od4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=PiL8eIO9sYG6wp945EnARw&amp;oh=00_AfYh2u6DHJ8NZdVtgXoQK-PeJ10Ys_2jrxbyM9Xf_UmwIw&amp;oe=68E44295', 'profileId': 'pfbid0qi2uBS3BYPzkS1QoCSZZKBcZTHfKZErj2cLSbpaC8HnkznDX78kyp5VXSH7g6gVel', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwHTa70U&amp;_nc_oc=Admq3lNQ1DvUJMHTBIUoSzat0K13OE_kDLcF9_YndrC_lGX1NFe0AWLEP8nyBQvqjsqicGMmikFaqoHeOqc5Daup&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_Afdd6slhYgrsvBAcSC4SU07vau6FTKvEAVxos6YOf48uDg&amp;oe=68E4EB55', 'profileId': 'pfbid0qi2uBS3BYPzkS1QoCSZZKBcZTHfKZErj2cLSbpaC8HnkznDX78kyp5VXSH7g6gVel', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57zJkeUH0woQ7kNvwFTLOk-&amp;_nc_oc=AdnvGDwPFFGKuWrGGI3LIPVt8cQbCE0axiCtiCOsDA9Rx_sVWoePMzuZV3OkWUh7rTs&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZ1qcVz5u3NGxwSIj0NYsH8FuUdG6bqnr6UO-ylZEpOXw&amp;oe=68E43AD4', 'profileId': 'pfbid0q1BtaQ8NVR4MM9vDADZ4gAqGb9etDmkPtg4Fk7UhDZTrEo5ug485FSNzuUXi71N9l', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57zJkeUH0woQ7kNvwHc29-L&amp;_nc_oc=AdmgVNr6WkAQud1R0z8pFwuxnE_lzXNG4Fmj0pu8shNHffn4qrJimD53rh10ATgwasI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfeMlsxWvDDINwNOygBuvCoWlYT2YOCBsE3ia6_khVdQFg&amp;oe=68E4E394', 'profileId': 'pfbid02trdbm54CLu2wGqwWd3kqdBtQvrjj4aTASYdhJPf13L6SkSYWNMAe5jLKfvmtNZmRl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vUwsCsS1g18Q7kNvwF6gvkY&amp;_nc_oc=AdkT6QWFFRrWqm7JwT2auARZSntlzQjnMKlVQzAFstFGgxOODOjmx1pijFUtQyXVSDM&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZFKH3J0q6dD6KHRukkk_FIF-3WauF94apK3vAPLu1wNg&amp;oe=68E45CF7', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vUwsCsS1g18Q7kNvwFwvu13&amp;_nc_oc=Adk40Om1eP8JmX-hyVYC8Jx61ouxBGtrH_5FWHjfyxTwEs3RZQxsyhm-PK6cBFSY0yM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfeXlYffueFEsPUdLp4qjm_nluom4o4Xy5Th9eFFR4TD7g&amp;oe=68E4CD77', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HGzHZR0zv8cQ7kNvwGdX5gD&amp;_nc_oc=Adl-dLNerwKE0omZJ_Dial5uwmvrkOBq-gUT5UpCjjrXNxMdwL2Y7dAHgsnaqamj-fk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZYoq0YhxHL_eb-mTvz_ExAPhyeqZNRgbRuoz4rHBi78g&amp;oe=68E46B85', 'profileId': 'pfbid06uMpSx1V5NZ9UwuEF6vNePu65XAP9vLnQP4bozXmQ2GhGoSy3W9yLbw782uiCJoBl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HGzHZR0zv8cQ7kNvwHLO6nh&amp;_nc_oc=AdkQNbCC8IGuYK4KO2YgAtcPB59zwNYJP-Oge-M4zSZCIrQ1nq9vi-bAml2cIN1U6x0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afc94uxJcdJf_O0IzkAx46agrAzPDYVtVHDzWEjv37LHxQ&amp;oe=68E4DC05', 'profileId': 'pfbid02AkoXdcwJveot98T4Tr9N2enHkjDus8J13ySiERUqvNphphxn8uvraa2UEwHR9awXl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwF1ilAn&amp;_nc_oc=Adn2cfp_j55vYXeFzL3um6TqF7qB6YB4d5XRWXajyWNMGvBUgkdVmrIKSi2yv37uXho&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZSc8hxqS432-jwbnmBSiE_hyT0FYnkdSAwTi9ebdZ9CQ&amp;oe=68E4407C', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwGVXd4Y&amp;_nc_oc=Admn3bTvT8sI5CrJjrv4YB-rLrBbYxbI3v2qXuGMn0gV-AJJb-M46Jcb3GwWvmiKE6s&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afch9LPldRNDE22MS0xFPaMISA6XSMKexA7878OAoAWZpw&amp;oe=68E4E93C', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwE7LxXE&amp;_nc_oc=Adkd-ovw8GYV9fOXn3IXpi7Xfi0W7h0E_U9sLdvU2a8BOHAlV6r8ImVbhs6NdIpWI6U&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfaBwI4Zhm5BILYOOxO56ns9UOyq2bTmw9RsLdX7vAezbA&amp;oe=68E444E2', 'profileId': 'pfbid02WQdQXdTzUrE3UvHheMLB8b4aeMcdf3EYa4Vwz8jydfPBEQyHKyddjNACLzKH4iN7l', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwHW55LD&amp;_nc_oc=Adn6acfkY3ibeSh4qzDwf8jsfL_JV78Y7NCE5yqI-U1toeq1aY6ZtiBpvFf6rp-a784&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfeWMxVYg-0gGNMzEtqmpWh7k709YcnmYWB5cawbNgrzyw&amp;oe=68E4EDA2', 'profileId': 'pfbid0SrzDcTqddbSYvupJQ5c12CPPNJD8V2AW7NwQEzH2Qeo3FdDPqJMJYQoJNA3MHQi1l', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwHvCy_v&amp;_nc_oc=AdkbLmYooKAaFB0qxCwbDnWpTzoopNpGbAwT1D63ZA4QfgowfD9jYFzg1wN9DWsqIh4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfYYio4zUZ-wK6kIxTOM0i3r-ia7aQdWkiWTqEelzF1whw&amp;oe=68E463DE', 'profileId': 'pfbid0neZpgrxK6gkwf78sMPyJSm7bgTkxcRjULGticMkAWNv2C21pqbPur7aSWsFoktMzl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwHfxyyN&amp;_nc_oc=Adn6uzKsOVR4VXvAU0dwoih8Zp_iHtEFHbRg1rccUBQO9NiIQhh3XmCfJdIQZxhgUJI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afd1Mv8Vi3tybDVP8o1d71FqIcQS0PHwE7P1pRub5kQ7gg&amp;oe=68E4D45E', 'profileId': 'pfbid02r241JtJw8N3UugYaucUd4J1wAVVfZNyS6Zn99qgz1cGmpRcocV33ozufpU1cstuHl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwF8-REm&amp;_nc_oc=AdlyhB65wfytWOL-4KXF9Y-zerE_xq1ID64LhQwU1urr_EmM3C1t9BXtkV-0A4ssy_w&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfbB9zZ66siuH-ETi-rbzYZR6PHUFKMO1bVWbKAJKkYWpw&amp;oe=68E444F8', 'profileId': 'pfbid02eTB5JfLJKJhT5nbJKujHbk3RPAn5CB9TJ5YtjpfRZ2ViFLr3HXWTJ34eSZwC3D19l', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwHb4VXR&amp;_nc_oc=Adl4RPHGaO1Nh3AYj3kVUsPtq9Ws4rjwwfx_961ngKggz2ZcKDI7sBr0tbWPTemJhG0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfdK-HlCElRqH9BZZOIodVAB81RNu-MG-gDrrhVw_ionHg&amp;oe=68E4EDB8', 'profileId': 'pfbid02eTB5JfLJKJhT5nbJKujHbk3RPAn5CB9TJ5YtjpfRZ2ViFLr3HXWTJ34eSZwC3D19l', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hys-sWdQaXQQ7kNvwE1SPTz&amp;_nc_oc=Adkbg1uyzerRgt3HtsToOqgxVRzTMgKceN-XmvlKEJW51JUbc9NWUhEhWdNThF9lyMc&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_AfZ3rtONrAkbwbK42USguwGqFRCFsxrvOnWyO7N7o6WFXw&amp;oe=68E4397D', 'profileId': 'pfbid0423sRhPreqj1RPvhwHf9NjkjXZofD7znFWRC1wWHPNG3yeovpP3mTGT9T7Km2664l', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hys-sWdQaXQQ7kNvwGekJa8&amp;_nc_oc=Adl1JZ6-Cyuqz4fk3HuRN8-L1OHWGjVtqGzaBTDs4rmfB85KiF-Y3vJthEyb618bfvw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfdNPpDijirnQzNJHHLlFnlKUmw2UcvqLzNEkeO53l4oCg&amp;oe=68E4E23D', 'profileId': 'pfbid0423sRhPreqj1RPvhwHf9NjkjXZofD7znFWRC1wWHPNG3yeovpP3mTGT9T7Km2664l', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42GuiwUdvaEQ7kNvwHnrCRb&amp;_nc_oc=AdnVLGxgDq7vh4rv0u7L7auBc7KV8__0Lgsfk6H-RhqQWn2Ecgk8QMnIwxTnk4i2gQQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_Afa1eI1z5qWQ-PdbYvRPUaoWmlFeDttmiiPSr7Q9Xk8rAg&amp;oe=68E43A00', 'profileId': 'pfbid02JjrUiw1jDP2ToK5qe87c73EonRtUN5Gdbd9aMYZr6jn9JxDFLzL83vPsZCUDdjdKl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42GuiwUdvaEQ7kNvwHSpQIa&amp;_nc_oc=Adkd9LMBOCYJomwh5fG-vl2vbG_U0bO05Ywnz3_Y2T3kQi0BiDJcjv_UjxhFaDi-TeU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afc4KjbdYQ4hYuA85dy4e9WFfCn7XVtidsTHxs6mpoibWw&amp;oe=68E4E2C0', 'profileId': 'pfbid02JjrUiw1jDP2ToK5qe87c73EonRtUN5Gdbd9aMYZr6jn9JxDFLzL83vPsZCUDdjdKl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdnSc9Usze4Q7kNvwHN0M3k&amp;_nc_oc=AdloTbCBHZAmAI0A0i8c4WdqNxwYFzNFXaJLUP3NfUg5QLiARIUf2N7TpMlmU-pWjew&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=568SQBZJHOSD5Kn8nE-lQQ&amp;oh=00_Afak9AGhjH74atpl2hkOoQYdbdgy6s94lWK0SMPJ9H5pcA&amp;oe=68E44DD9', 'profileId': 'pfbid0HcSLTXBniE5bBbLETwXLVbqwE7JUeB9LhkfszZQsLdffTqYq88dVs2otjWLNK1V6l', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdnSc9Usze4Q7kNvwFPiah3&amp;_nc_oc=Adl9xb1G4a0IBYzvB-uHMC03hfKAo7Lk3cvIulmpUW_tbHcGe26zUxFG6Y1xKNko1NM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afcjadtiq3vYAK_TkSLp2R6b1C10Q6Gai9si5Vo_rvhTlw&amp;oe=68E4F699', 'profileId': 'pfbid02MTt3eC7cZi6MWEf7eprxX141cBRK7g9vX8bkjqAavzxT7cAiKhbfBFDPMc3LxLCLl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwESOF7M&amp;_nc_oc=Admlop5ODhbS5Jn3mznCXVGxpZR6ZirYYTrEEYQW98OjY1HmcXDfWFJvvj7Azd2JbjI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfbmP5lnJsRKGhyvKqM60O97w4PEJYO4QnW43iV6Pyw3HQ&amp;oe=68E43F70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwFt4OOM&amp;_nc_oc=AdmJR0jM62KinZ22ljrcTsLrpthRxeYaI_tTIhYgsByJVOqpYwoKunLaJ8QwDjtKFhU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_AfcqTyW7t44FjSX3BUxmlQakUBdZStWo7ITvIsiyWbQJ4A&amp;oe=68E4E830', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwEiwkKU&amp;_nc_oc=Adm9j2pBQ4d5X5yZYzuv27VVapVjfZ6lZFs3XN9U87y5KWVNlNVZ4M3LuIXXl85mnB4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfbZ9RLkU-l__U3vC9l_WlA0x0ZfW4x7VPbci852t7oZzg&amp;oe=68E45112', 'profileId': 'pfbid0ZvxkfH7ajVfTqt6A5KiPwQUosd7yLdWQ1Lz6Wr2Y5mjW73s8ghYrKUwmjA45PQx3l', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwFCErMh&amp;_nc_oc=Adm00DEEaWorLvMtv1rR3OX7I3nYdxKzS8eLVtZrwgtdD7ZyYvrd0RoJi-3vUbnqNhc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Afe7P70y_SmNbdv1Cfrksm1tikn-1udvZLESD-qLm0CztA&amp;oe=68E4F9D2', 'profileId': 'pfbid0ZvxkfH7ajVfTqt6A5KiPwQUosd7yLdWQ1Lz6Wr2Y5mjW73s8ghYrKUwmjA45PQx3l', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwH3Q-BA&amp;_nc_oc=AdlqD7w5d9rRc0fHYPim_jY0VmhQ1FfW5wezHDFF8hJgfnJ2BlEyGF7SRgeV0pAmCwU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_Afbq_TUkMSMLVGLf8HkdPVBf5-A43x1inGzxu9yQparGAA&amp;oe=68E45F28', 'profileId': 'pfbid02qxfba8difwMTUBfMiQmtM2R6S322m3WbrR3pjYCp4wUHUEj4VcXRfyQEs7t6jSNzl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwGlWCLN&amp;_nc_oc=AdmrMGGBYrZcMd6FTd1JjegiX1225wGbpXyrXFYwkYbWYFF03wOUHgG5kBlGkBXSrzQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Aff5lNuDjsB_8pRPI8osJ26Yp2WB08nYK9wnItbkHhiDqQ&amp;oe=68E4CFA8', 'profileId': 'pfbid02qxfba8difwMTUBfMiQmtM2R6S322m3WbrR3pjYCp4wUHUEj4VcXRfyQEs7t6jSNzl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8hOTnyCD_WsQ7kNvwGxPNDq&amp;_nc_oc=AdmVWQVU5EUY1HhgNHMwfzWnvkqLuScYKspCb9ylni64QdKzK8SiL122HE9G-a7SCmI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfZbolfB_Qu4BcblwQdfasTsUHUbdRB7GnQRmduUHsmDKw&amp;oe=68E43CF8', 'profileId': 'pfbid02MsUCtjVqFb1G5CQcNSJ3EAP9TuPb72uwkFSEE2ZG25UYY2a8hcnSuJj5jKPbjsmzl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8hOTnyCD_WsQ7kNvwFNsSEh&amp;_nc_oc=AdnEvOOFsnP8yA3mpV_FlisIEEzW3wrnKnraA2Id-MPVAfAwNPcCDSIVuq5_M26yz0M&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Afc3hUj6DmloWz0KEHpxrjL0n8IdMho4ygzm2f0MNihn6g&amp;oe=68E4E5B8', 'profileId': 'pfbid0JKq1yZsUQN9ZV5zfHxQfNzeTTh7tvNMgYreDzV6jxR97aqppB956yiXkER6kZScDl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwHmblLG&amp;_nc_oc=Adm-2_uc09Fc7jtoaaDdeugzudyW50w239QicU3VY41zalommnWDXFzVPapwL82MLkQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_Afb7qt4bFNxBnGrgOGV1SoX7GlMBNQAiKFDHuuc7ANzIXQ&amp;oe=68E44789', 'profileId': 'pfbid02XSFtyXC3D4CZYw8n9DnLbeoRxGS74JM3ckCfJn61sD9t3ZATj7m2679otpm35VAkl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwHwOjdq&amp;_nc_oc=AdkB2R3tu6wQRI-fBIdb8OfItv1yUNrXvCqkJ40UC7kqYg9A1NQWrHYuf6FsU9TZhz0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_AfeiccPwWSaLa80gWkwSu3iLK5cQ7YMXHOf-0wOKQ_5RfQ&amp;oe=68E4F049', 'profileId': 'pfbid02XSFtyXC3D4CZYw8n9DnLbeoRxGS74JM3ckCfJn61sD9t3ZATj7m2679otpm35VAkl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZW6VlpvRJlkQ7kNvwFWdbg8&amp;_nc_oc=Adm33qMEu-p77KMR9d_negkqUjFtx2OmU0GPgvkfFu9jkzkxNsgRFkLz9wL_mEe2JjI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfZaNiqDMUnBqVV17YtHktD67YUtidk9PMLF_bzwPUnktA&amp;oe=68E44176', 'profileId': 'pfbid02RQ28tL7i66teAvHTos9B2YJ2HLMhijQqwTAizkeqYt6NUDm1oMkKabe7x3BGy5yxl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZW6VlpvRJlkQ7kNvwE9zkmu&amp;_nc_oc=Adn1rP5ZkuddLzdu5g77TMn-_oW_c5dlWuu2XUqB6aaL7MBiP6b8Ia4HvoToRxbvGEo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Afd90gIifm4nJqxU_03d7OkKFQA2xpYLl3YxHzt9l6kNOw&amp;oe=68E4EA36', 'profileId': 'pfbid02RQ28tL7i66teAvHTos9B2YJ2HLMhijQqwTAizkeqYt6NUDm1oMkKabe7x3BGy5yxl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WoGuzf_d6C8Q7kNvwFG42cE&amp;_nc_oc=Adkv2wX3vw6N-_UGggOrFAExe1aFc2PC67Nh7Jc-vdrTmi5elwmJ_bkdRHCd71PhNUY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfYgSkDjerya8SsQpOyN3SDerHhO2fNXmOco4I9m-3ZLVw&amp;oe=68E45F3E', 'profileId': 'pfbid02ig2J7oout6g5kZf77QzqYaQyogcJjPVjBqLP2w1Tku4VjtarRB26xCw1Ekx4zokVl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WoGuzf_d6C8Q7kNvwExOZvv&amp;_nc_oc=Adn60gFbwf7B5grs8Yb1hYxAmy5c-sIfiwPrRZVyTyDVHg1auvtUPjKP0YOx6lCr02o&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_AfeKS4DlW89fjhCahTnD_K9ba4FLz3pN7aYIglBUzIQXGg&amp;oe=68E4CFBE', 'profileId': 'pfbid02ig2J7oout6g5kZf77QzqYaQyogcJjPVjBqLP2w1Tku4VjtarRB26xCw1Ekx4zokVl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwFSpZy-&amp;_nc_oc=Adle0dli_xCDq0lA0EMqg1i4H1n3-iiQLjYjyZW_0mKGvWEul_ZsXvDucGQp4OBE7M0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfZsgmsG-qeh8dBgyJ4DIVVmoznzEaACM8Zi176Qm8LxMA&amp;oe=690602FA', 'profileId': 'pfbid0jSajCxHDvknNyYyQszaDjPpc4gKpNAysSgsQ81w3wiVvYBDAaozCZXv2WCqEBGmyl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwFWMsuB&amp;_nc_oc=Adk1cFNrMAsUUQCT62BBSL7SnO1i95FdxAJb-ZlvN9BV1j4nJyEbid-UrT7pLybA5F4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_AfdVItRx2ki6rwMmwVpzuAJVoJLQXXICwJ79GpzM8IE7Ug&amp;oe=6906737A', 'profileId': 'pfbid0jSajCxHDvknNyYyQszaDjPpc4gKpNAysSgsQ81w3wiVvYBDAaozCZXv2WCqEBGmyl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwHZyVkh&amp;_nc_oc=AdlMOf20Je-hN-WRPD0U0Bq_9_wm1OdnVsqHdQ09NCTr9kbyD1seaBH3NXF39X3JFjY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RyaYX-WnhJdDr3haVurJ9g&amp;oh=00_AfY7pU5ZMsCXhx3HZi1hmOwftMX67zT_l4OrHiRaMSe-Kg&amp;oe=68E45531', 'profileId': 'pfbid02JQCJPDXCGVuAtu5gVwNQjBUWspenMhweo4vgrQQaSn7tH7ZxjLoSEk7z3PWg92Frl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwEOrjHD&amp;_nc_oc=AdmI_0FLMAXIwBMuqgOkZI-Fa5f5bCMe0VHAO7zT1o2-ZUJ6V3RioX6hyGSwJi2N1CQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Afef_n1dx2GG2t7OIT-Yt_PN2t-K63P4qfTWOndph3tmRg&amp;oe=68E4FDF1', 'profileId': 'pfbid0ErZ7U3tqRCyP56BMkUz7FUGSgdSMsMFSdiEiMRi7SDVPAacYPpCtNdUVPFoXT5ufl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>413001120000001000000100000000</t>
+          <t>414001120000001000000100000000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HNfFFAfkSQ0Q7kNvwE4K0r2&amp;_nc_oc=Adnggm8GTFxG0iODihcmK_txM6T_Y0l9C5nXhasrfU5qww_OaAHn2fs4H_3sn7jzvkw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfcHmL7oki1eDPOXjnpmheJeoxvoFwKz54U9A05a7Iw5Hg&amp;oe=68E4F3EF', 'profileId': 'pfbid02dmCmCV6nXoMYxrdDq3QiE3jGxmvSvpQX1BNCXkVHoKYwibRVFJmbmX5nS52S9C4il', 'profileName': 'Santiago Domínguez', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HNfFFAfkSQ0Q7kNvwGP0gU6&amp;_nc_oc=AdmwT0w18X0Jq3S5D2PBn76HQorCd9Ol6ziiUtibwTsWjGN-UEJ5Zsqhq0cCZCaJJUM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AfdRXDuR1c7aUOsm6c7BBUCG0EsDLI240E7UMmxUNQqcGw&amp;oe=68E59CAF', 'profileId': 'pfbid02dmCmCV6nXoMYxrdDq3QiE3jGxmvSvpQX1BNCXkVHoKYwibRVFJmbmX5nS52S9C4il', 'profileName': 'Santiago Domínguez', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CPkT_wsaUxYQ7kNvwH5XEeP&amp;_nc_oc=Adlo139P709QozG_jQxzCqMKW9a3gP6V6_45mLGrG5q-F_41DxU2kGYNrxLD2L9cgo8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfeyWu4T__LiRmIzd9LKkMhkZR2NxR42qZbIHN7nqDZSyA&amp;oe=68E4F5AB', 'profileId': 'pfbid027MgKfoe7DjJe3z8XkVvL6VmXXUtjwCtPGpyVYRKTMZJRvpQtTXCqzTkgUPJpcUirl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CPkT_wsaUxYQ7kNvwEjbWfL&amp;_nc_oc=AdmY6c-WKYHAUlIPSBTlp4cWk5682RF9phdQSrEzxMaxi39cDZRkGuoby5fsIbhphcg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_Afc6rQ79P4qP8LySa-3ZobjJG8wZOBhL-b4MPMH-KquRbg&amp;oe=68E59E6B', 'profileId': 'pfbid027MgKfoe7DjJe3z8XkVvL6VmXXUtjwCtPGpyVYRKTMZJRvpQtTXCqzTkgUPJpcUirl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LKXhEbbumCUQ7kNvwELLmIi&amp;_nc_oc=Adm2FiZYxvb6LkKvEPtny7GkWvE9_vzt1PBUUVy1Acn5_OqCTN_2HnIrO-ylMP87ey8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AffsCMD0gzKRXJYo8A0xo_C5CN9Gz2_1FjWbfjcWkEhwDQ&amp;oe=68E4E512', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LKXhEbbumCUQ7kNvwF-ISIr&amp;_nc_oc=AdmuuijUrxUWzbRqYmL4_igBZKZZASfNP5zaKw2--2S46sRDiBingoZWOnRpZDVPhr0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AfdGaRiQ8LfcV2gOpHTN7fTcisjLe4453ZbRnO3fIsdwuQ&amp;oe=68E58DD2', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_nfuScdyexwQ7kNvwECeEup&amp;_nc_oc=AdnIFy7I5HyBpnCvM0ONyfCeV_b_hSxUF08xjan2WMCzLkDcMCyW10PT6SMb1AEOA3A&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfcjG8H5WHbJNZvtgzgDZtCE4CjqM_FTJlIcZAhRL_qxag&amp;oe=68E4D418', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_nfuScdyexwQ7kNvwHnEe1e&amp;_nc_oc=AdkA9x6lowy7yiNi9-7KxdxmZ92UAEHVSBUE6BexpS75DTRCU0qkw9NZk3mXirN6w7g&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AffjXuQuAkh6E5lAdAYaHFnP3ubfl7B9nHm8fFxRy_KjEw&amp;oe=68E5B518', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid04xYdSq1PugHv24xAUwE6UEdEhe3uMGewEBn2RtHWJ6zBXNYtc4PnCratgRMb3Xtml/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Mfs-9-jGtooQ7kNvwEfPR6e&amp;_nc_oc=AdmhhdRs1sA6C3uu8WL9o1SSYrwlQjNKoQNPOTs3Z6R7TbcDoVlgAx9pwHQHNzXrfsU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfeqDshDUYlKCqQhN2NBbDyH4kmx-6kEfvUfZ5Yga94uAA&amp;oe=68E4D8EE', 'profileId': 'pfbid04xYdSq1PugHv24xAUwE6UEdEhe3uMGewEBn2RtHWJ6zBXNYtc4PnCratgRMb3Xtml', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid028ozLdVwDmAEsDhk8xownbYakD5xasULXFhXUm4HSw1UsKHdukebMqAbT4DtEXcdMl/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Mfs-9-jGtooQ7kNvwHSWMwA&amp;_nc_oc=AdlR0Waih0Fg7OI08fdu8Wh2yBM2lMFUeJ9L1Wu1yzHTY-AjwFOYcE1RV5qYehi2iNk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AfdgfHU74FDM5BMjFIZrUHXG56hg_RO0lIhfVhYH9acX6A&amp;oe=68E5B9EE', 'profileId': 'pfbid028ozLdVwDmAEsDhk8xownbYakD5xasULXFhXUm4HSw1UsKHdukebMqAbT4DtEXcdMl', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PfiSyADQ4asQ7kNvwHgtqH8&amp;_nc_oc=Adloaa9IxheBdu7BssqCTRmvw6VElGc6i6KXksgC0pT8KeR0Yv_r4uoPli07ZdN5aFQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfftlS80h6FEZL-SxTXkkcTyskhPbWzblt3wtqgTXPC7kw&amp;oe=68E4F5D7', 'profileId': 'pfbid02KxWhQ4KusHXDrLMxHR9Tar1NG634MbxGa9cJxndtmCfFN9uApkJZwHSPGsKTHBLLl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PfiSyADQ4asQ7kNvwEw4l6W&amp;_nc_oc=Adk-TcRcsb-2SMuycG_CfX9DkAx86UuFEcwnTNs_caAIAWRzjrdtivrMiWgMuvkjQTg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_Afd7LeyqlZ_xZ75aOPsil9Rn2eWghbQGNBNKo2xiNJPIJg&amp;oe=68E59E97', 'profileId': 'pfbid02KxWhQ4KusHXDrLMxHR9Tar1NG634MbxGa9cJxndtmCfFN9uApkJZwHSPGsKTHBLLl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwHZnaZo&amp;_nc_oc=AdlqY7hj-NXh9wq5x2r3TaVJtkoi67o5BuW1Laxx2wi6Zba68zID591cSufCMIb3EB0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_Afd_mbEvROUWiH4hy7hE4fxtC0Sgt3iVg4nRuVsU4jn3OA&amp;oe=68E4D267', 'profileId': 'pfbid02ikW2FMPmnM96Y3Vhz13tSN3bP3ePhaphQRCREESYZPEJvgmVXopeMoFtdx7HLx5tl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwGAuTkS&amp;_nc_oc=AdkcuRYGvg2h-KHH0GD2UyGzMYkZD6KvY5AtLrRDk3EghD3geZtGJgc-DBWd30grjo4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AffZQL0L8QRYxTLyKxH8GwrqjlJiX4bu9ts2-isgHCEY9Q&amp;oe=68E5B367', 'profileId': 'pfbid02ikW2FMPmnM96Y3Vhz13tSN3bP3ePhaphQRCREESYZPEJvgmVXopeMoFtdx7HLx5tl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid0UwLU2ZvArWukPvy6L2TzVJLeJ62vU9SwbdD9WR2HTSf72R84va53m6DBzULSM4dml/', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwGA5PKj&amp;_nc_oc=Adlcowh7c80ITerAgInIabrkat-LwY0STJGDiAJJxNm5S_Z7oCeGe63LTOfJwgOEl9A&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;oh=00_AfeFABQ5P0n4t0J6-yaAD8Coq6kYQNlxI03dOZKLbvjT5Q&amp;oe=6906737A', 'profileId': 'pfbid0UwLU2ZvArWukPvy6L2TzVJLeJ62vU9SwbdD9WR2HTSf72R84va53m6DBzULSM4dml', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid02YJpeebGntHYyRqmiLEP7uD5kcQz8sDHWesmassnDEJyewBsy5sFRsq5fk1vsrhZ2l/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwHEoPdQ&amp;_nc_oc=AdlDlC4_HLHSFyV0nywpFNiYGwzJEmfb3oCYvUgy0qNF3gd7EAykp2KN2WelozHH9ZA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afe40cb6rlCST1X9bPJjIURbgdOX6sdFlb-jVJixMI4STA&amp;oe=6907547A', 'profileId': 'pfbid02YJpeebGntHYyRqmiLEP7uD5kcQz8sDHWesmassnDEJyewBsy5sFRsq5fk1vsrhZ2l', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwE4P8o3&amp;_nc_oc=Adn-fe2CMdBHEQgeuXJOodC9FPnohTuXi9bU9dnOh_e0dBuwkqfkULtKhCcj6B-zDdY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AffVU8w2YNzTX4pIHQor61vqs971AOpc5YUs96mT52p56g&amp;oe=68E4F588', 'profileId': 'pfbid0JtowamoQmpAnLpKMiReh47oeSk7E39YBX9ESHGqZU7Jh2wGdCEdgTLHG3gKPsLEZl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwHTqa9j&amp;_nc_oc=AdnHK-b6EgbYNvAeRD7olZy9IWSQVaIl5ZfPOfcGvOY8XMr3CnBDD-94eFzWhXTPGCY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_Affb9knIR86LvcsjIwuXJ9cQCwSu0lNZngWSIoZuSVrI9A&amp;oe=68E59E48', 'profileId': 'pfbid02NkFemSjEd66119tsCM9bKyAye7hfJUPHrZP3rPDNrKpZczv6mtV1xKgYJuTyHJmVl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwGA4OuO&amp;_nc_oc=Adl9Rbzv3Owaa03ynGa5mWvVZJGsMfpU4Lr_3YOv4LrHcQVcxzig0vTCDwEb35D5JAk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=GTvYHp-2ATi_KVVj_zlQfg&amp;oh=00_AfcJ-bNDlJHbv9JeEA8o75JJFARbnZXfrjIz45-5DFKedw&amp;oe=68E4E830', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwESdyCQ&amp;_nc_oc=AdmThX3SArhQhyhW-ksY744MUIxucjFZNc7CWSI-kuyki2ROAVdZlbvxZcHY9PMF3bc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AfdE4sK9mGJ6eEb2aq6d5x9foKZGv6ABE8USAHsZDv73_w&amp;oe=68E590F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwGserK5&amp;_nc_oc=AdkEBJSFKlTrk-871O5L_IWHVwJ_cEcP6whTRMhuBU1yByN3uAakukx8GGe3qgMLE7s&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=MSsYRoC1Wza032OjtyrCtQ&amp;oh=00_AfdiCYzCMvIBmKTp3Y_t29B_tLdtW-HInm1eJEi1t6UkjA&amp;oe=68E4D453', 'profileId': 'pfbid0n2XZoDXnaWUWy1BkrycKJdRYFEkufL8beViHzdAxy78x4HSyaXZWnMAZStGuB4HHl', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwGc-Fvu&amp;_nc_oc=AdknPt-_qPNvbHXEJkspz-IwCC0sfyHI2Htjf51nVFqqFHk8hkRBGsOfIl6J8zd3H5U&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=alBVbQZXY9EKJlaMv_45RQ&amp;oh=00_Afe4Cp84-p-Yq7pM6pkrcnlblHR5_7kup8CZxz82-hlInQ&amp;oe=68E5B553', 'profileId': 'pfbid02qsyGytTcRnXKQ4gygtXq4SQLMJvqkepKn11YRQGVWYXUY4xEZJgd27Sz4zy4m5eYl', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9ItsiCAOw2IQ7kNvwHBVDFj&amp;_nc_oc=Adl6XBkiQF2su5NsgUKxkUXvBy0LqeIcEdfl-i6JN_eNMCAxgryns-I1JGFehjlA016nL-ajm_E_VkallM5QGCil&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfeKHTAOnxwo-EUN70kLU2y2585wI93_48zMd5uMtlIq4g&amp;oe=68E4E3E6', 'profileId': 'pfbid0y7zbHLRtXqxnZbcYK9fg5LanuEDBWiiWKBKB6xNaodQDnE7J8XLG6xj8AJUwwLadl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Dokwj2swdXUQ7kNvwF085iY&amp;_nc_oc=AdnZl8S2R7Lrre3rk58WCDdtZ4q_5f3FsacP2awjVhLSGKvnURYWxYmC8PC_Dr_kG9g&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_Affdca59uW486u9Iy66H17I4_XaGHBMBCBX0xXQPX5N5yA&amp;oe=68E58CA6', 'profileId': 'pfbid032ySJU1MiPAqVo1juZNaYPFTFNAEr44GhdCZQm5dHWDvrzb3R6PhhiADEDkYxZLFSl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1302,7 +1302,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwE6QTBg&amp;_nc_oc=AdlJI_aaZ8miv9kKaEU1Obx91DyOsCqnOywwvc-cHkUG0p_jByPGdTLEzmVyr9eXM8oC9ul-fzP6cK9kGRBUTPsd&amp;_nc_zt=23&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AffLZ8OgFsg9KX9Tok2POEmrAFsIYgsL8vC2x7LFEw-U8Q&amp;oe=68E4F69E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwE6QTBg&amp;_nc_oc=AdlJI_aaZ8miv9kKaEU1Obx91DyOsCqnOywwvc-cHkUG0p_jByPGdTLEzmVyr9eXM8oC9ul-fzP6cK9kGRBUTPsd&amp;_nc_zt=23&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AffE1hHp3cfZfKr4yYCUl6ptQ17LzcBOqd5oqEETXpfI0g&amp;oe=68E4F69E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwFICeDM&amp;_nc_oc=Adn8C0pXbNDrZIrB9NOvaF_U_rcxufJ9GSuFqE8RCRGpdzMNbsQ7_r0NOkut7gJPI6ZBhEhTg34Qm0ydypd9Edzs&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfdVlGgl9nBs-PqYDA3K97-CP0Loas5YoNJ-iHfhs4C1OQ&amp;oe=68E4E830', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '14', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwHQB3Gi&amp;_nc_oc=AdkqL7q_lpi8u8zOoXzGx7g81IMPs-J1Aya3fD_70Z1_6TNfoCEZHLTZU_zBizxrJ0s&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_Afe09vJXQT5GDrgTRZD4crz76LVzy0IyQLGxaEyx9BNvNw&amp;oe=68E59F5E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwHQB3Gi&amp;_nc_oc=AdkqL7q_lpi8u8zOoXzGx7g81IMPs-J1Aya3fD_70Z1_6TNfoCEZHLTZU_zBizxrJ0s&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AfdH6sodwAonDO0iQZGsbAhDK3j_TCVGsqZKj0KKAZtZVQ&amp;oe=68E59F5E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwFT7CJu&amp;_nc_oc=Adn_fVSXnVUuy6vPcrdhLWJzZoG9QwXSZ4m2PTYMc2zj-3XG_4hq3Hm9xXGyXrfATWQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_Afcz3vIQ5ZGTpNETHFzDD1uisy59DwfUp2mGQR_NevDHjQ&amp;oe=68E590F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '15', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEXw1Vr&amp;_nc_oc=AdmG1r0JtYfBxBlMcyTS90RrllMC_tyXsIUQ9WSDu8YegIMHHTDHbZm3z5Ne3dQOshrQ-9ZQ97In_LEw0hdIzlNi&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_Afese4y7Miy6EMGlBNIRM60aTo100kbfzYzYsiU28W2h1w&amp;oe=6906737A', 'profileId': 'pfbid029VQxPRkm4ZNBbTaHnCXYyvPLZiP28CEJwmYMZgjKh1svgMpanic2xGBKWabQpTZol', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwHFwk9O&amp;_nc_oc=AdmzcsCCVPKi93L4Qw2LlCSywBhL9LHQ2b3OsxevgiJiENHZPuykesRr1SlRgP8BVwQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfdgdkgCipc_1MVvK2DXA_bDxHi3Ybiuy8WR1TbjZOte1w&amp;oe=6907547A', 'profileId': 'pfbid029VQxPRkm4ZNBbTaHnCXYyvPLZiP28CEJwmYMZgjKh1svgMpanic2xGBKWabQpTZol', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d21iRNX3ylwQ7kNvwFmsPwS&amp;_nc_oc=AdkB_V-DXj5WFsWaAUSZDeZn-3k1gyNm1OEXfn2gHTe1I0FiiSzZoRRjUEA1W2ccU34Gd43SrG7h3H9fFlPZAR90&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfcrD1XQwRy5pY8OrzNWMFX64b8Tq_q5aIznABw1skP32Q&amp;oe=68E4DB3D', 'profileId': 'pfbid02z4pHyrQb96VEkrADP9y8wKi1dTsfK2kaX7BffFL8jw5pqTkHcscrDQD7ewBApFK5l', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d21iRNX3ylwQ7kNvwG-fYYe&amp;_nc_oc=AdlQnwxf2Oi-483-4Uzlm4GkwLvdvJADDvDMI0ueUlQzmIonnoNfSbvUyHWgcdHswgw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AfcTSuXxjZYXZVUFf85WY8P2DRTmGr9zaS-xERzhwL5gpw&amp;oe=68E5BC3D', 'profileId': 'pfbid02z4pHyrQb96VEkrADP9y8wKi1dTsfK2kaX7BffFL8jw5pqTkHcscrDQD7ewBApFK5l', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEXw1Vr&amp;_nc_oc=AdmG1r0JtYfBxBlMcyTS90RrllMC_tyXsIUQ9WSDu8YegIMHHTDHbZm3z5Ne3dQOshrQ-9ZQ97In_LEw0hdIzlNi&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_Afese4y7Miy6EMGlBNIRM60aTo100kbfzYzYsiU28W2h1w&amp;oe=6906737A', 'profileId': 'pfbid08mhMdEM1rbrHY3VVdsacQ9FMVqJJcxPXXA1KkdYNZxen7rQf7V7DN7DTxsoszUn4l', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwHFwk9O&amp;_nc_oc=AdmzcsCCVPKi93L4Qw2LlCSywBhL9LHQ2b3OsxevgiJiENHZPuykesRr1SlRgP8BVwQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfdgdkgCipc_1MVvK2DXA_bDxHi3Ybiuy8WR1TbjZOte1w&amp;oe=6907547A', 'profileId': 'pfbid02Cd94ouGqi7Sf1BMEKpP7fTorYZch9G3Z37FXQUjN2uoYraht52AB7oC5Ft8jaggYl', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xPXFyoVAc6gQ7kNvwGAF5x4&amp;_nc_oc=Adkx5j_eIHZZXsh3HsPc8SBCksNjeKpz91xBTM4XdBcVddIGF3lMcepADAxSDsIFE08DFtu8Y70GV1EwXxLCHu2S&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfcaHOYDERSq_JJ4M_3wE0gC4vOsabXlt_jmhHaR9vMg-g&amp;oe=68E4CA0B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xPXFyoVAc6gQ7kNvwGiYnIw&amp;_nc_oc=AdkVvImVhGhhNkrKxhROzrDjpOf59CSTGj-TRa3q70EgPFoktU2ZyezKxIQ3F9b_RKg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AfeuFr_asvoreGQOyhSu1Ewef1X3nFC21-nGPgo0ZApsiw&amp;oe=68E5AB0B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3qnB6DSqPF8Q7kNvwG_R3uU&amp;_nc_oc=AdnOF7vUAmRUsGFiGrAj8qw8RoRKDOQgH0SNMtbimRMo25c8OjadIs8scYkSEYmeCTQbgqeVHN-YneK0kxx-eZMR&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_AfcP6KeNSQm5XSsh7DL_8t3Tz_A8zUuMBem6SnJD6fBVRg&amp;oe=68E4FC38', 'profileId': 'pfbid0YoKtAEsvweeqZBcHqk9CX4yiaDy28cNkSj9oktR9VrJ5xj5GXHR3UcQvV4RVKGmol', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3qnB6DSqPF8Q7kNvwGGBr0q&amp;_nc_oc=Adlhr8S12VsHgS_sZSuXlcsmy4by-8aYD9dMLTB8KynZHQGay2aRtL5df54iZkfmHgw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_Afc5NBKg_xVe4sz-__Lv3d73AX0cW0f1ixiihV-O1Iw6eA&amp;oe=68E5A4F8', 'profileId': 'pfbid02cAp4nGEYyK7VYWAH79J7PWDHt4U5cydHsc6KjTCV1wfpPBX1KjWg15RSuRwU9uQ4l', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl/', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEXw1Vr&amp;_nc_oc=AdmG1r0JtYfBxBlMcyTS90RrllMC_tyXsIUQ9WSDu8YegIMHHTDHbZm3z5Ne3dQOshrQ-9ZQ97In_LEw0hdIzlNi&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_Afese4y7Miy6EMGlBNIRM60aTo100kbfzYzYsiU28W2h1w&amp;oe=6906737A', 'profileId': 'pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwHFwk9O&amp;_nc_oc=AdmzcsCCVPKi93L4Qw2LlCSywBhL9LHQ2b3OsxevgiJiENHZPuykesRr1SlRgP8BVwQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfdgdkgCipc_1MVvK2DXA_bDxHi3Ybiuy8WR1TbjZOte1w&amp;oe=6907547A', 'profileId': 'pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iJVICs9_fqkQ7kNvwGLokFc&amp;_nc_oc=AdlVF-vmptENC9TbOja-KI8tZGrciPOTG2auYrgD2XrVTv94GO8Ru0zU4LBWA5s4gj-zLn3o01GIhAd8o6y26fpK&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_Afcous7uxmrebrfvbnVtKjM86YtRzTlmewLnSjKgL9EyyA&amp;oe=68E4FE00', 'profileId': 'pfbid02V298qVsC7QJEmJs1uwTbU43QATVT3ZRjs5ZVnU9HEMkGohWx3GazXiTUzPeMG9fsl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iJVICs9_fqkQ7kNvwGr2fvZ&amp;_nc_oc=AdlAqUu_Ih_wAalDJNcFRrMR-1HDVOrHHZWjU5JjctJyuuZd9T_JsjOK8UgbZ3mWbQI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AffsI5kutrJmsKejlF85AJXkIc9KzxjW8cEQdW1W-d4wag&amp;oe=68E5A6C0', 'profileId': 'pfbid0RUVwvLEqG8Fsf3EdQCvjGAzpaombpvepm98ktxtXwQeHCuJ6E7nXjMHkjsE8YJfzl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwHTa70U&amp;_nc_oc=Admq3lNQ1DvUJMHTBIUoSzat0K13OE_kDLcF9_YndrC_lGX1NFe0AWLEP8nyBQvqjsqicGMmikFaqoHeOqc5Daup&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=mSkisyc8V37xQGP2Xcgo6Q&amp;oh=00_Afdd6slhYgrsvBAcSC4SU07vau6FTKvEAVxos6YOf48uDg&amp;oe=68E4EB55', 'profileId': 'pfbid0qi2uBS3BYPzkS1QoCSZZKBcZTHfKZErj2cLSbpaC8HnkznDX78kyp5VXSH7g6gVel', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwGebySn&amp;_nc_oc=Adk9QaPMHL_mIHtx__IK6L-PApyKZJe61I88FS5-VsVFFuAovDpSMH2JkcX-W3RlGIQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AfdSquymSGyKkLJNC7fxFb-c-w-M73rtKMVGsWzjTDMIFw&amp;oe=68E59415', 'profileId': 'pfbid02uZUcN6y1Po2ijRRw88jibCoktsxaNJYm1RJezwzeX7ajMHQje66mtzQ535CdCJp4l', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57zJkeUH0woQ7kNvwHc29-L&amp;_nc_oc=AdmgVNr6WkAQud1R0z8pFwuxnE_lzXNG4Fmj0pu8shNHffn4qrJimD53rh10ATgwasI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfeMlsxWvDDINwNOygBuvCoWlYT2YOCBsE3ia6_khVdQFg&amp;oe=68E4E394', 'profileId': 'pfbid02trdbm54CLu2wGqwWd3kqdBtQvrjj4aTASYdhJPf13L6SkSYWNMAe5jLKfvmtNZmRl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GutceqpbdjoQ7kNvwFT-U17&amp;_nc_oc=AdmxXZPrKN9UysbvMOdRx4mOd1s7v6_8z_kB8AK3Rv2PGisl7MagpOa8lSfxqSo6s6c&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AffFT6sdhXZ1vyH5u7UZNGmULbwTYybQt3AKpVk5C-lq6A&amp;oe=68E58C54', 'profileId': 'pfbid02trdbm54CLu2wGqwWd3kqdBtQvrjj4aTASYdhJPf13L6SkSYWNMAe5jLKfvmtNZmRl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vUwsCsS1g18Q7kNvwFwvu13&amp;_nc_oc=Adk40Om1eP8JmX-hyVYC8Jx61ouxBGtrH_5FWHjfyxTwEs3RZQxsyhm-PK6cBFSY0yM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfeXlYffueFEsPUdLp4qjm_nluom4o4Xy5Th9eFFR4TD7g&amp;oe=68E4CD77', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vUwsCsS1g18Q7kNvwFB93wF&amp;_nc_oc=AdlrHSWv8SaxCxtaOaWl9uaJFwPVPp4y9AYB5SIX0J-MpxaiiuEN9ImY1BFaaSn859g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_Afd0OAq1YvMXuMrX6yQpyXwsWqtIKWusTzqzP-ffKlv_RA&amp;oe=68E5AE77', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HGzHZR0zv8cQ7kNvwHLO6nh&amp;_nc_oc=AdkQNbCC8IGuYK4KO2YgAtcPB59zwNYJP-Oge-M4zSZCIrQ1nq9vi-bAml2cIN1U6x0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afc94uxJcdJf_O0IzkAx46agrAzPDYVtVHDzWEjv37LHxQ&amp;oe=68E4DC05', 'profileId': 'pfbid02AkoXdcwJveot98T4Tr9N2enHkjDus8J13ySiERUqvNphphxn8uvraa2UEwHR9awXl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HGzHZR0zv8cQ7kNvwFCPGVF&amp;_nc_oc=AdkbUBST50x33K2Be_6Wt6eIgYhfRD3szoCR4pmYX21Uo4FYdqGEj7yoJB4qTa815aM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_Afes8EC5UF2ZfGF0PnQUdvhAOigtzzFo9ylVEuh4vDnD6g&amp;oe=68E5BD05', 'profileId': 'pfbid02AkoXdcwJveot98T4Tr9N2enHkjDus8J13ySiERUqvNphphxn8uvraa2UEwHR9awXl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwGVXd4Y&amp;_nc_oc=Admn3bTvT8sI5CrJjrv4YB-rLrBbYxbI3v2qXuGMn0gV-AJJb-M46Jcb3GwWvmiKE6s&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afch9LPldRNDE22MS0xFPaMISA6XSMKexA7878OAoAWZpw&amp;oe=68E4E93C', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwHUZlLx&amp;_nc_oc=AdmrdI2A4QGLGDGDq9yxcWqFUSuPmvVUNYU7_AwGFrJbinX5_fy7zScU6e4iH3wROvI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfcqykU65uWf4eVLzuUOYnCrLhxxQwJVJPnuiGd88lyOcA&amp;oe=68E591FC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwHW55LD&amp;_nc_oc=Adn6acfkY3ibeSh4qzDwf8jsfL_JV78Y7NCE5yqI-U1toeq1aY6ZtiBpvFf6rp-a784&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfeWMxVYg-0gGNMzEtqmpWh7k709YcnmYWB5cawbNgrzyw&amp;oe=68E4EDA2', 'profileId': 'pfbid0SrzDcTqddbSYvupJQ5c12CPPNJD8V2AW7NwQEzH2Qeo3FdDPqJMJYQoJNA3MHQi1l', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwEI4WRM&amp;_nc_oc=AdkjUZO1dK1IRWLbwuLpULWb6g9hZIEzyUrzaDu2w3RnmZYqI6oZt-5LLGjZ81TOkrE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfdOJHKFgZa89VhNVqaWKdm11YMWWeCOHtjsoPxpJlVQWg&amp;oe=68E59662', 'profileId': 'pfbid0SrzDcTqddbSYvupJQ5c12CPPNJD8V2AW7NwQEzH2Qeo3FdDPqJMJYQoJNA3MHQi1l', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwHfxyyN&amp;_nc_oc=Adn6uzKsOVR4VXvAU0dwoih8Zp_iHtEFHbRg1rccUBQO9NiIQhh3XmCfJdIQZxhgUJI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afd1Mv8Vi3tybDVP8o1d71FqIcQS0PHwE7P1pRub5kQ7gg&amp;oe=68E4D45E', 'profileId': 'pfbid02r241JtJw8N3UugYaucUd4J1wAVVfZNyS6Zn99qgz1cGmpRcocV33ozufpU1cstuHl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwG_LWWI&amp;_nc_oc=AdliY9HcpjnBfU4XuaDXZmxlf2C9Fnsulz49SovTKlZyILU_cnPsx0w1asv7yK3Y77w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfcOSiyalaepvcCkno5RjKQrqvMAthBaC3bdSfUkViD2FA&amp;oe=68E5B55E', 'profileId': 'pfbid02r241JtJw8N3UugYaucUd4J1wAVVfZNyS6Zn99qgz1cGmpRcocV33ozufpU1cstuHl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwHb4VXR&amp;_nc_oc=Adl4RPHGaO1Nh3AYj3kVUsPtq9Ws4rjwwfx_961ngKggz2ZcKDI7sBr0tbWPTemJhG0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfdK-HlCElRqH9BZZOIodVAB81RNu-MG-gDrrhVw_ionHg&amp;oe=68E4EDB8', 'profileId': 'pfbid02eTB5JfLJKJhT5nbJKujHbk3RPAn5CB9TJ5YtjpfRZ2ViFLr3HXWTJ34eSZwC3D19l', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwETfm1j&amp;_nc_oc=AdmOW6pWMEe9OjxN7KebdCooYoPNasMky0AR9ilkNal8bZ7kp39h-pA04o8nh4aXFs0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfeCk0IV6yM8DfPBT7uOSn4ripOzqjiKTanTtRnRq2756Q&amp;oe=68E59678', 'profileId': 'pfbid0auXtPVhwU86JmvWdPjRYWGaR2ArBh6ecjhLPaiLzRRpxvJucTxyXQeFxzCs4294Ll', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hys-sWdQaXQQ7kNvwGekJa8&amp;_nc_oc=Adl1JZ6-Cyuqz4fk3HuRN8-L1OHWGjVtqGzaBTDs4rmfB85KiF-Y3vJthEyb618bfvw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_AfdNPpDijirnQzNJHHLlFnlKUmw2UcvqLzNEkeO53l4oCg&amp;oe=68E4E23D', 'profileId': 'pfbid0423sRhPreqj1RPvhwHf9NjkjXZofD7znFWRC1wWHPNG3yeovpP3mTGT9T7Km2664l', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hys-sWdQaXQQ7kNvwEoIeoj&amp;_nc_oc=Adno0gs4Q1N0_1bFjKXSf3vnjYBocOPz491hhVBQatk_UmH2lP4ipybZcLDTNdEmE34&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_Afd2ClCSgXw0irEu00WdQA0e_37NKedZ-SqSvWwZ1UfHZQ&amp;oe=68E58AFD', 'profileId': 'pfbid027sVacNKgWFH7gyrBdMQQkepTg9L9u4Yscp1GYYKbMnw65UYUCnGu2nDsMDFHtcpel', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42GuiwUdvaEQ7kNvwHSpQIa&amp;_nc_oc=Adkd9LMBOCYJomwh5fG-vl2vbG_U0bO05Ywnz3_Y2T3kQi0BiDJcjv_UjxhFaDi-TeU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afc4KjbdYQ4hYuA85dy4e9WFfCn7XVtidsTHxs6mpoibWw&amp;oe=68E4E2C0', 'profileId': 'pfbid02JjrUiw1jDP2ToK5qe87c73EonRtUN5Gdbd9aMYZr6jn9JxDFLzL83vPsZCUDdjdKl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42GuiwUdvaEQ7kNvwHmWSyh&amp;_nc_oc=AdlY0AePcEEqPiC_jCNiF-DPGxguYXnEr19ZnHRkpSipT2qRzLhsCQ2JaP0kI-1iEqo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfeGzyNazD4Qakr4OO6EGXqDjUHM7OZUgzmSzApcXQAKLg&amp;oe=68E58B80', 'profileId': 'pfbid0FCDHomPNN7QhCZorgUbfinTCfbEKbRbE5C9Tryf2nZRehFqphN6M26QRpFUkgf92l', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdnSc9Usze4Q7kNvwFPiah3&amp;_nc_oc=Adl9xb1G4a0IBYzvB-uHMC03hfKAo7Lk3cvIulmpUW_tbHcGe26zUxFG6Y1xKNko1NM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=pa19ijWyutddCAMOhviPmw&amp;oh=00_Afcjadtiq3vYAK_TkSLp2R6b1C10Q6Gai9si5Vo_rvhTlw&amp;oe=68E4F699', 'profileId': 'pfbid02MTt3eC7cZi6MWEf7eprxX141cBRK7g9vX8bkjqAavzxT7cAiKhbfBFDPMc3LxLCLl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kkONm4TB7M4Q7kNvwHV84-w&amp;_nc_oc=AdnivGPYJAySfDzONh-oHpyzH8u_aHAfqwN4bc4VnJhB4rLha9zU6ZNfYg7gL4nAIvU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfcF4o29qWW5aGGzAiIGWaV8seqb2YQyb0UjUt_L8YZWHA&amp;oe=68E59F59', 'profileId': 'pfbid02MTt3eC7cZi6MWEf7eprxX141cBRK7g9vX8bkjqAavzxT7cAiKhbfBFDPMc3LxLCLl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwFt4OOM&amp;_nc_oc=AdmJR0jM62KinZ22ljrcTsLrpthRxeYaI_tTIhYgsByJVOqpYwoKunLaJ8QwDjtKFhU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_AfcqTyW7t44FjSX3BUxmlQakUBdZStWo7ITvIsiyWbQJ4A&amp;oe=68E4E830', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwGQEfX3&amp;_nc_oc=Adkg5hau1sJkicPYddwlpyu5818xc9f6aYdQrEy7VUz1XqSXOSfNYjg11BXBtRUccO4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AfeSz9X_t8I2hOK1c32VPtCgkkEkJcqChLKrk29O7aQPew&amp;oe=68E590F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwFCErMh&amp;_nc_oc=Adm00DEEaWorLvMtv1rR3OX7I3nYdxKzS8eLVtZrwgtdD7ZyYvrd0RoJi-3vUbnqNhc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Afe7P70y_SmNbdv1Cfrksm1tikn-1udvZLESD-qLm0CztA&amp;oe=68E4F9D2', 'profileId': 'pfbid0ZvxkfH7ajVfTqt6A5KiPwQUosd7yLdWQ1Lz6Wr2Y5mjW73s8ghYrKUwmjA45PQx3l', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwEeXAsz&amp;_nc_oc=Adnz_lwHdXEGV2YGcKKisLRl5GD8X7wXgqFxmPi3q-KVOmsHA_83XYEBAoCBeob0hBE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_Afe_yX4MwfWprq3qDYg6XsnhUZvUcLoqWtOTvjTxQWt55Q&amp;oe=68E5A292', 'profileId': 'pfbid02dnQTqx3QapTPVGRVzrUFMDmPU3rAd5Ud6EPQWydUUqHYt764CyaPHoLVQxzo5vo3l', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwGlWCLN&amp;_nc_oc=AdmrMGGBYrZcMd6FTd1JjegiX1225wGbpXyrXFYwkYbWYFF03wOUHgG5kBlGkBXSrzQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Aff5lNuDjsB_8pRPI8osJ26Yp2WB08nYK9wnItbkHhiDqQ&amp;oe=68E4CFA8', 'profileId': 'pfbid02qxfba8difwMTUBfMiQmtM2R6S322m3WbrR3pjYCp4wUHUEj4VcXRfyQEs7t6jSNzl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwGnBmMb&amp;_nc_oc=AdnkSR4nydPhCcM9ZKfG68307zbfMA5Ej6ifRKflTfQBICTPOTeRXfjzD0z934Vu4Vk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_Afe_i9AfsZg1d_w_sE7EFVXVOsJB6u_2eX0aX0H2s818Ow&amp;oe=68E5B0A8', 'profileId': 'pfbid0mw4t6KS9zseXRtwjQrrnyPZf9jPFmVFDRNDqYVgrTvSCXPnfTDuGE2FbFGP6g62Nl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8hOTnyCD_WsQ7kNvwFNsSEh&amp;_nc_oc=AdnEvOOFsnP8yA3mpV_FlisIEEzW3wrnKnraA2Id-MPVAfAwNPcCDSIVuq5_M26yz0M&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Afc3hUj6DmloWz0KEHpxrjL0n8IdMho4ygzm2f0MNihn6g&amp;oe=68E4E5B8', 'profileId': 'pfbid0JKq1yZsUQN9ZV5zfHxQfNzeTTh7tvNMgYreDzV6jxR97aqppB956yiXkER6kZScDl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5IglwWI4shEQ7kNvwE4R8w5&amp;_nc_oc=Adnzi5eVITdeb33MdLGnl4HF4-ZDr2qFy0jp-ydho8lpD1dKMl1xQvGQ2hpaxWcU-fI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AfcicfnybpkRzml0Wc32A00WsUMAkuBtKJ-ZX6rCJh31tQ&amp;oe=68E58E78', 'profileId': 'pfbid0JKq1yZsUQN9ZV5zfHxQfNzeTTh7tvNMgYreDzV6jxR97aqppB956yiXkER6kZScDl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwHwOjdq&amp;_nc_oc=AdkB2R3tu6wQRI-fBIdb8OfItv1yUNrXvCqkJ40UC7kqYg9A1NQWrHYuf6FsU9TZhz0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_AfeiccPwWSaLa80gWkwSu3iLK5cQ7YMXHOf-0wOKQ_5RfQ&amp;oe=68E4F049', 'profileId': 'pfbid02XSFtyXC3D4CZYw8n9DnLbeoRxGS74JM3ckCfJn61sD9t3ZATj7m2679otpm35VAkl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwG52S6k&amp;_nc_oc=AdliPnJVcEZp7X0vQ2D-0wwqGfPvdr27R3F3z4g-hlBjd4lo9AsK1fmmLvudPQy6C6I&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AfeFoW6YIkWek_GR34R7gkyVIp6_aA3uxPyXvVDBAhbVjQ&amp;oe=68E59909', 'profileId': 'pfbid0Ttci4MZgN37V3E5oJcMAhrVfFEearafCTThiMj7KxQhu8JeGyZFbb7SD8RdqSJCql', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZW6VlpvRJlkQ7kNvwE9zkmu&amp;_nc_oc=Adn1rP5ZkuddLzdu5g77TMn-_oW_c5dlWuu2XUqB6aaL7MBiP6b8Ia4HvoToRxbvGEo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Afd90gIifm4nJqxU_03d7OkKFQA2xpYLl3YxHzt9l6kNOw&amp;oe=68E4EA36', 'profileId': 'pfbid02RQ28tL7i66teAvHTos9B2YJ2HLMhijQqwTAizkeqYt6NUDm1oMkKabe7x3BGy5yxl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZW6VlpvRJlkQ7kNvwHf5rjh&amp;_nc_oc=AdmCB-yzXVPwsW39T0wbUsPYp0ibqXCEFMk48RVpkIEdNpmQhyqPHVrH4oEoHaiIVlE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AffHFyK3snFC0wW9omHG9gJe5BqAP2SNgg8iApc0-dr6hQ&amp;oe=68E592F6', 'profileId': 'pfbid0MNRRQWv9R5y2ovBqqs7SqbkkfDHY61TVZmpSLZewvhUaGF52VoFJ4NHRJ4shfvLnl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WoGuzf_d6C8Q7kNvwExOZvv&amp;_nc_oc=Adn60gFbwf7B5grs8Yb1hYxAmy5c-sIfiwPrRZVyTyDVHg1auvtUPjKP0YOx6lCr02o&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_AfeKS4DlW89fjhCahTnD_K9ba4FLz3pN7aYIglBUzIQXGg&amp;oe=68E4CFBE', 'profileId': 'pfbid02ig2J7oout6g5kZf77QzqYaQyogcJjPVjBqLP2w1Tku4VjtarRB26xCw1Ekx4zokVl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WoGuzf_d6C8Q7kNvwH-2OH1&amp;_nc_oc=AdlYx0_Mtcie-NuBDYUa1YFMemB7L2ZFSMblHfc_DUgiSEQt2TXs5Ia30W1dBZ4S7u4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AffefKVNMyrWvwDDigHrDGpEjZ_wI37zLZzToAFF8_ZWVQ&amp;oe=68E5B0BE', 'profileId': 'pfbid0eeRadzcMCxiY8iwoPJThv5SWT4uACD2txWPWwyqi5hQB4LM367VBRPRrrLtJv1dWl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwFWMsuB&amp;_nc_oc=Adk1cFNrMAsUUQCT62BBSL7SnO1i95FdxAJb-ZlvN9BV1j4nJyEbid-UrT7pLybA5F4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_AfdVItRx2ki6rwMmwVpzuAJVoJLQXXICwJ79GpzM8IE7Ug&amp;oe=6906737A', 'profileId': 'pfbid0jSajCxHDvknNyYyQszaDjPpc4gKpNAysSgsQ81w3wiVvYBDAaozCZXv2WCqEBGmyl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwFNDk_7&amp;_nc_oc=AdnGnk_4Hyynx_xESidkZyCG8qJfml6MNAhTBK5_Lr6LFx6qozA_XMM_Sg529l3OSL0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;oh=00_AffDoiVL2N70qXznot6kPY-LpyCB2LydyocI7IMHXw2LNQ&amp;oe=6907547A', 'profileId': 'pfbid02oJ2SPdD3n8ng9uXtkXemM4DqpHYKBLyuLKNuEjXDVn121mXourQaKycEr6NfYS8gl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwEOrjHD&amp;_nc_oc=AdmI_0FLMAXIwBMuqgOkZI-Fa5f5bCMe0VHAO7zT1o2-ZUJ6V3RioX6hyGSwJi2N1CQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=G6Os10AaGSAYIvxkLKfN2w&amp;oh=00_Afef_n1dx2GG2t7OIT-Yt_PN2t-K63P4qfTWOndph3tmRg&amp;oe=68E4FDF1', 'profileId': 'pfbid0ErZ7U3tqRCyP56BMkUz7FUGSgdSMsMFSdiEiMRi7SDVPAacYPpCtNdUVPFoXT5ufl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwEW14Tj&amp;_nc_oc=AdkzRtYU5jevrlol1kI8MYam9bk_338qImY3knx7P0jgYc2tNnoVoudtrV61oWySp48&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_Afc1CnNBkaRRyqZPdlrHq37X7yH35mSWFcAy_WGQ5tylpw&amp;oe=68E5A6B1', 'profileId': 'pfbid0ErZ7U3tqRCyP56BMkUz7FUGSgdSMsMFSdiEiMRi7SDVPAacYPpCtNdUVPFoXT5ufl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100131100610</t>
+          <t>110131100610</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>414001120000001000000100000000</t>
+          <t>415001120000001000000100000000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -529,41 +529,53 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOvpQZYALLC/#advertiser</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>y si soy de Colombia acá no hay Oxxo😭</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45927.01857638889</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>00:26:45</t>
+        </is>
+      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://instagram.com/</t>
+          <t>https://www.tiktok.com/@</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOvpQZYALLC/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 120, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 39, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7346bb0a&amp;x-expires=1759590000&amp;x-signature=2%2Fw7bQxl2loZuU1Jmd6y4c6cRJc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -573,51 +585,53 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿</t>
+          <t>Vuelvan los originales porfa😭</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45924.11498842593</v>
+        <v>45926.75414351852</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:45:35</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>18:05:58</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>201</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HNfFFAfkSQ0Q7kNvwGP0gU6&amp;_nc_oc=AdmwT0w18X0Jq3S5D2PBn76HQorCd9Ol6ziiUtibwTsWjGN-UEJ5Zsqhq0cCZCaJJUM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AfdRXDuR1c7aUOsm6c7BBUCG0EsDLI240E7UMmxUNQqcGw&amp;oe=68E59CAF', 'profileId': 'pfbid02dmCmCV6nXoMYxrdDq3QiE3jGxmvSvpQX1BNCXkVHoKYwibRVFJmbmX5nS52S9C4il', 'profileName': 'Santiago Domínguez', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 201, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5e3d4efb&amp;x-expires=1759590000&amp;x-signature=aBoaclWgTPY9KpbW5681PC8vhdg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -627,51 +641,53 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alpina</t>
+          <t>mucho trabajo para un muñeco</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45923.7950462963</v>
+        <v>45928.12261574074</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45923</v>
+        <v>45928</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19:04:52</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:56:34</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CPkT_wsaUxYQ7kNvwEjbWfL&amp;_nc_oc=AdmY6c-WKYHAUlIPSBTlp4cWk5682RF9phdQSrEzxMaxi39cDZRkGuoby5fsIbhphcg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_Afc6rQ79P4qP8LySa-3ZobjJG8wZOBhL-b4MPMH-KquRbg&amp;oe=68E59E6B', 'profileId': 'pfbid027MgKfoe7DjJe3z8XkVvL6VmXXUtjwCtPGpyVYRKTMZJRvpQtTXCqzTkgUPJpcUirl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 65, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c39aece2&amp;x-expires=1759590000&amp;x-signature=UO8okecqWSMGhoxniIy%2FnsuiaxQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -681,51 +697,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas</t>
+          <t>Mas fácil conseguirlos en el yogo premio</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45928.8709837963</v>
+        <v>45927.99311342592</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20:54:13</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>23:50:05</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LKXhEbbumCUQ7kNvwF-ISIr&amp;_nc_oc=AdmuuijUrxUWzbRqYmL4_igBZKZZASfNP5zaKw2--2S46sRDiBingoZWOnRpZDVPhr0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AfdGaRiQ8LfcV2gOpHTN7fTcisjLe4453ZbRnO3fIsdwuQ&amp;oe=68E58DD2', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0819b5b9&amp;x-expires=1759590000&amp;x-signature=nfYppgNl353BDEsT2VJrkZv74nQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -735,30 +753,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Donde puedo ver la lista de los Mochis</t>
+          <t>en San Andrés no hay oxxo</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45921.95543981482</v>
+        <v>45933.62440972222</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45921</v>
+        <v>45933</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>22:55:50</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>14:59:09</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -766,20 +782,24 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_nfuScdyexwQ7kNvwHnEe1e&amp;_nc_oc=AdkA9x6lowy7yiNi9-7KxdxmZ92UAEHVSBUE6BexpS75DTRCU0qkw9NZk3mXirN6w7g&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AffjXuQuAkh6E5lAdAYaHFnP3ubfl7B9nHm8fFxRy_KjEw&amp;oe=68E5B518', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7521449685388248071', 'uniqueId': 'lili0202028', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dd40d81546424fd2fcea2ed3358909ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=362cd83d&amp;x-expires=1759590000&amp;x-signature=XpmxBpnZpb6%2BGjYIjXocyPhIu84%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -789,30 +809,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico</t>
+          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45920.56712962963</v>
+        <v>45931.93680555555</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45920</v>
+        <v>45931</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13:36:40</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>22:29:00</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -820,20 +838,24 @@
       <c r="L7" t="b">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid028ozLdVwDmAEsDhk8xownbYakD5xasULXFhXUm4HSw1UsKHdukebMqAbT4DtEXcdMl/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Mfs-9-jGtooQ7kNvwHSWMwA&amp;_nc_oc=AdlR0Waih0Fg7OI08fdu8Wh2yBM2lMFUeJ9L1Wu1yzHTY-AjwFOYcE1RV5qYehi2iNk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AfdgfHU74FDM5BMjFIZrUHXG56hg_RO0lIhfVhYH9acX6A&amp;oe=68E5B9EE', 'profileId': 'pfbid028ozLdVwDmAEsDhk8xownbYakD5xasULXFhXUm4HSw1UsKHdukebMqAbT4DtEXcdMl', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dea75b84&amp;x-expires=1759590000&amp;x-signature=tTiccbcT6Dbl%2BPcc0RXoSCIEFxc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -843,30 +865,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sino Mochis</t>
+          <t>saquen mochis en forma de looney toons 😁</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45921.99359953704</v>
+        <v>45929.73829861111</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45921</v>
+        <v>45929</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>23:50:47</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>17:43:09</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -874,20 +894,24 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PfiSyADQ4asQ7kNvwEw4l6W&amp;_nc_oc=Adk-TcRcsb-2SMuycG_CfX9DkAx86UuFEcwnTNs_caAIAWRzjrdtivrMiWgMuvkjQTg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_Afd7LeyqlZ_xZ75aOPsil9Rn2eWghbQGNBNKo2xiNJPIJg&amp;oe=68E59E97', 'profileId': 'pfbid02KxWhQ4KusHXDrLMxHR9Tar1NG634MbxGa9cJxndtmCfFN9uApkJZwHSPGsKTHBLLl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b25d832f&amp;x-expires=1759590000&amp;x-signature=twob7QPky04Jg9nBc8rCjswcSwM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -897,30 +921,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Karen Alfonso Marcela Paez</t>
+          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45927.35079861111</v>
+        <v>45932.87021990741</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>08:25:09</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>20:53:07</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -928,20 +950,24 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwGAuTkS&amp;_nc_oc=AdkcuRYGvg2h-KHH0GD2UyGzMYkZD6KvY5AtLrRDk3EghD3geZtGJgc-DBWd30grjo4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AffZQL0L8QRYxTLyKxH8GwrqjlJiX4bu9ts2-isgHCEY9Q&amp;oe=68E5B367', 'profileId': 'pfbid02ikW2FMPmnM96Y3Vhz13tSN3bP3ePhaphQRCREESYZPEJvgmVXopeMoFtdx7HLx5tl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7396657590753100805', 'uniqueId': 'ariadnna.muoz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9279bed9092f96fb07b2504a5c7ed70d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d81caa7f&amp;x-expires=1759590000&amp;x-signature=%2BgwhCchz6o3ZZ5ze0jhf7gbnuEg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -951,51 +977,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pero donde los consigo</t>
+          <t>en Colombia no hay OXXO</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45926.63898148148</v>
+        <v>45928.81866898148</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15:20:08</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>19:38:53</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid02YJpeebGntHYyRqmiLEP7uD5kcQz8sDHWesmassnDEJyewBsy5sFRsq5fk1vsrhZ2l/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwHEoPdQ&amp;_nc_oc=AdlDlC4_HLHSFyV0nywpFNiYGwzJEmfb3oCYvUgy0qNF3gd7EAykp2KN2WelozHH9ZA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afe40cb6rlCST1X9bPJjIURbgdOX6sdFlb-jVJixMI4STA&amp;oe=6907547A', 'profileId': 'pfbid02YJpeebGntHYyRqmiLEP7uD5kcQz8sDHWesmassnDEJyewBsy5sFRsq5fk1vsrhZ2l', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=570c12f6&amp;x-expires=1759590000&amp;x-signature=oMBQWgavGeEqlRLqwPK1N3n1Xfk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1005,30 +1033,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ya aburren ya no saben cómo explotar más a esos Mochis</t>
+          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45919.52822916667</v>
+        <v>45932.67648148148</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45919</v>
+        <v>45932</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12:40:39</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>16:14:08</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1036,20 +1062,24 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwHTqa9j&amp;_nc_oc=AdnHK-b6EgbYNvAeRD7olZy9IWSQVaIl5ZfPOfcGvOY8XMr3CnBDD-94eFzWhXTPGCY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_Affb9knIR86LvcsjIwuXJ9cQCwSu0lNZngWSIoZuSVrI9A&amp;oe=68E59E48', 'profileId': 'pfbid02NkFemSjEd66119tsCM9bKyAye7hfJUPHrZP3rPDNrKpZczv6mtV1xKgYJuTyHJmVl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf0b9cbc&amp;x-expires=1759590000&amp;x-signature=k1TXRq%2F4Qd5bH6Tvs2jR9u9gYtk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1059,11 +1089,5584 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>ya we déjenlo pasar🥀</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45928.95833333334</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=342098ff&amp;x-expires=1759590000&amp;x-signature=2MWE%2F0uef0GssvqyP2X1LHwHyQg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>y si no hay en mi ciudad Oxxo?</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45926.70601851852</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>16:56:40</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=58149c3a&amp;x-expires=1759590000&amp;x-signature=kfeL5sWuOiQrZKzcscroMf%2FTNJM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yo tengo el Oxxo a la esquina</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45929.82648148148</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>19:50:08</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6998604116167656453', 'uniqueId': 'estrellita_7291', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1f013694362e5b7acf25ef66d2a1224c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec48b47a&amp;x-expires=1759590000&amp;x-signature=asOjToe6x3RjLP%2B2Rvb04Mc%2B0Ho%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45927.66452546296</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15:56:55</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4851c654&amp;x-expires=1759590000&amp;x-signature=R6cpzQMBWgS5o4p4IV98Jcf6wu0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45933.06369212963</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>01:31:43</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871021709530334214', 'uniqueId': 'dianajs20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d1b80594f31b301f5b7d2a17f8ebf07a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=98af7d8b&amp;x-expires=1759590000&amp;x-signature=xYku3pk8CQxgTLtZw6PfD0ZZsx0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>me encantan estos mochis pero quisiera saber el nombre de 5
+los muñequitos 🥰</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45932.51024305556</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>12:14:45</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=867707d6&amp;x-expires=1759590000&amp;x-signature=8IhrqmCdauRaxZieZj%2BipJOXdBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>como</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45932.00744212963</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>00:10:43</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556410076190638855', 'createTime': 1759363843, 'createTimeISO': '2025-10-02T00:10:43.000Z', 'text': 'como', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7529699467920409601', 'uniqueId': 'diego.chacon.ruiz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0ec5d98d45bb80659e129294e7556e6b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1fe0a01&amp;x-expires=1759590000&amp;x-signature=lEyrSnj1gnrpQJ5dDPJF8jNHT90%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>el otro año mochisauros q iluminan
+te dio hambre yogo yogo [sticker]</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45929.99068287037</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>23:46:35</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7229492920381899781', 'uniqueId': 'ortiz.1400', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de36f59531a8946d7c3c30cab3c29c87~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=44f6106b&amp;x-expires=1759590000&amp;x-signature=zp1ksut2GdAeekww1VvIaS9hIZo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>eso pa que</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45928.22596064815</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>05:25:23</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555006889290826503', 'createTime': 1759037123, 'createTimeISO': '2025-09-28T05:25:23.000Z', 'text': 'eso pa que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7542870679370417160', 'uniqueId': 'x_xxx660', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/baad79b549774584b1a67ebfc08f5a67~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=afc2be15&amp;x-expires=1759590000&amp;x-signature=RIDQ17YGcAwPbpjyA3CJhLmN8UE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45932.81353009259</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>19:31:29</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7121425545787868165', 'uniqueId': 'filosofia.gatuna', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/611472f8abb9c3c4e66c407a80c4ee1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=076610b0&amp;x-expires=1759590000&amp;x-signature=Ff%2FnYeHQXmENVwQ3Yr3qRBMNb3E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>los originales plissss</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45929.86050925926</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20:39:08</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51c5bd8a&amp;x-expires=1759590000&amp;x-signature=MSOs7zODphGQVzoSjqs4ws8uBkM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Siempre me toca el mismo caracol amarillo 🥺</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45929.96003472222</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>23:02:27</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555650338171339527', 'createTime': 1759186947, 'createTimeISO': '2025-09-29T23:02:27.000Z', 'text': 'Siempre me toca el mismo caracol amarillo 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7524391539830948872', 'uniqueId': 'nataliavall', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4f090b395f31d1fc53fc8a1d40867af3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=95e750a5&amp;x-expires=1759590000&amp;x-signature=%2BE7YRi69AlGMQ8HTBP1fw6Vlzn4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>no hay en Neiva 😓</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45929.74864583334</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>17:58:03</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c8ac1554&amp;x-expires=1759590000&amp;x-signature=I2V3EJzJ2pH0RM%2FNrmPiQJV0h8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45929.1794212963</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>04:18:22</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555360657135682321', 'createTime': 1759119502, 'createTimeISO': '2025-09-29T04:18:22.000Z', 'text': 'Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6816660881625465862', 'uniqueId': 'gatusso88.88', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d08015a0ec17b31fabb0d96423b6fbd1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0689b165&amp;x-expires=1759590000&amp;x-signature=d5bVH%2FWkVrAccYSVUSBSUxQuZTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>es mejor la paleta Drácula</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45929.09761574074</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>02:20:34</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6def76385b3a465895b9c63a18974e36~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e9849d57&amp;x-expires=1759590000&amp;x-signature=jjPboMzfzAtZ0mMkVFg0MGX3Yk4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>los dan todos</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45932.8313425926</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>19:57:08</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556715834195788562', 'createTime': 1759435028, 'createTimeISO': '2025-10-02T19:57:08.000Z', 'text': 'los dan todos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7193838219199251461', 'uniqueId': 'emmanuel.monte', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/def659400c8d341d374792bc4c83b7a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=495f6bbb&amp;x-expires=1759590000&amp;x-signature=jrFNG0EfILPVblz8jRX1a3UlZRI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mucha vaina pa eso</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45928.76012731482</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>18:14:35</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850630', 'uniqueId': 'drea._.00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f602981104c155e3deba8955b126b7fb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0b5f0891&amp;x-expires=1759590000&amp;x-signature=%2BdabUtlsn%2BL%2B1zaqzIetoULERYg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>y para que sirve eso, que beneficios tiene 😳</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45933.05707175926</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>01:22:11</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6935601595720860678', 'uniqueId': 'monica_lenis1980', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fce7942c402b7371d210f51cf61e58d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c38c27b6&amp;x-expires=1759590000&amp;x-signature=qljyPdWtn5ojOUZMRNQHBKlXBW4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ami me salió un unicornio en uno</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45932.92136574074</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>22:06:46</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316406165842740230', 'uniqueId': 'michirobloxfnafcolombia', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/811b5143a6b4c89721b77c47d0f3a4cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a2bbaeb0&amp;x-expires=1759590000&amp;x-signature=BRXqO%2FnIHXaK78MUymtCI12bYqc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>eran mejor los gogos</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45929.47387731481</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>11:22:23</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555469953446052609', 'createTime': 1759144943, 'createTimeISO': '2025-09-29T11:22:23.000Z', 'text': 'eran mejor los gogos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7228579787227350022', 'uniqueId': 'diazsergio448', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/61df6591ddc0252c4f89c7801a873c3c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f23db975&amp;x-expires=1759590000&amp;x-signature=4uIG4csA1rFrI0KXK5Yr9ICF88A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45929.98554398148</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>23:39:11</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d0e09512&amp;x-expires=1759590000&amp;x-signature=mx2M8AVKbFC1oUWDaPaH9PlO4wU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>pero en mi ciudad no hay oxxo</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45926.83740740741</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>20:05:52</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3b5cc60d&amp;x-expires=1759590000&amp;x-signature=gIC49zwLTlt3OzZabgmzueKVKeg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>en todas las tiendas</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45929.71753472222</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>17:13:15</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7285382001250141189', 'uniqueId': 'rosycastellanos86', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7321737955369582597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c3d519ed&amp;x-expires=1759590000&amp;x-signature=HiNEV0ws2M1IJfxtSXQEoKhavJg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Y si en Neiva no hay Oxxo 😐</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45927.88842592593</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>21:19:20</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546550606758919', 'uniqueId': 'julianavanegas312', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7bbf565d8eb052ba174287777f6a6684~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=992c8940&amp;x-expires=1759590000&amp;x-signature=Qn6YZMSi%2FCqtg1IadXKYlx%2FSV14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45930.30774305556</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>07:23:09</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7112525176407737350', 'uniqueId': 'esteban_castillo.220', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8331a286f4c2f1e0d41f74df6a541951~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e0d780e3&amp;x-expires=1759590000&amp;x-signature=FPYbRCd3Mks6vXhA8XKAuEU8EFo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45927.68152777778</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>16:21:24</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=898d7b70&amp;x-expires=1759590000&amp;x-signature=wO%2BJOIyMvmAVetFpvRcI4sIz8vA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>saquen ya otra colección 😕</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45926.96346064815</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>23:07:23</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a748d97f&amp;x-expires=1759590000&amp;x-signature=1WJ%2BEUTSDxfs9kRk%2B6fU5qsLZts%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>amooo los mochiss</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45930.14606481481</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>03:30:20</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/653ff6c74910183d0e2794469e78393f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e6f7f15b&amp;x-expires=1759590000&amp;x-signature=flOiSg5MlvGhEkfldkPUu3EfWNU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>me encantan</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45932.03704861111</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>00:53:21</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556421084930458375', 'createTime': 1759366401, 'createTimeISO': '2025-10-02T00:53:21.000Z', 'text': 'me encantan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7321905632369361926', 'uniqueId': 'peluchero0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c3dcf3f4636b10f771ee500678138dfb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2172de4e&amp;x-expires=1759590000&amp;x-signature=%2FQlbe8Ib0uqbaL3lCoDSaS495h8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45926.67013888889</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>16:05:00</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116292147141166086', 'uniqueId': 'trades_fenix', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9270efdc513746d459737e05d9dccbee~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=80cfa6aa&amp;x-expires=1759590000&amp;x-signature=fysrJU6zYZticMHBTHZgd5e5BYc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>part 2</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45929.57021990741</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>13:41:07</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqueId': 'jenny.loango', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0aa7aaecbe34f7dd94d1887fac659dec~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6e8bfcef&amp;x-expires=1759590000&amp;x-signature=YpKLzUoaVyHOFbrkkD46%2FZ7DAgk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45933.44353009259</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>10:38:41</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556943055979332372', 'createTime': 1759487921, 'createTimeISO': '2025-10-03T10:38:41.000Z', 'text': 'yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7529200266735715346', 'uniqueId': 'gabriela__gomez_valencia', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e22b97238fcbe193cfd4126cef752c6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=cbcde7cf&amp;x-expires=1759590000&amp;x-signature=CoYjFuwmA4uvkGawEx6nzKK8O68%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>a qui no hay</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45929.99042824074</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>23:46:13</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661409931330305', 'createTime': 1759189573, 'createTimeISO': '2025-09-29T23:46:13.000Z', 'text': 'a qui no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/5120f48c75061dc7b3c9c01722658d71~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=13445aa1&amp;x-expires=1759590000&amp;x-signature=vReRp84f0x9nVoLZdMj4kJWEsUY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>yo tengo el azul 🥹🥹🥹</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45927.73127314815</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>17:33:02</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554823300175905544', 'createTime': 1758994382, 'createTimeISO': '2025-09-27T17:33:02.000Z', 'text': 'yo tengo el azul \U0001f979\U0001f979\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357836616147059717', 'uniqueId': 'kako.hemilio', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1760399f4c117a473725b3bb20f7bf21~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=19f66f70&amp;x-expires=1759590000&amp;x-signature=Jf7uDeqRjWAAWL3ttpDxHQxQ2yY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>yo ya tengo esa m</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45929.65525462963</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>15:43:34</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555537273380815623', 'createTime': 1759160614, 'createTimeISO': '2025-09-29T15:43:34.000Z', 'text': 'yo ya tengo esa m', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470382147061777409', 'uniqueId': 'thaly1772', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/71e85da6987e62511391075c6d6674c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b522b116&amp;x-expires=1759590000&amp;x-signature=c%2BVafs6W%2FpEf3lkxWINKTbdqOXA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ya los tengo</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45930.06351851852</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>01:31:28</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555688754276303624', 'createTime': 1759195888, 'createTimeISO': '2025-09-30T01:31:28.000Z', 'text': 'ya los tengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7506596631263200262', 'uniqueId': 'mi.princesa.divin', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c158a0051a2d172e45e96e5273f348d8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ec40f880&amp;x-expires=1759590000&amp;x-signature=W%2FfoCJjEd19wQVPhTjIlqwq5vq8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>por favor vuelve a los muñequitos de antes ya no quiero más mochis</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45929.88721064815</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>21:17:35</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555623204544824080', 'createTime': 1759180655, 'createTimeISO': '2025-09-29T21:17:35.000Z', 'text': 'por favor vuelve a los muñequitos de antes ya no quiero más mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181553216034079750', 'uniqueId': 'emanuelmeza1976', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c6ce45f84f08573022367e687a3e5e79~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=558e91fb&amp;x-expires=1759590000&amp;x-signature=nx8zNGfA7lz1lphaRccDeyZnFE4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45932.80388888889</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>19:17:36</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556705655765648146', 'createTime': 1759432656, 'createTimeISO': '2025-10-02T19:17:36.000Z', 'text': 'Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7510321373261202450', 'uniqueId': 'bri_p2014', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b2e1273161d281818edc50c3450cfdcb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2d836da3&amp;x-expires=1759590000&amp;x-signature=EofWZIsT4N2T3C7d%2BmJPfZnRWro%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>pero están en todos los países ?</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45926.73320601852</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>17:35:49</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c6d09044&amp;x-expires=1759590000&amp;x-signature=cQydOHhurnjSFGrg3QK16cqCsTo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Instagram de la chica?</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45929.91350694445</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>21:55:27</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555633048105779986', 'createTime': 1759182927, 'createTimeISO': '2025-09-29T21:55:27.000Z', 'text': 'Instagram de la chica?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918025814152201222', 'uniqueId': 'erick_armando.3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/754d99b04476871c7f12cbaf0d1f1743~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b934576c&amp;x-expires=1759590000&amp;x-signature=9UpwDJbYrLDMRf5j1gxj%2F89EP1c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Los quieroooooo</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45929.49574074074</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>11:53:52</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555478087270515477', 'createTime': 1759146832, 'createTimeISO': '2025-09-29T11:53:52.000Z', 'text': 'Los quieroooooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6886209614263403522', 'uniqueId': 'mariajose.jr0214', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/fa89b236738521d8d51d425df266db3b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7008677f&amp;x-expires=1759590000&amp;x-signature=ydcXpTQ6JFmY0RYua%2F7ZID9PsJg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>yo lo consigo en una papelera sin comprar el yogur</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45930.02420138889</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>00:34:51</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384092541786014725', 'uniqueId': 'estrellita_alien', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e38c298456b8a03417d891b1539c5b57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2a36b2b0&amp;x-expires=1759590000&amp;x-signature=uz0qQb%2FDPRF5bEov%2BXHYv6acxow%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ya tengo muchooosss</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45929.9649074074</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>23:09:28</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555652136999453447', 'createTime': 1759187368, 'createTimeISO': '2025-09-29T23:09:28.000Z', 'text': 'ya tengo muchooosss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452352762484507654', 'uniqueId': 'glxsyy_gaby', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f640f746bac5eb67f15e4c8ed375d287~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cae456f6&amp;x-expires=1759590000&amp;x-signature=d5WcFQziXtdUlvNTIqECQwk7gV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>GRQCIASS. ME DIOO UNOO😭💜</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45927.89190972222</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>21:24:21</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554882846906811137', 'createTime': 1759008261, 'createTimeISO': '2025-09-27T21:24:21.000Z', 'text': 'GRQCIASS. ME DIOO UNOO😭💜', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306695570843550725', 'uniqueId': 'astro_shelly5', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a97d6db6bc7fbe92e2a5c87ec99db37b~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=4611800f&amp;x-expires=1759590000&amp;x-signature=BbzFstXXur6n6fyA9x5DjazAXQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>yo los compré y cuando lo abrí me salió una pa pegar en el bolso</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45928.13539351852</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>03:14:58</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554973274371982100', 'createTime': 1759029298, 'createTimeISO': '2025-09-28T03:14:58.000Z', 'text': 'yo los compré y cuando lo abrí me salió una pa pegar en el bolso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364179204911137798', 'uniqueId': 'zephyts_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c86a63fa4fb27a6057c14957a56b9a1d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=cde2cdf4&amp;x-expires=1759590000&amp;x-signature=DTr0unrxH0T6Qz4veTY32YJbFjA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45928.79943287037</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>19:11:11</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555219507196871441', 'createTime': 1759086671, 'createTimeISO': '2025-09-28T19:11:11.000Z', 'text': 'alguien sabe si aceptan los mismos paquetes de los yogopremio? \U0001f979 los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7248270860224578565', 'uniqueId': 'bangchanmegustas', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/93a2007f320c35921254108bfb01e853~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=e0c7aaa6&amp;x-expires=1759590000&amp;x-signature=vvpbgf88I%2B4gqnSTWHvKu4q1gjc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>en pasto no ay oxxo</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45927.67798611111</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>16:16:18</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554803546690077447', 'createTime': 1758989778, 'createTimeISO': '2025-09-27T16:16:18.000Z', 'text': 'en pasto no ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7478455047338214418', 'uniqueId': 'xddelosxd', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/522f653962a9c5f393bbac9e902ed8d8~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=c031edd7&amp;x-expires=1759590000&amp;x-signature=NsPD5arMMDhRu7RVlz5Kf7PulpM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45928.69695601852</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>16:43:37</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468722166260876295', 'uniqueId': 'honey.mimi7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/013c11aec1b263d87910f07898cba8f3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=32192245&amp;x-expires=1759590000&amp;x-signature=q%2FLMetWWaaDwXwUqEyClB9XrLWE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45929.99023148148</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>23:45:56</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/5120f48c75061dc7b3c9c01722658d71~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=13445aa1&amp;x-expires=1759590000&amp;x-signature=vReRp84f0x9nVoLZdMj4kJWEsUY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Por que en oxxo por que e
+En Colombia no hay tantos oxxos</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45930.00252314815</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>00:03:38</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555666073921553160', 'createTime': 1759190618, 'createTimeISO': '2025-09-30T00:03:38.000Z', 'text': 'Por que en oxxo por que e\nEn Colombia no hay tantos oxxos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7433071984395338758', 'uniqueId': 'viky1234836', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d5790da85f33c83b665c0f5cdae82ee1~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=2185e674&amp;x-expires=1759590000&amp;x-signature=yNX%2FhMeVsJW3NPIo3tQzJQlX7D4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>en santander no hay oxxo😭😭😭😭😭😭</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45927.72530092593</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>17:24:26</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554821062325453584', 'createTime': 1758993866, 'createTimeISO': '2025-09-27T17:24:26.000Z', 'text': 'en santander no hay oxxo😭😭😭😭😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7378516455367279622', 'uniqueId': 'pablo.andres.grij', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/be54fa419e20e6530484a6289699c5e3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=bc3e1e12&amp;x-expires=1759590000&amp;x-signature=ORU1a52NWC1oNOpOHU4HsDeVlXE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>pero en los yogo premio viene uno... no entiendo cuál es la diferencia</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45927.98331018518</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>23:35:58</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554916739622372116', 'createTime': 1759016158, 'createTimeISO': '2025-09-27T23:35:58.000Z', 'text': 'pero en los yogo premio viene uno... no entiendo cuál es la diferencia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '249387341675732992', 'uniqueId': 'la_jetiralla', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/95681d07841dfc852afc68ad0df3f760~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=842c5abc&amp;x-expires=1759590000&amp;x-signature=KY4z6VmoYLDaj3R4LzhxWWnZlL0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45929.73436342592</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>17:37:29</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=c96fcae1&amp;x-expires=1759590000&amp;x-signature=LhT5MSHMWc9CB4kfxawCQCAR4nk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>En Neiva no hay oxxo 😭</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45927.72614583333</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>17:25:39</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554821395772867335', 'createTime': 1758993939, 'createTimeISO': '2025-09-27T17:25:39.000Z', 'text': 'En Neiva no hay oxxo 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7119701816863065094', 'uniqueId': 'lucy_kitty115', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/28e44ab8ed2a9fc54365bb88cdd438e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=6b66db00&amp;x-expires=1759590000&amp;x-signature=N5KfKaASiW1RROUXHMRtT44AOo4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>mano me compré uno y me salió un unicornio</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45933.02133101852</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>00:30:43</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556786291250725633', 'createTime': 1759451443, 'createTimeISO': '2025-10-03T00:30:43.000Z', 'text': 'mano me compré uno y me salió un unicornio', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7076201709093749765', 'uniqueId': 'bloom_xs01', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7841c743cce7ed0aeb6a326261626994~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=032e9719&amp;x-expires=1759590000&amp;x-signature=tGlRyCpDmKf%2FRu2zKo4lvadtsFQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>yo vivo en sincelejo</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45927.42297453704</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>10:09:05</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554708918883107605', 'createTime': 1758967745, 'createTimeISO': '2025-09-27T10:09:05.000Z', 'text': 'yo vivo en sincelejo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7528863782614778887', 'uniqueId': 'maria.del.mar609', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bd1608f690c965c3486708670f3bfd79~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=bcf4a30d&amp;x-expires=1759590000&amp;x-signature=ENbTZyqC675WxFGEL%2FhaU%2FZ5K2U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>yo los tengo tengo el rosado y el azul</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45928.95548611111</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>22:55:54</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555277557701575431', 'createTime': 1759100154, 'createTimeISO': '2025-09-28T22:55:54.000Z', 'text': 'yo los tengo tengo el rosado y el azul', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541992424257324053', 'uniqueId': 'lamasquedoradora', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/29368d9813b06794e313abee8fbbb2d1~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=d03e2102&amp;x-expires=1759590000&amp;x-signature=dFc59mRrRClaECrc4XkID5SqVrk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45928.82883101852</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>19:53:31</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555230564963648264', 'createTime': 1759089211, 'createTimeISO': '2025-09-28T19:53:31.000Z', 'text': 'ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7311721551714796549', 'uniqueId': 'junior.xd.velez', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7311721679486386181~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=669ce3bf&amp;x-expires=1759590000&amp;x-signature=H0w1A2UAz4AC7cimRudfkRnsbyw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>yo soy de pitalito huila y no hay oxxo</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45928.77608796296</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>18:37:34</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555211031862461191', 'createTime': 1759084654, 'createTimeISO': '2025-09-28T18:37:34.000Z', 'text': 'yo soy de pitalito huila y no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7271470368271188998', 'uniqueId': 'luisferneysilvago', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7360438781521821701~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=d55b4b60&amp;x-expires=1759590000&amp;x-signature=DFYKiBmeWukiUARotfC%2FMAL3z24%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>yo tengo ya dos a quien en riohacha en sao venden</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45928.95106481481</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>22:49:32</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555275859973767956', 'createTime': 1759099772, 'createTimeISO': '2025-09-28T22:49:32.000Z', 'text': 'yo tengo ya dos a quien en riohacha en sao venden', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7424964499378504710', 'uniqueId': 'belkis.palmezano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/4bf65fc92b7418231543d485d5032734~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5eb95127&amp;x-expires=1759590000&amp;x-signature=31yHZAGpVJ7b83uPSmQmfi%2BhT9I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Vivo al frente del Oxxo 🫦</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45927.91778935185</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>22:01:37</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554892480945357575', 'createTime': 1759010497, 'createTimeISO': '2025-09-27T22:01:37.000Z', 'text': 'Vivo al frente del Oxxo \U0001fae6', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364587532505613318', 'uniqueId': 'its_valerytt', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/fa3a6ffbfa7cac32480206d4dfcc4155~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=58600d1c&amp;x-expires=1759590000&amp;x-signature=fspXKr90Oh4RMQzm2CnwzPem2Z4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45930.20326388889</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>04:52:42</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414501088697861126', 'uniqueId': 'samu__777a_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/758a25c5c7f3a69b27a4c51c3756f1f3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3e0f84d6&amp;x-expires=1759590000&amp;x-signature=6TwDuILMk6Xg%2Bongmu%2FbLnoGjXg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45929.11127314815</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>02:40:14</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=e0278964&amp;x-expires=1759590000&amp;x-signature=5Wd19iBt6ov9LVVahLHo0AnFkR4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45930.3165625</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>07:35:51</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba0cc392&amp;x-expires=1759590000&amp;x-signature=vxKL0rko8UfbjhXL3M4peHo9bsY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>45926.8086574074</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>19:24:28</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a02361a3&amp;x-expires=1759590000&amp;x-signature=B%2B41M5dhIj8xbBNwjI1B9ID5gYU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>y si tengo repetidos no me los cambian 😂😂</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>45926.88744212963</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>21:17:55</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b048c30&amp;x-expires=1759590000&amp;x-signature=MXaionAV3cDoA4qGO5ZQZgcJlDY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>de cuánto se pueden reclamar</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>45927.0343287037</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>00:49:26</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=80f0f4a0&amp;x-expires=1759590000&amp;x-signature=OZSYzdfVVJwnqoqP9fB3WOIZ4to%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>45927.05542824074</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>01:19:49</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d9e49c4f&amp;x-expires=1759590000&amp;x-signature=7OqXMgzlJ4U79hN1zOjX0K4fHo8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pero si no tengo un OXXO cerca 😃</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>45926.88136574074</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>21:09:10</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554507901999022866', 'createTime': 1758920950, 'createTimeISO': '2025-09-26T21:09:10.000Z', 'text': 'pero si no tengo un OXXO cerca 😃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541548984452891666', 'uniqueId': 'jesu_7146', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d4e69f45d9727cf6af8705941b8c64ea~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7b91eaec&amp;x-expires=1759590000&amp;x-signature=uuTtGEcxEeyjiP1VtIFiWd2e2ng%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Y si no hay Oxxo en la ciudad?</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>45926.98476851852</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>23:38:04</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554546221059883796', 'createTime': 1758929884, 'createTimeISO': '2025-09-26T23:38:04.000Z', 'text': 'Y si no hay Oxxo en la ciudad?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6960146577365419014', 'uniqueId': 'sebas_20114', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/35fcab65e640a5b27c092124d8b2047e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1adf7f57&amp;x-expires=1759590000&amp;x-signature=5%2BNPyTlt1iPnzVN18C4%2BZq8fdw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Yo el otro día compré uno de esos y los derretí para hacer uno mega.</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>45927.61450231481</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>14:44:53</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554779983777989383', 'createTime': 1758984293, 'createTimeISO': '2025-09-27T14:44:53.000Z', 'text': 'Yo el otro día compré uno de esos y los derretí para hacer uno mega.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7390881053177955334', 'uniqueId': 'elpanamiguel7528', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0dbaa0de347c3ac93474b7346f4d9ff6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e4ac4d2&amp;x-expires=1759590000&amp;x-signature=vj6lxqZgzyCvRV5tirho%2BTh%2FYtY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Heee para eso lo colocarían mejor en un D1 o un merca Z</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>45927.12737268519</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>03:03:25</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554599219672728338', 'createTime': 1758942205, 'createTimeISO': '2025-09-27T03:03:25.000Z', 'text': 'Heee para eso lo colocarían mejor en un D1 o un merca Z', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7221389411153363974', 'uniqueId': 'diegofernandoeras', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12ba695da12a72c320bfea99193e3732~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c7d28146&amp;x-expires=1759590000&amp;x-signature=qpvWaJfrOOeKi2oB08yHFO6RExM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ya me salio el morado</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45926.97988425926</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>23:31:02</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554544444331328263', 'createTime': 1758929462, 'createTimeISO': '2025-09-26T23:31:02.000Z', 'text': 'ya me salio el morado', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7343027455776867333', 'uniqueId': 'isabella_merch', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e613441ceced0edec55e618b7496ca25~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=57ce2efc&amp;x-expires=1759590000&amp;x-signature=uMG4hBcWh%2F8VYNa9JLriqJ7J02E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Tanta cosa para uno</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45929.00190972222</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>00:02:45</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a9e7bd7c&amp;x-expires=1759590000&amp;x-signature=I657x89c%2FH5%2BtDgelHer0P4dlEU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>yo no los incuentroo</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45927.97440972222</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>23:23:09</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554913487688909576', 'createTime': 1759015389, 'createTimeISO': '2025-09-27T23:23:09.000Z', 'text': 'yo no los incuentroo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7519355587811279880', 'uniqueId': 'katy07.0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/44afda78dfbb240f9a4f221a315f60d2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aa06551f&amp;x-expires=1759590000&amp;x-signature=xcbJb8oqNd80e%2FAR9RbcL6NqMOE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>y si en mi ciudad no hay OXXO 💔🥺</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45927.04493055555</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>01:04:42</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554568598334374674', 'createTime': 1758935082, 'createTimeISO': '2025-09-27T01:04:42.000Z', 'text': 'y si en mi ciudad no hay OXXO 💔🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7318963154473239557', 'uniqueId': 'luch_13_ml', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1b6c20dc06f38f1834752fb43a0e5084~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2cd17a51&amp;x-expires=1759590000&amp;x-signature=sN6lZUQbwDqslVfNWFdkgIJY6HU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Amooo</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45928.79438657407</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>19:03:55</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555217811128615687', 'createTime': 1759086235, 'createTimeISO': '2025-09-28T19:03:55.000Z', 'text': 'Amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7284419691349607430', 'uniqueId': 'kdruiz22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7300345897722839046~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d1b3ed7&amp;x-expires=1759590000&amp;x-signature=6AWu9gdwaxbQv38GS3bKf7arySg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>si claro si yo vivo en colomb</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45930.02231481481</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>00:32:08</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555673462803694343', 'createTime': 1759192328, 'createTimeISO': '2025-09-30T00:32:08.000Z', 'text': 'si claro si yo vivo en colomb', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7552728943149810705', 'uniqueId': 'dannasofi6899', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/865736a245746c0e4f5e41bb7590a553~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a72ad08f&amp;x-expires=1759590000&amp;x-signature=e1C7Suc0f70hO%2F1VinEZxlhzSMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>son mejores los de colanta</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45928.76954861111</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>18:28:09</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555208572725822228', 'createTime': 1759084089, 'createTimeISO': '2025-09-28T18:28:09.000Z', 'text': 'son mejores los de colanta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6970094734828438533', 'uniqueId': 'videosdehumornegro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3d43f03cc0c977cda48bd3640cc5246a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32db73bd&amp;x-expires=1759590000&amp;x-signature=qe4GU7tHMWFwRlg9CZVgWmII9XM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>mi hijo tiene muchos ya</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>45928.71826388889</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>17:14:18</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555189568158171922', 'createTime': 1759079658, 'createTimeISO': '2025-09-28T17:14:18.000Z', 'text': 'mi hijo tiene muchos ya', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7198591704680023046', 'uniqueId': 'lpez.amarfy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/94bc9caafe217bbfd6ce01b82c1f3779~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f23d150b&amp;x-expires=1759590000&amp;x-signature=jutcPSEnWl7ApQhQLMyPVG3b0PI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>y las ciudades donde no hay Oxxo 😅😅</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>45927.13207175926</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>03:10:11</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554600954244678407', 'createTime': 1758942611, 'createTimeISO': '2025-09-27T03:10:11.000Z', 'text': 'y las ciudades donde no hay Oxxo 😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783394257204282373', 'uniqueId': 'yunior.18', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b9b4e3df13da81e5d8bd40873e3374d1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=896f2d8a&amp;x-expires=1759590000&amp;x-signature=cXhbKhYtJkgTSuyOOX4opmni5Bs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>acá en mi ciudad no hay</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>45928.85714120371</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>20:34:17</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555241088127124242', 'createTime': 1759091657, 'createTimeISO': '2025-09-28T20:34:17.000Z', 'text': 'acá en mi ciudad no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547170167466296328', 'uniqueId': 'unboxin2025', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f6f706199631f523a305a35e3a9c95e9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4fcc3f90&amp;x-expires=1759590000&amp;x-signature=9no8RxxqXlHA6KJsBGu9OR2bDbY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>menos mal, porque esos mini Mochis nada que ver</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>45927.03719907408</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>00:53:34</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554565731141354248', 'createTime': 1758934414, 'createTimeISO': '2025-09-27T00:53:34.000Z', 'text': 'menos mal, porque esos mini Mochis nada que ver', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '306200608217440256', 'uniqueId': 'adrianacontajaram', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/3ca1721c854ebb7d5a1c458fad6e8110~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9684ac01&amp;x-expires=1759590000&amp;x-signature=L9cilbroilQtMLf1qF0%2FopJFU7I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>y si estoy en Colombia</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>45930.03666666667</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>00:52:48</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511370345698526228', 'uniqueId': 'eslendy121', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/17b0bce09c224ef4b7b58274a200d715~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=183871f4&amp;x-expires=1759590000&amp;x-signature=tWcBcdaJ%2BFb%2FZbI5FTBq%2BqEZ0XI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>me puede regalar la cámara</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>45927.25508101852</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>06:07:19</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554646606097629960', 'createTime': 1758953239, 'createTimeISO': '2025-09-27T06:07:19.000Z', 'text': 'me puede regalar la cámara', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7359244510582670341', 'uniqueId': 'fernando.bertho', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7359244971364319238~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=971ce762&amp;x-expires=1759590000&amp;x-signature=hSnAdl%2Fx9SevQ%2BJ1agssKcrosgk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>45929.88107638889</v>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>21:08:45</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6846492796284470277', 'uniqueId': 'linamariahernan4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b8c84acbfe31152b7111b26ebbb541b5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fa52dcd9&amp;x-expires=1759590000&amp;x-signature=ztcNFoKMigceJDJBu9QsLmMnOBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>45928.79006944445</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>18:57:42</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555216216953078536', 'createTime': 1759085862, 'createTimeISO': '2025-09-28T18:57:42.000Z', 'text': 'una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7514280435070927873', 'uniqueId': 'fresa.com.crema', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/eaa3b275b74194b2e13fc3266612bc49~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=ae836cdc&amp;x-expires=1759590000&amp;x-signature=a7qvjwriJGDYobnZiPdl1ehE0Jg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Ahhh soy fan suyos y tengo la colección de los chicitos y los grandes y los de bolso ya los 40 😌</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>45927.60967592592</v>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>14:37:56</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554778199965123335', 'createTime': 1758983876, 'createTimeISO': '2025-09-27T14:37:56.000Z', 'text': 'Ahhh soy fan suyos y tengo la colección de los chicitos y los grandes y los de bolso ya los 40 😌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7427943544844190726', 'uniqueId': 'luci_123461', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/22c7a80abcc4d081e648ea0fbef7e176~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=facf1c2a&amp;x-expires=1759590000&amp;x-signature=aeATwgKxhAG22gwhPDdnelhy%2FCE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>mi mala suerte, tenía dos abri un yogurt y me salió repetido</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>45928.00234953704</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>00:03:23</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554923850959422215', 'createTime': 1759017803, 'createTimeISO': '2025-09-28T00:03:23.000Z', 'text': 'mi mala suerte, tenía dos abri un yogurt y me salió repetido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7540478701881164818', 'uniqueId': 'cib_1252', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/72330b8c5396a956cc18b2d6d1f243e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=06c87368&amp;x-expires=1759590000&amp;x-signature=HgETNl1hbiBqHnJj6UvDh219kIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>pero sola mente sonos logos que disen todo yogo</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>45930.0090162037</v>
+      </c>
+      <c r="H101" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>00:12:59</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555668487608582928', 'createTime': 1759191179, 'createTimeISO': '2025-09-30T00:12:59.000Z', 'text': 'pero sola mente sonos logos que disen todo yogo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352935562129802246', 'uniqueId': 'titta4841', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=d41208a0&amp;x-expires=1759590000&amp;x-signature=Sjg0dwZRvtbmH61HFLai4lw18B0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOvpQZYALLC/#advertiser</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOvpQZYALLC/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>45924.11498842593</v>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>02:45:35</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HNfFFAfkSQ0Q7kNvwG7Oi40&amp;_nc_oc=AdkIwskONEaMC0z1mUxltAXZiSR8NoidmfCbNiGs3QvoZf-a1jKsV_LylIX6Y0jJb5hKwahVCSdyoDBJGwcMRUcD&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_AfePhumY14vBcsD5n11B8lH3FW3P_qy4FjqCmLTuhi5UQw&amp;oe=68E5D4EF', 'profileId': 'pfbid0aDZaHKURgZcijvihdJDedCynSaRQqr9NHmAGgvLGQEF8zDARrhb9UK5vnvNGNswnl', 'profileName': 'Santiago Domínguez', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Alpina</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>45923.7950462963</v>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>19:04:52</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CPkT_wsaUxYQ7kNvwEet4y-&amp;_nc_oc=AdmI089TDaT8W_xl6D5kQi7Hn-oXUg_EAZXKdlsW2pcYqs0kGbdUwdXl9rB1iS71FaRrfZ0Q2ur_li7vZGQWzfJn&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_AffpZVClqXQlYi3LWqEEsTPGXQVHhmLPrkMku8ekIuI_sg&amp;oe=68E5D6AB', 'profileId': 'pfbid03p38ke1kNVHTgqg6Fx9ysvcYxG5m7fRALBgnmWWiy84d2Mji99MNUPAycoMyeukVl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>45928.8709837963</v>
+      </c>
+      <c r="H105" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>20:54:13</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OcmCyvlcfCgQ7kNvwHp1NQt&amp;_nc_oc=Adlch-uCkSApHehfIwZRksFJkvoZXMwbG1YrTTNk9PfTI5Awr9D6ARoqAd6KAncja0b1OTIda-38JARzLyQOpGLp&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_AfcifhDKPsMGoV-xY-kjZDrc1ugqK7Z2hJT1EtViG17eAw&amp;oe=68E5C612', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Donde puedo ver la lista de los Mochis</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>45921.95543981482</v>
+      </c>
+      <c r="H106" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>22:55:50</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_nfuScdyexwQ7kNvwHRHMKT&amp;_nc_oc=AdlsYZ1JTuUfDZxZhi23uJQ9MbhFOIt0H3kxxxwXVijX5sPI1Yk-XDnrCCgwb4XXUODewWMHjGisJmpwzI1jfa2d&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_AffwJNp6_Lkyen5LyCeUAzkSt3s9O7tBEYtqt_Ide961nw&amp;oe=68E5B518', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>45920.56712962963</v>
+      </c>
+      <c r="H107" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>13:36:40</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid028ozLdVwDmAEsDhk8xownbYakD5xasULXFhXUm4HSw1UsKHdukebMqAbT4DtEXcdMl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Mfs-9-jGtooQ7kNvwGJSiKe&amp;_nc_oc=AdmCjirBT3XKL-2EkZH2LPkrQzEo0kxX84bYz1Ojvsui_UqvvcyhlAAxlzxyGsOZFa9fcDW1BP1f-J3b0eENfoMu&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_AfdQ_vXbgTCqV7YxUCDLlk3CB9pWLprdQvprM-IViNrAAg&amp;oe=68E5B9EE', 'profileId': 'pfbid028ozLdVwDmAEsDhk8xownbYakD5xasULXFhXUm4HSw1UsKHdukebMqAbT4DtEXcdMl', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sino Mochis</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>45921.99359953704</v>
+      </c>
+      <c r="H108" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>23:50:47</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PfiSyADQ4asQ7kNvwGV1RZj&amp;_nc_oc=AdljAMrgumR1jIF_cfpLtE84rebAl5-1lA4xJrpSsUMA96Tkn5aImYLRmNta58-DCVaqh48nC1n80P7hhcNGQpbU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_Afc7VYyJSEoJD0zkfQosCDz6N4HH9e6r2TX_GscRxt_-OA&amp;oe=68E5D6D7', 'profileId': 'pfbid02KxWhQ4KusHXDrLMxHR9Tar1NG634MbxGa9cJxndtmCfFN9uApkJZwHSPGsKTHBLLl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Karen Alfonso Marcela Paez</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>45927.35079861111</v>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>08:25:09</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N5Bv77QoGVsQ7kNvwGs6TxR&amp;_nc_oc=AdnQFEiliYCVw8H3CnqyrsJhB3jVtlbVMSrIrPOZ4GMKxqTUGDfZCd5es8MyLqOSTwdoJ8DrXcWqTvbEmQWWbT_s&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_AfexFbLScTXmxY8pnb-GxuKtDWJoU8E0SFXn1yisEQXE4Q&amp;oe=68E5B367', 'profileId': 'pfbid02ikW2FMPmnM96Y3Vhz13tSN3bP3ePhaphQRCREESYZPEJvgmVXopeMoFtdx7HLx5tl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Pero donde los consigo</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>45926.63898148148</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>15:20:08</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid02YJpeebGntHYyRqmiLEP7uD5kcQz8sDHWesmassnDEJyewBsy5sFRsq5fk1vsrhZ2l/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwGJ3V9u&amp;_nc_oc=Adkbc8bh6t0fKuLKDWfuhkO4WrZHzPjS2CqvHWVZpWbwnhgUTb5dBqENfuFjKhITpmRj90SQ-MuEY_B84l5c0Pxc&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfcRXismX7g9DZh5QOfHMLOQjiHkcg29Ih0pddhLC02UHg&amp;oe=6907547A', 'profileId': 'pfbid02YJpeebGntHYyRqmiLEP7uD5kcQz8sDHWesmassnDEJyewBsy5sFRsq5fk1vsrhZ2l', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Ya aburren ya no saben cómo explotar más a esos Mochis</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>45919.52822916667</v>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>12:40:39</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gM-fYedQifQQ7kNvwH1xgtF&amp;_nc_oc=AdkUTesoV--JEsKX8akLpIX6gG-Evgh4zdUMh4QD00xUaCL5ECIgV4mAMxE_U96xNFc2xcwBVpcTmqlR3Fna4dzT&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_AfcnG1J4sLMYbfYEUbfR7MIB77UxaIarM4xwfToCkNEc1A&amp;oe=68E5D688', 'profileId': 'pfbid02NkFemSjEd66119tsCM9bKyAye7hfJUPHrZP3rPDNrKpZczv6mtV1xKgYJuTyHJmVl', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
         <is>
           <t>Que falta de respeto. Oxxo. Cartagena no hay.  
 No les importa las otras ciudades. 
@@ -1071,1699 +6674,1699 @@
 Alpina</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G112" s="2" t="n">
         <v>45919.74681712963</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H112" s="3" t="n">
         <v>45919</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>17:55:25</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwESdyCQ&amp;_nc_oc=AdmThX3SArhQhyhW-ksY744MUIxucjFZNc7CWSI-kuyki2ROAVdZlbvxZcHY9PMF3bc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=C8Qkial94GyKzQa1DE5tIA&amp;oh=00_AfdE4sK9mGJ6eEb2aq6d5x9foKZGv6ABE8USAHsZDv73_w&amp;oe=68E590F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwEtit7G&amp;_nc_oc=AdlU1KFoAGrrcozAgGTAtMbKA0ourz4FjmGZJMtxbKUeh7qXDgsWxYh8ZddtYjVBQhADzCXGH0Ec9fVkMcUJxSIB&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=xk9Ghs8MWVwjIwHM7kEwYw&amp;oh=00_AfcFs9xZym_K-tdRNcq4URKay0eBRcc4D9U5_H9qpyYi6w&amp;oe=68E5C930', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
         <is>
           <t>Alpina cuando volverán a hacer los muñecos qué hacían antes ?</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G113" s="2" t="n">
         <v>45931.09537037037</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H113" s="3" t="n">
         <v>45931</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>02:17:20</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwGc-Fvu&amp;_nc_oc=AdknPt-_qPNvbHXEJkspz-IwCC0sfyHI2Htjf51nVFqqFHk8hkRBGsOfIl6J8zd3H5U&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=alBVbQZXY9EKJlaMv_45RQ&amp;oh=00_Afe4Cp84-p-Yq7pM6pkrcnlblHR5_7kup8CZxz82-hlInQ&amp;oe=68E5B553', 'profileId': 'pfbid02qsyGytTcRnXKQ4gygtXq4SQLMJvqkepKn11YRQGVWYXUY4xEZJgd27Sz4zy4m5eYl', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent.fpit1-1.fna.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H7-Tlo1YAa4Q7kNvwH-LeL4&amp;_nc_oc=Adlhhc8gHcvTimmsc4TlHrFSSVn8uDa8UIbrzgfX9BfA9qkLB_lEAtCF-KeTFkVcJMg&amp;_nc_zt=24&amp;_nc_ht=scontent.fpit1-1.fna&amp;_nc_gid=6JfQFGZ6N2SSifQrkSBqtA&amp;oh=00_AfcYhasfaI6nS9hPsY_6AWhwmy_HFlvQUQvXZG80hC1uDg&amp;oe=68E5B553', 'profileId': 'pfbid02qsyGytTcRnXKQ4gygtXq4SQLMJvqkepKn11YRQGVWYXUY4xEZJgd27Sz4zy4m5eYl', 'profileName': 'Dicewordy Carrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DOvoGefAFeJ/#advertiser</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N114" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
         <is>
           <t>Guau que maravilla ya voy a comprar 5 paquetes</t>
         </is>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G115" s="2" t="n">
         <v>45920.15390046296</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H115" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>03:41:37</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Dokwj2swdXUQ7kNvwF085iY&amp;_nc_oc=AdnZl8S2R7Lrre3rk58WCDdtZ4q_5f3FsacP2awjVhLSGKvnURYWxYmC8PC_Dr_kG9g&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_Affdca59uW486u9Iy66H17I4_XaGHBMBCBX0xXQPX5N5yA&amp;oe=68E58CA6', 'profileId': 'pfbid032ySJU1MiPAqVo1juZNaYPFTFNAEr44GhdCZQm5dHWDvrzb3R6PhhiADEDkYxZLFSl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Dokwj2swdXUQ7kNvwG7LPQa&amp;_nc_oc=AdmdUwfWKBvNd0S6mxbYRS4d9mgorWT9rLAinnKWV6Lc4N6Ncn_sTInaFbbWTWxfGvY&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_AfdWY9mbXmvpWddW8B33BGfjRAarbo_sxo-f9Ay0j2wYdg&amp;oe=68E5C4E6', 'profileId': 'pfbid032ySJU1MiPAqVo1juZNaYPFTFNAEr44GhdCZQm5dHWDvrzb3R6PhhiADEDkYxZLFSl', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>5</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
         <is>
           <t>Así vamos. 👍🏻</t>
         </is>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G116" s="2" t="n">
         <v>45921.69010416666</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H116" s="3" t="n">
         <v>45921</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>16:33:45</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwHQB3Gi&amp;_nc_oc=AdkqL7q_lpi8u8zOoXzGx7g81IMPs-J1Aya3fD_70Z1_6TNfoCEZHLTZU_zBizxrJ0s&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_Afe09vJXQT5GDrgTRZD4crz76LVzy0IyQLGxaEyx9BNvNw&amp;oe=68E59F5E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwHQB3Gi&amp;_nc_oc=AdkqL7q_lpi8u8zOoXzGx7g81IMPs-J1Aya3fD_70Z1_6TNfoCEZHLTZU_zBizxrJ0s&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AfdH6sodwAonDO0iQZGsbAhDK3j_TCVGsqZKj0KKAZtZVQ&amp;oe=68E59F5E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwFT7CJu&amp;_nc_oc=Adn_fVSXnVUuy6vPcrdhLWJzZoG9QwXSZ4m2PTYMc2zj-3XG_4hq3Hm9xXGyXrfATWQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_Afcz3vIQ5ZGTpNETHFzDD1uisy59DwfUp2mGQR_NevDHjQ&amp;oe=68E590F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '15', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwFmOH20&amp;_nc_oc=AdkgJMKGK5cJ-DUiTCFzPl82_zuIOL4ciG4iC8lArgomJ6Xd-vkYRegFx_9FqrcGwW8&amp;_nc_zt=23&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_Afd02i_AzNhS247wELti2npWYpn-GxIqJRcWIrgAHFnTeQ&amp;oe=68E5D79E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=T4X6GpY-eZcQ7kNvwFmOH20&amp;_nc_oc=AdkgJMKGK5cJ-DUiTCFzPl82_zuIOL4ciG4iC8lArgomJ6Xd-vkYRegFx_9FqrcGwW8&amp;_nc_zt=23&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_AffMCo1GNBlq5acljar30xGuaAGAyIROmuiMUxZrWwu2eQ&amp;oe=68E5D79E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwHIVX7R&amp;_nc_oc=Adn0iTF7jCiWjDfxjXfAwGd2djjaqpjH4HiWVKSmKMhDUw8o9lZUhnQScG1BmYejiqQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_Afcg2X0BAWNFgwZpRzkxNe53swv4M69c53Wt99WcuHNjWg&amp;oe=68E5C930', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '15', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>5</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
         <is>
           <t>Hola</t>
         </is>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G117" s="2" t="n">
         <v>45923.69081018519</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H117" s="3" t="n">
         <v>45923</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>16:34:46</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwHFwk9O&amp;_nc_oc=AdmzcsCCVPKi93L4Qw2LlCSywBhL9LHQ2b3OsxevgiJiENHZPuykesRr1SlRgP8BVwQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfdgdkgCipc_1MVvK2DXA_bDxHi3Ybiuy8WR1TbjZOte1w&amp;oe=6907547A', 'profileId': 'pfbid029VQxPRkm4ZNBbTaHnCXYyvPLZiP28CEJwmYMZgjKh1svgMpanic2xGBKWabQpTZol', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEn7Jdl&amp;_nc_oc=AdkKJ-Ak3B83UGDp_aI25WN6jeq0ePr198A_MV4DNfkbK0WJY5z16i4e6Lf958O7jV0&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;oh=00_AfeSOdAUHpKzOK_WpX3BI12c2-U92dbT_rZg_UWgCLyl3A&amp;oe=6907547A', 'profileId': 'pfbid029VQxPRkm4ZNBbTaHnCXYyvPLZiP28CEJwmYMZgjKh1svgMpanic2xGBKWabQpTZol', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
         <is>
           <t>Hola</t>
         </is>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G118" s="2" t="n">
         <v>45921.8059375</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H118" s="3" t="n">
         <v>45921</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>19:20:33</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d21iRNX3ylwQ7kNvwG-fYYe&amp;_nc_oc=AdlQnwxf2Oi-483-4Uzlm4GkwLvdvJADDvDMI0ueUlQzmIonnoNfSbvUyHWgcdHswgw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AfcTSuXxjZYXZVUFf85WY8P2DRTmGr9zaS-xERzhwL5gpw&amp;oe=68E5BC3D', 'profileId': 'pfbid02z4pHyrQb96VEkrADP9y8wKi1dTsfK2kaX7BffFL8jw5pqTkHcscrDQD7ewBApFK5l', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d21iRNX3ylwQ7kNvwEN-Wvv&amp;_nc_oc=AdkWKUHXatZxRuG5zjshdnOlvnfcmku2Xr5zrMq35bGd04POc2nEvGPHw6E3fpQ_CUg&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_AfcREMkTKQuNyC_4GOZH7S9er_1D_tlMEIqJNXKczhqycw&amp;oe=68E5BC3D', 'profileId': 'pfbid02z4pHyrQb96VEkrADP9y8wKi1dTsfK2kaX7BffFL8jw5pqTkHcscrDQD7ewBApFK5l', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
         <is>
           <t>Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena</t>
         </is>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G119" s="2" t="n">
         <v>45920.65306712963</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H119" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>15:40:25</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwHFwk9O&amp;_nc_oc=AdmzcsCCVPKi93L4Qw2LlCSywBhL9LHQ2b3OsxevgiJiENHZPuykesRr1SlRgP8BVwQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfdgdkgCipc_1MVvK2DXA_bDxHi3Ybiuy8WR1TbjZOte1w&amp;oe=6907547A', 'profileId': 'pfbid02Cd94ouGqi7Sf1BMEKpP7fTorYZch9G3Z37FXQUjN2uoYraht52AB7oC5Ft8jaggYl', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEn7Jdl&amp;_nc_oc=AdkKJ-Ak3B83UGDp_aI25WN6jeq0ePr198A_MV4DNfkbK0WJY5z16i4e6Lf958O7jV0&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;oh=00_AfeSOdAUHpKzOK_WpX3BI12c2-U92dbT_rZg_UWgCLyl3A&amp;oe=6907547A', 'profileId': 'pfbid02Cd94ouGqi7Sf1BMEKpP7fTorYZch9G3Z37FXQUjN2uoYraht52AB7oC5Ft8jaggYl', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
         <is>
           <t>Kmilo Perdomo mira amor</t>
         </is>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G120" s="2" t="n">
         <v>45922.14309027778</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H120" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>03:26:03</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xPXFyoVAc6gQ7kNvwGiYnIw&amp;_nc_oc=AdkVvImVhGhhNkrKxhROzrDjpOf59CSTGj-TRa3q70EgPFoktU2ZyezKxIQ3F9b_RKg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AfeuFr_asvoreGQOyhSu1Ewef1X3nFC21-nGPgo0ZApsiw&amp;oe=68E5AB0B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xPXFyoVAc6gQ7kNvwGzz7f2&amp;_nc_oc=AdllXUeXfjGjQgchGFKhFcq6XCssRbibQNW_JMGWd17MLOx_7F2_o7_kav7QnaztXsI&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_AfdjPDNeOO1RjoN_-7Oy5w5i2SD3XqoXFph9z7hAUKdobA&amp;oe=68E5AB0B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
         <is>
           <t>Yo quierooooooo pero seguro se acabarán en un día así como los otros</t>
         </is>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G121" s="2" t="n">
         <v>45920.30206018518</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H121" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>07:14:58</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3qnB6DSqPF8Q7kNvwGGBr0q&amp;_nc_oc=Adlhr8S12VsHgS_sZSuXlcsmy4by-8aYD9dMLTB8KynZHQGay2aRtL5df54iZkfmHgw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_Afc5NBKg_xVe4sz-__Lv3d73AX0cW0f1ixiihV-O1Iw6eA&amp;oe=68E5A4F8', 'profileId': 'pfbid02cAp4nGEYyK7VYWAH79J7PWDHt4U5cydHsc6KjTCV1wfpPBX1KjWg15RSuRwU9uQ4l', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3qnB6DSqPF8Q7kNvwEu7CsX&amp;_nc_oc=Adm-y8J7MIQF0tTEUKnSErQA-Sl-zam6faNRWYSl8HR3L0mbqDpL-Po0UzV-sDZHtSM&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_AfcSCIeGSs4ITfLfY84cYvB38wgLyeTxQCn0y-wHV67Ryg&amp;oe=68E5DD38', 'profileId': 'pfbid02cAp4nGEYyK7VYWAH79J7PWDHt4U5cydHsc6KjTCV1wfpPBX1KjWg15RSuRwU9uQ4l', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
         <is>
           <t>Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca</t>
         </is>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G122" s="2" t="n">
         <v>45929.04376157407</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H122" s="3" t="n">
         <v>45929</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>01:03:01</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwHFwk9O&amp;_nc_oc=AdmzcsCCVPKi93L4Qw2LlCSywBhL9LHQ2b3OsxevgiJiENHZPuykesRr1SlRgP8BVwQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfdgdkgCipc_1MVvK2DXA_bDxHi3Ybiuy8WR1TbjZOte1w&amp;oe=6907547A', 'profileId': 'pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl/', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEn7Jdl&amp;_nc_oc=AdkKJ-Ak3B83UGDp_aI25WN6jeq0ePr198A_MV4DNfkbK0WJY5z16i4e6Lf958O7jV0&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;oh=00_AfeSOdAUHpKzOK_WpX3BI12c2-U92dbT_rZg_UWgCLyl3A&amp;oe=6907547A', 'profileId': 'pfbid034tW9LtHQhPj2K5Xj3VnaPjDrehdpJ7nNeLUNHfdoM1pdTdogS5K97PYFF1TH5zJwl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>5</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
         <is>
           <t>Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina</t>
         </is>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G123" s="2" t="n">
         <v>45920.04659722222</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H123" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>01:07:06</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iJVICs9_fqkQ7kNvwGr2fvZ&amp;_nc_oc=AdlAqUu_Ih_wAalDJNcFRrMR-1HDVOrHHZWjU5JjctJyuuZd9T_JsjOK8UgbZ3mWbQI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AffsI5kutrJmsKejlF85AJXkIc9KzxjW8cEQdW1W-d4wag&amp;oe=68E5A6C0', 'profileId': 'pfbid0RUVwvLEqG8Fsf3EdQCvjGAzpaombpvepm98ktxtXwQeHCuJ6E7nXjMHkjsE8YJfzl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iJVICs9_fqkQ7kNvwFi69MX&amp;_nc_oc=Adm9ixOhM1gkhsKlvKROWdKkKGnhbYguAJ9Hz0y9fndKe6zNzZhNSeX1ptM6fooF_SY&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_AfcwWegPWG3eRMxlYnR2ITGgnsaIQNdgwoGDrcDvaISmew&amp;oe=68E5DF00', 'profileId': 'pfbid0RUVwvLEqG8Fsf3EdQCvjGAzpaombpvepm98ktxtXwQeHCuJ6E7nXjMHkjsE8YJfzl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
         <is>
           <t>Video en mi canal! 
 https://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC</t>
         </is>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G124" s="2" t="n">
         <v>45926.19298611111</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H124" s="3" t="n">
         <v>45926</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>04:37:54</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwGebySn&amp;_nc_oc=Adk9QaPMHL_mIHtx__IK6L-PApyKZJe61I88FS5-VsVFFuAovDpSMH2JkcX-W3RlGIQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8vQ1-LDTkB69ven8EaQfdA&amp;oh=00_AfdSquymSGyKkLJNC7fxFb-c-w-M73rtKMVGsWzjTDMIFw&amp;oe=68E59415', 'profileId': 'pfbid02uZUcN6y1Po2ijRRw88jibCoktsxaNJYm1RJezwzeX7ajMHQje66mtzQ535CdCJp4l', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>4</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HVM4ehN57TMQ7kNvwFr5TFr&amp;_nc_oc=AdkBSYrGUVnkzAOJz40SCbB-ddBSLxMJfx8V0XDvuXb5ekslO9EUCLMhrdasS-LT8Y4&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=pthD-BjbtYghSgW_BSvosA&amp;oh=00_Afc8_BsDh-Do6IJQNEL-nKtuY0TbV_ond78Eon0gMmXNDw&amp;oe=68E5CC55', 'profileId': 'pfbid02uZUcN6y1Po2ijRRw88jibCoktsxaNJYm1RJezwzeX7ajMHQje66mtzQ535CdCJp4l', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
         <is>
           <t>En villavicencio  donde se puede</t>
         </is>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G125" s="2" t="n">
         <v>45919.89318287037</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H125" s="3" t="n">
         <v>45919</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>21:26:11</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GutceqpbdjoQ7kNvwFT-U17&amp;_nc_oc=AdmxXZPrKN9UysbvMOdRx4mOd1s7v6_8z_kB8AK3Rv2PGisl7MagpOa8lSfxqSo6s6c&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AffFT6sdhXZ1vyH5u7UZNGmULbwTYybQt3AKpVk5C-lq6A&amp;oe=68E58C54', 'profileId': 'pfbid02trdbm54CLu2wGqwWd3kqdBtQvrjj4aTASYdhJPf13L6SkSYWNMAe5jLKfvmtNZmRl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GutceqpbdjoQ7kNvwGgEz-3&amp;_nc_oc=AdmZKitaPQFKY2Tt_cQ6oDYS-jdKzRWOhZ4EV-dP4NiXDKtJ9o_wE56lnpJnemUlSnQ&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_Affxt-LqmLYjCgGmYjdd02oSIZYW501dyYqPnrZvf7ug2g&amp;oe=68E5C494', 'profileId': 'pfbid02trdbm54CLu2wGqwWd3kqdBtQvrjj4aTASYdhJPf13L6SkSYWNMAe5jLKfvmtNZmRl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
         <is>
           <t>Se reclaman en los oxxos</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G126" s="2" t="n">
         <v>45923.00528935185</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H126" s="3" t="n">
         <v>45923</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>00:07:37</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vUwsCsS1g18Q7kNvwFB93wF&amp;_nc_oc=AdlrHSWv8SaxCxtaOaWl9uaJFwPVPp4y9AYB5SIX0J-MpxaiiuEN9ImY1BFaaSn859g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_Afd0OAq1YvMXuMrX6yQpyXwsWqtIKWusTzqzP-ffKlv_RA&amp;oe=68E5AE77', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vUwsCsS1g18Q7kNvwH_ViJO&amp;_nc_oc=Adm8EJJ2N-rI0anDQUhR7UBwOUisJH_KNJr4npEN8bjvzpfWthZaj6lmQulf_pxJuo4&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_AfdTULqVMt-137fHNWZ0vz1dFNxZWmnxMlnzETcQ51fHew&amp;oe=68E5AE77', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
         <is>
           <t>Ya tengo 20 *_*</t>
         </is>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G127" s="2" t="n">
         <v>45920.1136574074</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H127" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>02:43:40</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HGzHZR0zv8cQ7kNvwFCPGVF&amp;_nc_oc=AdkbUBST50x33K2Be_6Wt6eIgYhfRD3szoCR4pmYX21Uo4FYdqGEj7yoJB4qTa815aM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_Afes8EC5UF2ZfGF0PnQUdvhAOigtzzFo9ylVEuh4vDnD6g&amp;oe=68E5BD05', 'profileId': 'pfbid02AkoXdcwJveot98T4Tr9N2enHkjDus8J13ySiERUqvNphphxn8uvraa2UEwHR9awXl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/552076421_10237229384529820_8221948950782259044_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HGzHZR0zv8cQ7kNvwHoVS0j&amp;_nc_oc=AdkU-u9RlsGJW7AY568ID9X09GuA-2ufTI-yATv5GqjZL0vFTx1bUptMNrXKNTvy3mA&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_Afdt1mABdrHYPThDJgm4AdiUfNrQvu3oJQkRVHWTOwUIDQ&amp;oe=68E5BD05', 'profileId': 'pfbid07DALiTJx5YfHwXWRp91wXsswhnbFLHrEs8hJpf6ftjJS2Lt2XuhHLVXXJemZfcurl', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
         <is>
           <t>Andrea Marimon</t>
         </is>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G128" s="2" t="n">
         <v>45922.65914351852</v>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H128" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>15:49:10</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RLZoqE1iUicQ7kNvwHUZlLx&amp;_nc_oc=AdmrdI2A4QGLGDGDq9yxcWqFUSuPmvVUNYU7_AwGFrJbinX5_fy7zScU6e4iH3wROvI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfcqykU65uWf4eVLzuUOYnCrLhxxQwJVJPnuiGd88lyOcA&amp;oe=68E591FC', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/539413449_3786579534972793_2296878487492803048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=V8ximLG_uqsQ7kNvwHNCxcD&amp;_nc_oc=AdmQhMbCDnCQqcPX1MkKqaS4nrRlPeG9Y7VCTFrd44ImkGYvfF7Bi5i-Ei77ClVl6zo&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_AfcNynjELk7xZh_q-5aROwTEg8S5HWP8JfQHmt9-etDrcw&amp;oe=68E5CA3C', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
         <is>
           <t>Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...</t>
         </is>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G129" s="2" t="n">
         <v>45930.99239583333</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H129" s="3" t="n">
         <v>45930</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>23:49:03</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwEI4WRM&amp;_nc_oc=AdkjUZO1dK1IRWLbwuLpULWb6g9hZIEzyUrzaDu2w3RnmZYqI6oZt-5LLGjZ81TOkrE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfdOJHKFgZa89VhNVqaWKdm11YMWWeCOHtjsoPxpJlVQWg&amp;oe=68E59662', 'profileId': 'pfbid0SrzDcTqddbSYvupJQ5c12CPPNJD8V2AW7NwQEzH2Qeo3FdDPqJMJYQoJNA3MHQi1l', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LzsJAFc1T5MQ7kNvwGD_VUz&amp;_nc_oc=AdkzIGabDnh3woi3Ly15JWc9PAsnpFqUCeR-DZR2Bxa8_jKlg3JoHAbPdAGJF6h84Ko&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_AffkwP49pnLi3NgFJGuptdomQWKf-NelydE8sqGJVPffkQ&amp;oe=68E5CEA2', 'profileId': 'pfbid0SrzDcTqddbSYvupJQ5c12CPPNJD8V2AW7NwQEzH2Qeo3FdDPqJMJYQoJNA3MHQi1l', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
         <is>
           <t>Bajen el precio</t>
         </is>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G130" s="2" t="n">
         <v>45924.67572916667</v>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H130" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>16:13:03</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwG_LWWI&amp;_nc_oc=AdliY9HcpjnBfU4XuaDXZmxlf2C9Fnsulz49SovTKlZyILU_cnPsx0w1asv7yK3Y77w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfcOSiyalaepvcCkno5RjKQrqvMAthBaC3bdSfUkViD2FA&amp;oe=68E5B55E', 'profileId': 'pfbid02r241JtJw8N3UugYaucUd4J1wAVVfZNyS6Zn99qgz1cGmpRcocV33ozufpU1cstuHl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ETuGGlYdRuMQ7kNvwEBqmK8&amp;_nc_oc=Adn97qVkVxn2kdwIF56yxIEfmeOrCNc0bqm0Y9SWmU6lNPriyUXyAwIUHBX0-8lkZfw&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_AfeM7153aKpj82ijhlCTVr0bH1-8ITB_gDnUcbaW6B-b1w&amp;oe=68E5B55E', 'profileId': 'pfbid02r241JtJw8N3UugYaucUd4J1wAVVfZNyS6Zn99qgz1cGmpRcocV33ozufpU1cstuHl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
         <is>
           <t>Joa cule moral jajajaja</t>
         </is>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G131" s="2" t="n">
         <v>45923.00206018519</v>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="H131" s="3" t="n">
         <v>45923</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>00:02:58</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwETfm1j&amp;_nc_oc=AdmOW6pWMEe9OjxN7KebdCooYoPNasMky0AR9ilkNal8bZ7kp39h-pA04o8nh4aXFs0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfeCk0IV6yM8DfPBT7uOSn4ripOzqjiKTanTtRnRq2756Q&amp;oe=68E59678', 'profileId': 'pfbid0auXtPVhwU86JmvWdPjRYWGaR2ArBh6ecjhLPaiLzRRpxvJucTxyXQeFxzCs4294Ll', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3s58SVhJPoUQ7kNvwEshhfG&amp;_nc_oc=Adm-m-2Nwm5jWBNL_3iGDzaw7yZ1QExeiVMt_W4_80R96MtJ4UbMUx908AUuvfsBvvE&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_Afd8ICuBIb5W5DKEejHABmYul5p1gsxanblHJmSXh5Nm3Q&amp;oe=68E5CEB8', 'profileId': 'pfbid0auXtPVhwU86JmvWdPjRYWGaR2ArBh6ecjhLPaiLzRRpxvJucTxyXQeFxzCs4294Ll', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
         <is>
           <t>Yogo yogo da diarrea ojoooo👀</t>
         </is>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G132" s="2" t="n">
         <v>45920.03260416666</v>
       </c>
-      <c r="H32" s="3" t="n">
+      <c r="H132" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>00:46:57</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hys-sWdQaXQQ7kNvwEoIeoj&amp;_nc_oc=Adno0gs4Q1N0_1bFjKXSf3vnjYBocOPz491hhVBQatk_UmH2lP4ipybZcLDTNdEmE34&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_Afd2ClCSgXw0irEu00WdQA0e_37NKedZ-SqSvWwZ1UfHZQ&amp;oe=68E58AFD', 'profileId': 'pfbid027sVacNKgWFH7gyrBdMQQkepTg9L9u4Yscp1GYYKbMnw65UYUCnGu2nDsMDFHtcpel', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hys-sWdQaXQQ7kNvwF1NsT0&amp;_nc_oc=AdlAH3BZRPcGuYUj09lf16v9kuf_hDj92Iwb5lCzYAxGRIdrwBzceI70pQlQKZvY7CM&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_AfcXoXNo5lTakejmhWAoPM9YtzYcIML4_t2RXnw1hjgEPw&amp;oe=68E5C33D', 'profileId': 'pfbid027sVacNKgWFH7gyrBdMQQkepTg9L9u4Yscp1GYYKbMnw65UYUCnGu2nDsMDFHtcpel', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>5</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
         <is>
           <t>Pensé que era una publicidad delos Simpson</t>
         </is>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G133" s="2" t="n">
         <v>45926.03251157407</v>
       </c>
-      <c r="H33" s="3" t="n">
+      <c r="H133" s="3" t="n">
         <v>45926</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>00:46:49</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42GuiwUdvaEQ7kNvwHmWSyh&amp;_nc_oc=AdlY0AePcEEqPiC_jCNiF-DPGxguYXnEr19ZnHRkpSipT2qRzLhsCQ2JaP0kI-1iEqo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfeGzyNazD4Qakr4OO6EGXqDjUHM7OZUgzmSzApcXQAKLg&amp;oe=68E58B80', 'profileId': 'pfbid0FCDHomPNN7QhCZorgUbfinTCfbEKbRbE5C9Tryf2nZRehFqphN6M26QRpFUkgf92l', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>4</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42GuiwUdvaEQ7kNvwG4rAxn&amp;_nc_oc=Adn8wMANOv3gBtV7RB-r_0Mpsz6fUDLtbDbjZg1YSYbkKPjwUBiBNqQ34D_R70D956M&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_Afewb51YhNcSSMocRbTseZizVzn1gvFdq9ZmoCGI9zjXaw&amp;oe=68E5C3C0', 'profileId': 'pfbid0FCDHomPNN7QhCZorgUbfinTCfbEKbRbE5C9Tryf2nZRehFqphN6M26QRpFUkgf92l', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>5</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
         <is>
           <t>Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G134" s="2" t="n">
         <v>45921.17625</v>
       </c>
-      <c r="H34" s="3" t="n">
+      <c r="H134" s="3" t="n">
         <v>45921</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>04:13:48</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kkONm4TB7M4Q7kNvwHV84-w&amp;_nc_oc=AdnivGPYJAySfDzONh-oHpyzH8u_aHAfqwN4bc4VnJhB4rLha9zU6ZNfYg7gL4nAIvU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=hL4mOffGK_2QfyEsLPVQKA&amp;oh=00_AfcF4o29qWW5aGGzAiIGWaV8seqb2YQyb0UjUt_L8YZWHA&amp;oe=68E59F59', 'profileId': 'pfbid02MTt3eC7cZi6MWEf7eprxX141cBRK7g9vX8bkjqAavzxT7cAiKhbfBFDPMc3LxLCLl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>4</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kkONm4TB7M4Q7kNvwHseLJ0&amp;_nc_oc=Adm1-4qWLEQifWfodv8n5nYqbHx6I0XcmJ54yfs6OnjlIZXTrWZkl1Wxu7z_m0GNMmU&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=MFfSdHSyIg7MQr9j0ws_wA&amp;oh=00_AffGenPyKybJm2vfYJBFqf2aVeZAET9RQHPoDOeMTDjwjw&amp;oe=68E5D799', 'profileId': 'pfbid02MTt3eC7cZi6MWEf7eprxX141cBRK7g9vX8bkjqAavzxT7cAiKhbfBFDPMc3LxLCLl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>5</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
         <is>
           <t>En cartagena donde se pueden cambiar los logos?</t>
         </is>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G135" s="2" t="n">
         <v>45919.50665509259</v>
       </c>
-      <c r="H35" s="3" t="n">
+      <c r="H135" s="3" t="n">
         <v>45919</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>12:09:35</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwGQEfX3&amp;_nc_oc=Adkg5hau1sJkicPYddwlpyu5818xc9f6aYdQrEy7VUz1XqSXOSfNYjg11BXBtRUccO4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AfeSz9X_t8I2hOK1c32VPtCgkkEkJcqChLKrk29O7aQPew&amp;oe=68E590F0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kimmtsUHm5AQ7kNvwEWgqYn&amp;_nc_oc=AdkFZGtMjyNLMHbKkYUqhxSbyK4GmUGeP2n8wNjCfIz7B8SrB5ox4LikIcUgLq5mYyk&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=_kfte-aokOU0lyD38l4Jyw&amp;oh=00_AfcUKnw0ID3Pjwvxbu0UOBdN3v3B241A6_bM3C4G4CEGIA&amp;oe=68E5C930', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>5</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
         <is>
           <t>Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander</t>
         </is>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G136" s="2" t="n">
         <v>45923.71571759259</v>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="H136" s="3" t="n">
         <v>45923</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>17:10:38</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwEeXAsz&amp;_nc_oc=Adnz_lwHdXEGV2YGcKKisLRl5GD8X7wXgqFxmPi3q-KVOmsHA_83XYEBAoCBeob0hBE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_Afe_yX4MwfWprq3qDYg6XsnhUZvUcLoqWtOTvjTxQWt55Q&amp;oe=68E5A292', 'profileId': 'pfbid02dnQTqx3QapTPVGRVzrUFMDmPU3rAd5Ud6EPQWydUUqHYt764CyaPHoLVQxzo5vo3l', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-g2a-ggtQMIQ7kNvwFv77f5&amp;_nc_oc=Adm7RAihb4ff9KmrhY1q1vg4Y9BMxreoV3cV2xNK1AmzGufOWnsoF3jU7vWBx8WmoEo&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=_kfte-aokOU0lyD38l4Jyw&amp;oh=00_AfeHBCoX8zP3F1jNdBQ025vqCBybVzgKMp4byWUyjdKlfg&amp;oe=68E5DAD2', 'profileId': 'pfbid02dnQTqx3QapTPVGRVzrUFMDmPU3rAd5Ud6EPQWydUUqHYt764CyaPHoLVQxzo5vo3l', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>5</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
         <is>
           <t>Nataly Leon</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G137" s="2" t="n">
         <v>45922.89533564815</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H137" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>21:29:17</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwGnBmMb&amp;_nc_oc=AdnkSR4nydPhCcM9ZKfG68307zbfMA5Ej6ifRKflTfQBICTPOTeRXfjzD0z934Vu4Vk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_Afe_i9AfsZg1d_w_sE7EFVXVOsJB6u_2eX0aX0H2s818Ow&amp;oe=68E5B0A8', 'profileId': 'pfbid0mw4t6KS9zseXRtwjQrrnyPZf9jPFmVFDRNDqYVgrTvSCXPnfTDuGE2FbFGP6g62Nl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYrnKeXRRPgQ7kNvwEeNOFi&amp;_nc_oc=AdkdwU-Wu1shQlBUVaJ0iUmj477ZBMwAAmnvr9MT4HFg6E23BhMqfbUW5oI6MQkvpwk&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=_kfte-aokOU0lyD38l4Jyw&amp;oh=00_Aff8EYyJLI2jjSjvy0CcR3uyTL0ter6W7VAimLa8z-YPDA&amp;oe=68E5B0A8', 'profileId': 'pfbid0mw4t6KS9zseXRtwjQrrnyPZf9jPFmVFDRNDqYVgrTvSCXPnfTDuGE2FbFGP6g62Nl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>5</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
         <is>
           <t>Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas</t>
         </is>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G138" s="2" t="n">
         <v>45929.75583333334</v>
       </c>
-      <c r="H38" s="3" t="n">
+      <c r="H138" s="3" t="n">
         <v>45929</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>18:08:24</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5IglwWI4shEQ7kNvwE4R8w5&amp;_nc_oc=Adnzi5eVITdeb33MdLGnl4HF4-ZDr2qFy0jp-ydho8lpD1dKMl1xQvGQ2hpaxWcU-fI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AfcicfnybpkRzml0Wc32A00WsUMAkuBtKJ-ZX6rCJh31tQ&amp;oe=68E58E78', 'profileId': 'pfbid0JKq1yZsUQN9ZV5zfHxQfNzeTTh7tvNMgYreDzV6jxR97aqppB956yiXkER6kZScDl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5IglwWI4shEQ7kNvwGAKt6h&amp;_nc_oc=Admt3KerHBz7_8VllaANCSmCK1PaYweLCufKklj3Jig-N0-_KTb-uI26ulEceU-vIL8&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=_kfte-aokOU0lyD38l4Jyw&amp;oh=00_AfdMRiJHHbx4WneWGwXxRaG-FGkSf1gsZp_sKg2hi2uN4w&amp;oe=68E5C6B8', 'profileId': 'pfbid0JKq1yZsUQN9ZV5zfHxQfNzeTTh7tvNMgYreDzV6jxR97aqppB956yiXkER6kZScDl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>5</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
         <is>
           <t>En los  Oxxo de Pereira ya llegaron</t>
         </is>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G139" s="2" t="n">
         <v>45926.43178240741</v>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="H139" s="3" t="n">
         <v>45926</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>10:21:46</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwG52S6k&amp;_nc_oc=AdliPnJVcEZp7X0vQ2D-0wwqGfPvdr27R3F3z4g-hlBjd4lo9AsK1fmmLvudPQy6C6I&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AfeFoW6YIkWek_GR34R7gkyVIp6_aA3uxPyXvVDBAhbVjQ&amp;oe=68E59909', 'profileId': 'pfbid0Ttci4MZgN37V3E5oJcMAhrVfFEearafCTThiMj7KxQhu8JeGyZFbb7SD8RdqSJCql', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent.fmem1-2.fna.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mRoGj5o3R1MQ7kNvwEhZj1a&amp;_nc_oc=Adno9JpUxqjNEbPLnr7uHrPWHe2byUTvgg11VKakPao8CdTb9twoypGmB5_84Ff2P3k&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-2.fna&amp;_nc_gid=_kfte-aokOU0lyD38l4Jyw&amp;oh=00_AffK4T3ELRCUv2xf0uLuLbla_mfc5Ej5oaLXYcuZJK6tIQ&amp;oe=68E5D149', 'profileId': 'pfbid0Ttci4MZgN37V3E5oJcMAhrVfFEearafCTThiMj7KxQhu8JeGyZFbb7SD8RdqSJCql', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>5</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
         <is>
           <t>Nombres de los MOCHISAURIOS 
 Nombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4</t>
         </is>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G140" s="2" t="n">
         <v>45927.08712962963</v>
       </c>
-      <c r="H40" s="3" t="n">
+      <c r="H140" s="3" t="n">
         <v>45927</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>02:05:28</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZW6VlpvRJlkQ7kNvwHf5rjh&amp;_nc_oc=AdmCB-yzXVPwsW39T0wbUsPYp0ibqXCEFMk48RVpkIEdNpmQhyqPHVrH4oEoHaiIVlE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AffHFyK3snFC0wW9omHG9gJe5BqAP2SNgg8iApc0-dr6hQ&amp;oe=68E592F6', 'profileId': 'pfbid0MNRRQWv9R5y2ovBqqs7SqbkkfDHY61TVZmpSLZewvhUaGF52VoFJ4NHRJ4shfvLnl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>4</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gm91dpI_jw0Q7kNvwHSLgwJ&amp;_nc_oc=AdkLW6G5mmGME1Qgo67apnM0L710InUN3W8Jo_VKRo0fNuV--782pMZhMyHOXii7Bak&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=_kfte-aokOU0lyD38l4Jyw&amp;oh=00_Afcthf-tr1bV52DYMz7DLYPSCJjhfHOsmEDF_PbfV-Ku-g&amp;oe=68E5CB36', 'profileId': 'pfbid0MNRRQWv9R5y2ovBqqs7SqbkkfDHY61TVZmpSLZewvhUaGF52VoFJ4NHRJ4shfvLnl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>5</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
         <is>
           <t>Los yogo premio no se consiguen en ningún supermercado</t>
         </is>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G141" s="2" t="n">
         <v>45923.1059837963</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H141" s="3" t="n">
         <v>45923</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>02:32:37</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WoGuzf_d6C8Q7kNvwH-2OH1&amp;_nc_oc=AdlYx0_Mtcie-NuBDYUa1YFMemB7L2ZFSMblHfc_DUgiSEQt2TXs5Ia30W1dBZ4S7u4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_AffefKVNMyrWvwDDigHrDGpEjZ_wI37zLZzToAFF8_ZWVQ&amp;oe=68E5B0BE', 'profileId': 'pfbid0eeRadzcMCxiY8iwoPJThv5SWT4uACD2txWPWwyqi5hQB4LM367VBRPRrrLtJv1dWl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>4</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WoGuzf_d6C8Q7kNvwGv7Ha9&amp;_nc_oc=AdniR56X6gJDgS8-rgKH1si-PXA6mo34SHvzdQvXfIiGKuyJFtZfgBG4_YPc-8atrSs&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=_kfte-aokOU0lyD38l4Jyw&amp;oh=00_Afe5TkOjYwg9ZJPwvL5rcMlG8B55JXkBe2rrDDKKez9Wog&amp;oe=68E5B0BE', 'profileId': 'pfbid0eeRadzcMCxiY8iwoPJThv5SWT4uACD2txWPWwyqi5hQB4LM367VBRPRrrLtJv1dWl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>5</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
         <is>
           <t>Hola 
 Esos muñequitos los están sacando de Temu?</t>
         </is>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G142" s="2" t="n">
         <v>45924.90376157407</v>
       </c>
-      <c r="H42" s="3" t="n">
+      <c r="H142" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>21:41:25</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwFNDk_7&amp;_nc_oc=AdnGnk_4Hyynx_xESidkZyCG8qJfml6MNAhTBK5_Lr6LFx6qozA_XMM_Sg529l3OSL0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;oh=00_AffDoiVL2N70qXznot6kPY-LpyCB2LydyocI7IMHXw2LNQ&amp;oe=6907547A', 'profileId': 'pfbid02oJ2SPdD3n8ng9uXtkXemM4DqpHYKBLyuLKNuEjXDVn121mXourQaKycEr6NfYS8gl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>4</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=83hb7nR-7kgQ7kNvwEJL3Hx&amp;_nc_oc=AdkWVv3ohLm3axYGi5B82UGV3MKo4sbH4kMKiVIR2dZRQmMOpZX2QEfzrBKPzjY2o6I&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;oh=00_AfdL7ojqdWjWZO_1_PdBWMnmLVp3QY_2qBOuQ0go3A18Hg&amp;oe=6907547A', 'profileId': 'pfbid02oJ2SPdD3n8ng9uXtkXemM4DqpHYKBLyuLKNuEjXDVn121mXourQaKycEr6NfYS8gl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
         <is>
           <t>Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈</t>
         </is>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G143" s="2" t="n">
         <v>45925.76949074074</v>
       </c>
-      <c r="H43" s="3" t="n">
+      <c r="H143" s="3" t="n">
         <v>45925</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>18:28:04</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwEW14Tj&amp;_nc_oc=AdkzRtYU5jevrlol1kI8MYam9bk_338qImY3knx7P0jgYc2tNnoVoudtrV61oWySp48&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yrgC3kmO4ew6axdvMIjq2w&amp;oh=00_Afc1CnNBkaRRyqZPdlrHq37X7yH35mSWFcAy_WGQ5tylpw&amp;oe=68E5A6B1', 'profileId': 'pfbid0ErZ7U3tqRCyP56BMkUz7FUGSgdSMsMFSdiEiMRi7SDVPAacYPpCtNdUVPFoXT5ufl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent.fmem1-1.fna.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JfYUkRnhOW4Q7kNvwGvIPRf&amp;_nc_oc=AdlGpwe_cLu8iJqN9ljMpTu2vKQsBBD7EHPi84YsVdSOADgfF0EdnB7b1LY8hiRtqg4&amp;_nc_zt=24&amp;_nc_ht=scontent.fmem1-1.fna&amp;_nc_gid=_kfte-aokOU0lyD38l4Jyw&amp;oh=00_AfeRLOV3bwZFKcO6tQvmFpJf4FmQaMVlKenNlaIqBSMMKQ&amp;oe=68E5DEF1', 'profileId': 'pfbid0ErZ7U3tqRCyP56BMkUz7FUGSgdSMsMFSdiEiMRi7SDVPAacYPpCtNdUVPFoXT5ufl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -2778,7 +8381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2819,19 +8422,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOvpQZYALLC/#advertiser</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3">
@@ -2840,21 +8443,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
+          <t>https://www.instagram.com/p/DOvpQZYALLC/#advertiser</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>110131100610</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2863,19 +8464,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOvoGefAFeJ/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1223332643172306/?dco_ad_token=AaoYBMVfhWCJBU9Id_LEIes5NoZuVg_njED0P91Bvcr1fAPUVBcyLrEWsdtRdgi9Vv-W0a12rNrJYM0H&amp;dco_ad_id=120232695832510781</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>110131100610</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2884,18 +8487,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOvoGefAFeJ/#advertiser</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/1223329536505950/?dco_ad_token=AarI6knUaWqerNU2OrP6GuMmK2pzhJwCuZrn-fiRpkbjDq6Qkk5aZXSgA3SVhvDXl5MZdjbmuG3xz0PM&amp;dco_ad_id=120232695508510781</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>29</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>415001120000001000000100000000</t>
         </is>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -535,25 +535,25 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vuelvan los originales porfa😭</t>
+          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45926.75414351852</v>
+        <v>45931.93680555555</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>45926</v>
+        <v>45931</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18:05:58</t>
+          <t>22:29:00</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 243, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cd4c9a10&amp;x-expires=1760274000&amp;x-signature=Kwzk8RrPv5RkHdGb7Re2D4owFlI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1d57c40e&amp;x-expires=1760360400&amp;x-signature=5XL12xZCATld2PblPdMadoCV8zE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -591,25 +591,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>mucho trabajo para un muñeco</t>
+          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45928.12261574074</v>
+        <v>45930.3165625</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:56:34</t>
+          <t>07:35:51</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 135, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e184263e&amp;x-expires=1760274000&amp;x-signature=npEQRzNhM8yZtCrbwsSqKrKcMoc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=63f27a41&amp;x-expires=1760360400&amp;x-signature=QPgEDBMcmduAd73yGXRved947NM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -647,25 +647,25 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>y si soy de Colombia acá no hay Oxxo😭</t>
+          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45927.01857638889</v>
+        <v>45932.67648148148</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>00:26:45</t>
+          <t>16:14:08</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 182, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 58, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52704ca1&amp;x-expires=1760274000&amp;x-signature=2815TUJKyFZaZPzjjAMOT%2FnCZDo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bd354448&amp;x-expires=1760360400&amp;x-signature=ycpJvIjxDjXBg8fcuulh9YFeMoM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -703,25 +703,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>pero están en todos los países ?</t>
+          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45926.73320601852</v>
+        <v>45929.73436342592</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17:35:49</t>
+          <t>17:37:29</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f13c6a7f&amp;x-expires=1760274000&amp;x-signature=JWmWOzuY5JSL%2FmFmGPN%2BulIyF%2BI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3d1df80&amp;x-expires=1760360400&amp;x-signature=zOIz0zW9Zkd2AbQtQotqUnG1%2B2M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -759,22 +759,22 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>muy lindos pero huelen horrible🥺</t>
+          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45934.07570601852</v>
+        <v>45927.14011574074</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45934</v>
+        <v>45927</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>01:49:01</t>
+          <t>03:21:46</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306290978125005830', 'uniqueId': 'tinta.prpura', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/325aa1206343248d1f45735372a84c0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3034088a&amp;x-expires=1760274000&amp;x-signature=yNux3qjn%2FGYyuX0g1Ljdo1gxNls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496003126047851521', 'uniqueId': 'caroprietog', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2a832b79f12188da997912c7d49288a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=edae9338&amp;x-expires=1760360400&amp;x-signature=dgyo1Fu9RPxGP0BqJy75YkRnc30%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf4aff4b&amp;x-expires=1760274000&amp;x-signature=LSeUDArO8BB4tVGSwUPEeBNDKmU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cce44d5&amp;x-expires=1760360400&amp;x-signature=ZSGvyiyjLzWw6uvT2nTul%2FnIjHg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -871,18 +871,18 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>los originales plissss</t>
+          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45929.86050925926</v>
+        <v>45928.69695601852</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45929</v>
+        <v>45928</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20:39:08</t>
+          <t>16:43:37</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=63dd58f1&amp;x-expires=1760274000&amp;x-signature=%2F1xbLocg%2F4vgKGlS3WGAF2QqVj0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468722166260876295', 'uniqueId': 'honey.mimi7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b82704ac6df483016e5b03a909c6379e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ce3b848&amp;x-expires=1760360400&amp;x-signature=f1JzT%2BP0jPA%2BSXOzV%2F%2BS85J4MCA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -927,25 +927,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mas fácil conseguirlos en el yogo premio</t>
+          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45927.99311342592</v>
+        <v>45926.8086574074</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45927</v>
+        <v>45926</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>23:50:05</t>
+          <t>19:24:28</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 37, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c9df1ba&amp;x-expires=1760274000&amp;x-signature=kORJc4SkEs7%2BAyoD1s%2FKUvn2tr0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=369a3f0d&amp;x-expires=1760360400&amp;x-signature=6QGVStrT%2BmCOud3hDnvcDf8502A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -983,25 +983,25 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
+          <t>en Colombia no hay OXXO</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45927.14011574074</v>
+        <v>45928.81866898148</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>03:21:46</t>
+          <t>19:38:53</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496003126047851521', 'uniqueId': 'caroprietog', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2a832b79f12188da997912c7d49288a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59624222&amp;x-expires=1760274000&amp;x-signature=ZnfHnXt7yg9Ga49lnBNfAl%2BNH1Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75b9bbe1&amp;x-expires=1760360400&amp;x-signature=4s8KBXU%2BiLYxZ6zx5AEM%2FnUqiaw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1039,25 +1039,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
+          <t>y si no hay en mi ciudad Oxxo?</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45929.73436342592</v>
+        <v>45926.70601851852</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:37:29</t>
+          <t>16:56:40</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=73bad1b1&amp;x-expires=1760274000&amp;x-signature=dIZxoBKy0T%2FWPgj6sOSd%2FP8SLAA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11f587b4&amp;x-expires=1760360400&amp;x-signature=P%2Bcij%2Ba996wQTPQkyZxI%2F4709jI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1095,26 +1095,26 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+          <t>pero están en todos los países ?</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45932.67648148148</v>
+        <v>45926.73320601852</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45932</v>
+        <v>45926</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:14:08</t>
+          <t>17:35:49</t>
         </is>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=924b1c34&amp;x-expires=1760274000&amp;x-signature=IQxKJeTM1lHUV1B6389A8Ysfs58%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b75d56ca&amp;x-expires=1760360400&amp;x-signature=cmvbCmPFyIZMo3BDIe0f5YzP6Qc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1151,22 +1151,22 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>en colombia no ay oxxo</t>
+          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45941.11943287037</v>
+        <v>45939.0350925926</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45941</v>
+        <v>45939</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>02:51:59</t>
+          <t>00:50:32</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559791437481788178', 'createTime': 1760151119, 'createTimeISO': '2025-10-11T02:51:59.000Z', 'text': 'en colombia no ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7478455047338214418', 'uniqueId': 'xddelosxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2ba0cdca40c1722a57aa3b682bc9b1dc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2733389c&amp;x-expires=1760274000&amp;x-signature=%2FZ%2Be%2BkfNOSaVR1I9PO5ea%2FUW3wM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547836898510832661', 'uniqueId': 'liss05695', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72682b59d508342205ec99b1085f60fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=abf104ae&amp;x-expires=1760360400&amp;x-signature=kBAP%2FQvM5AEZ2SQEinGEI6%2BE4J0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1207,22 +1207,22 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
+          <t>ya we déjenlo pasar🥀</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45931.93680555555</v>
+        <v>45928.95833333334</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45931</v>
+        <v>45928</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>22:29:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d6e7345&amp;x-expires=1760274000&amp;x-signature=aaNUKAN8TURWGiiW3aZ%2F7UyBtlg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c7e59ce&amp;x-expires=1760360400&amp;x-signature=eFHKZrp6d%2BI0IAiyeSNjZkpJoxA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1263,18 +1263,18 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
+          <t>Mucha vaina pa eso</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45939.0350925926</v>
+        <v>45928.76012731482</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45939</v>
+        <v>45928</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>00:50:32</t>
+          <t>18:14:35</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547836898510832661', 'uniqueId': 'liss05695', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72682b59d508342205ec99b1085f60fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=19c69fb1&amp;x-expires=1760274000&amp;x-signature=9ACue587x4D2H2HQGn3RtZ7yOw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850630', 'uniqueId': 'drea._.00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf053ea8caaedad5bd9faac784342b9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0e7363c3&amp;x-expires=1760360400&amp;x-signature=0Li7BERoz3Y6XrQQF6KhM1aYUQk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1319,22 +1319,22 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>saquen mochis en forma de looney toons 😁</t>
+          <t>es mejor la paleta Drácula</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45929.73829861111</v>
+        <v>45929.09761574074</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17:43:09</t>
+          <t>02:20:34</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d18c4910&amp;x-expires=1760274000&amp;x-signature=4DmuPMBR%2F5Gu%2B4fruimGvRIRQm0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e269e08e74ceb57e918a6313fc9bde4d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0b13a23d&amp;x-expires=1760360400&amp;x-signature=1gjdId7p9kEuvRRY9RIsUY21ltQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1375,25 +1375,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45927.66452546296</v>
+        <v>45934.87288194444</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45927</v>
+        <v>45934</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15:56:55</t>
+          <t>20:56:57</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=260779d8&amp;x-expires=1760274000&amp;x-signature=7X4wZgbDOWBFpxCHlC7ETkQk%2FoE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7216783190328181765', 'uniqueId': 'leocambell10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6010b651447b2c3934e2d7ede50948f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75276869&amp;x-expires=1760360400&amp;x-signature=EzNILEuYWTZSLU92d9PPLhF%2BFfE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1431,25 +1431,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO</t>
+          <t>de cuánto se pueden reclamar</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45928.81866898148</v>
+        <v>45927.0343287037</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19:38:53</t>
+          <t>00:49:26</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=337584a5&amp;x-expires=1760274000&amp;x-signature=Y%2B1pRsasGFdJpnV%2F%2BtSexMQ1puo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d5d6136c&amp;x-expires=1760360400&amp;x-signature=sAITjK0wOo5EM12CuWdx8lQHbGA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1487,25 +1487,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45926.8086574074</v>
+        <v>45929.98554398148</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>19:24:28</t>
+          <t>23:39:11</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ab4dc61&amp;x-expires=1760274000&amp;x-signature=x%2BKaIEgGiU%2Fzamwt3SdY8mTa7Hc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46c6afbb&amp;x-expires=1760360400&amp;x-signature=wW0q2YbeLTsI6LwGyIOZYE1cN7k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1543,25 +1543,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
+          <t>saquen ya otra colección 😕</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45930.3165625</v>
+        <v>45926.96346064815</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>45930</v>
+        <v>45926</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>07:35:51</t>
+          <t>23:07:23</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=be1a5179&amp;x-expires=1760274000&amp;x-signature=exEwgP2gfygvLLgIDtIhCzlLDJE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7e86cfe&amp;x-expires=1760360400&amp;x-signature=jF6xl6vp3xZxES4wqq%2FHGw2F7HU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1599,25 +1599,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>y si no hay en mi ciudad Oxxo?</t>
+          <t>y si tengo repetidos no me los cambian 😂😂</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45926.70601851852</v>
+        <v>45926.88744212963</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>45926</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16:56:40</t>
+          <t>21:17:55</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cbe6dbad&amp;x-expires=1760274000&amp;x-signature=AJk3ETaLTt2%2BDuXYPotbgDQHtnk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2aef2a6b&amp;x-expires=1760360400&amp;x-signature=l75tuZnW5mSYoQuSdQNYHSudReM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1655,18 +1655,18 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
+          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45928.69695601852</v>
+        <v>45926.67013888889</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16:43:37</t>
+          <t>16:05:00</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468722166260876295', 'uniqueId': 'honey.mimi7', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b82704ac6df483016e5b03a909c6379e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=48f2e5e9&amp;x-expires=1760274000&amp;x-signature=q7XNSAdAk7veiuWcZx0IltYtp88%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116292147141166086', 'uniqueId': 'just_fenix67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9270efdc513746d459737e05d9dccbee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee1c1e83&amp;x-expires=1760360400&amp;x-signature=I4W6wGujQ8FQKgbx108zHyTIhgc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1711,25 +1711,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ya we déjenlo pasar🥀</t>
+          <t>y si soy de Colombia acá no hay Oxxo😭</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45928.95833333334</v>
+        <v>45927.01857638889</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>00:26:45</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8a856d2&amp;x-expires=1760274000&amp;x-signature=Y%2FENX%2B1rZ0wgFBN8whDFz%2F5fEt8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 183, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 56, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f31028f1&amp;x-expires=1760360400&amp;x-signature=OUI5mFG66nlod8oGMdpT%2FnFb%2BEA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1767,25 +1767,25 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mucha vaina pa eso</t>
+          <t>Vuelvan los originales porfa😭</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45928.76012731482</v>
+        <v>45926.75414351852</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>18:14:35</t>
+          <t>18:05:58</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850630', 'uniqueId': 'drea._.00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf053ea8caaedad5bd9faac784342b9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b56ccb1&amp;x-expires=1760274000&amp;x-signature=s0UQnWBEnwioTfdRfBk087mLtPM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 250, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a220b25f&amp;x-expires=1760360400&amp;x-signature=v05jtZsTRpWK9VrcNxEzND%2F7IQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1823,25 +1823,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>es mejor la paleta Drácula</t>
+          <t>mucho trabajo para un muñeco</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45929.09761574074</v>
+        <v>45928.12261574074</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45929</v>
+        <v>45928</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>02:20:34</t>
+          <t>02:56:34</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e269e08e74ceb57e918a6313fc9bde4d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8caf666f&amp;x-expires=1760274000&amp;x-signature=ExXCYJeimUBBrqxIUaySfo%2B1TOA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 147, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f69afb9&amp;x-expires=1760360400&amp;x-signature=k5feAtz9ERW6WiSTOPBWanKMwJ8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1879,25 +1879,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
+          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45934.87288194444</v>
+        <v>45939.99555555556</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45934</v>
+        <v>45939</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20:56:57</t>
+          <t>23:53:36</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7216783190328181765', 'uniqueId': 'leocambell10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6010b651447b2c3934e2d7ede50948f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5f95f87a&amp;x-expires=1760274000&amp;x-signature=fCqyyrk7HY9qGsoO2MDAG9YYqTk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6928984704718013445', 'uniqueId': 'dani_bm_ma', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7a5305689918e20a2b7134a67c9f2dcb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1efda16&amp;x-expires=1760360400&amp;x-signature=rDv0FD%2FCcK2UVXPvnnIV%2FIgHbAY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1935,25 +1935,25 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>de cuánto se pueden reclamar</t>
+          <t>Mas fácil conseguirlos en el yogo premio</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45927.0343287037</v>
+        <v>45927.99311342592</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>00:49:26</t>
+          <t>23:50:05</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b2c617c&amp;x-expires=1760274000&amp;x-signature=s8SalU7brSrOFhgT9NbkBD1eY3I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 37, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=173b4938&amp;x-expires=1760360400&amp;x-signature=TXVol9Oxs6iiA4yl0tTD%2BNYoDT0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1991,25 +1991,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
+          <t>ya no es lo mismo</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45929.98554398148</v>
+        <v>45940.20726851852</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45929</v>
+        <v>45940</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>23:39:11</t>
+          <t>04:58:28</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=786df552&amp;x-expires=1760274000&amp;x-signature=mByxUDGigVb%2FyxbNsxZ%2FstHdxWA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7440309516846367800', 'uniqueId': 'user3866547831001', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c5d23423bddcf59c497bd0d1bdeea6ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=be8f6eb2&amp;x-expires=1760360400&amp;x-signature=MsBSEDiIX0YpzYLqgNvEbFQoqTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2047,25 +2047,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>saquen ya otra colección 😕</t>
+          <t>pensándolo bien se ven hermosos 😻💗</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45926.96346064815</v>
+        <v>45940.70783564815</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45926</v>
+        <v>45940</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>23:07:23</t>
+          <t>16:59:17</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7bac4b8&amp;x-expires=1760274000&amp;x-signature=JQnEczOSrwl0H8gtJBdi2048BK4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6893194958128972801', 'uniqueId': 'nicollesofiaram98', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6b3ba0328e08df784e565d8bb91820e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc255631&amp;x-expires=1760360400&amp;x-signature=%2FcKOv6i4KYI57eQPb%2B2Rpt7h0WM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>y si tengo repetidos no me los cambian 😂😂</t>
+          <t>muy lindos pero huelen horrible🥺</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45926.88744212963</v>
+        <v>45934.07570601852</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45926</v>
+        <v>45934</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21:17:55</t>
+          <t>01:49:01</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bee21063&amp;x-expires=1760274000&amp;x-signature=ji%2BEtFOAOR1RCU2uIeOwrPJtr7o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306290978125005830', 'uniqueId': 'tinta.prpura', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/325aa1206343248d1f45735372a84c0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=13d2af89&amp;x-expires=1760360400&amp;x-signature=0N3pgvtCRlPz13njTyCU3hUvIpE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2159,22 +2159,22 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45926.67013888889</v>
+        <v>45938.97278935185</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>45926</v>
+        <v>45938</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16:05:00</t>
+          <t>23:20:49</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116292147141166086', 'uniqueId': 'just_fenix67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9270efdc513746d459737e05d9dccbee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cfd5e1a9&amp;x-expires=1760274000&amp;x-signature=K3%2FFsGbiFOyBswYnHnej%2BfDFcyE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7399143388664431622', 'uniqueId': 'axo_luk', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3a18120&amp;x-expires=1760360400&amp;x-signature=qdstI6iUnqYNOTCmSilZOyZQ8As%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2215,25 +2215,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>a poco hay OXXO en colombia</t>
+          <t>Estan mejor las paletas draculas y no se acaban</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45937.70814814815</v>
+        <v>45941.0625462963</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45937</v>
+        <v>45941</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16:59:44</t>
+          <t>01:30:04</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666454697362438', 'uniqueId': 'cristiancardona16', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/1169cb00c9709b98aa7a2c6299d6372c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1bd750ad&amp;x-expires=1760274000&amp;x-signature=Vy0WNADt5Kpl8di2vIOhT7KuPZE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7505438611648922679', 'uniqueId': 'espresso.carpente', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7f98ea7f7ce1cd4ad91e8f3f4241e5dd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9dfb5f56&amp;x-expires=1760360400&amp;x-signature=eIzK6BP60UDwrxaVSqjDg5JOMLg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2271,25 +2271,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
+          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45929.11127314815</v>
+        <v>45940.22284722222</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45929</v>
+        <v>45940</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>02:40:14</t>
+          <t>05:20:54</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0180f9cb&amp;x-expires=1760274000&amp;x-signature=tHQGx66ACYyLOXbemNydEGlO%2BgE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7421675245097223174', 'uniqueId': 'howaminowbaddie', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2c9fa9a8c306b308bb8b205ad216db5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7fb32fd&amp;x-expires=1760360400&amp;x-signature=8QVWk0W3hTt1l5h%2Bm4uJszckq28%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2327,755 +2327,755 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
+          <t>en colombia no ay oxxo</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45941.11943287037</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>02:51:59</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559791437481788178', 'createTime': 1760151119, 'createTimeISO': '2025-10-11T02:51:59.000Z', 'text': 'en colombia no ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7478455047338214418', 'uniqueId': 'xddelosxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c20bfec948f7f0b66cab624ba8ed05e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5c969736&amp;x-expires=1760360400&amp;x-signature=aU0PZzcCTccLbswtGp5uLBUVlW0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>saquen mochis en forma de looney toons 😁</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45929.73829861111</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>17:43:09</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=befe2b31&amp;x-expires=1760360400&amp;x-signature=eDwXKnPpfXv2zhbOgYBOoZduh14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>mucha gestion para unos muñecos</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45941.74091435185</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>17:46:55</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560022082038956808', 'createTime': 1760204815, 'createTimeISO': '2025-10-11T17:46:55.000Z', 'text': 'mucha gestion para unos muñecos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6882817912156603397', 'uniqueId': 'davetheusual', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7354865790594023430~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de835514&amp;x-expires=1760360400&amp;x-signature=ez4cgKybdiGF0jFrbBcaBRQunIQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45936.85996527778</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>20:38:21</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c941ab5053b233d885d80f3df053778~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3afb044c&amp;x-expires=1760360400&amp;x-signature=2WOfRpfYqNWymkzKqi9hYQUHz5Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45936.66792824074</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>16:01:49</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId': 'daniel.medina9402', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d827ef96dbb9538e76ca4c0a1031de75~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=835ad7a3&amp;x-expires=1760360400&amp;x-signature=0gijHMnJU1zr8a5SiXJtchn45VU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45927.66452546296</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>15:56:55</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>11</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c2e26f3&amp;x-expires=1760360400&amp;x-signature=LdqNZQmKNkXnxQXZ1uhxqNMFybo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>brooo</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45937.10362268519</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>02:29:13</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'uniqueId': 'rip_juan776eeo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c4a58c9f1add3d3de9c9cec5a55fd642~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6d8f240b&amp;x-expires=1760360400&amp;x-signature=XneoMSvfw%2BcSvc1ez9%2FHJTYBIPM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>don hermosos</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45940.69850694444</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>16:45:51</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', 'uniqueId': 'yura2495', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/745aa78c04c60c9088a11c6f996f3307~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9927871e&amp;x-expires=1760360400&amp;x-signature=MVbcz2tJZSHtYGa7KiBptXw2rDs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45937.1734375</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>04:09:45</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270238153704342533', 'uniqueId': 'paola.rodriguez228', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/17617c83aeaf41558f9b9b48472d32af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51b03a1d&amp;x-expires=1760360400&amp;x-signature=wvyYF9l8llAaKxzS0QHMRGcVjko%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45941.73184027777</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>17:33:51</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7517389511912424455', 'uniqueId': 'tokito_team_black', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/afa29d1e92a17252e840cfdca3edbe82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5728985&amp;x-expires=1760360400&amp;x-signature=A8nCNrMdKtMX73vnHZxkqmem27U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>tengo 14 en total ajaja</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45938.74841435185</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>17:57:43</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7290284449584514053', 'uniqueId': 'not.dnaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/500b956ee03fba4ff7fe7ca7d2dec1d3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=79fc8633&amp;x-expires=1760360400&amp;x-signature=RVg0BfR6%2BSSnWQZSAck6Dvahn2Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45940.24515046296</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>05:53:01</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7546710335559959559', 'uniqueId': 'alexandrapardocaj', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cec9d771e97df3f8fa5b79f45eb0965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47c874d2&amp;x-expires=1760360400&amp;x-signature=K0Rn%2B9kC%2FdXFkf5gba%2FFtFPUOSQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45937.11123842592</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>02:40:11</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7506216683972609042', 'uniqueId': '_elliot572', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ac59e6a973525e7c86440aced839ab14~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5eeb6c41&amp;x-expires=1760360400&amp;x-signature=rbeYA%2BxawKC1nypn9lW%2FApJLoLM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>me encantan estos mochis pero quisiera saber el nombre de 5
 los muñequitos 🥰</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G47" s="2" t="n">
         <v>45932.51024305556</v>
       </c>
-      <c r="H34" s="3" t="n">
+      <c r="H47" s="3" t="n">
         <v>45932</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>12:14:45</t>
         </is>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7730f942&amp;x-expires=1760274000&amp;x-signature=Cmhn0I6eFB6T3ErWDzPfD9P%2FpMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>45930.30774305556</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>07:23:09</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7112525176407737350', 'uniqueId': 'esteban_castillo.220', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8331a286f4c2f1e0d41f74df6a541951~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bb7cf5e&amp;x-expires=1760274000&amp;x-signature=rD%2BKxc7L5aVOrAdQi7%2Fkfl3af%2BQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>pensándolo bien se ven hermosos 😻💗</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>45940.70783564815</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>16:59:17</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6893194958128972801', 'uniqueId': 'nicollesofiaram98', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6b3ba0328e08df784e565d8bb91820e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=25d8082c&amp;x-expires=1760274000&amp;x-signature=JqFXgZb5%2B%2BTSGFLObWNoDg9JqEA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>45937.1734375</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>45937</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>04:09:45</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270238153704342533', 'uniqueId': 'paola.rodriguez228', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/17617c83aeaf41558f9b9b48472d32af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=73eebb1a&amp;x-expires=1760274000&amp;x-signature=YVAlIzSdjxdnY8PkuP%2BmEFhzLZo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>45939.99555555556</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>23:53:36</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6928984704718013445', 'uniqueId': 'dani_bm_ma', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7a5305689918e20a2b7134a67c9f2dcb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=63f1ab8e&amp;x-expires=1760274000&amp;x-signature=uCqyohXEYryWi%2B52WwHzBn6vpK8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>45940.22284722222</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>05:20:54</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7421675245097223174', 'uniqueId': 'howaminowbaddie', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2c9fa9a8c306b308bb8b205ad216db5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d96035ca&amp;x-expires=1760274000&amp;x-signature=xEFKW2j47mFYFoELNkTkl87NE0A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>ya no es lo mismo</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>45940.20726851852</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>04:58:28</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7440309516846367800', 'uniqueId': 'user3866547831001', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c5d23423bddcf59c497bd0d1bdeea6ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e0b89e5&amp;x-expires=1760274000&amp;x-signature=MK0slJUtdN9bd1p%2FIEhuNt5DGEQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yo quiero</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>45935.77395833333</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>45935</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>18:34:30</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807836890645255', 'createTime': 1759689270, 'createTimeISO': '2025-10-05T18:34:30.000Z', 'text': 'Yo quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=69a1396f&amp;x-expires=1760274000&amp;x-signature=Z%2F7XgGYra6bHe%2Fqkd%2BfG4TUAApM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>45936.85996527778</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>45936</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>20:38:21</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c941ab5053b233d885d80f3df053778~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c03b14a&amp;x-expires=1760274000&amp;x-signature=7ig%2BtLWN31xfwQMx072fd%2BaxMTo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>brooo</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>45937.10362268519</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>45937</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>02:29:13</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'uniqueId': 'rip_juan776eeo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c4a58c9f1add3d3de9c9cec5a55fd642~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67b1cd70&amp;x-expires=1760274000&amp;x-signature=qMBbnsMKcLtMH3XkpIiPwjZ4Cf4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>45940.24515046296</v>
-      </c>
-      <c r="H44" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>05:53:01</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7546710335559959559', 'uniqueId': 'alexandrapardocaj', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cec9d771e97df3f8fa5b79f45eb0965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=15e64107&amp;x-expires=1760274000&amp;x-signature=dDsNknhBtxyzy0Fs8KuRLc8EQKo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>45938.97278935185</v>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>45938</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>23:20:49</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7399143388664431622', 'uniqueId': 'axo_luk', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b787e73&amp;x-expires=1760274000&amp;x-signature=%2BsLNqWr%2F4kIQBk3X2cMQeSZW3vw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>don hermosos</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>45940.69850694444</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>16:45:51</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', 'uniqueId': 'yura2495', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/745aa78c04c60c9088a11c6f996f3307~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2302cc88&amp;x-expires=1760274000&amp;x-signature=QBRz9PPbMU73dCLKyW1DANiHaJE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965?_r=1&amp;_t=ZS-90FEozcPDkt</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>tengo 14 en total ajaja</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>45938.74841435185</v>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>45938</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>17:57:43</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7290284449584514053', 'uniqueId': 'not.dnaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/500b956ee03fba4ff7fe7ca7d2dec1d3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a6f7186e&amp;x-expires=1760274000&amp;x-signature=cc9blchi99hAonBYeQRknOar%2FBQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e0d6a86d&amp;x-expires=1760360400&amp;x-signature=oSJxi2QPVvC4smIeSUASROxSBJc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3112,18 +3112,18 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Estan mejor las paletas draculas y no se acaban</t>
+          <t>alpinaa eres el mejor me gustan tus productos❤</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45941.0625462963</v>
+        <v>45939.82650462963</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45941</v>
+        <v>45939</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>01:30:04</t>
+          <t>19:50:10</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7505438611648922679', 'uniqueId': 'espresso.carpente', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7f98ea7f7ce1cd4ad91e8f3f4241e5dd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f20dbca&amp;x-expires=1760274000&amp;x-signature=WCqaNX8PYrP5UXngn0PjwKLCBOs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7066510018199585798', 'uniqueId': 'dianalozanomorera', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/95486b2edc8f09f2d015ae33f705fe3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c759aa0d&amp;x-expires=1760360400&amp;x-signature=m4AAyemW50Ecbk24PrsgSuPvDHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3168,18 +3168,18 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45936.66792824074</v>
+        <v>45939.57203703704</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>16:01:49</t>
+          <t>13:43:44</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId': 'daniel.medina9402', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d827ef96dbb9538e76ca4c0a1031de75~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=015ccecb&amp;x-expires=1760274000&amp;x-signature=TsHB35Db1qLP3cU7PQNtW9oyADE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790690337766556677', 'uniqueId': 'natyzhurra8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2ec67cba7b200e2c6b2709b67daa84b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e205cc7&amp;x-expires=1760360400&amp;x-signature=nADVGk1MTO1CU3UVJ8TMc5Xnczs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3224,18 +3224,18 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>me encantan</t>
+          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45932.03704861111</v>
+        <v>45935.67759259259</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45932</v>
+        <v>45935</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>00:53:21</t>
+          <t>16:15:44</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556421084930458375', 'createTime': 1759366401, 'createTimeISO': '2025-10-02T00:53:21.000Z', 'text': 'me encantan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7321905632369361926', 'uniqueId': 'peluchero0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ee34711532592a70fec513183a0db0df~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f44a8dff&amp;x-expires=1760274000&amp;x-signature=RSzcNwun%2FU17AsShp5mvChkBIUo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7538082276980737029', 'uniqueId': 'mariiladiva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8ede218c4c09353a38122ea601611b79~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=23f6ca90&amp;x-expires=1760360400&amp;x-signature=dlIpytIIVG6mJaqM4G10iCAUH%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3280,22 +3280,22 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>alpinaa eres el mejor me gustan tus productos❤</t>
+          <t>los originales plissss</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45939.82650462963</v>
+        <v>45929.86050925926</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45939</v>
+        <v>45929</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>19:50:10</t>
+          <t>20:39:08</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7066510018199585798', 'uniqueId': 'dianalozanomorera', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/95486b2edc8f09f2d015ae33f705fe3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d8734cd&amp;x-expires=1760274000&amp;x-signature=qXUe0la05FgUi2Gb5E96tLAKz7s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=64d176dd&amp;x-expires=1760360400&amp;x-signature=bPteZMQFRgMzSOe0GwymbSNGmnA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3336,25 +3336,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Yo ya los tengo los logos</t>
+          <t>a poco hay OXXO en colombia</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45934.66412037037</v>
+        <v>45937.70814814815</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45934</v>
+        <v>45937</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>15:56:20</t>
+          <t>16:59:44</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557395985225335570', 'createTime': 1759593380, 'createTimeISO': '2025-10-04T15:56:20.000Z', 'text': 'Yo ya los tengo los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364207363702047750', 'uniqueId': 'lady.insuasti', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/567cb1b8e1d71f6af4d01946884814a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=15727db3&amp;x-expires=1760274000&amp;x-signature=j1EYHKyWhZdO%2B9h4iRLtfH6KxI0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666454697362438', 'uniqueId': 'cristiancardona16', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1169cb00c9709b98aa7a2c6299d6372c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ac9f2e1a&amp;x-expires=1760360400&amp;x-signature=2i%2F4Q2S2rZpKEV%2BmjBet%2Fk1Cee4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3392,25 +3392,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
+          <t>Que yo sepa que en Colombia no ay oxoxo</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45927.05542824074</v>
+        <v>45935.77436342592</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45927</v>
+        <v>45935</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>01:19:49</t>
+          <t>18:35:05</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0180f9cb&amp;x-expires=1760274000&amp;x-signature=tHQGx66ACYyLOXbemNydEGlO%2BgE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=81ecae69&amp;x-expires=1760360400&amp;x-signature=sGC2IjxNA%2FwgADiZj8Gx4dHJaUA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3448,18 +3448,18 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>no hay en Neiva 😓</t>
+          <t>Yo tengo el Oxxo a la esquina</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45929.74864583334</v>
+        <v>45929.82648148148</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>17:58:03</t>
+          <t>19:50:08</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96b88d95&amp;x-expires=1760274000&amp;x-signature=rWZ7skUiBpfw%2F0kTJV1GVTKNHmw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6998604116167656453', 'uniqueId': 'estrellita_7291', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f013694362e5b7acf25ef66d2a1224c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d14b2768&amp;x-expires=1760360400&amp;x-signature=hstcYbydHtF3aogluqNDAOT6WKo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3504,18 +3504,18 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Que yo sepa que en Colombia no ay oxoxo</t>
+          <t>pero en mi ciudad no hay oxxo</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45935.77436342592</v>
+        <v>45926.83740740741</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45935</v>
+        <v>45926</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>18:35:05</t>
+          <t>20:05:52</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=586955d7&amp;x-expires=1760274000&amp;x-signature=6f98nq9P%2FSis11Mj%2FvfPUCXWZiU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c477df0c&amp;x-expires=1760360400&amp;x-signature=Mth%2FplgUMj4ynBfdYEzXrgQIhAU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3560,25 +3560,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ahora si lo pusieron más costosos JAAJJAA</t>
+          <t>en todas las tiendas</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45926.97465277778</v>
+        <v>45929.71753472222</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>23:23:30</t>
+          <t>17:13:15</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554542515267437332', 'createTime': 1758929010, 'createTimeISO': '2025-09-26T23:23:30.000Z', 'text': 'Ahora si lo pusieron más costosos JAAJJAA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7195421632918782981', 'uniqueId': 'catefe14', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3b04b15a99963776fbad8b9ebe9edbe8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb04ef41&amp;x-expires=1760274000&amp;x-signature=JH%2BT%2BO4LD9z7TlpDNo4INJUdUvs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7285382001250141189', 'uniqueId': 'rosycastellanos86', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7321737955369582597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9689ce81&amp;x-expires=1760360400&amp;x-signature=sw%2FFcWSWfoTfx45PyBt3ju%2FDlNg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3616,25 +3616,25 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Yo fuy a el oxxo y no estan</t>
+          <t>Y si en Neiva no hay Oxxo 😐</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45934.72116898148</v>
+        <v>45927.88842592593</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45934</v>
+        <v>45927</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>17:18:29</t>
+          <t>21:19:20</t>
         </is>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557417149880009473', 'createTime': 1759598309, 'createTimeISO': '2025-10-04T17:18:29.000Z', 'text': 'Yo fuy a el oxxo y no estan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532264434975917077', 'uniqueId': 'user1610966192755', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b787e73&amp;x-expires=1760274000&amp;x-signature=%2BsLNqWr%2F4kIQBk3X2cMQeSZW3vw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546550606758919', 'uniqueId': 'julianavanegas312', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7bbf565d8eb052ba174287777f6a6684~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0fa09047&amp;x-expires=1760360400&amp;x-signature=j%2FVkqnBk69MtuTxkIkuaZG5SZe8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3672,25 +3672,25 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>eso pa que</t>
+          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45928.22596064815</v>
+        <v>45930.30774305556</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>05:25:23</t>
+          <t>07:23:09</t>
         </is>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555006889290826503', 'createTime': 1759037123, 'createTimeISO': '2025-09-28T05:25:23.000Z', 'text': 'eso pa que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7542870679370417160', 'uniqueId': 'x_xxx660', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/baad79b549774584b1a67ebfc08f5a67~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1cf069dc&amp;x-expires=1760274000&amp;x-signature=kytFFnNRxwfWt4%2FxWThs6FGnrVM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7112525176407737350', 'uniqueId': 'esteban_castillo.220', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8331a286f4c2f1e0d41f74df6a541951~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8432f838&amp;x-expires=1760360400&amp;x-signature=hdMZEiqgLJWkusBTRC5ONsx97eM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3728,25 +3728,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Asegurando puesto Pará un futuro</t>
+          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45934.04100694445</v>
+        <v>45927.68152777778</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45934</v>
+        <v>45927</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>00:59:03</t>
+          <t>16:21:24</t>
         </is>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557164687345140488', 'createTime': 1759539543, 'createTimeISO': '2025-10-04T00:59:03.000Z', 'text': 'Asegurando puesto Pará un futuro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7118795165523657734', 'uniqueId': 'user9dhak4cd18', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7147812377080266757~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=822644ba&amp;x-expires=1760274000&amp;x-signature=UNh2LHEkDZT7Qfxt8gdoDDpOpa0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=21896687&amp;x-expires=1760360400&amp;x-signature=7870ubmOFu0hRE9pjY9YtE18xnU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3784,25 +3784,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Amooo</t>
+          <t>no hay en Neiva 😓</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45928.79438657407</v>
+        <v>45929.74864583334</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>19:03:55</t>
+          <t>17:58:03</t>
         </is>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555217811128615687', 'createTime': 1759086235, 'createTimeISO': '2025-09-28T19:03:55.000Z', 'text': 'Amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7284419691349607430', 'uniqueId': 'kdruiz22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7300345897722839046~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e36ec399&amp;x-expires=1760274000&amp;x-signature=XQ8BdOs%2BkxaTFqKl3DPB3uQTS18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=346de1ad&amp;x-expires=1760360400&amp;x-signature=Z9IGYckWOfWQCVYjAAmhD4tkYc8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3840,18 +3840,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Soy de Villavicencio acá no hay Oxxo</t>
+          <t>Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45927.05538194445</v>
+        <v>45935.07732638889</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>45927</v>
+        <v>45935</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>01:19:45</t>
+          <t>01:51:21</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572486869549832', 'createTime': 1758935985, 'createTimeISO': '2025-09-27T01:19:45.000Z', 'text': 'Soy de Villavicencio acá no hay Oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7550104008208401416', 'uniqueId': 'maris_2716', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fc561b6856ea1ac0573d2ea224c2eba3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b1475d54&amp;x-expires=1760274000&amp;x-signature=Qq2SFVJgnqL53U%2BPWaqPsbaduck%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557549302736208647', 'createTime': 1759629081, 'createTimeISO': '2025-10-05T01:51:21.000Z', 'text': 'Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844340518231802886', 'uniqueId': 'bingobaby89newaccount', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b4dc6378d4631b5ae505615daf331934~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6a1599a1&amp;x-expires=1760360400&amp;x-signature=atmy5XU%2Bq9sUDuHRfvXM%2F%2FnG%2Fss%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3896,18 +3896,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
+          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45937.11123842592</v>
+        <v>45936.15306712963</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45937</v>
+        <v>45936</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>02:40:11</t>
+          <t>03:40:25</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7506216683972609042', 'uniqueId': '_elliot572', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ac59e6a973525e7c86440aced839ab14~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31dc6aa5&amp;x-expires=1760274000&amp;x-signature=4oJyUolYG87ptSS0ElwgT6uO4F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338634474744153093', 'uniqueId': 'mar1_tv', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/69cc4d25f3aa341a22dae7b8e86a4a61~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a7f68863&amp;x-expires=1760360400&amp;x-signature=cuOk1cT0hTaLNTwMPOGsekDJWtc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3952,18 +3952,18 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
+          <t>yo ya tengo dos</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45939.57203703704</v>
+        <v>45935.89403935185</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>45939</v>
+        <v>45935</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>13:43:44</t>
+          <t>21:27:25</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790690337766556677', 'uniqueId': 'natyzhurra8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2ec67cba7b200e2c6b2709b67daa84b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5b4cc788&amp;x-expires=1760274000&amp;x-signature=RBPfmlG8f3CMAOS6%2FKN8EP9KvcU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557852299043078928', 'createTime': 1759699645, 'createTimeISO': '2025-10-05T21:27:25.000Z', 'text': 'yo ya tengo dos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537517920412599352', 'uniqueId': 'brii4091', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/426890353ae6e3edcb54336e9fc0740b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=01ce7742&amp;x-expires=1760360400&amp;x-signature=eDLMLXkQvzpdkpgG3pUet1h3AAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4008,18 +4008,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>pero en los yogo premio viene uno... no entiendo cuál es la diferencia</t>
+          <t>y en envia😭</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45927.98331018518</v>
+        <v>45932.02175925926</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>23:35:58</t>
+          <t>00:31:20</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554916739622372116', 'createTime': 1759016158, 'createTimeISO': '2025-09-27T23:35:58.000Z', 'text': 'pero en los yogo premio viene uno... no entiendo cuál es la diferencia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '249387341675732992', 'uniqueId': 'la_jetiralla', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/95681d07841dfc852afc68ad0df3f760~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=07eb00b8&amp;x-expires=1760274000&amp;x-signature=a0Mt2sn%2Bd6EbM4RdH7Z2OiRduTA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556415402680075015', 'createTime': 1759365080, 'createTimeISO': '2025-10-02T00:31:20.000Z', 'text': 'y en envia😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357719630507983878', 'uniqueId': 'julie_cristina2', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d5a23709eee561246683be323bddf913~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bd940477&amp;x-expires=1760360400&amp;x-signature=eq5gQkhleoc3UAUwqB8gFzObsmA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4064,18 +4064,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>part 2</t>
+          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45929.57021990741</v>
+        <v>45939.96612268518</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>45929</v>
+        <v>45939</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>13:41:07</t>
+          <t>23:11:13</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqueId': 'jenny.loango', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0aa7aaecbe34f7dd94d1887fac659dec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4c0a5cb&amp;x-expires=1760274000&amp;x-signature=50rg2b98MWoLo8JBZvvTe1TQ3Ps%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381557792702153734', 'uniqueId': 'luchiii4155', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/25933fce4e672e9823eb77161e1bdb88~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ba67c8bc&amp;x-expires=1760360400&amp;x-signature=tRN9KkZSIdXqeZiW3TVsg4Phl4U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4120,18 +4120,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>acá no hay oxo 😔🙃</t>
+          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45927.77946759259</v>
+        <v>45934.12070601852</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45927</v>
+        <v>45934</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>18:42:26</t>
+          <t>02:53:49</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554841186369929992', 'createTime': 1758998546, 'createTimeISO': '2025-09-27T18:42:26.000Z', 'text': 'acá no hay oxo 😔🙃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7507809562712376327', 'uniqueId': 'isa_9714', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcd9f3e849e04ae6dba857d5deb5dcfa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4adc3fb&amp;x-expires=1760274000&amp;x-signature=azrZy5fx3ZRtu5RWezkTUJCTtG0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7428462608468853765', 'uniqueId': 'freestyle11.4', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d77e4d9d34078046d77184cafe9499c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6eda2a8d&amp;x-expires=1760360400&amp;x-signature=cOcPXMaBcOLSPZaoDbhPRz97l1o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4176,18 +4176,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
+          <t>Y para cuándo los YoYos de YogoYogo !!</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45934.12070601852</v>
+        <v>45937.61719907408</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>45934</v>
+        <v>45937</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>02:53:49</t>
+          <t>14:48:46</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7428462608468853765', 'uniqueId': 'freestyle11.4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d77e4d9d34078046d77184cafe9499c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=15391891&amp;x-expires=1760274000&amp;x-signature=tFS%2FX%2BckKvrCjDERH5X17nzUtiY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558491815541441281', 'createTime': 1759848526, 'createTimeISO': '2025-10-07T14:48:46.000Z', 'text': 'Y para cuándo los YoYos de YogoYogo !!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464018882559804434', 'uniqueId': 'mastervelas10', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=19c087fa&amp;x-expires=1760360400&amp;x-signature=tGBWOAwLoP5r6IWzrioAMDBbRmw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4232,18 +4232,18 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>En cucuta no hay</t>
+          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45938.6677662037</v>
+        <v>45935.94721064815</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>45938</v>
+        <v>45935</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>16:01:35</t>
+          <t>22:43:59</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558881690249396999', 'createTime': 1759939295, 'createTimeISO': '2025-10-08T16:01:35.000Z', 'text': 'En cucuta no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7209509026618950662', 'uniqueId': 'user924075672', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dc5cae3865198f457d7af8926610de21~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d14d850c&amp;x-expires=1760274000&amp;x-signature=JuXwKGtodET%2FnCzsJ8HZ9UXEV90%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7398980026529760262', 'uniqueId': 'salome.murcia.lop', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8fd1cdbaea6a6cd58618a01b10334732~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6c8d3d69&amp;x-expires=1760360400&amp;x-signature=HDPcV%2Ft0GdOpDuuNN41nQfeg%2BXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4288,18 +4288,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>pero sola mente sonos logos que disen todo yogo</t>
+          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45930.0090162037</v>
+        <v>45930.20326388889</v>
       </c>
       <c r="H69" s="3" t="n">
         <v>45930</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>00:12:59</t>
+          <t>04:52:42</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555668487608582928', 'createTime': 1759191179, 'createTimeISO': '2025-09-30T00:12:59.000Z', 'text': 'pero sola mente sonos logos que disen todo yogo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352935562129802246', 'uniqueId': 'titta4841', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b787e73&amp;x-expires=1760274000&amp;x-signature=%2BsLNqWr%2F4kIQBk3X2cMQeSZW3vw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414501088697861126', 'uniqueId': 'samu__777a_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f46d65a3248b377d79a6b8c328971e37~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e0f3a0da&amp;x-expires=1760360400&amp;x-signature=naHAipdYkdngzlOW7JCKO46B7ys%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4344,18 +4344,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>y si en mi ciudad no hay OXXO 💔🥺</t>
+          <t>Por qué Oxxo :c, no hay otro lado?</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45927.04493055555</v>
+        <v>45936.6853587963</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>45927</v>
+        <v>45936</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>01:04:42</t>
+          <t>16:26:55</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554568598334374674', 'createTime': 1758935082, 'createTimeISO': '2025-09-27T01:04:42.000Z', 'text': 'y si en mi ciudad no hay OXXO 💔🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7318963154473239557', 'uniqueId': 'luch_13_ml', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1b6c20dc06f38f1834752fb43a0e5084~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f2602ca6&amp;x-expires=1760274000&amp;x-signature=fGHbYGmaplC4tLJSJwcxfJO1WXc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558146025103590164', 'createTime': 1759768015, 'createTimeISO': '2025-10-06T16:26:55.000Z', 'text': 'Por qué Oxxo :c, no hay otro lado?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6967815924347749382', 'uniqueId': 'fnfals', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/413e46c5c74c9db224b04e41a0b0611b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c72779c6&amp;x-expires=1760360400&amp;x-signature=prydn3tiBIX%2BdF22Vj27Lntwln8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4400,18 +4400,18 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>a qui no hay</t>
+          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45929.99042824074</v>
+        <v>45932.87021990741</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>45929</v>
+        <v>45932</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>23:46:13</t>
+          <t>20:53:07</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661409931330305', 'createTime': 1759189573, 'createTimeISO': '2025-09-29T23:46:13.000Z', 'text': 'a qui no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/50fc02d856bc86dadfa85351b5eebcde~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e0becaf&amp;x-expires=1760274000&amp;x-signature=NfzaBSgZMoJfWbSrREtbsZSB0Mc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7396657590753100805', 'uniqueId': 'ariadnna.muoz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9279bed9092f96fb07b2504a5c7ed70d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=acb9f58e&amp;x-expires=1760360400&amp;x-signature=kcYj%2B24uXNyPHfFEXffGsex4NTs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4456,18 +4456,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>y para que sirve eso, que beneficios tiene 😳</t>
+          <t>y si en mi cerro no hay OXXO y no han llegado los mochisaurios</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45933.05707175926</v>
+        <v>45935.99091435185</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>45933</v>
+        <v>45935</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>01:22:11</t>
+          <t>23:46:55</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6935601595720860678', 'uniqueId': 'monica_lenis1980', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fce7942c402b7371d210f51cf61e58d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=90a35255&amp;x-expires=1760274000&amp;x-signature=HyU7FU8Z%2B7QGhxGeqv7Yd5CZjxs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557888273192977153', 'createTime': 1759708015, 'createTimeISO': '2025-10-05T23:46:55.000Z', 'text': 'y si en mi cerro no hay OXXO y no han llegado los mochisaurios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7456435632501588997', 'uniqueId': '.128974456', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0b9175e9023304a2fdafe39e3ed6e52d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3e4da980&amp;x-expires=1760360400&amp;x-signature=ksCiJPvfCNk4zfoGltA37UKdtSk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4512,18 +4512,18 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>acá en mi ciudad no hay</t>
+          <t>tiktok jura que en mi cerro ay oxxo</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45928.85714120371</v>
+        <v>45934.01046296296</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>45928</v>
+        <v>45934</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>20:34:17</t>
+          <t>00:15:04</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555241088127124242', 'createTime': 1759091657, 'createTimeISO': '2025-09-28T20:34:17.000Z', 'text': 'acá en mi ciudad no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547170167466296328', 'uniqueId': 'unboxin2025', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f6f706199631f523a305a35e3a9c95e9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e580bea&amp;x-expires=1760274000&amp;x-signature=Pred%2BIO%2FzxwDksxf6h603jckHUk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557153363886392071', 'createTime': 1759536904, 'createTimeISO': '2025-10-04T00:15:04.000Z', 'text': 'tiktok jura que en mi cerro ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7135581960647672837', 'uniqueId': 'dazzhps', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/890fab42500dc44e881ba08dec0fa0d6~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=782eb8d9&amp;x-expires=1760360400&amp;x-signature=ofhqI1yc6c5Vix9%2FZfbi6o%2FhWc4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4568,25 +4568,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45927.68152777778</v>
+        <v>45932.81353009259</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>16:21:24</t>
+          <t>19:31:29</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1098e539&amp;x-expires=1760274000&amp;x-signature=hJER9RfEWaKrfwPaT48a2Z1vbQU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7121425545787868165', 'uniqueId': 'filosofia.gatuna', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/611472f8abb9c3c4e66c407a80c4ee1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=50686a2b&amp;x-expires=1760360400&amp;x-signature=zE%2FSVpg7IDN%2Fz0j9heON15hkWCQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4624,18 +4624,18 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>GRQCIASS. ME DIOO UNOO😭💜</t>
+          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45927.89190972222</v>
+        <v>45933.06369212963</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>45927</v>
+        <v>45933</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>21:24:21</t>
+          <t>01:31:43</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554882846906811137', 'createTime': 1759008261, 'createTimeISO': '2025-09-27T21:24:21.000Z', 'text': 'GRQCIASS. ME DIOO UNOO😭💜', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306695570843550725', 'uniqueId': 'astro_shelly5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a97d6db6bc7fbe92e2a5c87ec99db37b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=39161614&amp;x-expires=1760274000&amp;x-signature=I7mA%2BcFH92p4%2BhDYyAGyBuy3eUY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871021709530334214', 'uniqueId': 'dianajs20', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d1b80594f31b301f5b7d2a17f8ebf07a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=22480359&amp;x-expires=1760360400&amp;x-signature=J2dzDi%2Bn3Wk39ynAY8hirKMdWmY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4680,25 +4680,25 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>pero en mi ciudad no hay oxxo</t>
+          <t>yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45926.83740740741</v>
+        <v>45933.44353009259</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>20:05:52</t>
+          <t>10:38:41</t>
         </is>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c798f8d4&amp;x-expires=1760274000&amp;x-signature=QgsuPZy8iFZTciA2HCfLNLK0uVI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556943055979332372', 'createTime': 1759487921, 'createTimeISO': '2025-10-03T10:38:41.000Z', 'text': 'yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7529200266735715346', 'uniqueId': 'gabriela__gomez_valencia', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e22b97238fcbe193cfd4126cef752c6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2c08ba6a&amp;x-expires=1760360400&amp;x-signature=HPOtdA2GpVfPVLr0qkUabEQBSe4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4736,18 +4736,18 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)</t>
+          <t>en mi ciudad no hay OXXO 😭😭😭😭😭😭</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45935.07732638889</v>
+        <v>45931.94755787037</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>45935</v>
+        <v>45931</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>01:51:21</t>
+          <t>22:44:29</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557549302736208647', 'createTime': 1759629081, 'createTimeISO': '2025-10-05T01:51:21.000Z', 'text': 'Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844340518231802886', 'uniqueId': 'bingobaby89newaccount', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b4dc6378d4631b5ae505615daf331934~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f5bba56e&amp;x-expires=1760274000&amp;x-signature=I1hrcsouljEG7zJ%2BHluffWuvvms%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556387852227035922', 'createTime': 1759358669, 'createTimeISO': '2025-10-01T22:44:29.000Z', 'text': 'en mi ciudad no hay OXXO 😭😭😭😭😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489833937218028562', 'uniqueId': 'alexa28070', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/375de520f8dda5e8d32ec593738b43fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0ad439c4&amp;x-expires=1760360400&amp;x-signature=4tXxSR%2FXImDiHiRkNKypXSodWZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4792,25 +4792,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
+          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45932.87021990741</v>
+        <v>45927.05542824074</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45932</v>
+        <v>45927</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>20:53:07</t>
+          <t>01:19:49</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7396657590753100805', 'uniqueId': 'ariadnna.muoz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9279bed9092f96fb07b2504a5c7ed70d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ce2d4c81&amp;x-expires=1760274000&amp;x-signature=Iy9Di4E0qtGyhxysQBD6XrPLpi4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1c27fe47&amp;x-expires=1760360400&amp;x-signature=lnhBcDjivStEU1PC8e8zyKJUO9A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4848,18 +4848,18 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>y si en mi cerro no hay OXXO y no han llegado los mochisaurios</t>
+          <t>mano me compré uno y me salió un unicornio</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45935.99091435185</v>
+        <v>45933.02133101852</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>23:46:55</t>
+          <t>00:30:43</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557888273192977153', 'createTime': 1759708015, 'createTimeISO': '2025-10-05T23:46:55.000Z', 'text': 'y si en mi cerro no hay OXXO y no han llegado los mochisaurios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7456435632501588997', 'uniqueId': '.128974456', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b9175e9023304a2fdafe39e3ed6e52d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e97c3fff&amp;x-expires=1760274000&amp;x-signature=ERX2O7aTlBONMjbevkz0lIcYEEc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556786291250725633', 'createTime': 1759451443, 'createTimeISO': '2025-10-03T00:30:43.000Z', 'text': 'mano me compré uno y me salió un unicornio', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7076201709093749765', 'uniqueId': 'bloom_xs01', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2b93ace8061ebb2e4dcd07f14916b9ce~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5444dff1&amp;x-expires=1760360400&amp;x-signature=pmb3%2F21zY0i5wCqdrza53SyDnfA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4904,18 +4904,18 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba</t>
+          <t>si claro si yo vivo en colomb</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45932.80388888889</v>
+        <v>45930.02231481481</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>45932</v>
+        <v>45930</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>19:17:36</t>
+          <t>00:32:08</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556705655765648146', 'createTime': 1759432656, 'createTimeISO': '2025-10-02T19:17:36.000Z', 'text': 'Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7510321373261202450', 'uniqueId': 'bri_p2014', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/30cff12a9f2ea1569709e9b8c34e7971~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b250119c&amp;x-expires=1760274000&amp;x-signature=AeGI9%2FfpU%2B8pJpIoIOobpQ7RNN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555673462803694343', 'createTime': 1759192328, 'createTimeISO': '2025-09-30T00:32:08.000Z', 'text': 'si claro si yo vivo en colomb', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7552728943149810705', 'uniqueId': 'dannasofi6899', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/865736a245746c0e4f5e41bb7590a553~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=30addfbc&amp;x-expires=1760360400&amp;x-signature=34I14CLPTkvKo36RZF0zklfWo7M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4960,18 +4960,18 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
+          <t>Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45930.20326388889</v>
+        <v>45932.80388888889</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>04:52:42</t>
+          <t>19:17:36</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414501088697861126', 'uniqueId': 'samu__777a_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f46d65a3248b377d79a6b8c328971e37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c19c41ed&amp;x-expires=1760274000&amp;x-signature=w46fRUAX3NfzCmyt3RegCKemq2c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556705655765648146', 'createTime': 1759432656, 'createTimeISO': '2025-10-02T19:17:36.000Z', 'text': 'Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7510321373261202450', 'uniqueId': 'bri_p2014', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/30cff12a9f2ea1569709e9b8c34e7971~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3d33f33d&amp;x-expires=1760360400&amp;x-signature=CP5IUxMHASF%2BxwObzSB5t473vGc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5016,18 +5016,18 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>la verdad es injusto donde vivo no hay ni un oxxo</t>
+          <t>amooo los mochiss</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45934.49726851852</v>
+        <v>45930.14606481481</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>45934</v>
+        <v>45930</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>11:56:04</t>
+          <t>03:30:20</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557334085366973202', 'createTime': 1759578964, 'createTimeISO': '2025-10-04T11:56:04.000Z', 'text': 'la verdad es injusto donde vivo no hay ni un oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7047274379281253382', 'uniqueId': 'elgartiws63', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7316242178795044869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d743e3a&amp;x-expires=1760274000&amp;x-signature=NDcZ1iWMfjlbyTh%2BFbc7UMcL3d8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6c941ab5053b233d885d80f3df053778~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d5e0280d&amp;x-expires=1760360400&amp;x-signature=WMX9f9hsnSln7NIlQZjR0plXzFs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5072,18 +5072,18 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Y para cuándo los YoYos de YogoYogo !!</t>
+          <t>Ami me salió un unicornio en uno</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45937.61719907408</v>
+        <v>45932.92136574074</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>45937</v>
+        <v>45932</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>14:48:46</t>
+          <t>22:06:46</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558491815541441281', 'createTime': 1759848526, 'createTimeISO': '2025-10-07T14:48:46.000Z', 'text': 'Y para cuándo los YoYos de YogoYogo !!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464018882559804434', 'uniqueId': 'mastervelas10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/tiktok_user_default_avatar~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=060e8113&amp;x-expires=1760274000&amp;x-signature=W6B53dbNqZf02Cv%2FKfZMSLRSjak%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316406165842740230', 'uniqueId': 'michirobloxfnafcolombia', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/811b5143a6b4c89721b77c47d0f3a4cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c72f7f5a&amp;x-expires=1760360400&amp;x-signature=AKBVToRbjmxSSv8PTxxzq%2Fqanjg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5128,22 +5128,22 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>los dan todos</t>
+          <t>yo lo consigo en una papelera sin comprar el yogur</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45932.8313425926</v>
+        <v>45930.02420138889</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>45932</v>
+        <v>45930</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>19:57:08</t>
+          <t>00:34:51</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556715834195788562', 'createTime': 1759435028, 'createTimeISO': '2025-10-02T19:57:08.000Z', 'text': 'los dan todos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7193838219199251461', 'uniqueId': 'emmanuel.monte', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a1fab4b3445b476232ed4e3af6e66ad3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=65e3d9a7&amp;x-expires=1760274000&amp;x-signature=zyH2Wq6aCjAJYFOo9g7wyPsuCZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384092541786014725', 'uniqueId': 'estrellita_alien', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e38c298456b8a03417d891b1539c5b57~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8fa017c6&amp;x-expires=1760360400&amp;x-signature=7Eaf2XiIjA%2FhqdQqCS0v%2F2C5EBc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5184,18 +5184,18 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
+          <t>Yo ya los tengo los logos</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45935.67759259259</v>
+        <v>45934.66412037037</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>45935</v>
+        <v>45934</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>16:15:44</t>
+          <t>15:56:20</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7538082276980737029', 'uniqueId': 'mariiladiva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8ede218c4c09353a38122ea601611b79~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=206f47a3&amp;x-expires=1760274000&amp;x-signature=e78PjqL2%2FMKZt4sEkBkqICFl%2BqU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557395985225335570', 'createTime': 1759593380, 'createTimeISO': '2025-10-04T15:56:20.000Z', 'text': 'Yo ya los tengo los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364207363702047750', 'uniqueId': 'lady.insuasti', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/567cb1b8e1d71f6af4d01946884814a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b554639b&amp;x-expires=1760360400&amp;x-signature=c%2F5keXNeSCCEEIcPjGIHf9Rbi18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5240,18 +5240,18 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>y en envia😭</t>
+          <t>ya tengo muchooosss</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45932.02175925926</v>
+        <v>45929.9649074074</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>45932</v>
+        <v>45929</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>00:31:20</t>
+          <t>23:09:28</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556415402680075015', 'createTime': 1759365080, 'createTimeISO': '2025-10-02T00:31:20.000Z', 'text': 'y en envia😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357719630507983878', 'uniqueId': 'julie_cristina2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d5a23709eee561246683be323bddf913~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cfda0b4a&amp;x-expires=1760274000&amp;x-signature=nV34eGahGWPiDcmWF1CKtQu17gU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555652136999453447', 'createTime': 1759187368, 'createTimeISO': '2025-09-29T23:09:28.000Z', 'text': 'ya tengo muchooosss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452352762484507654', 'uniqueId': 'glxsyy_gaby', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f640f746bac5eb67f15e4c8ed375d287~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=caa4b161&amp;x-expires=1760360400&amp;x-signature=3%2FxqNvcXzdiuWJ2MsePXE6wUdE4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5296,18 +5296,18 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
+          <t>yo ya tengo esa m</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45935.94721064815</v>
+        <v>45929.65525462963</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>45935</v>
+        <v>45929</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>22:43:59</t>
+          <t>15:43:34</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7398980026529760262', 'uniqueId': 'salome.murcia.lop', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0562af84a9836f77531d17b252a240a4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4827aa3d&amp;x-expires=1760274000&amp;x-signature=DYcP2yFnwDXZBNLgqYHRLMDXyZc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555537273380815623', 'createTime': 1759160614, 'createTimeISO': '2025-09-29T15:43:34.000Z', 'text': 'yo ya tengo esa m', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470382147061777409', 'uniqueId': 'thaly1772', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/71e85da6987e62511391075c6d6674c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4062b643&amp;x-expires=1760360400&amp;x-signature=9ykbypL3axGHkvIzK20xBw78bYw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5352,18 +5352,18 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
+          <t>eran mejor los gogos</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45932.81353009259</v>
+        <v>45929.47387731481</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>45932</v>
+        <v>45929</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>19:31:29</t>
+          <t>11:22:23</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7121425545787868165', 'uniqueId': 'filosofia.gatuna', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/611472f8abb9c3c4e66c407a80c4ee1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=03a5154f&amp;x-expires=1760274000&amp;x-signature=OtznOoBwnXQQB27TBiB6oqdDJkw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555469953446052609', 'createTime': 1759144943, 'createTimeISO': '2025-09-29T11:22:23.000Z', 'text': 'eran mejor los gogos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7228579787227350022', 'uniqueId': 'diazsergio448', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/61df6591ddc0252c4f89c7801a873c3c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c70322f6&amp;x-expires=1760360400&amp;x-signature=0F%2BIKlN6hi2yV3OH10Lrb3vzc0k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5408,25 +5408,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>y si estoy en Colombia</t>
+          <t>mi hijo tiene muchos ya</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45930.03666666667</v>
+        <v>45928.71826388889</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45930</v>
+        <v>45928</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>00:52:48</t>
+          <t>17:14:18</t>
         </is>
       </c>
       <c r="J89" t="n">
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7511370345698526228', 'uniqueId': 'eslendy121', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/aac8d744f695a48a89ec906764de4ce6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=564594ce&amp;x-expires=1760274000&amp;x-signature=LtQ5kHcFROWn8U4RhrJ%2B4rqw9iU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555189568158171922', 'createTime': 1759079658, 'createTimeISO': '2025-09-28T17:14:18.000Z', 'text': 'mi hijo tiene muchos ya', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7198591704680023046', 'uniqueId': 'lpez.amarfy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/94bc9caafe217bbfd6ce01b82c1f3779~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=591de5d8&amp;x-expires=1760360400&amp;x-signature=jmb%2F4tNHlj%2Bkl%2BnjArZ%2BFLwgePQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5464,18 +5464,18 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
+          <t>acá en mi ciudad no hay</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45933.06369212963</v>
+        <v>45928.85714120371</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>01:31:43</t>
+          <t>20:34:17</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871021709530334214', 'uniqueId': 'dianajs20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d1b80594f31b301f5b7d2a17f8ebf07a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de470a23&amp;x-expires=1760274000&amp;x-signature=lBiuLS12bjQBLiINJvBBgbSaL3A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555241088127124242', 'createTime': 1759091657, 'createTimeISO': '2025-09-28T20:34:17.000Z', 'text': 'acá en mi ciudad no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547170167466296328', 'uniqueId': 'unboxin2025', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f6f706199631f523a305a35e3a9c95e9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=43743c25&amp;x-expires=1760360400&amp;x-signature=OQ9jgdurxciCa8vDOO6VOvgAYjw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5520,18 +5520,18 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>en San Andrés no hay oxxo</t>
+          <t>yo los tengo tengo el rosado y el azul</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45933.62440972222</v>
+        <v>45928.95548611111</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>14:59:09</t>
+          <t>22:55:54</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7521449685388248071', 'uniqueId': 'lililicona72', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/13399be45b39c36ff0f73e89016dcf71~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8cb33341&amp;x-expires=1760274000&amp;x-signature=25Rj%2F%2B%2BZ1Tpm3sDi0TfFpJriKTs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555277557701575431', 'createTime': 1759100154, 'createTimeISO': '2025-09-28T22:55:54.000Z', 'text': 'yo los tengo tengo el rosado y el azul', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541992424257324053', 'uniqueId': 'lamasquedoradora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/29368d9813b06794e313abee8fbbb2d1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7689d6ab&amp;x-expires=1760360400&amp;x-signature=UFeSZo%2F0o6P2EWHa%2BS0WLKoAhDA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5576,18 +5576,18 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Por qué Oxxo :c, no hay otro lado?</t>
+          <t>Soy de Villavicencio acá no hay Oxxo</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45936.6853587963</v>
+        <v>45927.05538194445</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>45936</v>
+        <v>45927</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>16:26:55</t>
+          <t>01:19:45</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558146025103590164', 'createTime': 1759768015, 'createTimeISO': '2025-10-06T16:26:55.000Z', 'text': 'Por qué Oxxo :c, no hay otro lado?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6967815924347749382', 'uniqueId': 'fnfals', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/413e46c5c74c9db224b04e41a0b0611b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d71acea1&amp;x-expires=1760274000&amp;x-signature=e81p1z8Pdd4e3PuMB0lqQlfVqgw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572486869549832', 'createTime': 1758935985, 'createTimeISO': '2025-09-27T01:19:45.000Z', 'text': 'Soy de Villavicencio acá no hay Oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7550104008208401416', 'uniqueId': 'maris_2716', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fc561b6856ea1ac0573d2ea224c2eba3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0e609bf&amp;x-expires=1760360400&amp;x-signature=STIR8tluyrSrVNloytUqDuwEfeU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5632,18 +5632,18 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ami me salió un unicornio en uno</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45932.92136574074</v>
+        <v>45928.80891203704</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>45932</v>
+        <v>45928</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>22:06:46</t>
+          <t>19:24:50</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316406165842740230', 'uniqueId': 'michirobloxfnafcolombia', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/811b5143a6b4c89721b77c47d0f3a4cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e28e376&amp;x-expires=1760274000&amp;x-signature=nFmQKQ2ARasLxliOkLGhdnYRqIQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555223199790154503', 'createTime': 1759087490, 'createTimeISO': '2025-09-28T19:24:50.000Z', 'text': 'ok', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6987105799349847046', 'uniqueId': 'dahyun_mi_esposa033', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/32239f5bfd81917c1c3c1f2e41ae1e8c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8894837&amp;x-expires=1760360400&amp;x-signature=JqlbvzUgFJjc4xM1pI%2F70uS3lAM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5688,18 +5688,18 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>son mejores los de colanta</t>
+          <t>part 2</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45928.76954861111</v>
+        <v>45929.57021990741</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>18:28:09</t>
+          <t>13:41:07</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555208572725822228', 'createTime': 1759084089, 'createTimeISO': '2025-09-28T18:28:09.000Z', 'text': 'son mejores los de colanta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6970094734828438533', 'uniqueId': 'fandelospugs8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b73588cea3e5f0a707661285d044d999~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c5bf3fd7&amp;x-expires=1760274000&amp;x-signature=NGIoL0eSzZM%2BW04HyqWO3aa6Frw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqueId': 'jenny.loango', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0aa7aaecbe34f7dd94d1887fac659dec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de34a604&amp;x-expires=1760360400&amp;x-signature=1JYruKW33iQvRdF9UgAe%2FxlPNis%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5744,18 +5744,18 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>yo soy de pitalito huila y no hay oxxo</t>
+          <t>Ahora si lo pusieron más costosos JAAJJAA</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45928.77608796296</v>
+        <v>45926.97465277778</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>18:37:34</t>
+          <t>23:23:30</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555211031862461191', 'createTime': 1759084654, 'createTimeISO': '2025-09-28T18:37:34.000Z', 'text': 'yo soy de pitalito huila y no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7271470368271188998', 'uniqueId': 'luisferneysilvago', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7360438781521821701~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dac8e360&amp;x-expires=1760274000&amp;x-signature=Wl9lu99QUw%2BeGbwbcGk5H8usFJI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554542515267437332', 'createTime': 1758929010, 'createTimeISO': '2025-09-26T23:23:30.000Z', 'text': 'Ahora si lo pusieron más costosos JAAJJAA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7195421632918782981', 'uniqueId': 'catefe14', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3b04b15a99963776fbad8b9ebe9edbe8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6620189c&amp;x-expires=1760360400&amp;x-signature=2XeDWk8IPOLa71sb3MWbTX6FNLo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5800,18 +5800,18 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Yo el otro día compré uno de esos y los derretí para hacer uno mega.</t>
+          <t>QUE CALIDAD🗣️🗣️🗣</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45927.61450231481</v>
+        <v>45929.74858796296</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>14:44:53</t>
+          <t>17:57:58</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554779983777989383', 'createTime': 1758984293, 'createTimeISO': '2025-09-27T14:44:53.000Z', 'text': 'Yo el otro día compré uno de esos y los derretí para hacer uno mega.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7390881053177955334', 'uniqueId': 'elpanamiguel7528', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0dbaa0de347c3ac93474b7346f4d9ff6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b0d91e2d&amp;x-expires=1760274000&amp;x-signature=JHOXdEeYNPaB37Dr%2BKakDCOcaHk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571878653592340', 'createTime': 1759168678, 'createTimeISO': '2025-09-29T17:57:58.000Z', 'text': 'QUE CALIDAD🗣️🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7458314603111613446', 'uniqueId': 'como.quieran.quie', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9fb7f4d59fb4cd488465c38f8b999208~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0e119ead&amp;x-expires=1760360400&amp;x-signature=7g39Oe3qQfswUC07NWNCE8icFa0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5856,25 +5856,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>mi hijo tiene muchos ya</t>
+          <t>yo no los incuentroo</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45928.71826388889</v>
+        <v>45927.97440972222</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>17:14:18</t>
+          <t>23:23:09</t>
         </is>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555189568158171922', 'createTime': 1759079658, 'createTimeISO': '2025-09-28T17:14:18.000Z', 'text': 'mi hijo tiene muchos ya', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7198591704680023046', 'uniqueId': 'lpez.amarfy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/94bc9caafe217bbfd6ce01b82c1f3779~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ccbe2e92&amp;x-expires=1760274000&amp;x-signature=Oun4iEfBaTLeALiaxQ4yN0xDydM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554913487688909576', 'createTime': 1759015389, 'createTimeISO': '2025-09-27T23:23:09.000Z', 'text': 'yo no los incuentroo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7519355587811279880', 'uniqueId': 'valexbz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ec896673c9ef5d906beeae2c769e7623~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1dea7e67&amp;x-expires=1760360400&amp;x-signature=2kVXNQm%2B1S3bDdI9OKg2VO%2BFgFw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5912,18 +5912,18 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa</t>
+          <t>en San Andrés no hay oxxo</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45929.1794212963</v>
+        <v>45933.62440972222</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>04:18:22</t>
+          <t>14:59:09</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555360657135682321', 'createTime': 1759119502, 'createTimeISO': '2025-09-29T04:18:22.000Z', 'text': 'Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6816660881625465862', 'uniqueId': 'gatusso88.88', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d08015a0ec17b31fabb0d96423b6fbd1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1fea2884&amp;x-expires=1760274000&amp;x-signature=QtuShb39bob99CmsqNv05c2mq8I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7521449685388248071', 'uniqueId': 'lililicona72', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/13399be45b39c36ff0f73e89016dcf71~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc3ed756&amp;x-expires=1760360400&amp;x-signature=ilMr2UVXnZx3HZTLAkMRcC4UtTs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5968,18 +5968,18 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>eran mejor los gogos</t>
+          <t>En cucuta no hay</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45929.47387731481</v>
+        <v>45938.6677662037</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>45929</v>
+        <v>45938</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>11:22:23</t>
+          <t>16:01:35</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555469953446052609', 'createTime': 1759144943, 'createTimeISO': '2025-09-29T11:22:23.000Z', 'text': 'eran mejor los gogos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7228579787227350022', 'uniqueId': 'diazsergio448', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/61df6591ddc0252c4f89c7801a873c3c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4ffaef63&amp;x-expires=1760274000&amp;x-signature=0DkD9W34fYyUhGGAol0GGfmzKdM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558881690249396999', 'createTime': 1759939295, 'createTimeISO': '2025-10-08T16:01:35.000Z', 'text': 'En cucuta no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7209509026618950662', 'uniqueId': 'user924075672', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dc5cae3865198f457d7af8926610de21~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=901afde3&amp;x-expires=1760360400&amp;x-signature=%2BdJP%2BpGGebl9Xzy5BToGcHOk26U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554477929469657857', 'createTime': 1758913988, 'createTimeISO': '2025-09-26T19:13:08.000Z', 'text': 'Y si me los regala😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7530760724257014785', 'uniqueId': 'xxjackxx740', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b28bb92c094d1d1a1940a8f813b2c07~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8edb43c5&amp;x-expires=1760274000&amp;x-signature=MGD7cgGDrHNtdSM2vIBuaBgSt6w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554477929469657857', 'createTime': 1758913988, 'createTimeISO': '2025-09-26T19:13:08.000Z', 'text': 'Y si me los regala😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7530760724257014785', 'uniqueId': 'xxjackxx740', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b28bb92c094d1d1a1940a8f813b2c07~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6c788d17&amp;x-expires=1760360400&amp;x-signature=l%2F1%2FCQKIBfds5WxAhv1kqz%2B2DRM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6080,18 +6080,18 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
+          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45929.88107638889</v>
+        <v>45929.99023148148</v>
       </c>
       <c r="H101" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>21:08:45</t>
+          <t>23:45:56</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6846492796284470277', 'uniqueId': 'linamariahernan4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b8c84acbfe31152b7111b26ebbb541b5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ffdf4492&amp;x-expires=1760274000&amp;x-signature=ZtLyxgjGcL9ugmW6DeLN8Adq5OA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/50fc02d856bc86dadfa85351b5eebcde~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=affe5c3f&amp;x-expires=1760360400&amp;x-signature=tId%2BLGHRCx6i5KmhOOFGMwlDEMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOvpQZYALLC/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOvpQZYALLC/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K103" t="n">
@@ -6208,7 +6208,7 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UjOrh4r-7ZsQ7kNvwHc0JWc&amp;_nc_oc=AdnW7xYHnEPhnEB7vQNecKMRcDdpKyxiRIzM1j8ga-SOZUYh77yY2hu3_qpnJOtB7oM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=ofZBBvZ82m8gi-JZ6KqMNA&amp;oh=00_AfdaA8bRXQUPCup7UuKHlzuzro5c0-RMrxw7YTlZ0bnBIQ&amp;oe=68F028AF', 'profileId': 'pfbid02dYYGaZb35Ndg7dEpU3HBWdwt2y9oRQkisoyiraDbs8fifjMyPdWUpKi3Fbmtk18kl', 'profileName': 'Santiago Domínguez', 'likesCount': '12', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1577471999802485', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE1Nzc0NzE5OTk4MDI0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNTc3NDcxOTk5ODAyNDg1', 'date': '2025-09-24T02:45:35.000Z', 'text': 'Ya basta de mochis. Los dinosaurios tienen un potencial enorme, pero póngale ganas. Hagan los coleccionables como los hacían antes 😿', 'profileUrl': 'https://www.facebook.com/santiago.dominguez.647054', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/556062757_1442354237026684_5523024442713777331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UjOrh4r-7ZsQ7kNvwFkd84G&amp;_nc_oc=AdlrYlWqo3MJG4cQfi55Ik_c5aBLSSKZTPnJXpNIuhaIra8huKbxQd1UuWYxULmRMN4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=QZakDEQTtcAc32sO1Ok3ZQ&amp;oh=00_AfdcLNK9BlxtNEMh1SBXmVOOKizRQk6XgOU1hKvik4hbww&amp;oe=68F17A2F', 'profileId': 'pfbid0Zzu5fPxgEBw7zoV95T8mMvrnc2fUgLyt8TkoqWfFersSQfPK6WmVAqBjv3FLGWyVl', 'profileName': 'Santiago Domínguez', 'likesCount': '13', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LtiNr916ftcQ7kNvwEtFTCA&amp;_nc_oc=AdnnujqAUw4GWk7QDFHnf9Z6bmSrfwzeegH-5f3m1k8orQ8dQefTMKD7up9t30UjALA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=ofZBBvZ82m8gi-JZ6KqMNA&amp;oh=00_Afc8kM3XGrkOEpie0Pzf_jspGhCY3dU3Kir6msaia9OfLQ&amp;oe=68F02A6B', 'profileId': 'pfbid02791q3t8MmGdKoAEnHM8RjaK5gfcd3mbe1fkdjLpvsLWwufzZ3xprnyqcs1WriCaUl', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1364074711817408', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzNjQwNzQ3MTE4MTc0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzY0MDc0NzExODE3NDA4', 'date': '2025-09-23T19:04:52.000Z', 'text': 'Alpina', 'profileUrl': 'https://www.facebook.com/alfreiderson.araujo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/397956228_1043419903746404_8757276794422383111_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q5TOxvNs4t0Q7kNvwE3Ii2H&amp;_nc_oc=AdmCVWCKxIEbGc9qoQqXNQOKA1Iaml-wGLMFD4o5vrP77_HhwBoUJRZ9Cl2uKSrxex8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=QZakDEQTtcAc32sO1Ok3ZQ&amp;oh=00_AfcUOmSocfakhSv0YjQ13N7fJr2VSl0doLLJ7ducK5txYg&amp;oe=68F17BEB', 'profileId': 'pfbid03bNe8iVzvAhPRmryC5yDgaeLSR7r5wdHXFhGcfMTF5sPdMSC5WApRapcYR7c369Ql', 'profileName': 'Alfreiderson López', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VB2mo0IDjBMQ7kNvwH9i8Rg&amp;_nc_oc=AdmZTzTBJpfgjfzvQQtOApkFVAt5L4EDtTESi14j66NroDqY6QDN0VDkOgi8adOJk_c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=ofZBBvZ82m8gi-JZ6KqMNA&amp;oh=00_AffX07rYjZyd3VqYwawPe44fEscEP8oPgIhgQWEeyLV-yg&amp;oe=68F019D2', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=738755025867466', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzczODc1NTAyNTg2NzQ2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83Mzg3NTUwMjU4Njc0NjY=', 'date': '2025-09-28T20:54:13.000Z', 'text': 'Que vuelvan los ninjas y muchas otras cosas, ya dejen esos slimes con formas en paz y pasen a hacer otras cosas', 'profileUrl': 'https://www.facebook.com/teo.gutierrez.883437', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/495953355_122179760954362555_2015533945830336839_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VB2mo0IDjBMQ7kNvwGT_lnR&amp;_nc_oc=AdlHj4hGLwEFl7rnB_LLeXGxVPTVEHLUaKfput7At8XxYZMw5Gxdn8n9DjKfPJUE9vU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=QZakDEQTtcAc32sO1Ok3ZQ&amp;oh=00_AffbBJdSJ8e8fr3pAcKmfYlEuJTafvFqWfL37a7BFNu_vw&amp;oe=68F16B52', 'profileId': '61560876670473', 'profileName': 'Teo Gutiérrez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6370,7 +6370,7 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6EKL6Ov-uFAQ7kNvwEFb9Fl&amp;_nc_oc=AdmyZgn3kD7q_vwb_GYy00TF1k52sYk45GTI26uKzXqsaQ5l9NfLxEvgcKvNJt1mMtw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=ofZBBvZ82m8gi-JZ6KqMNA&amp;oh=00_AfeFOOq060RG5D_iFRfC357YnSotb8thMNCwK5DpUgT-Cg&amp;oe=68F04118', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1985075868959333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE5ODUwNzU4Njg5NTkzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xOTg1MDc1ODY4OTU5MzMz', 'date': '2025-09-21T22:55:50.000Z', 'text': 'Donde puedo ver la lista de los Mochis', 'profileUrl': 'https://www.facebook.com/estiben.casti', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/438810771_2527712827437335_2314288522624370015_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=uW9uKWkPzJYQ7kNvwFayo-X&amp;_nc_oc=AdmJNrhp0GGsL3JPR9OVSJyeS4Xj6swGO-OBmy91klWDT7ovfsw0dSo2THpTykHsUgA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=QZakDEQTtcAc32sO1Ok3ZQ&amp;oh=00_AfctBdb4GBuPIeA8rZyZo6CQQDg4evplwQ9hUQ6sWLqB_w&amp;oe=68F19298', 'profileId': '100005959266569', 'profileName': 'Stybent Casti', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid028bKr1aRUJiUTMiQXW1RQWBo1Fiw8WsVNVKJ3CPgbSwzftqKAjHHPN6qbuatVkYMTl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ih8GRLhMfN8Q7kNvwFOwZCf&amp;_nc_oc=AdnT8UMbl1wj8eN-RT5K6CDE-NrSdQBAMQZ3WRDpn8qhxrpcOpffg4sHC64kufQqACQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=ofZBBvZ82m8gi-JZ6KqMNA&amp;oh=00_AfetkI8Ka4t5huRl1D-Hl2RbRdnKNRk1ZRIBFiG8UmVUdQ&amp;oe=68F00DAE', 'profileId': 'pfbid028bKr1aRUJiUTMiQXW1RQWBo1Fiw8WsVNVKJ3CPgbSwzftqKAjHHPN6qbuatVkYMTl', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1336665108063860', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMzY2NjUxMDgwNjM4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzM2NjY1MTA4MDYzODYw', 'date': '2025-09-20T13:36:40.000Z', 'text': 'Alpina la empresa que explota.jovenes y los echa como perros asi es esta empresa en galapa atlantico', 'profileUrl': 'https://www.facebook.com/people/German-Angulo-Dominguez/pfbid053gf6Qo7TRqgZkzvhZGZnuN559b8tLyCTx2AyMbhkq53WAh3huyU5nfsUWM9MEkHl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/533190185_122102705534974090_4718658387403300287_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=f8uNshpxi14Q7kNvwGGXidu&amp;_nc_oc=Adk0jgJ__sFmG6PN7ajtLpUdKQsNs-jX2vrRRW-HISqC6CfbTa6H2Kw33zJKcOIOKeY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=QZakDEQTtcAc32sO1Ok3ZQ&amp;oh=00_AfcPyA-1-kA3_dypppoCi315Cl55lwKj-mgYOEkogq8tzw&amp;oe=68F15F2E', 'profileId': 'pfbid053gf6Qo7TRqgZkzvhZGZnuN559b8tLyCTx2AyMbhkq53WAh3huyU5nfsUWM9MEkHl', 'profileName': 'German Angulo Dominguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6478,7 +6478,7 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xrWR256uTj4Q7kNvwFUsX9p&amp;_nc_oc=Adl03F2Mo2M7oNJ_TAvW3gGhd0tZc73qDidlMJ7VmCsqI-d515irkH60VbtxO8slftg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=ofZBBvZ82m8gi-JZ6KqMNA&amp;oh=00_AfdPL9PeGSw4beHC5lRfNCpXe5M1b4bvYwepC_qkrTwgvA&amp;oe=68F02A97', 'profileId': 'pfbid02KjrCn8pAQvffeo2XR3ptSfoznGBRBVozgnkVq4yUyDp52AnuTuBrCGPS9Ys5gPF7l', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1320969806426755', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzEzMjA5Njk4MDY0MjY3NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xMzIwOTY5ODA2NDI2NzU1', 'date': '2025-09-21T23:50:47.000Z', 'text': 'Sino Mochis', 'profileUrl': 'https://www.facebook.com/jesus.pena.reyes.793806', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/402059334_122105830352115917_5577990349461459300_n.jpg?stp=c0.11.939.939a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xrWR256uTj4Q7kNvwHaSN2k&amp;_nc_oc=AdlSC_5TPzOOuiDaF9gl37QDFPCt7JuHpetvWM8dJjh_Ysfyb1jl_dOVFYIofo1PFQw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=QZakDEQTtcAc32sO1Ok3ZQ&amp;oh=00_AfcFyo1xwv9D0tf__Xw_6O9jnRNOmUQEWph5tOeK4cPryQ&amp;oe=68F17C17', 'profileId': 'pfbid0GCD1ryBoZgDFn22PcJD8YYUsUh6bfFnDCVCyixdhr9dxMva7R4QeqfimBvvsEWxKl', 'profileName': 'Jesus Peña Reyes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=G0Do4xr7D14Q7kNvwHe3uPM&amp;_nc_oc=Adki5O6heH2K0U46x0EpDgBTe44eGUTMbtfNUw4vFIfFxjkuRBWZxktItRYvS3zpc8I&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=ofZBBvZ82m8gi-JZ6KqMNA&amp;oh=00_Afd353vXGjN8vB976Ds1Ox9aKFt-M7nKeMBIZy_Z-x2B0g&amp;oe=68F03F67', 'profileId': 'pfbid02iXqXdRt2KzwGM1CaD4CCQezou5RGJhjao9en8JnFtkTasakjphp3PtNFbqvvuzSil', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1835190807421605', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE4MzUxOTA4MDc0MjE2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xODM1MTkwODA3NDIxNjA1', 'date': '2025-09-27T08:25:09.000Z', 'text': 'Karen Alfonso Marcela Paez', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/489933899_10018492578182504_466914929424934495_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=G0Do4xr7D14Q7kNvwGtucOk&amp;_nc_oc=AdlDzR112nB9WOTBWIRwd_gah2ME2OYXY_GBhPPiwJ7hlIy_ry2g1sDoSu1sF-4ZHOw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=QZakDEQTtcAc32sO1Ok3ZQ&amp;oh=00_AffAF6faRpEqzo1gHqGK3rKZH9uXSIlOzb_vTxZ4msxqDQ&amp;oe=68F190E7', 'profileId': 'pfbid0ezCLiGFfUi72zdoWEWUHqN4iRGLihS7LhoxJfCVfNvwnQRPQahz6mR4Se6vozRPCl', 'profileName': 'Angie Tatiana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6586,7 +6586,7 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid02Ya7gbKLFFXmzjUudPm1ovZsxCEkm66vG9xjnz91max8BNjWeNezbNtD3y1HuSkiyl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwErBhuO&amp;_nc_oc=Adkvc7PS0py5ZJt1YL0zlWUqAFMU4FGENcEm_QRafLtMd-1oI0b12ElrRPTiKT7YAX0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdREIIXQCGsExutIQUXo0GjPis8s-lAsWCpob6-E0WUoA&amp;oe=6911E07A', 'profileId': 'pfbid02Ya7gbKLFFXmzjUudPm1ovZsxCEkm66vG9xjnz91max8BNjWeNezbNtD3y1HuSkiyl', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=769225275743189', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4Xzc2OTIyNTI3NTc0MzE4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF83NjkyMjUyNzU3NDMxODk=', 'date': '2025-09-26T15:20:08.000Z', 'text': 'Pero donde los consigo', 'profileUrl': 'https://www.facebook.com/people/Fab-Ross/pfbid0UYWy7W8gag6HG6a5sAEhUPHddZx93X7uEtiVPoWXqFUiMRYnpsS9HpFVe5MRyE9Jl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwHUNnnI&amp;_nc_oc=AdlRsd0tMbSE5_tBINbllc1akFCJTHn3HrZJRPBkzAucvnXSH1S23ZSarcI8p8lthHQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;oh=00_AfdRUZr-uf43sKPvYUxOfrbVALCWS0lUt5mzTDch0WQFhw&amp;oe=691331FA', 'profileId': 'pfbid0UYWy7W8gag6HG6a5sAEhUPHddZx93X7uEtiVPoWXqFUiMRYnpsS9HpFVe5MRyE9Jl', 'profileName': 'Fab Ross', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1783597325593333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3ODM1OTczMjU1OTMzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzgzNTk3MzI1NTkzMzMz', 'date': '2025-10-08T22:39:11.000Z', 'text': 'Malditos \nEsos son puros juguetes chinos de Temu metanle ganas cabrones', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwErBhuO&amp;_nc_oc=Adkvc7PS0py5ZJt1YL0zlWUqAFMU4FGENcEm_QRafLtMd-1oI0b12ElrRPTiKT7YAX0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdREIIXQCGsExutIQUXo0GjPis8s-lAsWCpob6-E0WUoA&amp;oe=6911E07A', 'profileId': 'pfbid02oZKULMGW9Ui1kRi4hWBNKK8Jiw5Zr4WD3nQ3c7xDFJEnMSdKCMByCdXB2J5h6Te5l', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1783597325593333', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3ODM1OTczMjU1OTMzMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzgzNTk3MzI1NTkzMzMz', 'date': '2025-10-08T22:39:11.000Z', 'text': 'Malditos \nEsos son puros juguetes chinos de Temu metanle ganas cabrones', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwHUNnnI&amp;_nc_oc=AdlRsd0tMbSE5_tBINbllc1akFCJTHn3HrZJRPBkzAucvnXSH1S23ZSarcI8p8lthHQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;oh=00_AfdRUZr-uf43sKPvYUxOfrbVALCWS0lUt5mzTDch0WQFhw&amp;oe=691331FA', 'profileId': 'pfbid0jXikrY4wUW3Wi9aqouLQdUphK33REY6zGxpq3EY4HbPxBcC3oA3XK4snYiea7cCRl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ch4sXevihNEQ7kNvwHhzgUv&amp;_nc_oc=AdkEpPHh-yYVKhR1PpGX-i1cVJuJi5aaO4KtwBQEfujBG7hc6T_tP4zLldMah-dTNr8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=ofZBBvZ82m8gi-JZ6KqMNA&amp;oh=00_AffYXpQLQyZSP30nw84x_eXl_yCvcZstwCPKdQHwhYDdxg&amp;oe=68F02A48', 'profileId': 'pfbid02P1YgiAngzQ4QhT3jQfxfE7XDmNgyY8kzXy6JgwZ1e35u2cFup5b7NidhfUffFjn4l', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1487630269327743', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE0ODc2MzAyNjkzMjc3NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNDg3NjMwMjY5MzI3NzQz', 'date': '2025-09-19T12:40:39.000Z', 'text': 'Ya aburren ya no saben cómo explotar más a esos Mochis', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/448166423_1431251111090342_3354033531258531586_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ch4sXevihNEQ7kNvwFM-DTu&amp;_nc_oc=Adl2Cvg641D1LtZD150tmVEFGh0u9qeJHfJeBXgGVmvRbl_pAUYKFU_OHDxLX8Nz6Bo&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=QZakDEQTtcAc32sO1Ok3ZQ&amp;oh=00_AfePaKz1SN8EyjF-JexS8uORFkDYHgkQbLLQ8bDP0Ll-QQ&amp;oe=68F17BC8', 'profileId': 'pfbid0JywyEMb8KWUWQTFXJd4e3Snx13UHZhbHzLVGHym9VHgBUonaDbXNWT5KXCgmynLil', 'profileName': 'Arteaga Jesus', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6752,7 +6752,7 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xHiI4R4AHQIQ7kNvwH7eI69&amp;_nc_oc=Adkmq_GS079yL4aI_vFC_p15rdtxEwK704KGjnTxs_hDUdd5-1eqOaO4NLJlFg8Wrf0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=MpQo_7Gs1a60zvJkUqKwSw&amp;oh=00_Aff-1-6gDy7nSFssjBcAyYAKZGXspgkaAG5VxxX3IMiWIw&amp;oe=68F01CF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=803293182088904', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzgwMzI5MzE4MjA4ODkwNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF84MDMyOTMxODIwODg5MDQ=', 'date': '2025-09-19T17:55:25.000Z', 'text': 'Que falta de respeto. Oxxo. Cartagena no hay.  \nNo les importa las otras ciudades. \nPorque no continuaron con el distribuidor de ENVIA. \nAlpina', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xHiI4R4AHQIQ7kNvwElW7m0&amp;_nc_oc=AdkhUCda9YEIoda_EGKmmt9_f-ih1RD4yjnn5S6QzCDpTq3nbhnCR5UX1ka3cfb9WKg&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=A6QW71UuTJShyPP3NQ3hIQ&amp;oh=00_AfctPqmCxt1MThcZ-8FPW8RX1b5K76uv4xJXK6R6PatKMQ&amp;oe=68F16E70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MBQlRv7m3n4Q7kNvwG5X1Lh&amp;_nc_oc=AdkAnF7za8aI6IFS68-hx0bXSDdVbWmh__rmKp-8t8xfDZUbKbnN6wMQAVBaRIlSiww&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=MpQo_7Gs1a60zvJkUqKwSw&amp;oh=00_AfcrXX0JeqAWrAjb0NxaSQPoV61th94r3JuAgO1zhpZX6A&amp;oe=68F04153', 'profileId': 'pfbid02qfJnMxwryUvp7xLAj6yqB8ciQj5PsgRDSVUcSHCkz7n4M4yy2QoPNVLMaw86PZYLl', 'profileName': 'Dicewordy Carrera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/', 'commentUrl': 'https://www.facebook.com/reel/1481132759751913/?comment_id=1720654995264714', 'id': 'Y29tbWVudDoxMjIzMzM2MjU2NTA1Mjc4XzE3MjA2NTQ5OTUyNjQ3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMzNjI1NjUwNTI3OF8xNzIwNjU0OTk1MjY0NzE0', 'date': '2025-10-01T02:17:20.000Z', 'text': 'Alpina cuando volverán a hacer los muñecos qué hacían antes ?', 'profileUrl': 'https://www.facebook.com/elchico.sad.942', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/366225118_687339933212340_4239661787279701283_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MBQlRv7m3n4Q7kNvwF4c_1p&amp;_nc_oc=AdkopPvzOPh65fKHmQLFGQeZyYyrMQHDgOcVbXLoUNHqb2m5gW2vQb02L6Xuk-Kw-os&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=A6QW71UuTJShyPP3NQ3hIQ&amp;oh=00_Affny7kLSRFuh7dXsPLvE4dk3eC5Cp6Kj5gCj-nWhqU5SA&amp;oe=68F192D3', 'profileId': 'pfbid0n7fbSoKW8Hy88Sd2QVrP3HfospS3FyoAkAQo8rpjKGJNqhWXfMZmZ1GRuE45ZEoKl', 'profileName': 'Dicewordy Carrera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223336256505278', 'postTitle': 'Con cada Yogo Premio tu colección crece ✨. Descubre los 40 Mochisaurios. 🦖', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223332643172306/'}</t>
         </is>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOvoGefAFeJ/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FFNqNcCP4cIQ7kNvwGqJcNZ&amp;_nc_oc=Adn-OsnyKsi7AtaCgD_e0g4c8BICaw5yFCkMlthRAx8cgZc83I44Vk6-g7K-50dLlLU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_Afdb8JlyYVWNjEnCklphDhQZp4kty47FW7ngI5unL1LyHg&amp;oe=68F018A6', 'profileId': 'pfbid032kmor5qxvimUNRdsZtpVjmb3whyHJarXNxah7fsyqQ3ENcr1ExDSDv9a7H774h65l', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1323804239456919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEzMjM4MDQyMzk0NTY5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMzIzODA0MjM5NDU2OTE5', 'date': '2025-09-20T03:41:37.000Z', 'text': 'Guau que maravilla ya voy a comprar 5 paquetes', 'profileUrl': 'https://www.facebook.com/doris.usma', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/466967835_10225827207531810_9039058741725109529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1SregqWsC5YQ7kNvwHz0qLu&amp;_nc_oc=Adn2jqRyXCqp0f2CIZk0_4i3EEetxqUHM79GAdhmyyV_JKELsA3d1oQYKOPIJAKfCOXirogsneMyIgeFlFXAgbQV&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AfcNXcH7x9OnugBL6bZW7Mjxj7LX-412phW2O7uUTdBC_Q&amp;oe=68F16A26', 'profileId': 'pfbid0yD8cvvDc5VNcm1PPGmipANEzQFoR4AvmqyzUqjvi7ACFSrTRKgqach2SAwekoGB3l', 'profileName': 'Doris Usma', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=_CBktk6W8doQ7kNvwGReNrs&amp;_nc_oc=AdnD0arxFW3fRQGRcRD4846rjU1GiY8n2Br1HY8fjv59PLLLhrqbyPqK9jfiiW2Rtsk&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_AfdKBx6XiD4dIN1fiESMUxxIbwAjCNyBqqbzsrTSVxCKQA&amp;oe=68F02B5E'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=_CBktk6W8doQ7kNvwGReNrs&amp;_nc_oc=AdnD0arxFW3fRQGRcRD4846rjU1GiY8n2Br1HY8fjv59PLLLhrqbyPqK9jfiiW2Rtsk&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_Afdv8-im-irVGul2gZfHIvncE0q4dYr5gt_gnauoagw5MA&amp;oe=68F02B5E', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xHiI4R4AHQIQ7kNvwFsxzXE&amp;_nc_oc=AdnUexbU_q0aaIjf6x2aHe1NN8X6HJ4DVUpMsuX9yt_9DbiZYDpLYH8XNs94kbdZOdQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_AfflyK1skWKr6L-PhqMGfAIEr3oKcQV7dsbtuzC4T_UgHQ&amp;oe=68F01CF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '16', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2021515361922653', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMjE1MTUzNjE5MjI2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDIxNTE1MzYxOTIyNjUz', 'date': '2025-09-21T16:33:45.000Z', 'text': 'Así vamos. 👍🏻', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=UC2rHcGW9QUQ7kNvwHfrhW_&amp;_nc_oc=Adm0apYFotkXrLFnX7SNpKcV75Hm4_8icSZ9SokKOsSKRGj5j0_mmlr_Ubtd4oCNpqVJroDctc_1fB5BCgc2B2jx&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AfcHCb3W-vLjnpt84Ktqf9bX35S17wJnTkWaaMU-_0hyuA&amp;oe=68F17CDE'}, 'id': '25116464754611734', 'cix_screen': None, 'massive_image': {'width': 665, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/551800573_25116464757945067_6859349063504767871_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=UC2rHcGW9QUQ7kNvwHfrhW_&amp;_nc_oc=Adm0apYFotkXrLFnX7SNpKcV75Hm4_8icSZ9SokKOsSKRGj5j0_mmlr_Ubtd4oCNpqVJroDctc_1fB5BCgc2B2jx&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AferM6r95-C62XajkMLJkrv-sbzBLTxqdos2XSnnuXmMdw&amp;oe=68F17CDE', 'width': 156, 'height': 225}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xHiI4R4AHQIQ7kNvwEtIscl&amp;_nc_oc=AdkldyXYnUekwOz2x793LoI7l0hbATTPz3-nr8rx_z4P_JRK8IOXF1v7Mw3-61uRDHO4LlEBZFu2p6mqacxpDO6m&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AfcYxTCXbKJ8EMFrNLJY8V__WsqXyGU_6NTC4fy2PZomSw&amp;oe=68F16E70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '16', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwEgiG2m&amp;_nc_oc=AdlNMsJ8LaNFQ9M64z0s_Yj6g4tNeizcS7_ddd__FxzGMPqAErNRLyW96elOzPOVDmg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdwBo9vpBVHuld_kRVBJ8rfEgmZvjO3MONgu-NT7Ly_ow&amp;oe=6911E07A', 'profileId': 'pfbid029GkTmWF1cFuXEXEpzrDC1UiJaSBjGjnFDNfjtRXenkkNGtga5u83EAEZbijcgCcxl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=641939022044419', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0MTkzOTAyMjA0NDQxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDE5MzkwMjIwNDQ0MTk=', 'date': '2025-09-23T16:34:46.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/nancy.morales.566916', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFOq4iN&amp;_nc_oc=AdntUunwS78q8GeVKTLad6loPTOs_qfIoJqHVuwivapqOcKYQ1a7Beq5o_hYPtzbxEhcQXOAaloAh6RNskzei7DM&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfetGIXnDO7bWQnPXyE--j-SkiTCqli_HsrmaDbww71qkg&amp;oe=691331FA', 'profileId': 'pfbid05j7GrLcekzfJdQzWvYaFrNBJpHGfqMrkt96fNnTccwMaHRnrY8EapHEheQ7ZeXFNl', 'profileName': 'Nancy Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XA9Vs6KKUsIQ7kNvwGBTIw3&amp;_nc_oc=AdmsU7zRS21yTkP_2Tj5RhS92EN8ASQ7Fhig8V41EHAU2Jg6k4pg0_3hjaibcnkqBVA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_AfcCMVktCsRHpQxmNSgdeCbyFvTbt9D53vyCArSsBXluxg&amp;oe=68F00FFD', 'profileId': 'pfbid02yr9oMvtqgcKUTZrQAi76YCNJpe25HoLfKc3dsU7sgE9ZruEfyymyuPqwJ2m2PX4Yl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=795663226391572', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc5NTY2MzIyNjM5MTU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83OTU2NjMyMjYzOTE1NzI=', 'date': '2025-09-21T19:20:33.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/uriel.rivera.77736', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/442416183_1914023262350765_8735811502148973493_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XA9Vs6KKUsIQ7kNvwFU22np&amp;_nc_oc=AdmRB39UeSMnMIhn4lP2s3O6kuKdar8Fx10z-wxHBorpsfMmGSuKslYqUvQcCvQyWljSVrzQSN4X6cJBNVc0LmwA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_Afe880___219HI-g0geAZf3dD9MktUwWFKp8okRkPaY_IQ&amp;oe=68F1617D', 'profileId': 'pfbid0vJWcSmGUqbsn7eHT4Yw7CMSU66pmCVTymh3N5kB9s8YYgz8BWsqufhCdWu5hNngNl', 'profileName': 'Uriel Rivera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwEgiG2m&amp;_nc_oc=AdlNMsJ8LaNFQ9M64z0s_Yj6g4tNeizcS7_ddd__FxzGMPqAErNRLyW96elOzPOVDmg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdwBo9vpBVHuld_kRVBJ8rfEgmZvjO3MONgu-NT7Ly_ow&amp;oe=6911E07A', 'profileId': 'pfbid02CtS6kdLJ5JPyeWbAFKABq8TAyuovpN3TWTbUyiNMWXERqxrttaH32Uz4Zovk2ZYHl', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2923815967819881', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI5MjM4MTU5Njc4MTk4ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yOTIzODE1OTY3ODE5ODgx', 'date': '2025-09-20T15:40:25.000Z', 'text': 'Mujer,bella,no,sigas,buscando,adiós,por los,rincones,siempre,es,cojes,chulo,y,bida,buena', 'profileUrl': 'https://www.facebook.com/guillermo.julio.263909', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFOq4iN&amp;_nc_oc=AdntUunwS78q8GeVKTLad6loPTOs_qfIoJqHVuwivapqOcKYQ1a7Beq5o_hYPtzbxEhcQXOAaloAh6RNskzei7DM&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfetGIXnDO7bWQnPXyE--j-SkiTCqli_HsrmaDbww71qkg&amp;oe=691331FA', 'profileId': 'pfbid08rqPGp8jQN3VbV1cn2GkXnfEQgKrkSvgz2PxjTRNgxPXBR9aKW719GdtGoNae7vFl', 'profileName': 'Guillermo Julio', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7174,7 +7174,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D-NE0i7rfyAQ7kNvwHlHKKZ&amp;_nc_oc=AdmkvXi4NqxKoHVpHCn3bXEP_GsxaalmJ-cLNU5lkpDG-qia0saKFL4uJ72aSEzYTbI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_Afd3X-XdBHwUWUBhmpOU3lXWYyLtdepFrUw_4E4tLMqBGQ&amp;oe=68F0370B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=2000219867456002', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzIwMDAyMTk4Njc0NTYwMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yMDAwMjE5ODY3NDU2MDAy', 'date': '2025-09-22T03:26:03.000Z', 'text': 'Kmilo Perdomo mira amor', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/499932645_24252809944345132_6738371136514298959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=evjBvvtLj8gQ7kNvwFdc4gi&amp;_nc_oc=AdnHJbSi0Uzzi80zilZWQ3Fr_xltJOgEeIjvDVM15SYIQCEXYN8B6_xhfqjXdtEZuz1qfsOCgpbu-VUXDWqB_c2O&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AfcN9hES_sPtrwO5YXIeN_onMElPbpONeJGAiD5sl6_RaA&amp;oe=68F1888B', 'profileId': '100001283930013', 'profileName': 'Natalia Esquivel', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2kjCvZiijhMQ7kNvwEp1g5M&amp;_nc_oc=Adn64F-dAH1dBC7vX2AUAZM2-RvuEA-E7MADzRVsswc3G2SKM-mcqE1M9vjjZ2rsSps&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_AfdwodrzxYzvwZwMweczZb3-9jEQoujCBa-e42eo7DHb3A&amp;oe=68F030F8', 'profileId': 'pfbid02cS76izJ1LVJxgzL1MnYYsrE2LJbzrmD5NqRHNZwLR8JJJ63cYEM8tZMaHtp9y7uol', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1426091182205811', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0MjYwOTExODIyMDU4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDI2MDkxMTgyMjA1ODEx', 'date': '2025-09-20T07:14:58.000Z', 'text': 'Yo quierooooooo pero seguro se acabarán en un día así como los otros', 'profileUrl': 'https://www.facebook.com/esteban.salazar.londono.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/465057121_122131663502378062_2199646108447425085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2kjCvZiijhMQ7kNvwFPTDTc&amp;_nc_oc=AdnyrJsW__13XwCurCGJMhyn6MwdjndeBu4iwbjpug7DRx_9isT4Lwm6oqqi7I8leGdgmlLlO2aNmuAjlkRhCU3s&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AfehJxtcYcFWKt8MRFkpRO1teUB6h4auCVL0_QS5HqiUKQ&amp;oe=68F18278', 'profileId': 'pfbid0YQWPFB6SfYpqKqwDHhbLa98mbzseLruYWxfhAgcgWnvjGCcoggD5i7fjwG5XDRaEl', 'profileName': 'Esteban Salazar Londoño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid034fqeixmfEq6x1muusHFvZLMn8udjifqFAi7t8SVhrx7vLNwMD4fTTZKjnvYJRJZ2l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwEgiG2m&amp;_nc_oc=AdlNMsJ8LaNFQ9M64z0s_Yj6g4tNeizcS7_ddd__FxzGMPqAErNRLyW96elOzPOVDmg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdwBo9vpBVHuld_kRVBJ8rfEgmZvjO3MONgu-NT7Ly_ow&amp;oe=6911E07A', 'profileId': 'pfbid034fqeixmfEq6x1muusHFvZLMn8udjifqFAi7t8SVhrx7vLNwMD4fTTZKjnvYJRJZ2l', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=564589420049984', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzU2NDU4OTQyMDA0OTk4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV81NjQ1ODk0MjAwNDk5ODQ=', 'date': '2025-09-29T01:03:01.000Z', 'text': 'Donde son los puntos oxxos autorizados? saludos desde Tuluá Valle del Cauca', 'profileUrl': 'https://www.facebook.com/people/Brandon-Vargas/pfbid0218CToo9JPesew5rEDikLonWeGwrHv4tNEuQcQE5ATuVeCPM5eNRy2ytAK6CHuyVQl/', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFOq4iN&amp;_nc_oc=AdntUunwS78q8GeVKTLad6loPTOs_qfIoJqHVuwivapqOcKYQ1a7Beq5o_hYPtzbxEhcQXOAaloAh6RNskzei7DM&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfetGIXnDO7bWQnPXyE--j-SkiTCqli_HsrmaDbww71qkg&amp;oe=691331FA', 'profileId': 'pfbid0218CToo9JPesew5rEDikLonWeGwrHv4tNEuQcQE5ATuVeCPM5eNRy2ytAK6CHuyVQl', 'profileName': 'Brandon Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ur-eeYfFuR4Q7kNvwEtph3x&amp;_nc_oc=AdkZTV_q40q2MbgRzcDdsgYWUBbPms-OHY54_YIF-SGzUhTdA8_O-lpiwIiRuKCBkq0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_Afc5IZ3nNbdWNSTGs0-yERLtGgaeevu_1YqERTtVAqnYRw&amp;oe=68F032C0', 'profileId': 'pfbid0RFqTJQj5ornaTnEM4EKaSQHC6n14vmF5vJeg4LF1hh3symUkT8YX1rEcH78XypAZl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=787411070706777', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc4NzQxMTA3MDcwNjc3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83ODc0MTEwNzA3MDY3Nzc=', 'date': '2025-09-20T01:07:06.000Z', 'text': 'Que pasó con las buenas propagandas como cuanto cantaban la canción de libre como Alpina', 'profileUrl': 'https://www.facebook.com/walter.preciado.360795', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/557543337_122217212354277994_8140900266330308733_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ur-eeYfFuR4Q7kNvwEISACq&amp;_nc_oc=AdnLQBiXJ_GVmu_tAOUTje0fsxj78Z95pFid4HvRCR15ommzDvGcZKa9Fdthp1nTmqJJc4WCrVAAu00LkhQ-Fs6g&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AfcWeTyC5s028WIJvP3-WBfy6iOT2itH0Ffex-CuNunoXQ&amp;oe=68F18440', 'profileId': 'pfbid02V7HAV5eufGxqSs4QwtzF3E6deXB6iMfJVYSoa6wXAvxWxfbcc3zrix7PTSRWi2Krl', 'profileName': 'Walter Preciado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1172930148038222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzExNzI5MzAxNDgwMzgyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMTcyOTMwMTQ4MDM4MjIy', 'date': '2025-10-04T00:48:04.000Z', 'text': 'Cambio está guía original por figuras de paleta Drácula', 'attachments': [{'__typename': 'Video', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t15.5256-10/558902274_1469243001024824_6827476898448345191_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=282d23&amp;_nc_ohc=0qrmMT2n_z8Q7kNvwF7PBbd&amp;_nc_oc=Adn2FUNd3T5qkbca9xmPSxaRDO5J4P7kFwRzAMiWeRHcC_yqXWnSqVVz1ZxbHIGPxWs&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_AfdUuJtpNhZZ5GY4dPRaIWxBPtZTvtS30RxOFdu_UyAqaw&amp;oe=68F01BF2'}, 'id': '24786858587647635', 'cix_screen': None, 'width': 1080, 'height': 1920, 'video_status_type': 'OK', 'animated_image_caption': None, 'broadcaster_origin': None, 'broadcast_id': None, 'broadcast_status': None, 'is_live_streaming': False, 'is_live_trace_enabled': False, 'is_looping': True, 'is_video_broadcast': False, 'is_podcast_video': False, 'loop_count': 8, 'is_spherical': False, 'is_spherical_enabled': True, 'unsupported_browser_message': None, 'pmv_metadata': None, 'latency_sensitive_config': None, 'live_playback_instrumentation_configs': None, 'is_ncsr': False, 'permalink_url': 'https://www.facebook.com/crissfa1/videos/24786858587647635/', 'captions_url': None, 'dash_prefetch_experimental': ['1357666219063184v', '831755119188588a'], 'video_available_captions_locales': [], 'can_use_oz': True, 'playlist': '&lt;?xml version="1.0" encoding="UTF-8"?&gt;\n&lt;MPD xmlns="urn:mpeg:dash:schema:mpd:2011" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xsi:schemaLocation="urn:mpeg:dash:schema:mpd:2011 DASH-MPD.xsd" profiles="urn:mpeg:dash:profile:isoff-on-demand:2011" minBufferTime="PT2S" type="static" mediaPresentationDuration="PT11.033334S" FBTagsetUsed="gen2hwbasicvp9" FBManifestIdentifier="FgAYDmdlbjJod2Jhc2ljdnA5GVbY6drGwp76ApDF5YTVxaAEpMCB7szV5ASg3q/LybLpBP7gzqCC7sYGIhgQYXVkaW9fYWFjX2xuX3ZiciI2DhQAAA=="&gt;&lt;Period id="0" duration="PT11.033334S"&gt;&lt;AdaptationSet id="0" contentType="video" frameRate="15360/512" subsegmentAlignment="true" par="9:16" FBUnifiedUploadResolutionMos="360:70.9,480:70.9,720:70.9,1080:70.9"&gt;&lt;Representation id="1357666219063184v" bandwidth="684549" codecs="vp09.00.21.08.00.01.01.01.00" mimeType="video/mp4" sar="1:1" FBEncodingTag="dash_vp9-basic-gen2_360p" FBPlaybackResolutionMos="0:100,360:89,480:83.5,720:74.2,1080:64" FBPlaybackResolutionMosConfidenceLevel="high" FBPlaybackResolutionCsvqm="0:100,360:96.2,480:94.5,720:88.7,1080:79.2" width="360" height="640" FBQualityClass="sd" FBQualityLabel="360p"&gt;&lt;BaseURL&gt;https://video-ord5-3.xx.fbcdn.net/o1/v/t2/f2/m366/AQN_cTtto1bRxO5m53r2hTF1UpGsjwBAtHVDEswtyLGhvuWodFPLXB1SScIyRlGMy8wlYVP4P1HOvm1HT84Cbswvg6h2S6GpOrX9ggZkbXK61A.mp4?_nc_cat=106&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-ord5-3.xx.fbcdn.net&amp;amp;_nc_ohc=hRFxPhipOfsQ7kNvwGadDOE&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfdnA5LWJhc2ljLWdlbjJfMzYwcCIsInZpZGVvX2lkIjoyNDc4Njg1ODU4NzY0NzYzNSwib2lsX3VybGdlbl9hcHBfaWQiOjAsImNsaWVudF9uYW1lIjoidW5rbm93biIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;amp;ccb=17-1&amp;amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;amp;_nc_zt=28&amp;amp;oh=00_AfcjFgUzITzmdd2kMVNp8bSjNUEkjJgfsXwZ2UCBQvKzlA&amp;amp;oe=68F0178A&lt;/BaseURL&gt;&lt;SegmentBase indexRange="818-885" timescale="15360" FBFirstSegmentRange="886-428728"&gt;&lt;Initialization range="0-817"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;Representation id="1347272837181458v" bandwidth="1873066" codecs="vp09.00.30.08.00.01.01.01.00" mimeType="video/mp4" sar="1:1" FBEncodingTag="dash_vp9-basic-gen2_540p" FBPlaybackResolutionMos="0:100,360:96.3,480:95.9,720:94.7,1080:90" FBPlaybackResolutionMosConfidenceLevel="high" FBPlaybackResolutionCsvqm="0:100,360:98.96,480:98.79,720:98.18,1080:96.5" width="540" height="960" FBQualityClass="sd" FBQualityLabel="540p"&gt;&lt;BaseURL&gt;https://video-ord5-2.xx.fbcdn.net/o1/v/t2/f2/m366/AQPt9SSeW67eahTSRPSnrDr78AjQNVxKH1l3BOwmN9vOZJb40aa9KggHpxnw4th4ry289TgkVUSLDODtwn2DZlKYz1rd8mMAqx-lISq1FJl_AA.mp4?_nc_cat=105&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-ord5-2.xx.fbcdn.net&amp;amp;_nc_ohc=pGJ4Uos0AQcQ7kNvwF2AGQQ&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfdnA5LWJhc2ljLWdlbjJfNTQwcCIsInZpZGVvX2lkIjoyNDc4Njg1ODU4NzY0NzYzNSwib2lsX3VybGdlbl9hcHBfaWQiOjAsImNsaWVudF9uYW1lIjoidW5rbm93biIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;amp;ccb=17-1&amp;amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;amp;_nc_zt=28&amp;amp;oh=00_AffKLsVbdkkkHz7ZQZLVxyDBAdwwyqVIdAPJ5DfBEnaYIw&amp;amp;oe=68F0369F&lt;/BaseURL&gt;&lt;SegmentBase indexRange="818-885" timescale="15360" FBFirstSegmentRange="886-1171551"&gt;&lt;Initialization range="0-817"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;Representation id="1197465475526984v" bandwidth="3449488" codecs="vp09.00.31.08.00.01.01.01.00" mimeType="video/mp4" sar="1:1" FBEncodingTag="dash_vp9-basic-gen2_720p" FBPlaybackResolutionMos="0:100,360:98.5,480:98.4,720:98.2,1080:97.1" FBPlaybackResolutionMosConfidenceLevel="high" FBPlaybackResolutionCsvqm="0:100,360:99.663,480:99.648,720:99.59,1080:99.27" width="720" height="1280" FBQualityClass="hd" FBQualityLabel="720p"&gt;&lt;BaseURL&gt;https://video-ord5-3.xx.fbcdn.net/o1/v/t2/f2/m366/AQMV2gJpYQUxVebmLAyNy2pT0WhHhsrjMzixaMYXf_G22wZpVnPKNjKfDknYCDIfcRcphyHCSZ7Dt2Ix5SbRFYl3xyQ9DGaUvY9YGD9LZLOiEA.mp4?_nc_cat=106&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-ord5-3.xx.fbcdn.net&amp;amp;_nc_ohc=zcc-GzB1iecQ7kNvwFXoU32&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfdnA5LWJhc2ljLWdlbjJfNzIwcCIsInZpZGVvX2lkIjoyNDc4Njg1ODU4NzY0NzYzNSwib2lsX3VybGdlbl9hcHBfaWQiOjAsImNsaWVudF9uYW1lIjoidW5rbm93biIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;amp;ccb=17-1&amp;amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;amp;_nc_zt=28&amp;amp;oh=00_AfdiFTRwHVaOw7e9nOEZC5bl05gWIy5YoyGwQfZr-U-5FQ&amp;amp;oe=68F01AE6&lt;/BaseURL&gt;&lt;SegmentBase indexRange="818-885" timescale="15360" FBFirstSegmentRange="886-2156815"&gt;&lt;Initialization range="0-817"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;Representation id="1844671576397887v" bandwidth="4740021" codecs="vp09.00.40.08.00.01.01.01.00" mimeType="video/mp4" sar="1:1" FBEncodingTag="dash_vp9-basic-gen2_1080p" FBPlaybackResolutionMos="0:100,360:99,480:99,720:98.9,1080:98.6" FBPlaybackResolutionMosConfidenceLevel="high" FBPlaybackResolutionCsvqm="0:100,360:99.767,480:99.764,720:99.755,1080:99.69" width="1080" height="1920" FBQualityClass="hd" FBQualityLabel="1080p"&gt;&lt;BaseURL&gt;https://video-ord5-1.xx.fbcdn.net/o1/v/t2/f2/m366/AQOkGstF3KKnJdflAQML-Jjl7EF2v48kSQEQ9swq4f6dq0oLoxnrugtrjcSjI8RAA4lzouOHwLBvhWzOvCzM0fyKaC1IUljA0t_ZA0kRU9j8WA.mp4?_nc_cat=108&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-ord5-1.xx.fbcdn.net&amp;amp;_nc_ohc=9-EhEQE-7UgQ7kNvwGduq3g&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfdnA5LWJhc2ljLWdlbjJfMTA4MHAiLCJ2aWRlb19pZCI6MjQ3ODY4NTg1ODc2NDc2MzUsIm9pbF91cmxnZW5fYXBwX2lkIjowLCJjbGllbnRfbmFtZSI6InVua25vd24iLCJ4cHZfYXNzZXRfaWQiOjIwMDc2Njk3MTMzMjc2OTIsInZpX3VzZWNhc2VfaWQiOjEwMTIzLCJkdXJhdGlvbl9zIjoxMSwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;amp;ccb=17-1&amp;amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;amp;_nc_zt=28&amp;amp;oh=00_AfdYB-2FmwUv6afK7qwiTUSGAqJP2ak5Z1WTvcM7iv2JnQ&amp;amp;oe=68F00F88&lt;/BaseURL&gt;&lt;SegmentBase indexRange="818-885" timescale="15360" FBFirstSegmentRange="886-2963398"&gt;&lt;Initialization range="0-817"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;/AdaptationSet&gt;&lt;AdaptationSet id="1" contentType="audio" subsegmentStartsWithSAP="1" subsegmentAlignment="true"&gt;&lt;Representation id="831755119188588a" bandwidth="76308" codecs="mp4a.40.5" mimeType="audio/mp4" FBAvgBitrate="76308" audioSamplingRate="48000" FBEncodingTag="dash_ln_heaac_vbr3_audio"&gt;&lt;AudioChannelConfiguration schemeIdUri="urn:mpeg:dash:23003:3:audio_channel_configuration:2011" value="2"/&gt;&lt;BaseURL&gt;https://video-ord5-1.xx.fbcdn.net/o1/v/t2/f2/m412/AQOMrxUoCPjuRd5s9bmoRzEkcv5OUcCsJAbSJSztxUwLWzimNNhRsL09E-K7Z5op_TiFLsOQjpNS1cRnYJYOXjFngsPmujN4Qhl_tJo.mp4?_nc_cat=111&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-ord5-1.xx.fbcdn.net&amp;amp;_nc_ohc=S8JPmMsLrpIQ7kNvwHC2z0v&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfbG5faGVhYWNfdmJyM19hdWRpbyIsInZpZGVvX2lkIjoyNDc4Njg1ODU4NzY0NzYzNSwib2lsX3VybGdlbl9hcHBfaWQiOjAsImNsaWVudF9uYW1lIjoidW5rbm93biIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;amp;ccb=17-1&amp;amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;amp;_nc_zt=28&amp;amp;oh=00_AfeB7gc8G-_0vBlTzFCZg4p2-sui-hYNi0tuDu9H-W3Ljg&amp;amp;oe=68F03EE0&lt;/BaseURL&gt;&lt;SegmentBase indexRange="824-927" timescale="48000" FBFirstSegmentRange="928-22978"&gt;&lt;Initialization range="0-823"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;/AdaptationSet&gt;&lt;/Period&gt;&lt;/MPD&gt;\n', 'dash_manifest_url': 'https://www.facebook.com/dash_mpd_debug.mpd?v=24786858587647635&amp;dummy=.mpd', 'min_quality_preference': None, 'audio_user_preferred_language': 'en', 'browser_native_sd_url': 'https://video-ord5-2.xx.fbcdn.net/o1/v/t2/f2/m412/AQMXN1CuZwr95L5GcnjmKccCbSO2xCOnBi1Mui57x5u0211wnj7He1NFj0s0R8PC4Vb6C2_-R7-rQbX0U_SX4hQNM8PcdkDaFdED2iH5BQ.mp4?_nc_cat=104&amp;_nc_sid=8bf8fe&amp;_nc_ht=video-ord5-2.xx.fbcdn.net&amp;_nc_ohc=N6KkYunEm_IQ7kNvwGwAHqZ&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5GQUNFQk9PSy4uQzMuMzYwLnN2ZV9zZCIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;_nc_zt=28&amp;oh=00_Afc84RS-2-KxKsWJwN0ZvtWN8YS4SZUHKBIPVRX884sWTw&amp;oe=68F02BAE&amp;bitrate=711185&amp;tag=sve_sd', 'browser_native_hd_url': 'https://video-ord5-1.xx.fbcdn.net/o1/v/t2/f2/m366/AQND_pVUMU0WFgfez20keVyEagojmU0CUbAXGqSmKVPhv-jYGFU7DczEUZ5BmHJQlrDfnPxS04vauVvN9Ip3jce-gvCus86TOdecumNiynUApw.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=video-ord5-1.xx.fbcdn.net&amp;_nc_ohc=yCIl5nfvEwIQ7kNvwGhY1Nz&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5GQUNFQk9PSy4uQzMuNzIwLmRhc2hfaDI2NC1iYXNpYy1nZW4yXzcyMHAiLCJ4cHZfYXNzZXRfaWQiOjIwMDc2Njk3MTMzMjc2OTIsInZpX3VzZWNhc2VfaWQiOjEwMTIzLCJkdXJhdGlvbl9zIjoxMSwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=e4fe490b5e8b23d1&amp;_nc_vs=HBksFQIYRWZiX2VwaGVtZXJhbC82QjRGQjNCNTQzNzU2RDM3ODYyMTI2NTYwM0FGNDg4N19tdF8xX3ZpZGVvX2Rhc2hpbml0Lm1wNBUAAsgBEgAVAhhFZmJfZXBoZW1lcmFsLzZENDU3Q0NBMUIzRDVBNzAxREE5N0E0OTQwNkU4REE3X210XzBfYXVkaW9fZGFzaGluaXQubXA0FQICyAESACgAGAAbAogHdXNlX29pbAExEnByb2dyZXNzaXZlX3JlY2lwZQExFQAAJpjZtoHh_ZAHFQIoAkMzLBdAJhDlYEGJNxgZZGFzaF9oMjY0LWJhc2ljLWdlbjJfNzIwcBEAdQJllp4BAA&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;_nc_zt=28&amp;oh=00_AffYjy0Obdk6f96JboQjeAlL2ZCOHWAqWoztPp9PxQ2X4A&amp;oe=68F018F4&amp;bitrate=2917207&amp;tag=dash_h264-basic-gen2_720p', 'spherical_video_fallback_urls': None, 'comet_video_player_nextgendash_availability': 'AVAILABLE', 'is_gaming_video': False, 'is_latency_menu_enabled': False, 'fbls_tier': None, 'is_latency_sensitive_broadcast': False, 'comet_video_player_static_config': '{}', 'comet_video_player_context_sensitive_config': '{}', 'video_player_shaka_performance_logger_init': {'__typename': 'VideoPlayerShakaPerformanceLoggerInit', '__module_operation_useVideoPlayerShakaPerformanceLoggerRelayImpl_video': {'__dr': 'useVideoPlayerShakaPerformanceLoggerRelayImpl_init$normalization.graphql'}, '__module_component_useVideoPlayerShakaPerformanceLoggerRelayImpl_video': {'__dr': 'VideoPlayerShakaPerformanceLogger'}}, 'video_player_shaka_performance_logger_should_sample': False, 'video_player_shaka_performance_logger_init2': {'__typename': 'VideoPlayerShakaPerformanceLoggerInit', '__module_operation_useVideoPlayerShakaPerformanceLoggerBuilder_video': {'__dr': 'useVideoPlayerShakaPerformanceLoggerBuilder_init$normalization.graphql'}, '__module_component_useVideoPlayerShakaPerformanceLoggerBuilder_video': {'__dr': 'VideoPlayerShakaPerformanceLoggerBuilder'}, 'per_session_sampling_rate': None}, 'autoplay_gating_result': 'ugc_default_allowed', 'viewer_autoplay_setting': 'default_autoplay', 'can_autoplay': True, 'drm_info': '{"video_license_uri_map":{},"graph_api_video_license_uri":null,"fairplay_cert":null,"widevine_cert":"CsECCAMSEBcFuRfMEgSGiwYzOi93KowYgrSCkgUijgIwggEKAoIBAQCZ7Vs7Mn2rXiTvw7YqlbWYUgrVvMs3UD4GRbgU2Ha430BRBEGtjOOtsRu4jE5yWl5KngeVKR1YWEAjp+GvDjipEnk5MAhhC28VjIeMfiG\\/+\\/7qd+EBnh5XgeikX0YmPRTmDoBYqGB63OBPrIRXsTeo1nzN6zNwXZg6IftO7L1KEMpHSQykfqpdQ4IY3brxyt4zkvE9b\\/tkQv0x4b9AsMYE0cS6TJUgpL+X7r1gkpr87vVbuvVk4tDnbNfFXHOggrmWEguDWe3OJHBwgmgNb2fG2CxKxfMTRJCnTuw3r0svAQxZ6ChD4lgvC2ufXbD8Xm7fZPvTCLRxG88SUAGcn1oJAgMBAAE6FGxpY2Vuc2Uud2lkZXZpbmUuY29tEoADrjRzFLWoNSl\\/JxOI+3u4y1J30kmCPN3R2jC5MzlRHrPMveoEuUS5J8EhNG79verJ1BORfm7BdqEEOEYKUDvBlSubpOTOD8S\\/wgqYCKqvS\\/zRnB3PzfV0zKwo0bQQQWz53ogEMBy9szTK\\/NDUCXhCOmQuVGE98K\\/PlspKkknYVeQrOnA+8XZ\\/apvTbWv4K+drvwy6T95Z0qvMdv62Qke4XEMfvKUiZrYZ\\/DaXlUP8qcu9u\\/r6DhpV51Wjx7zmVflkb1gquc9wqgi5efhn9joLK3\\/bNixbxOzVVdhbyqnFk8ODyFfUnaq3fkC3hR3f0kmYgI41sljnXXjqwMoW9wRzBMINk+3k6P8cbxfmJD4\\/Paj8FwmHDsRfuoI6Jj8M76H3CTsZCZKDJjM3BQQ6Kb2m+bQ0LMjfVDyxoRgvfF\\/\\/M\\/EEkPrKWyU2C3YBXpxaBquO4C8A0ujVmGEEqsxN1HX9lu6c5OMm8huDxwWFd7OHMs3avGpr7RP7DUnTikXrh6X0"}', 'p2p_settings': None, 'audio_settings': None, 'captions_settings': None, 'broadcast_low_latency_config': None, 'audio_availability': 'AVAILABLE', 'muted_segments': [], 'spherical_video_renderer': None, 'preferred_thumbnail': {'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t15.5256-10/558902274_1469243001024824_6827476898448345191_n.jpg?stp=dst-jpg_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=50ce42&amp;_nc_ohc=0qrmMT2n_z8Q7kNvwF7PBbd&amp;_nc_oc=Adn2FUNd3T5qkbca9xmPSxaRDO5J4P7kFwRzAMiWeRHcC_yqXWnSqVVz1ZxbHIGPxWs&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_AfdXga0wsf6PkP3QN1HLOCCLaIpdLCSSi96ro8v632E3ig&amp;oe=68F01BF2'}, 'image_preview_payload': None, 'id': '24577627615264036'}, 'video_imf_data': None}], 'profileUrl': 'https://www.facebook.com/crissfa1', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/473966731_4157362787828275_4470803533664544378_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zx22cgulxvcQ7kNvwHpnHFO&amp;_nc_oc=AdnsPjrVdHNrd5T5DwI_tBarc4rpZ56OUpKl8TTYdXookZ4BjYbqP4pku6pZfQPCstw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=tAzy8Yf_ebVlTG2At7l-hQ&amp;oh=00_Afcb4CkJEDZ5j50yNMzFcE5lbKIOnWQUNKD6DZdu6wCrLg&amp;oe=68F02EC7', 'profileId': '100006637841599', 'profileName': 'Kriss Montty', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1172930148038222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzExNzI5MzAxNDgwMzgyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMTcyOTMwMTQ4MDM4MjIy', 'date': '2025-10-04T00:48:04.000Z', 'text': 'Cambio está guía original por figuras de paleta Drácula', 'attachments': [{'__typename': 'Video', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t15.5256-10/558902274_1469243001024824_6827476898448345191_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=282d23&amp;_nc_ohc=0qrmMT2n_z8Q7kNvwG3d1DF&amp;_nc_oc=AdlIUTa6Ol9w2j5W5qCk2kZ2wjKBT8hcZpKIapiau0oKfzfyqWJntvZ-fyvQYh-d86Xx6oaC6gtWOCJtvJuOtctf&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AfeTdlf9hoz7_PH-mkiv53ueyR6YupPRgpQvoNJF38tlfA&amp;oe=68F16D72'}, 'id': '24786858587647635', 'cix_screen': None, 'width': 1080, 'height': 1920, 'video_status_type': 'OK', 'animated_image_caption': None, 'broadcaster_origin': None, 'broadcast_id': None, 'broadcast_status': None, 'is_live_streaming': False, 'is_live_trace_enabled': False, 'is_looping': True, 'is_video_broadcast': False, 'is_podcast_video': False, 'loop_count': 8, 'is_spherical': False, 'is_spherical_enabled': True, 'unsupported_browser_message': None, 'pmv_metadata': None, 'latency_sensitive_config': None, 'live_playback_instrumentation_configs': None, 'is_ncsr': False, 'permalink_url': 'https://www.facebook.com/crissfa1/videos/24786858587647635/', 'captions_url': None, 'dash_prefetch_experimental': ['1357666219063184v', '831755119188588a'], 'video_available_captions_locales': [], 'can_use_oz': True, 'playlist': '&lt;?xml version="1.0" encoding="UTF-8"?&gt;\n&lt;MPD xmlns="urn:mpeg:dash:schema:mpd:2011" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xsi:schemaLocation="urn:mpeg:dash:schema:mpd:2011 DASH-MPD.xsd" profiles="urn:mpeg:dash:profile:isoff-on-demand:2011" minBufferTime="PT2S" type="static" mediaPresentationDuration="PT11.033334S" FBTagsetUsed="gen2hwbasicvp9" FBManifestIdentifier="FgAYDmdlbjJod2Jhc2ljdnA5GVbY6drGwp76ApDF5YTVxaAEpMCB7szV5ASg3q/LybLpBP7gzqCC7sYGIhgQYXVkaW9fYWFjX2xuX3ZiciI2EBQAAA=="&gt;&lt;Period id="0" duration="PT11.033334S"&gt;&lt;AdaptationSet id="0" contentType="video" frameRate="15360/512" subsegmentAlignment="true" par="9:16" FBUnifiedUploadResolutionMos="360:70.9,480:70.9,720:70.9,1080:70.9"&gt;&lt;Representation id="1357666219063184v" bandwidth="684549" codecs="vp09.00.21.08.00.01.01.01.00" mimeType="video/mp4" sar="1:1" FBEncodingTag="dash_vp9-basic-gen2_360p" FBPlaybackResolutionMos="0:100,360:89,480:83.5,720:74.2,1080:64" FBPlaybackResolutionMosConfidenceLevel="high" FBPlaybackResolutionCsvqm="0:100,360:96.2,480:94.5,720:88.7,1080:79.2" width="360" height="640" FBDefaultQuality="1" FBQualityClass="sd" FBQualityLabel="360p"&gt;&lt;BaseURL&gt;https://video-iad3-2.xx.fbcdn.net/o1/v/t2/f2/m366/AQN_cTtto1bRxO5m53r2hTF1UpGsjwBAtHVDEswtyLGhvuWodFPLXB1SScIyRlGMy8wlYVP4P1HOvm1HT84Cbswvg6h2S6GpOrX9ggZkbXK61A.mp4?_nc_cat=106&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-iad3-2.xx.fbcdn.net&amp;amp;_nc_ohc=hRFxPhipOfsQ7kNvwGwHS3c&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfdnA5LWJhc2ljLWdlbjJfMzYwcCIsInZpZGVvX2lkIjoyNDc4Njg1ODU4NzY0NzYzNSwib2lsX3VybGdlbl9hcHBfaWQiOjAsImNsaWVudF9uYW1lIjoidW5rbm93biIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;amp;ccb=17-1&amp;amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;amp;_nc_zt=28&amp;amp;oh=00_Aff9tEYTtpDCeNlZRvQVskKjQgjrx59hQkQBdZ6yp5RB8g&amp;amp;oe=68F1690A&lt;/BaseURL&gt;&lt;SegmentBase indexRange="818-885" timescale="15360" FBFirstSegmentRange="886-428728"&gt;&lt;Initialization range="0-817"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;Representation id="1347272837181458v" bandwidth="1873066" codecs="vp09.00.30.08.00.01.01.01.00" mimeType="video/mp4" sar="1:1" FBEncodingTag="dash_vp9-basic-gen2_540p" FBPlaybackResolutionMos="0:100,360:96.3,480:95.9,720:94.7,1080:90" FBPlaybackResolutionMosConfidenceLevel="high" FBPlaybackResolutionCsvqm="0:100,360:98.96,480:98.79,720:98.18,1080:96.5" width="540" height="960" FBQualityClass="sd" FBQualityLabel="540p"&gt;&lt;BaseURL&gt;https://video-iad3-2.xx.fbcdn.net/o1/v/t2/f2/m366/AQPt9SSeW67eahTSRPSnrDr78AjQNVxKH1l3BOwmN9vOZJb40aa9KggHpxnw4th4ry289TgkVUSLDODtwn2DZlKYz1rd8mMAqx-lISq1FJl_AA.mp4?_nc_cat=105&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-iad3-2.xx.fbcdn.net&amp;amp;_nc_ohc=pGJ4Uos0AQcQ7kNvwEgWxek&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfdnA5LWJhc2ljLWdlbjJfNTQwcCIsInZpZGVvX2lkIjoyNDc4Njg1ODU4NzY0NzYzNSwib2lsX3VybGdlbl9hcHBfaWQiOjAsImNsaWVudF9uYW1lIjoidW5rbm93biIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;amp;ccb=17-1&amp;amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;amp;_nc_zt=28&amp;amp;oh=00_AfceR4mj2DwL69K_-4Qcs8ZDHNBYqMr4KNltn8cIZCNU2A&amp;amp;oe=68F1881F&lt;/BaseURL&gt;&lt;SegmentBase indexRange="818-885" timescale="15360" FBFirstSegmentRange="886-1171551"&gt;&lt;Initialization range="0-817"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;Representation id="1197465475526984v" bandwidth="3449488" codecs="vp09.00.31.08.00.01.01.01.00" mimeType="video/mp4" sar="1:1" FBEncodingTag="dash_vp9-basic-gen2_720p" FBPlaybackResolutionMos="0:100,360:98.5,480:98.4,720:98.2,1080:97.1" FBPlaybackResolutionMosConfidenceLevel="high" FBPlaybackResolutionCsvqm="0:100,360:99.663,480:99.648,720:99.59,1080:99.27" width="720" height="1280" FBQualityClass="hd" FBQualityLabel="720p"&gt;&lt;BaseURL&gt;https://video-iad3-2.xx.fbcdn.net/o1/v/t2/f2/m366/AQMV2gJpYQUxVebmLAyNy2pT0WhHhsrjMzixaMYXf_G22wZpVnPKNjKfDknYCDIfcRcphyHCSZ7Dt2Ix5SbRFYl3xyQ9DGaUvY9YGD9LZLOiEA.mp4?_nc_cat=106&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-iad3-2.xx.fbcdn.net&amp;amp;_nc_ohc=zcc-GzB1iecQ7kNvwEOB9iX&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfdnA5LWJhc2ljLWdlbjJfNzIwcCIsInZpZGVvX2lkIjoyNDc4Njg1ODU4NzY0NzYzNSwib2lsX3VybGdlbl9hcHBfaWQiOjAsImNsaWVudF9uYW1lIjoidW5rbm93biIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;amp;ccb=17-1&amp;amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;amp;_nc_zt=28&amp;amp;oh=00_AffUEcy0hSLlyJxexRIIm_x35GzmnZntKF-GR9waI609SQ&amp;amp;oe=68F16C66&lt;/BaseURL&gt;&lt;SegmentBase indexRange="818-885" timescale="15360" FBFirstSegmentRange="886-2156815"&gt;&lt;Initialization range="0-817"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;Representation id="1844671576397887v" bandwidth="4740021" codecs="vp09.00.40.08.00.01.01.01.00" mimeType="video/mp4" sar="1:1" FBEncodingTag="dash_vp9-basic-gen2_1080p" FBPlaybackResolutionMos="0:100,360:99,480:99,720:98.9,1080:98.6" FBPlaybackResolutionMosConfidenceLevel="high" FBPlaybackResolutionCsvqm="0:100,360:99.767,480:99.764,720:99.755,1080:99.69" width="1080" height="1920" FBQualityClass="hd" FBQualityLabel="1080p"&gt;&lt;BaseURL&gt;https://video-iad3-1.xx.fbcdn.net/o1/v/t2/f2/m366/AQOkGstF3KKnJdflAQML-Jjl7EF2v48kSQEQ9swq4f6dq0oLoxnrugtrjcSjI8RAA4lzouOHwLBvhWzOvCzM0fyKaC1IUljA0t_ZA0kRU9j8WA.mp4?_nc_cat=108&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-iad3-1.xx.fbcdn.net&amp;amp;_nc_ohc=9-EhEQE-7UgQ7kNvwFn3Pc0&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfdnA5LWJhc2ljLWdlbjJfMTA4MHAiLCJ2aWRlb19pZCI6MjQ3ODY4NTg1ODc2NDc2MzUsIm9pbF91cmxnZW5fYXBwX2lkIjowLCJjbGllbnRfbmFtZSI6InVua25vd24iLCJ4cHZfYXNzZXRfaWQiOjIwMDc2Njk3MTMzMjc2OTIsInZpX3VzZWNhc2VfaWQiOjEwMTIzLCJkdXJhdGlvbl9zIjoxMSwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;amp;ccb=17-1&amp;amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;amp;_nc_zt=28&amp;amp;oh=00_AfepAzsW6Vl0u4n5gMJA-sQvLamfyOCejNuJ02iJXh6yDQ&amp;amp;oe=68F16108&lt;/BaseURL&gt;&lt;SegmentBase indexRange="818-885" timescale="15360" FBFirstSegmentRange="886-2963398"&gt;&lt;Initialization range="0-817"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;/AdaptationSet&gt;&lt;AdaptationSet id="1" contentType="audio" subsegmentStartsWithSAP="1" subsegmentAlignment="true"&gt;&lt;Representation id="831755119188588a" bandwidth="76308" codecs="mp4a.40.5" mimeType="audio/mp4" FBAvgBitrate="76308" audioSamplingRate="48000" FBEncodingTag="dash_ln_heaac_vbr3_audio" FBDefaultQuality="1"&gt;&lt;AudioChannelConfiguration schemeIdUri="urn:mpeg:dash:23003:3:audio_channel_configuration:2011" value="2"/&gt;&lt;BaseURL&gt;https://video-iad3-2.xx.fbcdn.net/o1/v/t2/f2/m412/AQOMrxUoCPjuRd5s9bmoRzEkcv5OUcCsJAbSJSztxUwLWzimNNhRsL09E-K7Z5op_TiFLsOQjpNS1cRnYJYOXjFngsPmujN4Qhl_tJo.mp4?_nc_cat=111&amp;amp;_nc_sid=9ca052&amp;amp;_nc_ht=video-iad3-2.xx.fbcdn.net&amp;amp;_nc_ohc=S8JPmMsLrpIQ7kNvwEvJRv4&amp;amp;efg=eyJ2ZW5jb2RlX3RhZyI6ImRhc2hfbG5faGVhYWNfdmJyM19hdWRpbyIsInZpZGVvX2lkIjoyNDc4Njg1ODU4NzY0NzYzNSwib2lsX3VybGdlbl9hcHBfaWQiOjAsImNsaWVudF9uYW1lIjoidW5rbm93biIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;amp;ccb=17-1&amp;amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;amp;_nc_zt=28&amp;amp;oh=00_AfdrymI__VZ--HNuguvV6q45PUaBcyCNkst9NoJKOOHHew&amp;amp;oe=68F19060&lt;/BaseURL&gt;&lt;SegmentBase indexRange="824-927" timescale="48000" FBFirstSegmentRange="928-22978"&gt;&lt;Initialization range="0-823"/&gt;&lt;/SegmentBase&gt;&lt;/Representation&gt;&lt;/AdaptationSet&gt;&lt;/Period&gt;&lt;/MPD&gt;\n', 'dash_manifest_url': 'https://www.facebook.com/dash_mpd_debug.mpd?v=24786858587647635&amp;dummy=.mpd', 'min_quality_preference': None, 'audio_user_preferred_language': 'en', 'browser_native_sd_url': 'https://video-iad3-1.xx.fbcdn.net/o1/v/t2/f2/m412/AQMXN1CuZwr95L5GcnjmKccCbSO2xCOnBi1Mui57x5u0211wnj7He1NFj0s0R8PC4Vb6C2_-R7-rQbX0U_SX4hQNM8PcdkDaFdED2iH5BQ.mp4?_nc_cat=104&amp;_nc_sid=8bf8fe&amp;_nc_ht=video-iad3-1.xx.fbcdn.net&amp;_nc_ohc=GwcUOuFru3QQ7kNvwE5VATl&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5GQUNFQk9PSy4uQzMuMzYwLnN2ZV9zZCIsInhwdl9hc3NldF9pZCI6MjAwNzY2OTcxMzMyNzY5MiwidmlfdXNlY2FzZV9pZCI6MTAxMjMsImR1cmF0aW9uX3MiOjExLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;_nc_zt=28&amp;oh=00_Afdq9dR_aAPkncKFeZYlWuB9ERX94nzAjjO1knR4cH0I9w&amp;oe=68F17D2E&amp;bitrate=711185&amp;tag=sve_sd', 'browser_native_hd_url': 'https://video-iad3-1.xx.fbcdn.net/o1/v/t2/f2/m366/AQND_pVUMU0WFgfez20keVyEagojmU0CUbAXGqSmKVPhv-jYGFU7DczEUZ5BmHJQlrDfnPxS04vauVvN9Ip3jce-gvCus86TOdecumNiynUApw.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=video-iad3-1.xx.fbcdn.net&amp;_nc_ohc=yCIl5nfvEwIQ7kNvwFuckyc&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5GQUNFQk9PSy4uQzMuNzIwLmRhc2hfaDI2NC1iYXNpYy1nZW4yXzcyMHAiLCJ4cHZfYXNzZXRfaWQiOjIwMDc2Njk3MTMzMjc2OTIsInZpX3VzZWNhc2VfaWQiOjEwMTIzLCJkdXJhdGlvbl9zIjoxMSwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=e4fe490b5e8b23d1&amp;_nc_vs=HBksFQIYRWZiX2VwaGVtZXJhbC82QjRGQjNCNTQzNzU2RDM3ODYyMTI2NTYwM0FGNDg4N19tdF8xX3ZpZGVvX2Rhc2hpbml0Lm1wNBUAAsgBEgAVAhhFZmJfZXBoZW1lcmFsLzZENDU3Q0NBMUIzRDVBNzAxREE5N0E0OTQwNkU4REE3X210XzBfYXVkaW9fZGFzaGluaXQubXA0FQICyAESACgAGAAbAogHdXNlX29pbAExEnByb2dyZXNzaXZlX3JlY2lwZQExFQAAJpjZtoHh_ZAHFQIoAkMzLBdAJhDlYEGJNxgZZGFzaF9oMjY0LWJhc2ljLWdlbjJfNzIwcBEAdQJllp4BAA&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;_nc_zt=28&amp;oh=00_AfdDaJ3xjjaGDC9FOkzGxButPZzdJz6cLwxM0lIzfrUhYg&amp;oe=68F16A74&amp;bitrate=2917207&amp;tag=dash_h264-basic-gen2_720p', 'spherical_video_fallback_urls': None, 'comet_video_player_nextgendash_availability': 'AVAILABLE', 'is_gaming_video': False, 'is_latency_menu_enabled': False, 'fbls_tier': None, 'is_latency_sensitive_broadcast': False, 'comet_video_player_static_config': '{}', 'comet_video_player_context_sensitive_config': '{}', 'video_player_shaka_performance_logger_init': {'__typename': 'VideoPlayerShakaPerformanceLoggerInit', '__module_operation_useVideoPlayerShakaPerformanceLoggerRelayImpl_video': {'__dr': 'useVideoPlayerShakaPerformanceLoggerRelayImpl_init$normalization.graphql'}, '__module_component_useVideoPlayerShakaPerformanceLoggerRelayImpl_video': {'__dr': 'VideoPlayerShakaPerformanceLogger'}}, 'video_player_shaka_performance_logger_should_sample': False, 'video_player_shaka_performance_logger_init2': {'__typename': 'VideoPlayerShakaPerformanceLoggerInit', '__module_operation_useVideoPlayerShakaPerformanceLoggerBuilder_video': {'__dr': 'useVideoPlayerShakaPerformanceLoggerBuilder_init$normalization.graphql'}, '__module_component_useVideoPlayerShakaPerformanceLoggerBuilder_video': {'__dr': 'VideoPlayerShakaPerformanceLoggerBuilder'}, 'per_session_sampling_rate': None}, 'autoplay_gating_result': 'ugc_default_allowed', 'viewer_autoplay_setting': 'default_autoplay', 'can_autoplay': True, 'drm_info': '{"video_license_uri_map":{},"graph_api_video_license_uri":null,"fairplay_cert":null,"widevine_cert":"CsECCAMSEBcFuRfMEgSGiwYzOi93KowYgrSCkgUijgIwggEKAoIBAQCZ7Vs7Mn2rXiTvw7YqlbWYUgrVvMs3UD4GRbgU2Ha430BRBEGtjOOtsRu4jE5yWl5KngeVKR1YWEAjp+GvDjipEnk5MAhhC28VjIeMfiG\\/+\\/7qd+EBnh5XgeikX0YmPRTmDoBYqGB63OBPrIRXsTeo1nzN6zNwXZg6IftO7L1KEMpHSQykfqpdQ4IY3brxyt4zkvE9b\\/tkQv0x4b9AsMYE0cS6TJUgpL+X7r1gkpr87vVbuvVk4tDnbNfFXHOggrmWEguDWe3OJHBwgmgNb2fG2CxKxfMTRJCnTuw3r0svAQxZ6ChD4lgvC2ufXbD8Xm7fZPvTCLRxG88SUAGcn1oJAgMBAAE6FGxpY2Vuc2Uud2lkZXZpbmUuY29tEoADrjRzFLWoNSl\\/JxOI+3u4y1J30kmCPN3R2jC5MzlRHrPMveoEuUS5J8EhNG79verJ1BORfm7BdqEEOEYKUDvBlSubpOTOD8S\\/wgqYCKqvS\\/zRnB3PzfV0zKwo0bQQQWz53ogEMBy9szTK\\/NDUCXhCOmQuVGE98K\\/PlspKkknYVeQrOnA+8XZ\\/apvTbWv4K+drvwy6T95Z0qvMdv62Qke4XEMfvKUiZrYZ\\/DaXlUP8qcu9u\\/r6DhpV51Wjx7zmVflkb1gquc9wqgi5efhn9joLK3\\/bNixbxOzVVdhbyqnFk8ODyFfUnaq3fkC3hR3f0kmYgI41sljnXXjqwMoW9wRzBMINk+3k6P8cbxfmJD4\\/Paj8FwmHDsRfuoI6Jj8M76H3CTsZCZKDJjM3BQQ6Kb2m+bQ0LMjfVDyxoRgvfF\\/\\/M\\/EEkPrKWyU2C3YBXpxaBquO4C8A0ujVmGEEqsxN1HX9lu6c5OMm8huDxwWFd7OHMs3avGpr7RP7DUnTikXrh6X0"}', 'p2p_settings': None, 'audio_settings': None, 'captions_settings': None, 'broadcast_low_latency_config': None, 'audio_availability': 'AVAILABLE', 'muted_segments': [], 'spherical_video_renderer': None, 'preferred_thumbnail': {'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t15.5256-10/558902274_1469243001024824_6827476898448345191_n.jpg?stp=dst-jpg_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=50ce42&amp;_nc_ohc=0qrmMT2n_z8Q7kNvwG3d1DF&amp;_nc_oc=AdlIUTa6Ol9w2j5W5qCk2kZ2wjKBT8hcZpKIapiau0oKfzfyqWJntvZ-fyvQYh-d86Xx6oaC6gtWOCJtvJuOtctf&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AfcbgmIS2lNCyBW-j88mqxydj6EVA-nit_V_D-bXbBSXVA&amp;oe=68F16D72'}, 'image_preview_payload': None, 'id': '24577627615264036'}, 'video_imf_data': None}], 'profileUrl': 'https://www.facebook.com/crissfa1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/473966731_4157362787828275_4470803533664544378_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eVk0P78wZjsQ7kNvwE8j1fi&amp;_nc_oc=AdlVYApLYChrvSiRBx8G6-rMSxXzYH8mOqFnIK9r8NHIsI4Lc4YIGF4_v7DsV4gO201jW2-XmeN5o2WgXFVJx9ID&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=djyE5BiLMuDHbuTp7U-Osw&amp;oh=00_AffFGo89_mTxg9_Pq7GHZtkulErJmJiMmAQNw_o2Eq8TeA&amp;oe=68F18047', 'profileId': '100006637841599', 'profileName': 'Kriss Montty', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=87bOUJx1Q_8Q7kNvwGeMBUQ&amp;_nc_oc=Adlj4Xlyjur3XrKGxFjvQ9cDv32KTt9hd4teta8gj5mCrK1N0I7LIxQ_jdlv2HXeSPo&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_Afc4IRWm2ztQ1VuV6bKsDYoj1qYakDRWM5jYHkkJDV0meQ&amp;oe=68F02015', 'profileId': 'pfbid02upmeJq2TkxMcCXUL38b1uVygQW1V4KkJ1bAEjnPRqMfLroDu1kYjSKn3TSKJ1Z6gl', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1455833828971045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NTU4MzM4Mjg5NzEwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDU1ODMzODI4OTcxMDQ1', 'date': '2025-09-26T04:37:54.000Z', 'text': 'Video en mi canal! \n\nhttps://youtu.be/T2prAJDz5Wk?si=8mA7rnquXG1kEGmC', 'profileUrl': 'https://www.facebook.com/exotik.salinas', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/417004330_2998802693593508_5227055261430869127_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=87bOUJx1Q_8Q7kNvwGjkBfX&amp;_nc_oc=Adn1vSUEIIS9s-9-Hc6utneXGbhGYPrDNQDQGiEJznk9_ISNnIMD5_dDZK1BAg8H4sE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_Afdt0rfZx9BbnxkGUo1vmg2FXs7McZhmkjC9mefnsPnb1w&amp;oe=68F17195', 'profileId': 'pfbid0qoAvq1pu61RLb1iG4P5WEsQuAaDQoZvy5MYzKdttGoTvF2fERDRPfyRr4YF3UJBol', 'profileName': 'Fabián Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g06Zu70A4hkQ7kNvwGwBhZi&amp;_nc_oc=AdnZUWY5LmanTyHdmxrBzy-K6uhxo4ofnibIEwZnVviRVi7NZg_R0IM5AoYNS5EEfAg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_Afew5fP5bS63feGO3pcuUjQmitqxCDyb6y2iN84-SGH5eg&amp;oe=68F01854', 'profileId': 'pfbid02tdy799YStMeEmBDHj5ZsGZUiXAPA82Xu45GEMDZkUSavvKVC7qQefBtVnBa5qwEcl', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=665113342826223', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY2NTExMzM0MjgyNjIyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NjUxMTMzNDI4MjYyMjM=', 'date': '2025-09-19T21:26:11.000Z', 'text': 'En villavicencio  donde se puede', 'profileUrl': 'https://www.facebook.com/marce.to.96', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/410387012_2587056824797321_2564511721363972842_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pkldcF9I-_gQ7kNvwF3oFMA&amp;_nc_oc=Adn1gzeQWFyFQmQq5-2066oute6m06oRzrPjiQExtr7uai1YA8kw0Ct0pQe4EuzdeJk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_AfdDmRq99rkwZNlnn9NoyMdkYzqRyEZNPEUsjl9Je5TrOg&amp;oe=68F169D4', 'profileId': 'pfbid0q6KvDyv639vQL2JghiWVEGpzv7rTqnXALJZU4Gy8pRdZeSmiLg41LCWWXPDX3qf2l', 'profileName': 'Marce Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7QN_7jEvPxIQ7kNvwGsxbKP&amp;_nc_oc=AdnsSBQKIijw6zLtLO32gsmOnJx_6NLIiKRvttu6m44utxheKT0R5NIi1Wv1N_pHfjQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_Afci-7GFqjAPPTJ-Z7IjZYsfQjtdHho7FftOkKVsGt1OKg&amp;oe=68F03A77', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1284742079542158', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyODQ3NDIwNzk1NDIxNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjg0NzQyMDc5NTQyMTU4', 'date': '2025-09-23T00:07:37.000Z', 'text': 'Se reclaman en los oxxos', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/311685934_6048183651863233_6445496659574292383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7QN_7jEvPxIQ7kNvwEUK31q&amp;_nc_oc=Adl3dcQDGURvCwJrZAxwkjOMyRITf3A8XhZ8yKBybHmgj9BBB4xLfPdWERMdd6vU4F0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_AffRLwlbzCgNE237CtMiZkK6MZ-PRI7pqni0LlMqxfoxhw&amp;oe=68F18BF7', 'profileId': '100000149739635', 'profileName': 'Saya Piñy Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/559372691_10237600988299682_1499416586618670925_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NettMt_sb1QQ7kNvwH9Hedz&amp;_nc_oc=AdmhkxgORb8T33gmPfDoFneNPpfX9IXNgWn2ptWlDBD7N--EkGQa2FX9M82_ghBrfEk&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_AfdkIPPsWZI1EQFaLJuvVyhoFoVeVp84vmE8hGsVWprYZA&amp;oe=68F03028', 'profileId': 'pfbid02AY931hRZULHMTy7PZAt8eMZK9j5YhEEAnx2jMwG9QjGMsoqApzVb8ziYA6xsxnZql', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24483457298006827', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NDgzNDU3Mjk4MDA2ODI3', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDQ4MzQ1NzI5ODAwNjgyNw==', 'date': '2025-09-20T02:43:40.000Z', 'text': 'Ya tengo 20 *_*', 'profileUrl': 'https://www.facebook.com/naniis.rodriigguezz', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/559372691_10237600988299682_1499416586618670925_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8TkoUOe7n_wQ7kNvwHtvvxR&amp;_nc_oc=AdnQrtTEHGvjkgox69McXzUoaPFHLbC7XIFiBhtpw7ABr0cFVol0R63seajJoI_KNQE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_AfeVcaHXrJZTs5Ptofe_mjs910ELlyaiMxNKnZrU3WO0Jw&amp;oe=68F181A8', 'profileId': 'pfbid06zVr6XoCdAjCTCVaZZGdCG9s46p5sHiZXu97CWeLjM1NYc8iFedfZiio1saQDUY5l', 'profileName': 'Diana Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=b224c7&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFOwZ8-&amp;_nc_oc=Adk4ljsJiSINhVMn7gkegx35GR1z13JpAQOttaRzvoIRT5jx9mYsqQg-EPuazifKVoI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_Afd3H1H30DXrxpzUaOtDE7jZsL8_uO0dluRT5o4LqmcdDA&amp;oe=6911E07A', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=647974868045068', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzY0Nzk3NDg2ODA0NTA2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV82NDc5NzQ4NjgwNDUwNjg=', 'date': '2025-09-22T15:49:10.000Z', 'text': 'Andrea Marimon', 'profileUrl': 'https://www.facebook.com/m.gutierrez.maria', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/559623295_3829752653988814_1100421522861753253_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WEzrtXJM4rMQ7kNvwHZhMyW&amp;_nc_oc=AdlxBjYkyTQklBeJ7UgnHIlaIf8GyrIcffzYQv9rfKFbScjVRUiofLrpmUNNHgyhIf0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_AfezlagiHT4ZCrlCNeiwYo0Wixi_6KrnI3uW3tUhcuzUGg&amp;oe=68F18593', 'profileId': '100008623500798', 'profileName': 'Maleja Marimon', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GuKG_zDGSe0Q7kNvwFneD74&amp;_nc_oc=AdmjAJ2oe3w7q0WltZdUazGx3oBGFCGQ_DIi5XFTdXmf3qB_CRQihW0Ic63FSYOSKNE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_AffJUUStzHeKjgsSHfbi4CSCCmpccErNQPutrOxSPjl2gg&amp;oe=68F02262', 'profileId': 'pfbid0SeKizYKtBBhabofT1QfFS8erfAfFw8VApe5rF4KZitfc5K4miTV3JkkE9PPeTLiul', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1080481890583400', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODA0ODE4OTA1ODM0MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgwNDgxODkwNTgzNDAw', 'date': '2025-09-30T23:49:03.000Z', 'text': 'Esto no es saludable para los niños, si quieren los juguetes comprarle uno aparte...', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/508763426_10233408298644282_1310241284839115048_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GuKG_zDGSe0Q7kNvwHxkWS9&amp;_nc_oc=Admc5ERIy3-dnGcO4Gw758K8i4wdBrC6jqIGFlNN751dScR69wBkq-EnIWcNaZnDk_g&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_AfeDUIt5ZGM8DA9XiWv-Ch4wcj999E3k7XOydh8kGGWGug&amp;oe=68F173E2', 'profileId': 'pfbid02WVmSBDFi2X2iebJWRHqE8p3P1TDZZbB4P7nqjSMQCuTNEjurQtPHP8WgqcXUvCyPl', 'profileName': 'Jeison Nisperuza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=O_BC-8VNFQ4Q7kNvwFqidQ3&amp;_nc_oc=AdmT0pUMX_eUSNxmItj7BIPdM1aIj4jD6ZlkUaUaRBPcUcMZbNbp7nNaEQSqyWKiep8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_AfczGnGYvymHg-_LfglvXDfvfOwpGm7snetCYZDcTSmbGQ&amp;oe=68F0415E', 'profileId': 'pfbid02rHM3FcNPVhfMDDqxu9WWMBW32QoL5efVrWPhF4B3erWYzUdk1Kw1jvKLMEwVKP7Jl', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1492062785280919', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0OTIwNjI3ODUyODA5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDkyMDYyNzg1MjgwOTE5', 'date': '2025-09-24T16:13:03.000Z', 'text': 'Bajen el precio', 'profileUrl': 'https://www.facebook.com/dayana.cano.467182', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/512682077_122253204734238418_938151712633377086_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=O_BC-8VNFQ4Q7kNvwE2ER3U&amp;_nc_oc=AdkjUXMAgi38d_L_qVES_BHIKVpVIusZQd9VqSwHD6fLhHmK--T48RNzy2ccpHU_n1I&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_Afd5kGFK4ALo_hbSNHOjihRpYdpZSKxdfU4HQdnusa1oaw&amp;oe=68F192DE', 'profileId': 'pfbid0njhrLSk2ebEefPrSoqNFTVHziubVFo8dSEcK5e56p78MxQU1UFwVFBV8phmoDVn8l', 'profileName': 'Ginger Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7823,7 +7823,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4mIlNo5XlcgQ7kNvwE-mt0i&amp;_nc_oc=AdkJgeGjMpZNoymTnbIc6ZlwPMVs1eIStcrBniKo_W7H_Aj0yvimwNO92_518rt1Gdw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_Afd9DZpA0KiKC-9kMkaxvDYILU_fyIuk4xmLW_4gqZPTww&amp;oe=68F02278', 'profileId': 'pfbid0bApvLDmPqNSKsajLxfwbLXUDtu9yC3xiEKgPJ7PdMgVCHi8ksDaXbhQoPfqQcAvtl', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1095840769375359', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwOTU4NDA3NjkzNzUzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDk1ODQwNzY5Mzc1MzU5', 'date': '2025-09-23T00:02:58.000Z', 'text': 'Joa cule moral jajajaja', 'profileUrl': 'https://www.facebook.com/jesus.charris.778532', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/413863480_2693946654102858_4079468968300488782_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4mIlNo5XlcgQ7kNvwH8slQy&amp;_nc_oc=AdmZ5TonNq_KTnUfHEHBffs_O9lQ5OuUPrL0tOfdbLmIr4dubsCKFuNRhhfqiyA5gxA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_Afcl_RSgUBD38qtQxRWMw484aFZl8YD4OdHpuKMT5cjWNA&amp;oe=68F173F8', 'profileId': 'pfbid02eYK6xF81s63VWPPrwVpPZBwWoNsq6fx6bdRZkJwjNTgApR5y3PqDYxrPiY7jdBA8l', 'profileName': 'Jesús Charris', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-KoHfeRhKbwQ7kNvwF85_Fs&amp;_nc_oc=AdkdWieHI4p5tzxlnZtnjDQSeCn8IeiIqubKFnAJBdNNFrhLfWDbdUnbfmIjBp_Lgag&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_AffkXxWqNf2Z3ifrUHwNkcrM6UpKnLKhLsZM56ncHduQJA&amp;oe=68F016FD', 'profileId': 'pfbid027eq5zSow3iQfMWGgKG5EMr1P6Eddc1Zphp9dFVTfiXCGa64sZf9zHFZKb6acQRDtl', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1276443837138227', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyNzY0NDM4MzcxMzgyMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjc2NDQzODM3MTM4MjI3', 'date': '2025-09-20T00:46:57.000Z', 'text': 'Yogo yogo da diarrea ojoooo👀', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/514473821_3572399082896314_8689376263660189229_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-KoHfeRhKbwQ7kNvwFh17yl&amp;_nc_oc=Adm1nQlFK3ApCY1JFrwcYYQ1fGkeNqChydN9HPl9STRwVbhrXnLWH-_ATjk1ovh_ILw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_AfcATOlLXJ77_vOGyNRNPorbEgCMO-ufWZat-REAtgl9VA&amp;oe=68F1687D', 'profileId': 'pfbid047Bu5HBaCc9b2s7vC7eCDzoeDcY4j1YythKWW5FpDuJEN219qay2eLG2WK9TNbE9l', 'profileName': 'Wilfran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sneKXlrYOIMQ7kNvwFx55zQ&amp;_nc_oc=Adm-K2XGSN7b73etzMc5OwlRI37AT9XJIC3WL7Wq7C0mfZcpOJgJoEQ-eCGxLJjh5Kk&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nxDtod3NFjWDAzA6m1JjqA&amp;oh=00_AfeKZTwPHVtQUCUm7k_RjUSHcBFwYuFLMum-mGmi9YUkKg&amp;oe=68F01780', 'profileId': 'pfbid0FTWKkVSpjXH655mtDesYhPaC3behz4ZJTUpym8oHyqZTGdGaqrm933UMNSprfmQHl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=771767659097491', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzc3MTc2NzY1OTA5NzQ5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV83NzE3Njc2NTkwOTc0OTE=', 'date': '2025-09-26T00:46:49.000Z', 'text': 'Pensé que era una publicidad delos Simpson', 'profileUrl': 'https://www.facebook.com/cristianandres.trujillochaux', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/323465264_575255674506866_8004479515850909008_n.jpg?stp=c0.11.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sneKXlrYOIMQ7kNvwGzXWJO&amp;_nc_oc=Adn14tM2Zzk7bQYQV7ZiD58qtkWc42l-Rf6SQcAJtx4ow27eC2zS4ZWNdeKpKNxxgHU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=JaiptqsN9BXp6dSZ_xm3OQ&amp;oh=00_AfewoADBGNamfQaSivIRhh9Pw6rER0brbZG38x4VuIkc4g&amp;oe=68F16900', 'profileId': 'pfbid02JpzWNWoSmDmppHEjy9s5pNMjkRH9KJc9k9EzCNTzaU1visHiuVyP2rKiUexY5zeTl', 'profileName': 'Cristian Andrés Trujillo Chaux', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0absXN4bDS8Q7kNvwHB9gNe&amp;_nc_oc=AdmkrP9xh1SDT21gdJvGXBew5iKn91wqFkM7Ul7GFDpvLAUch_QyhU2pOS9-MBCFGMU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_Afd7E2E46nHGJn7fC8thkSpLvz5wi88sqKhcTlnR7RNH_Q&amp;oe=68F02B59', 'profileId': 'pfbid02MFDZ2Gbs7J2wfJDZ46HfSbf94tKXnNHRFH8buibpGozkmbyWfGqQ9KXHoyuCfAQyl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815926317531713', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkyNjMxNzUzMTcxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MjYzMTc1MzE3MTM=', 'date': '2025-09-21T04:13:48.000Z', 'text': 'Uno pregunta en los supermercados y nadie da razón 😡ni saben cómo se reclaman', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/515437927_24462585676681702_7246540480350978101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ibez5oC9BEEQ7kNvwHtrZHq&amp;_nc_oc=AdmCzV4Q1thfCRzo4gLkhdONnBM2GVknFAHTOcdQp9TtswLie3XP5IN5fhaViak1wr8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_AfekXzdYUYzVVz61owrR6KoYVIfu-Z6Vb3nH6BRWXrTpgA&amp;oe=68F17CD9', 'profileId': 'pfbid0HhaN76yWFy2ZZnSREuwnQKsK8QWyfupwpedXWX3KAeBHu9oqHAPzWU1teoLHp8czl', 'profileName': 'Sandra Sofia Martinez Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8039,7 +8039,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xHiI4R4AHQIQ7kNvwHagBTi&amp;_nc_oc=Adlm5jA-4PneKdf5YlJIsbKCvnUPJfuHalqMstH-w9Kgegv1Dh649rg3hW-fA6gNq5E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_AfezmP0zQoQLyZundMoxRP7qE1UH36DJruJjSx5bvom5OQ&amp;oe=68F01CF0', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3531326550343222', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM1MzEzMjY1NTAzNDMyMjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zNTMxMzI2NTUwMzQzMjIy', 'date': '2025-09-19T12:09:35.000Z', 'text': 'En cartagena donde se pueden cambiar los logos?', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495086124_23955138997410988_6489698665310057203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xHiI4R4AHQIQ7kNvwGzKRrK&amp;_nc_oc=Admyw3aQaU165a2yQ84_piPUsWf-K6SAmO8osNZH7ifO-_W1iukb5R1QG65-bMDYs44&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_AffMZUB5IuhGQS-svd3FnRVrvYzY72KvaEb1TRClftYfZQ&amp;oe=68F16E70', 'profileId': '100000246679261', 'profileName': 'Ariel Jose Cabarcas Mercado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q8RaM10jg8IQ7kNvwHLSjZW&amp;_nc_oc=AdmqGTHk9pBMTS4G9zeXCaeEi204jQWIKAyAEgqSHzWm9njlzCD6frgcdxQ1Urox7uA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_Afe2BJVJPCVoJXj3SN1ArfcG6_MWiRU_csMkkJdTY26P6w&amp;oe=68F02E92', 'profileId': 'pfbid02dZjyE2Xf8Gazbn4nVXrxKTS1vG3bgSduMVWYdVqpwVEpjA1fwixinkaSC5jhCDaal', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=815939027608308', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzgxNTkzOTAyNzYwODMwOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV84MTU5MzkwMjc2MDgzMDg=', 'date': '2025-09-23T17:10:38.000Z', 'text': 'Fui al Oxxo y no hay todavía para cuándo llegan a Girón Santander', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/495329737_9819494371442780_743087772299687810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q8RaM10jg8IQ7kNvwHGZZAR&amp;_nc_oc=Adl-uK2-IR8cLoSdEe24bPjC_m_u2k9I9DRLfTjGdIH--UJ-URrr-WulNot3SXvVwls&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_AfcLfZ_Fg6CymRvU9mUOx7b3ej6mAtL2ORpuzVV6wAHqgA&amp;oe=68F18012', 'profileId': 'pfbid0a26nJruJHDbK9rvfeVrPitDK4rXtJUo56qg2WfpowAQvxqdo4CFh4YkCMWZqNVvCl', 'profileName': 'Astrid Dayana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=up1jeKR6oX8Q7kNvwH8u8Og&amp;_nc_oc=AdmRvYyGgWidVMr5evjefBQjIv23Soh9tFFZU3V5eLAp5J1MjQb8OJLmJx5Qh9490aE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_AfePGMDULv2HRmOHX3WccxslH3EX7GT1GbNXWC8AyRjVJw&amp;oe=68F03CA8', 'profileId': 'pfbid0nCMv33VcNAXegG19us19iYSNeZghzWvmaxsoWRMrM3fegsZXa2uwFpdyvmhzwjzTl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=3985775171565843', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzM5ODU3NzUxNzE1NjU4NDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8zOTg1Nzc1MTcxNTY1ODQz', 'date': '2025-09-22T21:29:17.000Z', 'text': 'Nataly Leon', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/480627352_2317130078727490_8912330425837913052_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=up1jeKR6oX8Q7kNvwH6U9kV&amp;_nc_oc=AdkYqiXlhcZ3cOkRcD5FUnAgbStnnKgfkBgyp6oswhuNlgjXWnC5YFjCJTRjgcpORbA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_AfeDspSjzoiT6uUAPZGgeP9V2kerjfPWRXbAyBfjmlcBiw&amp;oe=68F18E28', 'profileId': 'pfbid02qZr6f4rEPuaQpbvt3X3UAeUknWQykjcdBiDZUAmLHXXaUapMSefQmbn1AdFyW3Kcl', 'profileName': 'Jorge Armando Galvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uQebt3NVfJ0Q7kNvwFYx65S&amp;_nc_oc=Adl9hu9Cwt9LYqalSNFet5gvAuPp3b7Nplq2T5SJKynmvAUgRMbV72pwKpEmlkKvhyo&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_AffuhtdP2ntORmbJ7ERoEhShb3B_K_t2li1yPmGgtJpsMA&amp;oe=68F01A78', 'profileId': 'pfbid0J7AXMeMiwtuTMjZdyfVgNV9Jk3Mbb4r59u95dVXwQJvZRYosy1GXWvP4r4JE33XBl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1468042414409019', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NjgwNDI0MTQ0MDkwMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDY4MDQyNDE0NDA5MDE5', 'date': '2025-09-29T18:08:24.000Z', 'text': 'Metanselo de lavado, eso es para que venga ahy mismo en el six pack va uno a reclamar y te toca hacer filas', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/539854983_3588170391315558_1064196098665981613_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ByYKnoOGUNsQ7kNvwHe90gn&amp;_nc_oc=Admtm2KLVeoXy09pOycugLNYVXY9d7xCSkmCyn8Ta3dy-RW1qCxFS-sHA1XxpHKvGMo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_AffC--NAR2MhYdfY5wcHVnEKuAbUp-F_mB5YaU3EoitTYQ&amp;oe=68F16BF8', 'profileId': 'pfbid02MxcEYKHYoSSGrKWzsAWZYZLArApwtxt4KTUU1qK5r9THuZArMtEbVnVYWPRfFpmNl', 'profileName': 'Wilmer Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NGCHsEDjIR8Q7kNvwHSwcCC&amp;_nc_oc=AdnVsY1havWgaY-YVsre2b_r_ylVW9YeBeN5SUjYRDGaVQxjz7W2R5Ccscv4reJInmU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_AfcuYcSez-7vItL0Hgtr0-7SfQcplGerm2KyMw97k8b0mw&amp;oe=68F02509', 'profileId': 'pfbid0TfxDSS3vuYJGunneLK2FRnwTjXqoEiKuCWMj9nAxgTn7oGVc1fxHsLu6G6SWimxwl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1296097172014449', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEyOTYwOTcxNzIwMTQ0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMjk2MDk3MTcyMDE0NDQ5', 'date': '2025-09-26T10:21:46.000Z', 'text': 'En los  Oxxo de Pereira ya llegaron', 'profileUrl': 'https://www.facebook.com/cveal.gl', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/425893596_3937443726489764_3635682388318968388_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NGCHsEDjIR8Q7kNvwHtmxLq&amp;_nc_oc=AdnDSIHLpw3nu1zddKwFyZK-FNg_yh-nQlOkSdnBPFke0MY9a4AXra8BI0lRk2xIgSA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_Afd0KkaC2g0zj2ilRAuNBVUtqof2-PARcuQbuJfauyunyA&amp;oe=68F17689', 'profileId': 'pfbid02XXPvd6ykkxGX1Ah3AXUPZJn3Y5sh7mgf4sopPd5yJqnYzauCCfZG4CzMz3gvEh1dl', 'profileName': 'Gandys Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8310,7 +8310,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=imIzzCCEd9AQ7kNvwHc5_9K&amp;_nc_oc=Adm_Dtkq8AaOnVhlvtSlQJ_qXgdMXfKPhuMQlwFMKpcWX08PLAvtCO72Jrcsg7RenTw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_AffUlUax2Y-gJ0Y3j17_U5m7nOTMuLmDSOfy9Kar0CiA_g&amp;oe=68F01EF6', 'profileId': 'pfbid0MdiTMEybnVLbUB8ZqK2RhAVTJHzR2xKfuXJceTf2YGPu6JGrK74wCnDcRkshnv6Jl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1473223560555678', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE0NzMyMjM1NjA1NTU2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNDczMjIzNTYwNTU1Njc4', 'date': '2025-09-27T02:05:28.000Z', 'text': 'Nombres de los MOCHISAURIOS \nNombre de los MOCHISAURIOS https://youtu.be/2YFmiBTjQ_4', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/464295480_10160098005621502_3995611325472048793_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=imIzzCCEd9AQ7kNvwEXerzW&amp;_nc_oc=AdkHEACGE-PH-F79mZffSHa_pr7B1HeK4mNzEI7zGCYhBdHiZRVbZrKJiGC4SYk6_oQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_Afe1dMkIzF0pgT9DKkMDpeoIoWvnXPPKcnvT1JBLEd09pA&amp;oe=68F17076', 'profileId': 'pfbid02R1CdyGLDpEYRuur8o9UxxkRrzcjioq3eduY2qCoatkg4G5ifu4yQjvg1LNCBWKfNl', 'profileName': 'Juan Camilo Reyes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8364,7 +8364,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CycdiY3nrxcQ7kNvwGbCZ27&amp;_nc_oc=Adm5VLzNAZfokRj4cPtI9pzTQiV2hVFs4nAATSOeX-80N46UAya9aMyMrCM-phTCYuA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_Afeg8DAeT_f-4IhE9Mg2u5_9ak7vYaMKPcyBao-3VHxnuA&amp;oe=68F03CBE', 'profileId': 'pfbid0euicaifoaS2hq3AegVuKkb7a2ToeKKe9sckg2JoVKvNpLzxcTWjyeDNzjpRFtoD4l', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1507935063786310', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE1MDc5MzUwNjM3ODYzMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xNTA3OTM1MDYzNzg2MzEw', 'date': '2025-09-23T02:32:37.000Z', 'text': 'Los yogo premio no se consiguen en ningún supermercado', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/364752924_7201650236516454_5296385567411647918_n.jpg?stp=c63.63.1875.1875a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CycdiY3nrxcQ7kNvwENBAXl&amp;_nc_oc=AdmnLVh9Ogq7yiOKa0t93q02rY0t-46iQCXJsEodJZml4iAWgpGo4fgwcWCtS1uJh_A&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_AfdoRTFMjTd1HiwEZOM2GQ0tKyRxCvj1mxZRBSR__P3sQg&amp;oe=68F18E3E', 'profileId': 'pfbid02imAKmPbdRsJo8yBJsQqxaYS9LQo8Np2Ygdt7Ft4Ht85NKeTSorkoGsMys7vXvneQl', 'profileName': 'Valen Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFgk3EY&amp;_nc_oc=AdnbIWN03rfxMzgdNEMTOGpIx4e_LXCxxpSxv-ZRqvN2JnX9Zms9h12-0hB1vafOdno&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfcvsSJyOMurpvoTkYlzQ8QxdTZMap1PUPdHrAAelX7xwA&amp;oe=6911E07A', 'profileId': 'pfbid02oZKULMGW9Ui1kRi4hWBNKK8Jiw5Zr4WD3nQ3c7xDFJEnMSdKCMByCdXB2J5h6Te5l', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1915648309365016', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzE5MTU2NDgzMDkzNjUwMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xOTE1NjQ4MzA5MzY1MDE2', 'date': '2025-09-24T21:41:25.000Z', 'text': 'Hola \nEsos muñequitos los están sacando de Temu?', 'profileUrl': 'https://www.facebook.com/sleep.over.3', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwGNfhBn&amp;_nc_oc=AdmWONDMVpxQDt70KYG79lrph_YxhBXULrOSc4sxPLQg8Q7jsYxTh5cvaNPsTQwwWYA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;oh=00_AffgKkySCDOemJNxTlWsP7EBg-6CGexE8UE2sQ9ZuVaLIg&amp;oe=691331FA', 'profileId': 'pfbid0jXikrY4wUW3Wi9aqouLQdUphK33REY6zGxpq3EY4HbPxBcC3oA3XK4snYiea7cCRl', 'profileName': 'Daw Er', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24751953854447045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NzUxOTUzODU0NDQ3MDQ1', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDc1MTk1Mzg1NDQ0NzA0NQ==', 'date': '2025-10-05T04:47:19.000Z', 'text': '8', 'profileUrl': 'https://www.facebook.com/luis.cardoza.961', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/264551225_3007180022855128_4674514006705640193_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YcokrRtKJnEQ7kNvwFjBQiY&amp;_nc_oc=Adn9TkYsxwP9etvk0EtjdZNEE05xz5gcolu10PMvSrILLlal-NisjLNz2Xt8uMvCh_0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=quTxUeBViKYaYoxamhxIvg&amp;oh=00_AfdzB-KD7Ep2T-L8mqZca9zsjN5zHo-rlcmcJAy51wcpDw&amp;oe=68F01EED', 'profileId': 'pfbid02UvMimaYLyyWmC1rwKBSayK3w9Mgn1H4NYd9kWTfZSGuXi3943UbVG6WQotWGotAyl', 'profileName': 'LG Cardoza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=24751953854447045', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzI0NzUxOTUzODU0NDQ3MDQ1', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8yNDc1MTk1Mzg1NDQ0NzA0NQ==', 'date': '2025-10-05T04:47:19.000Z', 'text': '8', 'profileUrl': 'https://www.facebook.com/luis.cardoza.961', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/264551225_3007180022855128_4674514006705640193_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YcokrRtKJnEQ7kNvwHv0EzT&amp;_nc_oc=AdlqTLTo4UTz9eBewv7T7iCILSZt86-isvsIbh2a8WgUmm9upQtb2LxwOKyziM8v05E&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=88VKUUdrD79oImWgtyTmlg&amp;oh=00_Afd6hAWIt1iZ3gL2_NrSt_L4EC8G12G1CDgDyBYZTBPLJA&amp;oe=68F1706D', 'profileId': 'pfbid0RNiXrQuz8knLwQDp2jbnq6jA3WiVZ5mssyMkkxShBihnAWruRSxsDgXURHXSpirkl', 'profileName': 'LG Cardoza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8527,7 +8527,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ajLV9qPGgD4Q7kNvwEYOaTe&amp;_nc_oc=AdnpvXJtU4Xik7eHpw25GJKomCe6dsGqT9xjvXIyEZ8lWjOIjP_1gLinaWnD5zq9IHE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=we_sVVx-2efx4kCYxuwjJg&amp;oh=00_AfcOTVZBxXfNB2_5InRVucJivhiTB6kVUqkRgfOwHnm0Iw&amp;oe=68F032B1', 'profileId': 'pfbid0Edtcr8P5xtent5gf42u92MR7jDgKRUaGUh3XwhvswX4ZsqyHPWrkKgGZjhzpRymDl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/', 'commentUrl': 'https://www.facebook.com/reel/758590667058043/?comment_id=1083863663729619', 'id': 'Y29tbWVudDoxMjIzMzI5ODU5ODM5MjUxXzEwODM4NjM2NjM3Mjk2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIyMzMyOTg1OTgzOTI1MV8xMDgzODYzNjYzNzI5NjE5', 'date': '2025-09-25T18:28:04.000Z', 'text': 'Que falta de imaginación para los que hicieron el vídeo,se copiaron de los Simpson,no tiene publicistas buenos ,los veo muy 🙈', 'profileUrl': 'https://www.facebook.com/manuelalejandro.rodriguezquimbayo', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/326030771_680716233538781_5367510119666308415_n.jpg?stp=c0.0.976.976a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ajLV9qPGgD4Q7kNvwEI3pcw&amp;_nc_oc=Adm7AzCtONMefZ6t6pU1ygEVPLLM3yuuOdFMskLvtPQg25KlyfNIpH3Rsx_0ArIjqV8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=PLiuzhWP5AYcvu1bkH4RTw&amp;oh=00_Afdu9FfjRIk4ObZtPr-fjPeqV7_kmOiRgguq4an3yauBmQ&amp;oe=68F18431', 'profileId': 'pfbid02JVLL2oJupFoSNJRr65oxNjZtb1BPcDNZGYsiWRvHjJvLpKPRLvLyBJ4XvXf4NjEVl', 'profileName': 'Manuel Alejandro Rodriguez Quimbayo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1223329859839251', 'postTitle': 'Descubre los 40 Mochisaurios y vive esta increíble aventura con tus hijos 🦖.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1223329536505950/'}</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>655</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1202311000611</t>
+          <t>1302311000611</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -535,25 +535,25 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
+          <t>Vuelvan los originales porfa😭</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45931.93680555555</v>
+        <v>45926.75414351852</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>45931</v>
+        <v>45926</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22:29:00</t>
+          <t>18:05:58</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1d57c40e&amp;x-expires=1760360400&amp;x-signature=5XL12xZCATld2PblPdMadoCV8zE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 253, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d3d1082&amp;x-expires=1760446800&amp;x-signature=y40K8Xv2zEIWbHJv1LqTDR7FOwY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -591,25 +591,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
+          <t>y si soy de Colombia acá no hay Oxxo😭</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45930.3165625</v>
+        <v>45927.01857638889</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>07:35:51</t>
+          <t>00:26:45</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=63f27a41&amp;x-expires=1760360400&amp;x-signature=QPgEDBMcmduAd73yGXRved947NM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 182, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 58, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=80cf5cbf&amp;x-expires=1760446800&amp;x-signature=DmIYulZb8Be6imiV3q3BJdQcLq8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -647,25 +647,25 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+          <t>mucho trabajo para un muñeco</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45932.67648148148</v>
+        <v>45928.12261574074</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45932</v>
+        <v>45928</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:14:08</t>
+          <t>02:56:34</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bd354448&amp;x-expires=1760360400&amp;x-signature=ycpJvIjxDjXBg8fcuulh9YFeMoM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 158, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=35627255&amp;x-expires=1760446800&amp;x-signature=ccYgLDQiggguFd6xJoH%2B4C8cO%2B8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -703,22 +703,22 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
+          <t>yo con mis 14 mochisaurios: 👁️👄👁</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45929.73436342592</v>
+        <v>45943.24204861111</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45929</v>
+        <v>45943</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17:37:29</t>
+          <t>05:48:33</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3d1df80&amp;x-expires=1760360400&amp;x-signature=zOIz0zW9Zkd2AbQtQotqUnG1%2B2M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560579124269777672', 'createTime': 1760334513, 'createTimeISO': '2025-10-13T05:48:33.000Z', 'text': 'yo con mis 14 mochisaurios: 👁️👄👁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7535556501164065799', 'uniqueId': 'flutershy46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5e5abe1cd68cf25fc519fc9b297b0c48~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=27930b98&amp;x-expires=1760446800&amp;x-signature=FFIHQUTlqvF%2BtQUBVEj2OmyO0a0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -759,22 +759,22 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
+          <t>muy lindos pero huelen horrible🥺</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45927.14011574074</v>
+        <v>45934.07570601852</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45927</v>
+        <v>45934</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>03:21:46</t>
+          <t>01:49:01</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496003126047851521', 'uniqueId': 'caroprietog', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2a832b79f12188da997912c7d49288a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=edae9338&amp;x-expires=1760360400&amp;x-signature=dgyo1Fu9RPxGP0BqJy75YkRnc30%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306290978125005830', 'uniqueId': 'tinta.prpura', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/325aa1206343248d1f45735372a84c0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=40ac8e20&amp;x-expires=1760446800&amp;x-signature=rEJ7McGRE5gwjVT2ogFlG0xsSpY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -815,22 +815,22 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tanta cosa para uno</t>
+          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45929.00190972222</v>
+        <v>45927.66452546296</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45929</v>
+        <v>45927</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>00:02:45</t>
+          <t>15:56:55</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cce44d5&amp;x-expires=1760360400&amp;x-signature=ZSGvyiyjLzWw6uvT2nTul%2FnIjHg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f10b8c32&amp;x-expires=1760446800&amp;x-signature=o53q7F%2BMqfP1q4oodqcc3DcCW9U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -871,25 +871,25 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
+          <t>Mas fácil conseguirlos en el yogo premio</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45928.69695601852</v>
+        <v>45927.99311342592</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16:43:37</t>
+          <t>23:50:05</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468722166260876295', 'uniqueId': 'honey.mimi7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b82704ac6df483016e5b03a909c6379e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ce3b848&amp;x-expires=1760360400&amp;x-signature=f1JzT%2BP0jPA%2BSXOzV%2F%2BS85J4MCA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 37, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=891eedbf&amp;x-expires=1760446800&amp;x-signature=WJXfI%2FPrktea8jfkzeD0s7wahYA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -927,22 +927,22 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+          <t>saquen mochis en forma de looney toons 😁</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45926.8086574074</v>
+        <v>45929.73829861111</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>19:24:28</t>
+          <t>17:43:09</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=369a3f0d&amp;x-expires=1760360400&amp;x-signature=6QGVStrT%2BmCOud3hDnvcDf8502A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b27ef69&amp;x-expires=1760446800&amp;x-signature=xna4tuAlpPoeKslFRx%2FB7M2YdDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -983,25 +983,25 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO</t>
+          <t>pero están en todos los países ?</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45928.81866898148</v>
+        <v>45926.73320601852</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>19:38:53</t>
+          <t>17:35:49</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75b9bbe1&amp;x-expires=1760360400&amp;x-signature=4s8KBXU%2BiLYxZ6zx5AEM%2FnUqiaw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0bd3d75&amp;x-expires=1760446800&amp;x-signature=QzeqwTBjvi9YADA8MtgwU2POyfE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1039,25 +1039,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>y si no hay en mi ciudad Oxxo?</t>
+          <t>Tanta cosa para uno</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45926.70601851852</v>
+        <v>45929.00190972222</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>16:56:40</t>
+          <t>00:02:45</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11f587b4&amp;x-expires=1760360400&amp;x-signature=P%2Bcij%2Ba996wQTPQkyZxI%2F4709jI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7e94d46&amp;x-expires=1760446800&amp;x-signature=bAKwDejPHvO2TRPRw5XXZ71y8Do%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1095,25 +1095,25 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>pero están en todos los países ?</t>
+          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45926.73320601852</v>
+        <v>45929.73436342592</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17:35:49</t>
+          <t>17:37:29</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b75d56ca&amp;x-expires=1760360400&amp;x-signature=cmvbCmPFyIZMo3BDIe0f5YzP6Qc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a6c428ba&amp;x-expires=1760446800&amp;x-signature=aDNE8cuPoP2zC%2BxWzG2Q%2BZYnpu4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1151,22 +1151,22 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
+          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45939.0350925926</v>
+        <v>45931.93680555555</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45939</v>
+        <v>45931</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>00:50:32</t>
+          <t>22:29:00</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547836898510832661', 'uniqueId': 'liss05695', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72682b59d508342205ec99b1085f60fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=abf104ae&amp;x-expires=1760360400&amp;x-signature=kBAP%2FQvM5AEZ2SQEinGEI6%2BE4J0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3920094&amp;x-expires=1760446800&amp;x-signature=IIkziHxoWD7H2XG66F0%2FGinAysI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1207,18 +1207,18 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ya we déjenlo pasar🥀</t>
+          <t>los originales plissss</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45928.95833333334</v>
+        <v>45929.86050925926</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>20:39:08</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c7e59ce&amp;x-expires=1760360400&amp;x-signature=eFHKZrp6d%2BI0IAiyeSNjZkpJoxA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=039a342c&amp;x-expires=1760446800&amp;x-signature=Mn8WRr3xDFOOyzMZUahxNt4KOMI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1263,18 +1263,18 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mucha vaina pa eso</t>
+          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45928.76012731482</v>
+        <v>45939.0350925926</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45928</v>
+        <v>45939</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18:14:35</t>
+          <t>00:50:32</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850630', 'uniqueId': 'drea._.00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf053ea8caaedad5bd9faac784342b9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0e7363c3&amp;x-expires=1760360400&amp;x-signature=0Li7BERoz3Y6XrQQF6KhM1aYUQk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547836898510832661', 'uniqueId': 'liss05695', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72682b59d508342205ec99b1085f60fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4619d407&amp;x-expires=1760446800&amp;x-signature=eunF8HRcy7JjPrEcg1MG8keh4vY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1319,25 +1319,25 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>es mejor la paleta Drácula</t>
+          <t>en Colombia no hay OXXO</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45929.09761574074</v>
+        <v>45928.81866898148</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45929</v>
+        <v>45928</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02:20:34</t>
+          <t>19:38:53</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e269e08e74ceb57e918a6313fc9bde4d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0b13a23d&amp;x-expires=1760360400&amp;x-signature=1gjdId7p9kEuvRRY9RIsUY21ltQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4c33689&amp;x-expires=1760446800&amp;x-signature=TZ6h2wLQvqzvV0C612fc4B911pQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1375,25 +1375,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
+          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45934.87288194444</v>
+        <v>45932.67648148148</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45934</v>
+        <v>45932</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20:56:57</t>
+          <t>16:14:08</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7216783190328181765', 'uniqueId': 'leocambell10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6010b651447b2c3934e2d7ede50948f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75276869&amp;x-expires=1760360400&amp;x-signature=EzNILEuYWTZSLU92d9PPLhF%2BFfE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1f82a52&amp;x-expires=1760446800&amp;x-signature=6X4mlpSE4GuuBUtHeuebzWnDW94%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1431,18 +1431,18 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>de cuánto se pueden reclamar</t>
+          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45927.0343287037</v>
+        <v>45930.3165625</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>00:49:26</t>
+          <t>07:35:51</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d5d6136c&amp;x-expires=1760360400&amp;x-signature=sAITjK0wOo5EM12CuWdx8lQHbGA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=773c3c7f&amp;x-expires=1760446800&amp;x-signature=ylmz6KhHuQuvibftB2DaNKbGt9M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1487,25 +1487,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
+          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45929.98554398148</v>
+        <v>45926.8086574074</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>23:39:11</t>
+          <t>19:24:28</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46c6afbb&amp;x-expires=1760360400&amp;x-signature=wW0q2YbeLTsI6LwGyIOZYE1cN7k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a854885&amp;x-expires=1760446800&amp;x-signature=Gym0xTLh1EYlziAb%2F9anwHOPR14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1543,26 +1543,26 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>saquen ya otra colección 😕</t>
+          <t>y si no hay en mi ciudad Oxxo?</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45926.96346064815</v>
+        <v>45926.70601851852</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>45926</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>23:07:23</t>
+          <t>16:56:40</t>
         </is>
       </c>
       <c r="J20" t="n">
+        <v>11</v>
+      </c>
+      <c r="K20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>6</v>
-      </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7e86cfe&amp;x-expires=1760360400&amp;x-signature=jF6xl6vp3xZxES4wqq%2FHGw2F7HU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b2143b4c&amp;x-expires=1760446800&amp;x-signature=4QVN2kMXIfcChfSwyvD64%2Bigjq8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1599,18 +1599,18 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>y si tengo repetidos no me los cambian 😂😂</t>
+          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45926.88744212963</v>
+        <v>45927.14011574074</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>21:17:55</t>
+          <t>03:21:46</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2aef2a6b&amp;x-expires=1760360400&amp;x-signature=l75tuZnW5mSYoQuSdQNYHSudReM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496003126047851521', 'uniqueId': 'caroprietog', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2a832b79f12188da997912c7d49288a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2d5037d9&amp;x-expires=1760446800&amp;x-signature=bfzEOjHW%2BTO7o7CWTiLPkTl%2FFVg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1655,18 +1655,18 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45926.67013888889</v>
+        <v>45928.69695601852</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16:05:00</t>
+          <t>16:43:37</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116292147141166086', 'uniqueId': 'just_fenix67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9270efdc513746d459737e05d9dccbee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee1c1e83&amp;x-expires=1760360400&amp;x-signature=I4W6wGujQ8FQKgbx108zHyTIhgc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468722166260876295', 'uniqueId': 'honey.mimi7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b82704ac6df483016e5b03a909c6379e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b661a8c0&amp;x-expires=1760446800&amp;x-signature=NqsS8q5a6vOC9CbtFDB3TkSx9Jc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1711,25 +1711,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>y si soy de Colombia acá no hay Oxxo😭</t>
+          <t>ya we déjenlo pasar🥀</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45927.01857638889</v>
+        <v>45928.95833333334</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>00:26:45</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 183, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 56, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f31028f1&amp;x-expires=1760360400&amp;x-signature=OUI5mFG66nlod8oGMdpT%2FnFb%2BEA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e726d71&amp;x-expires=1760446800&amp;x-signature=6TOiTE11GZKjJkhxIC8E6ZDQJsA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1767,25 +1767,25 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vuelvan los originales porfa😭</t>
+          <t>Mucha vaina pa eso</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45926.75414351852</v>
+        <v>45928.76012731482</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>18:05:58</t>
+          <t>18:14:35</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 250, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a220b25f&amp;x-expires=1760360400&amp;x-signature=v05jtZsTRpWK9VrcNxEzND%2F7IQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850630', 'uniqueId': 'drea._.00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf053ea8caaedad5bd9faac784342b9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6451b284&amp;x-expires=1760446800&amp;x-signature=XJCAwD0rLgL0B98ELfjCpJI9joo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1823,25 +1823,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>mucho trabajo para un muñeco</t>
+          <t>es mejor la paleta Drácula</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45928.12261574074</v>
+        <v>45929.09761574074</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>02:56:34</t>
+          <t>02:20:34</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 147, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f69afb9&amp;x-expires=1760360400&amp;x-signature=k5feAtz9ERW6WiSTOPBWanKMwJ8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e269e08e74ceb57e918a6313fc9bde4d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4a5d5a05&amp;x-expires=1760446800&amp;x-signature=R1nCnUoxFyPzLcL9xwz2B6%2Fg8OQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1879,22 +1879,22 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
+          <t>de cuánto se pueden reclamar</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45939.99555555556</v>
+        <v>45927.0343287037</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45939</v>
+        <v>45927</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>23:53:36</t>
+          <t>00:49:26</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6928984704718013445', 'uniqueId': 'dani_bm_ma', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7a5305689918e20a2b7134a67c9f2dcb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1efda16&amp;x-expires=1760360400&amp;x-signature=rDv0FD%2FCcK2UVXPvnnIV%2FIgHbAY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7eaae14&amp;x-expires=1760446800&amp;x-signature=lUdsMiYHzC2SNF8xm99lgVcwAFo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1935,25 +1935,25 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mas fácil conseguirlos en el yogo premio</t>
+          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45927.99311342592</v>
+        <v>45934.87288194444</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45927</v>
+        <v>45934</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>23:50:05</t>
+          <t>20:56:57</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 37, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=173b4938&amp;x-expires=1760360400&amp;x-signature=TXVol9Oxs6iiA4yl0tTD%2BNYoDT0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7216783190328181765', 'uniqueId': 'leocambell10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6010b651447b2c3934e2d7ede50948f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=875383f1&amp;x-expires=1760446800&amp;x-signature=IFAaA48uVfx9OMIP87WXaYJyrH8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1991,25 +1991,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ya no es lo mismo</t>
+          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45940.20726851852</v>
+        <v>45929.98554398148</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45940</v>
+        <v>45929</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>04:58:28</t>
+          <t>23:39:11</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7440309516846367800', 'uniqueId': 'user3866547831001', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c5d23423bddcf59c497bd0d1bdeea6ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=be8f6eb2&amp;x-expires=1760360400&amp;x-signature=MsBSEDiIX0YpzYLqgNvEbFQoqTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21b21e97&amp;x-expires=1760446800&amp;x-signature=xXpm%2BDaeO6ouRTPYk2US0aIII0c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2047,25 +2047,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>pensándolo bien se ven hermosos 😻💗</t>
+          <t>saquen ya otra colección 😕</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45940.70783564815</v>
+        <v>45926.96346064815</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45940</v>
+        <v>45926</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16:59:17</t>
+          <t>23:07:23</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6893194958128972801', 'uniqueId': 'nicollesofiaram98', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6b3ba0328e08df784e565d8bb91820e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc255631&amp;x-expires=1760360400&amp;x-signature=%2FcKOv6i4KYI57eQPb%2B2Rpt7h0WM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=97c75801&amp;x-expires=1760446800&amp;x-signature=8jBK4WfXmlS%2BaHcMrPtzHl9hC3U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2103,25 +2103,26 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>muy lindos pero huelen horrible🥺</t>
+          <t>me encantan estos mochis pero quisiera saber el nombre de 5
+los muñequitos 🥰</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45934.07570601852</v>
+        <v>45932.51024305556</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45934</v>
+        <v>45932</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>01:49:01</t>
+          <t>12:14:45</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2133,7 +2134,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306290978125005830', 'uniqueId': 'tinta.prpura', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/325aa1206343248d1f45735372a84c0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=13d2af89&amp;x-expires=1760360400&amp;x-signature=0N3pgvtCRlPz13njTyCU3hUvIpE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3afdd403&amp;x-expires=1760446800&amp;x-signature=IqExfTdheZJZ9VRIUcjPz%2Ftv1EI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2159,22 +2160,22 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
+          <t>y si tengo repetidos no me los cambian 😂😂</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45938.97278935185</v>
+        <v>45926.88744212963</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>45938</v>
+        <v>45926</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>23:20:49</t>
+          <t>21:17:55</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2189,7 +2190,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7399143388664431622', 'uniqueId': 'axo_luk', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3a18120&amp;x-expires=1760360400&amp;x-signature=qdstI6iUnqYNOTCmSilZOyZQ8As%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=355d4301&amp;x-expires=1760446800&amp;x-signature=gFJAFcBZSvpk6nltmU%2BBhNKyPP0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2215,25 +2216,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Estan mejor las paletas draculas y no se acaban</t>
+          <t>en todas las tiendas</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45941.0625462963</v>
+        <v>45929.71753472222</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45941</v>
+        <v>45929</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>01:30:04</t>
+          <t>17:13:15</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2245,7 +2246,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7505438611648922679', 'uniqueId': 'espresso.carpente', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7f98ea7f7ce1cd4ad91e8f3f4241e5dd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9dfb5f56&amp;x-expires=1760360400&amp;x-signature=eIzK6BP60UDwrxaVSqjDg5JOMLg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7285382001250141189', 'uniqueId': 'rosycastellanos86', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7321737955369582597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7c02da1&amp;x-expires=1760446800&amp;x-signature=eWmBEpfMYeQLV9RWSH6Vq4P%2FTtg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2271,25 +2272,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
+          <t>no hay en Neiva 😓</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45940.22284722222</v>
+        <v>45929.74864583334</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45940</v>
+        <v>45929</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>05:20:54</t>
+          <t>17:58:03</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2301,7 +2302,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7421675245097223174', 'uniqueId': 'howaminowbaddie', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2c9fa9a8c306b308bb8b205ad216db5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7fb32fd&amp;x-expires=1760360400&amp;x-signature=8QVWk0W3hTt1l5h%2Bm4uJszckq28%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6d4c9356&amp;x-expires=1760446800&amp;x-signature=zN7uaRuKLZ9HVIMqKW2DHk18q%2B8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2327,25 +2328,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>en colombia no ay oxxo</t>
+          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45941.11943287037</v>
+        <v>45927.68152777778</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45941</v>
+        <v>45927</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>02:51:59</t>
+          <t>16:21:24</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2357,7 +2358,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559791437481788178', 'createTime': 1760151119, 'createTimeISO': '2025-10-11T02:51:59.000Z', 'text': 'en colombia no ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7478455047338214418', 'uniqueId': 'xddelosxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c20bfec948f7f0b66cab624ba8ed05e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5c969736&amp;x-expires=1760360400&amp;x-signature=aU0PZzcCTccLbswtGp5uLBUVlW0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1e8a510b&amp;x-expires=1760446800&amp;x-signature=602r2jKpyzQdzvLBQjnCm8LEjw8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2383,25 +2384,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>saquen mochis en forma de looney toons 😁</t>
+          <t>pero en mi ciudad no hay oxxo</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45929.73829861111</v>
+        <v>45926.83740740741</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17:43:09</t>
+          <t>20:05:52</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2413,7 +2414,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=befe2b31&amp;x-expires=1760360400&amp;x-signature=eDwXKnPpfXv2zhbOgYBOoZduh14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=105538fe&amp;x-expires=1760446800&amp;x-signature=5E2%2FsOGFkOHkyWoElINIj3OiYmU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2439,25 +2440,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>mucha gestion para unos muñecos</t>
+          <t>Que yo sepa que en Colombia no ay oxoxo</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45941.74091435185</v>
+        <v>45935.77436342592</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45941</v>
+        <v>45935</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>17:46:55</t>
+          <t>18:35:05</t>
         </is>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2469,7 +2470,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560022082038956808', 'createTime': 1760204815, 'createTimeISO': '2025-10-11T17:46:55.000Z', 'text': 'mucha gestion para unos muñecos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6882817912156603397', 'uniqueId': 'davetheusual', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7354865790594023430~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de835514&amp;x-expires=1760360400&amp;x-signature=ez4cgKybdiGF0jFrbBcaBRQunIQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42a3a774&amp;x-expires=1760446800&amp;x-signature=6C6esarZPyRZBmDWV2wKhwlKKdY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2495,25 +2496,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
+          <t>Y si en Neiva no hay Oxxo 😐</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45936.85996527778</v>
+        <v>45927.88842592593</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45936</v>
+        <v>45927</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>20:38:21</t>
+          <t>21:19:20</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2525,7 +2526,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c941ab5053b233d885d80f3df053778~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3afb044c&amp;x-expires=1760360400&amp;x-signature=2WOfRpfYqNWymkzKqi9hYQUHz5Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546550606758919', 'uniqueId': 'julianavanegas312', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7bbf565d8eb052ba174287777f6a6684~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=13047659&amp;x-expires=1760446800&amp;x-signature=EfRGCD8PHht51Qvuc%2F2zVacC03A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2551,25 +2552,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45936.66792824074</v>
+        <v>45929.11127314815</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>45936</v>
+        <v>45929</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>16:01:49</t>
+          <t>02:40:14</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2581,7 +2582,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId': 'daniel.medina9402', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d827ef96dbb9538e76ca4c0a1031de75~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=835ad7a3&amp;x-expires=1760360400&amp;x-signature=0gijHMnJU1zr8a5SiXJtchn45VU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb2fac25&amp;x-expires=1760446800&amp;x-signature=wSPu5p54R4DToQOnJGkMlDSlbz0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2607,25 +2608,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45927.66452546296</v>
+        <v>45941.73184027777</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>45927</v>
+        <v>45941</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>15:56:55</t>
+          <t>17:33:51</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2637,7 +2638,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c2e26f3&amp;x-expires=1760360400&amp;x-signature=LdqNZQmKNkXnxQXZ1uhxqNMFybo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7517389511912424455', 'uniqueId': 'tokito_team_black', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/afa29d1e92a17252e840cfdca3edbe82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b4468bb&amp;x-expires=1760446800&amp;x-signature=2V0ZgJAJHM5k1NM6spQKOeiFRTM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2663,25 +2664,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>brooo</t>
+          <t>Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45937.10362268519</v>
+        <v>45926.90269675926</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45937</v>
+        <v>45926</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>21:39:53</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2693,7 +2694,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'uniqueId': 'rip_juan776eeo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c4a58c9f1add3d3de9c9cec5a55fd642~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6d8f240b&amp;x-expires=1760360400&amp;x-signature=XneoMSvfw%2BcSvc1ez9%2FHJTYBIPM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554515810249687815', 'createTime': 1758922793, 'createTimeISO': '2025-09-26T21:39:53.000Z', 'text': 'Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6866215954763121669', 'uniqueId': 'oliviarodrigo_234567890', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5ced625e99d03ba451cd2f78db412b20~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0d1a5dc&amp;x-expires=1760446800&amp;x-signature=uWkrlL52nXs8Pmn2QWNAi6o8uDY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2719,25 +2720,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>don hermosos</t>
+          <t>a poco hay OXXO en colombia</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45940.69850694444</v>
+        <v>45937.70814814815</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>45940</v>
+        <v>45937</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>16:45:51</t>
+          <t>16:59:44</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2749,7 +2750,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', 'uniqueId': 'yura2495', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/745aa78c04c60c9088a11c6f996f3307~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9927871e&amp;x-expires=1760360400&amp;x-signature=MVbcz2tJZSHtYGa7KiBptXw2rDs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666454697362438', 'uniqueId': 'cristiancardona16', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/1169cb00c9709b98aa7a2c6299d6372c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=15f55c87&amp;x-expires=1760446800&amp;x-signature=8AGARzXzUlUe21ZlbOCP%2FV1gpIc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2775,25 +2776,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
+          <t>Yo tengo el Oxxo a la esquina</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45937.1734375</v>
+        <v>45929.82648148148</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45937</v>
+        <v>45929</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>04:09:45</t>
+          <t>19:50:08</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2805,7 +2806,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270238153704342533', 'uniqueId': 'paola.rodriguez228', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/17617c83aeaf41558f9b9b48472d32af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51b03a1d&amp;x-expires=1760360400&amp;x-signature=wvyYF9l8llAaKxzS0QHMRGcVjko%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6998604116167656453', 'uniqueId': 'estrellita_7291', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1f013694362e5b7acf25ef66d2a1224c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=074ba02c&amp;x-expires=1760446800&amp;x-signature=E%2FwzTe00Zv7wVkEWTv8jkaL0E6Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2831,25 +2832,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
+          <t>brooo</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45941.73184027777</v>
+        <v>45937.10362268519</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45941</v>
+        <v>45937</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>17:33:51</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2861,7 +2862,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7517389511912424455', 'uniqueId': 'tokito_team_black', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/afa29d1e92a17252e840cfdca3edbe82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5728985&amp;x-expires=1760360400&amp;x-signature=A8nCNrMdKtMX73vnHZxkqmem27U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'uniqueId': 'rip_juan776eeo', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c4a58c9f1add3d3de9c9cec5a55fd642~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=e34b3c30&amp;x-expires=1760446800&amp;x-signature=eEs5b%2FDh9ZQDFY5wCTEHSPkArgU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2887,18 +2888,18 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>tengo 14 en total ajaja</t>
+          <t>tiktok jura que en mi cerro ay oxxo</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45938.74841435185</v>
+        <v>45934.01046296296</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45938</v>
+        <v>45934</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>17:57:43</t>
+          <t>00:15:04</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2917,7 +2918,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7290284449584514053', 'uniqueId': 'not.dnaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/500b956ee03fba4ff7fe7ca7d2dec1d3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=79fc8633&amp;x-expires=1760360400&amp;x-signature=RVg0BfR6%2BSSnWQZSAck6Dvahn2Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557153363886392071', 'createTime': 1759536904, 'createTimeISO': '2025-10-04T00:15:04.000Z', 'text': 'tiktok jura que en mi cerro ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7135581960647672837', 'uniqueId': 'dazzhps', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/890fab42500dc44e881ba08dec0fa0d6~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=37b87fc9&amp;x-expires=1760446800&amp;x-signature=Y%2F%2BAI1bvAi5hf%2BfamlRiaRtvV3k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2943,18 +2944,18 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
+          <t>Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45940.24515046296</v>
+        <v>45932.80388888889</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45940</v>
+        <v>45932</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>05:53:01</t>
+          <t>19:17:36</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2973,7 +2974,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7546710335559959559', 'uniqueId': 'alexandrapardocaj', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cec9d771e97df3f8fa5b79f45eb0965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47c874d2&amp;x-expires=1760360400&amp;x-signature=K0Rn%2B9kC%2FdXFkf5gba%2FFtFPUOSQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556705655765648146', 'createTime': 1759432656, 'createTimeISO': '2025-10-02T19:17:36.000Z', 'text': 'Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7510321373261202450', 'uniqueId': 'bri_p2014', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/30cff12a9f2ea1569709e9b8c34e7971~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=01b1e83a&amp;x-expires=1760446800&amp;x-signature=pUsy20Q80oUD0ujF%2BvV4aKRiqJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2999,18 +3000,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
+          <t>menos mal, porque esos mini Mochis nada que ver</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45937.11123842592</v>
+        <v>45927.03719907408</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45937</v>
+        <v>45927</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>02:40:11</t>
+          <t>00:53:34</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -3029,7 +3030,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7506216683972609042', 'uniqueId': '_elliot572', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ac59e6a973525e7c86440aced839ab14~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5eeb6c41&amp;x-expires=1760360400&amp;x-signature=rbeYA%2BxawKC1nypn9lW%2FApJLoLM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554565731141354248', 'createTime': 1758934414, 'createTimeISO': '2025-09-27T00:53:34.000Z', 'text': 'menos mal, porque esos mini Mochis nada que ver', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '306200608217440256', 'uniqueId': 'adrianacontajaram', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/3ca1721c854ebb7d5a1c458fad6e8110~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=7c8b056f&amp;x-expires=1760446800&amp;x-signature=w1z8%2FxUQAGB%2BOIzwMRj6YM6%2FTnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3055,26 +3056,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>me encantan estos mochis pero quisiera saber el nombre de 5
-los muñequitos 🥰</t>
+          <t>tengo 14 en total ajaja</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45932.51024305556</v>
+        <v>45938.74841435185</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45932</v>
+        <v>45938</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12:14:45</t>
+          <t>17:57:43</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e0d6a86d&amp;x-expires=1760360400&amp;x-signature=oSJxi2QPVvC4smIeSUASROxSBJc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7290284449584514053', 'uniqueId': 'not.dnaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/500b956ee03fba4ff7fe7ca7d2dec1d3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=6aec355b&amp;x-expires=1760446800&amp;x-signature=6e9UnGKo49jhzCs%2FvcZajBk0LM0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3112,18 +3112,18 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>alpinaa eres el mejor me gustan tus productos❤</t>
+          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45939.82650462963</v>
+        <v>45939.99555555556</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>45939</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>19:50:10</t>
+          <t>23:53:36</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7066510018199585798', 'uniqueId': 'dianalozanomorera', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/95486b2edc8f09f2d015ae33f705fe3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c759aa0d&amp;x-expires=1760360400&amp;x-signature=m4AAyemW50Ecbk24PrsgSuPvDHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6928984704718013445', 'uniqueId': 'dani_bm_ma', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7a5305689918e20a2b7134a67c9f2dcb~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=33f7d305&amp;x-expires=1760446800&amp;x-signature=y6lRiPS3fYQaPV28uZod%2BXLezPQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3168,18 +3168,18 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
+          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45939.57203703704</v>
+        <v>45933.06369212963</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>13:43:44</t>
+          <t>01:31:43</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790690337766556677', 'uniqueId': 'natyzhurra8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2ec67cba7b200e2c6b2709b67daa84b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e205cc7&amp;x-expires=1760360400&amp;x-signature=nADVGk1MTO1CU3UVJ8TMc5Xnczs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871021709530334214', 'uniqueId': 'dianajs20', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d1b80594f31b301f5b7d2a17f8ebf07a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=9ae714c7&amp;x-expires=1760446800&amp;x-signature=5WNI%2FmUW0w7GeuzrjKJptwNqffQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3224,18 +3224,18 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
+          <t>ya no es lo mismo</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45935.67759259259</v>
+        <v>45940.20726851852</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45935</v>
+        <v>45940</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>16:15:44</t>
+          <t>04:58:28</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7538082276980737029', 'uniqueId': 'mariiladiva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8ede218c4c09353a38122ea601611b79~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=23f6ca90&amp;x-expires=1760360400&amp;x-signature=dlIpytIIVG6mJaqM4G10iCAUH%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7440309516846367800', 'uniqueId': 'user3866547831001', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c5d23423bddcf59c497bd0d1bdeea6ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=d5d2eaf7&amp;x-expires=1760446800&amp;x-signature=Y4%2FkrmLj39HInvKYqG7YsxD6C2o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3280,22 +3280,22 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>los originales plissss</t>
+          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45929.86050925926</v>
+        <v>45938.97278935185</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45929</v>
+        <v>45938</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20:39:08</t>
+          <t>23:20:49</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=64d176dd&amp;x-expires=1760360400&amp;x-signature=bPteZMQFRgMzSOe0GwymbSNGmnA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7399143388664431622', 'uniqueId': 'axo_luk', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=11b37f21&amp;x-expires=1760446800&amp;x-signature=AMfDZKyJd01quehPv%2BXn%2Fi00Y3s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3336,25 +3336,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>a poco hay OXXO en colombia</t>
+          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45937.70814814815</v>
+        <v>45936.15306712963</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45937</v>
+        <v>45936</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>16:59:44</t>
+          <t>03:40:25</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666454697362438', 'uniqueId': 'cristiancardona16', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1169cb00c9709b98aa7a2c6299d6372c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ac9f2e1a&amp;x-expires=1760360400&amp;x-signature=2i%2F4Q2S2rZpKEV%2BmjBet%2Fk1Cee4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338634474744153093', 'uniqueId': 'mar1_tv', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/69cc4d25f3aa341a22dae7b8e86a4a61~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=b3a72da2&amp;x-expires=1760446800&amp;x-signature=Etd910aHv%2B6k21H3NshZmWTOJRE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3392,25 +3392,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Que yo sepa que en Colombia no ay oxoxo</t>
+          <t>y para que sirve eso, que beneficios tiene 😳</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45935.77436342592</v>
+        <v>45933.05707175926</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>18:35:05</t>
+          <t>01:22:11</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=81ecae69&amp;x-expires=1760360400&amp;x-signature=sGC2IjxNA%2FwgADiZj8Gx4dHJaUA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6935601595720860678', 'uniqueId': 'monica_lenis1980', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/fce7942c402b7371d210f51cf61e58d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=ec6d902d&amp;x-expires=1760446800&amp;x-signature=%2BDyWH1QUvz3pX45PRbGSXUSgQio%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3448,25 +3448,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Yo tengo el Oxxo a la esquina</t>
+          <t>por favor vuelve a los muñequitos de antes ya no quiero más mochis</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45929.82648148148</v>
+        <v>45929.88721064815</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>19:50:08</t>
+          <t>21:17:35</t>
         </is>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6998604116167656453', 'uniqueId': 'estrellita_7291', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f013694362e5b7acf25ef66d2a1224c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d14b2768&amp;x-expires=1760360400&amp;x-signature=hstcYbydHtF3aogluqNDAOT6WKo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555623204544824080', 'createTime': 1759180655, 'createTimeISO': '2025-09-29T21:17:35.000Z', 'text': 'por favor vuelve a los muñequitos de antes ya no quiero más mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181553216034079750', 'uniqueId': 'emanuelmeza1976', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c6ce45f84f08573022367e687a3e5e79~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=82577a42&amp;x-expires=1760446800&amp;x-signature=EhuhRW40HNxyeR%2B9whqi61UKs0Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3504,25 +3504,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>pero en mi ciudad no hay oxxo</t>
+          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45926.83740740741</v>
+        <v>45932.87021990741</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45926</v>
+        <v>45932</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>20:05:52</t>
+          <t>20:53:07</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c477df0c&amp;x-expires=1760360400&amp;x-signature=Mth%2FplgUMj4ynBfdYEzXrgQIhAU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7396657590753100805', 'uniqueId': 'ariadnna.muoz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9279bed9092f96fb07b2504a5c7ed70d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a60ac9f1&amp;x-expires=1760446800&amp;x-signature=e3B1zjtic37FfIWDGyR%2F%2BtK91GY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3560,25 +3560,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>en todas las tiendas</t>
+          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45929.71753472222</v>
+        <v>45932.81353009259</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45929</v>
+        <v>45932</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>17:13:15</t>
+          <t>19:31:29</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7285382001250141189', 'uniqueId': 'rosycastellanos86', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7321737955369582597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9689ce81&amp;x-expires=1760360400&amp;x-signature=sw%2FFcWSWfoTfx45PyBt3ju%2FDlNg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7121425545787868165', 'uniqueId': 'filosofia.gatuna', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/611472f8abb9c3c4e66c407a80c4ee1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=ccd4e2d7&amp;x-expires=1760446800&amp;x-signature=X7oiLgBd4tRJWdoUZ0d1AomVKqw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3616,25 +3616,25 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Y si en Neiva no hay Oxxo 😐</t>
+          <t>mano me compré uno y me salió un unicornio</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45927.88842592593</v>
+        <v>45933.02133101852</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45927</v>
+        <v>45933</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>21:19:20</t>
+          <t>00:30:43</t>
         </is>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546550606758919', 'uniqueId': 'julianavanegas312', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7bbf565d8eb052ba174287777f6a6684~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0fa09047&amp;x-expires=1760360400&amp;x-signature=j%2FVkqnBk69MtuTxkIkuaZG5SZe8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556786291250725633', 'createTime': 1759451443, 'createTimeISO': '2025-10-03T00:30:43.000Z', 'text': 'mano me compré uno y me salió un unicornio', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7076201709093749765', 'uniqueId': 'bloom_xs01', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2b93ace8061ebb2e4dcd07f14916b9ce~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=424d93f3&amp;x-expires=1760446800&amp;x-signature=VZXcvG7mZaydiGX4jpw%2F4dbkIkQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3672,25 +3672,25 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
+          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45930.30774305556</v>
+        <v>45940.22284722222</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>07:23:09</t>
+          <t>05:20:54</t>
         </is>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7112525176407737350', 'uniqueId': 'esteban_castillo.220', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8331a286f4c2f1e0d41f74df6a541951~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8432f838&amp;x-expires=1760360400&amp;x-signature=hdMZEiqgLJWkusBTRC5ONsx97eM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7421675245097223174', 'uniqueId': 'howaminowbaddie', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2c9fa9a8c306b308bb8b205ad216db5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1097da68&amp;x-expires=1760446800&amp;x-signature=%2Bgjnwh6agMhNYHKXALBEetvfBcc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3728,25 +3728,26 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+          <t>el otro año mochisauros q iluminan
+te dio hambre yogo yogo [sticker]</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45927.68152777778</v>
+        <v>45929.99068287037</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>16:21:24</t>
+          <t>23:46:35</t>
         </is>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -3758,7 +3759,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=21896687&amp;x-expires=1760360400&amp;x-signature=7870ubmOFu0hRE9pjY9YtE18xnU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7229492920381899781', 'uniqueId': 'ortiz.1400', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/de36f59531a8946d7c3c30cab3c29c87~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=248b0258&amp;x-expires=1760446800&amp;x-signature=I7uUND8cq8J4gguQmIS%2FFtFFU1o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3784,25 +3785,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>no hay en Neiva 😓</t>
+          <t>si algo eso cuántos Mochis me dan</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45929.74864583334</v>
+        <v>45942.7344212963</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45929</v>
+        <v>45942</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>17:58:03</t>
+          <t>17:37:34</t>
         </is>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3814,7 +3815,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=346de1ad&amp;x-expires=1760360400&amp;x-signature=Z9IGYckWOfWQCVYjAAmhD4tkYc8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560390745014960912', 'createTime': 1760290654, 'createTimeISO': '2025-10-12T17:37:34.000Z', 'text': 'si algo eso cuántos Mochis me dan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7454562571774018566', 'uniqueId': 'mariposas6818', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e9a766a7989642f5f3b2b8341519efa8~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=4d4ab3b9&amp;x-expires=1760446800&amp;x-signature=b3zPh33YULbVarA89xtXy0QpfOk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3840,18 +3841,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)</t>
+          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45935.07732638889</v>
+        <v>45929.99023148148</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>45935</v>
+        <v>45929</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>01:51:21</t>
+          <t>23:45:56</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3870,7 +3871,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557549302736208647', 'createTime': 1759629081, 'createTimeISO': '2025-10-05T01:51:21.000Z', 'text': 'Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844340518231802886', 'uniqueId': 'bingobaby89newaccount', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b4dc6378d4631b5ae505615daf331934~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6a1599a1&amp;x-expires=1760360400&amp;x-signature=atmy5XU%2Bq9sUDuHRfvXM%2F%2FnG%2Fss%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/50fc02d856bc86dadfa85351b5eebcde~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=698b12bc&amp;x-expires=1760446800&amp;x-signature=BdC5thaeUcKO0iZrZKs%2FaV%2FF5Gc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3896,18 +3897,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
+          <t>en San Andrés no hay oxxo</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45936.15306712963</v>
+        <v>45933.62440972222</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45936</v>
+        <v>45933</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>03:40:25</t>
+          <t>14:59:09</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3926,7 +3927,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338634474744153093', 'uniqueId': 'mar1_tv', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/69cc4d25f3aa341a22dae7b8e86a4a61~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a7f68863&amp;x-expires=1760360400&amp;x-signature=cuOk1cT0hTaLNTwMPOGsekDJWtc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7521449685388248071', 'uniqueId': 'lililicona72', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/13399be45b39c36ff0f73e89016dcf71~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=318f0c99&amp;x-expires=1760446800&amp;x-signature=GPlYRF286q2FcXzNg5MuHzHo%2B3M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3952,18 +3953,18 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>yo ya tengo dos</t>
+          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45935.89403935185</v>
+        <v>45935.67759259259</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>45935</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>21:27:25</t>
+          <t>16:15:44</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3982,7 +3983,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557852299043078928', 'createTime': 1759699645, 'createTimeISO': '2025-10-05T21:27:25.000Z', 'text': 'yo ya tengo dos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537517920412599352', 'uniqueId': 'brii4091', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/426890353ae6e3edcb54336e9fc0740b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=01ce7742&amp;x-expires=1760360400&amp;x-signature=eDLMLXkQvzpdkpgG3pUet1h3AAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7538082276980737029', 'uniqueId': 'mariiladiva0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8ede218c4c09353a38122ea601611b79~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f4c4c4bc&amp;x-expires=1760446800&amp;x-signature=0ib2kQJ4QDf5xa3%2BmlznrU889ig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4008,18 +4009,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>y en envia😭</t>
+          <t>pensándolo bien se ven hermosos 😻💗</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45932.02175925926</v>
+        <v>45940.70783564815</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>00:31:20</t>
+          <t>16:59:17</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4038,7 +4039,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556415402680075015', 'createTime': 1759365080, 'createTimeISO': '2025-10-02T00:31:20.000Z', 'text': 'y en envia😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357719630507983878', 'uniqueId': 'julie_cristina2', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d5a23709eee561246683be323bddf913~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bd940477&amp;x-expires=1760360400&amp;x-signature=eq5gQkhleoc3UAUwqB8gFzObsmA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6893194958128972801', 'uniqueId': 'nicollesofiaram98', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e2ef87e08c2ca18907a87d65f0fa58eb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=146fe0bd&amp;x-expires=1760446800&amp;x-signature=eHNuN5s52R%2FExMUcRUZ8HnRQVwg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4064,18 +4065,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
+          <t>no hay plata 💔</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45939.96612268518</v>
+        <v>45943.12447916667</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>45939</v>
+        <v>45943</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>23:11:13</t>
+          <t>02:59:15</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4094,7 +4095,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381557792702153734', 'uniqueId': 'luchiii4155', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/25933fce4e672e9823eb77161e1bdb88~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ba67c8bc&amp;x-expires=1760360400&amp;x-signature=tRN9KkZSIdXqeZiW3TVsg4Phl4U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560535489130300168', 'createTime': 1760324355, 'createTimeISO': '2025-10-13T02:59:15.000Z', 'text': 'no hay plata 💔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7455861170257249300', 'uniqueId': 'eminemxd19', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba969fdf6eda9aed3d86cc831d82eea4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e21e5dc&amp;x-expires=1760446800&amp;x-signature=DKVWwQd526QPY%2FqAui3dcuzxdAs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4120,18 +4121,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
+          <t>Estan mejor las paletas draculas y no se acaban</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45934.12070601852</v>
+        <v>45941.0625462963</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45934</v>
+        <v>45941</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>02:53:49</t>
+          <t>01:30:04</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4150,7 +4151,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7428462608468853765', 'uniqueId': 'freestyle11.4', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d77e4d9d34078046d77184cafe9499c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6eda2a8d&amp;x-expires=1760360400&amp;x-signature=cOcPXMaBcOLSPZaoDbhPRz97l1o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7505438611648922679', 'uniqueId': 'espresso.carpente', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/79fe67d197e06fb884b8d3af50c5ed07~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c8642da&amp;x-expires=1760446800&amp;x-signature=MYuzuSwb13k1xZGgZ22beik3gis%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4176,18 +4177,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Y para cuándo los YoYos de YogoYogo !!</t>
+          <t>en colombia no ay oxxo</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45937.61719907408</v>
+        <v>45941.11943287037</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>45937</v>
+        <v>45941</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>14:48:46</t>
+          <t>02:51:59</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4206,7 +4207,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558491815541441281', 'createTime': 1759848526, 'createTimeISO': '2025-10-07T14:48:46.000Z', 'text': 'Y para cuándo los YoYos de YogoYogo !!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464018882559804434', 'uniqueId': 'mastervelas10', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=19c087fa&amp;x-expires=1760360400&amp;x-signature=tGBWOAwLoP5r6IWzrioAMDBbRmw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559791437481788178', 'createTime': 1760151119, 'createTimeISO': '2025-10-11T02:51:59.000Z', 'text': 'en colombia no ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7478455047338214418', 'uniqueId': 'xddelosxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c20bfec948f7f0b66cab624ba8ed05e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ea500942&amp;x-expires=1760446800&amp;x-signature=A26my0E0Mrp6j95iqjMAT%2BrKXug%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4232,18 +4233,18 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
+          <t>18,4</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45935.94721064815</v>
+        <v>45942.79722222222</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>45935</v>
+        <v>45942</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>22:43:59</t>
+          <t>19:08:00</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4262,7 +4263,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7398980026529760262', 'uniqueId': 'salome.murcia.lop', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8fd1cdbaea6a6cd58618a01b10334732~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6c8d3d69&amp;x-expires=1760360400&amp;x-signature=HDPcV%2Ft0GdOpDuuNN41nQfeg%2BXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560414054448366354', 'createTime': 1760296080, 'createTimeISO': '2025-10-12T19:08:00.000Z', 'text': '18,4', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381118081303659525', 'uniqueId': 'jose.augusto.palo3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/69ab084a6c804d04957ca1b46da752e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bd9b119&amp;x-expires=1760446800&amp;x-signature=GyTMOTZVep0PKXkUMRgFWkydIX8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4288,18 +4289,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
+          <t>4!? me e comprado 3 y no me sabía está :(</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45930.20326388889</v>
+        <v>45941.94193287037</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>45930</v>
+        <v>45941</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>04:52:42</t>
+          <t>22:36:23</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4318,7 +4319,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414501088697861126', 'uniqueId': 'samu__777a_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f46d65a3248b377d79a6b8c328971e37~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e0f3a0da&amp;x-expires=1760360400&amp;x-signature=naHAipdYkdngzlOW7JCKO46B7ys%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7406050480903095302', 'uniqueId': 'baraka8861', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3578f8d9ee7e8e3faedd8e33c2df1a1d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ff28bccf&amp;x-expires=1760446800&amp;x-signature=rBhIX0rf0DoG2liJ%2BO5mUB%2BzhKk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4344,18 +4345,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Por qué Oxxo :c, no hay otro lado?</t>
+          <t>Ya tengo 8</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45936.6853587963</v>
+        <v>45942.84155092593</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>45936</v>
+        <v>45942</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>16:26:55</t>
+          <t>20:11:50</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4374,7 +4375,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558146025103590164', 'createTime': 1759768015, 'createTimeISO': '2025-10-06T16:26:55.000Z', 'text': 'Por qué Oxxo :c, no hay otro lado?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6967815924347749382', 'uniqueId': 'fnfals', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/413e46c5c74c9db224b04e41a0b0611b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c72779c6&amp;x-expires=1760360400&amp;x-signature=prydn3tiBIX%2BdF22Vj27Lntwln8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMe